--- a/data/out/kaggle/fifa/standings_wc_fifa_men.xlsx
+++ b/data/out/kaggle/fifa/standings_wc_fifa_men.xlsx
@@ -466,7 +466,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>scorer_team</t>
+          <t>scorer_nationality</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -522,7 +522,7 @@
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['Argentina', 'Bulgaria', 'Italy']</t>
+          <t>['Bulgaria', 'Argentina', 'Italy']</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -571,7 +571,7 @@
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['Mexico', 'Belgium', 'Paraguay']</t>
+          <t>['Paraguay', 'Belgium', 'Mexico']</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -620,7 +620,7 @@
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['Hungary', 'France', 'Soviet Union']</t>
+          <t>['France', 'Hungary', 'Soviet Union']</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -836,7 +836,7 @@
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['Denmark', 'Uruguay', 'West Germany']</t>
+          <t>['Uruguay', 'West Germany', 'Denmark']</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -885,7 +885,7 @@
       <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['England', 'Poland', 'Portugal']</t>
+          <t>['England', 'Portugal', 'Poland']</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -934,7 +934,7 @@
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['Czechoslovakia', 'Austria', 'Italy']</t>
+          <t>['Austria', 'Czechoslovakia', 'Italy']</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -983,7 +983,7 @@
       <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['Argentina', 'Romania', 'Cameroon']</t>
+          <t>['Romania', 'Cameroon', 'Argentina']</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -1042,7 +1042,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['Argentina', 'Soviet Union', 'Cameroon']</t>
+          <t>['Cameroon', 'Argentina', 'Soviet Union']</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -1101,7 +1101,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['Argentina', 'Romania', 'Cameroon']</t>
+          <t>['Romania', 'Cameroon', 'Argentina']</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -1150,7 +1150,7 @@
       <c r="G14" t="inlineStr"/>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['Costa Rica', 'Scotland', 'Brazil']</t>
+          <t>['Scotland', 'Costa Rica', 'Brazil']</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -1209,7 +1209,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['Scotland', 'Brazil', 'Sweden']</t>
+          <t>['Scotland', 'Sweden', 'Brazil']</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -1268,7 +1268,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['Costa Rica', 'Scotland', 'Brazil']</t>
+          <t>['Scotland', 'Costa Rica', 'Brazil']</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -1317,7 +1317,7 @@
       <c r="G17" t="inlineStr"/>
       <c r="H17" t="inlineStr">
         <is>
-          <t>['Yugoslavia', 'Colombia', 'West Germany']</t>
+          <t>['Colombia', 'Yugoslavia', 'West Germany']</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -1366,7 +1366,7 @@
       <c r="G18" t="inlineStr"/>
       <c r="H18" t="inlineStr">
         <is>
-          <t>['Belgium', 'Uruguay', 'Spain']</t>
+          <t>['Uruguay', 'Spain', 'Belgium']</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -1415,12 +1415,12 @@
       <c r="G19" t="inlineStr"/>
       <c r="H19" t="inlineStr">
         <is>
-          <t>['Netherlands', 'England', 'Egypt']</t>
+          <t>['Egypt', 'England', 'Netherlands']</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>['Netherlands']</t>
+          <t>['Egypt']</t>
         </is>
       </c>
       <c r="J19" t="n">
@@ -1428,17 +1428,17 @@
       </c>
       <c r="K19" t="inlineStr">
         <is>
+          <t>England</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>Netherlands</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
           <t>Egypt</t>
-        </is>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>England</t>
-        </is>
-      </c>
-      <c r="M19" t="inlineStr">
-        <is>
-          <t>Netherlands</t>
         </is>
       </c>
     </row>
@@ -1474,7 +1474,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>['Netherlands', 'England', 'Republic of Ireland']</t>
+          <t>['Republic of Ireland', 'England', 'Netherlands']</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -1523,7 +1523,7 @@
       <c r="G21" t="inlineStr"/>
       <c r="H21" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Romania', 'United States']</t>
+          <t>['Romania', 'Switzerland', 'United States']</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -1582,7 +1582,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Romania', 'Colombia']</t>
+          <t>['Romania', 'Switzerland', 'Colombia']</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -1631,7 +1631,7 @@
       <c r="G23" t="inlineStr"/>
       <c r="H23" t="inlineStr">
         <is>
-          <t>['Cameroon', 'Brazil', 'Sweden']</t>
+          <t>['Cameroon', 'Sweden', 'Brazil']</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -1690,7 +1690,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>['Russia', 'Brazil', 'Sweden']</t>
+          <t>['Russia', 'Sweden', 'Brazil']</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -1739,7 +1739,7 @@
       <c r="G25" t="inlineStr"/>
       <c r="H25" t="inlineStr">
         <is>
-          <t>['Germany', 'South Korea', 'Spain']</t>
+          <t>['Germany', 'Spain', 'South Korea']</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
@@ -1788,7 +1788,7 @@
       <c r="G26" t="inlineStr"/>
       <c r="H26" t="inlineStr">
         <is>
-          <t>['Argentina', 'Nigeria', 'Bulgaria']</t>
+          <t>['Bulgaria', 'Argentina', 'Nigeria']</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
@@ -1837,7 +1837,7 @@
       <c r="G27" t="inlineStr"/>
       <c r="H27" t="inlineStr">
         <is>
-          <t>['Italy', 'Mexico', 'Republic of Ireland']</t>
+          <t>['Republic of Ireland', 'Mexico', 'Italy']</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
@@ -1896,7 +1896,7 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>['Italy', 'Norway', 'Republic of Ireland']</t>
+          <t>['Norway', 'Republic of Ireland', 'Italy']</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
@@ -1955,7 +1955,7 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>['Italy', 'Mexico', 'Republic of Ireland']</t>
+          <t>['Republic of Ireland', 'Mexico', 'Italy']</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
@@ -2004,7 +2004,7 @@
       <c r="G30" t="inlineStr"/>
       <c r="H30" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Belgium', 'Saudi Arabia']</t>
+          <t>['Saudi Arabia', 'Belgium', 'Netherlands']</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
@@ -2053,7 +2053,7 @@
       <c r="G31" t="inlineStr"/>
       <c r="H31" t="inlineStr">
         <is>
-          <t>['Brazil', 'Morocco']</t>
+          <t>['Morocco', 'Brazil']</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
@@ -2102,7 +2102,7 @@
       <c r="G32" t="inlineStr"/>
       <c r="H32" t="inlineStr">
         <is>
-          <t>['Italy', 'Chile']</t>
+          <t>['Chile', 'Italy']</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
@@ -2151,7 +2151,7 @@
       <c r="G33" t="inlineStr"/>
       <c r="H33" t="inlineStr">
         <is>
-          <t>['Denmark', 'France']</t>
+          <t>['France', 'Denmark']</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
@@ -2200,7 +2200,7 @@
       <c r="G34" t="inlineStr"/>
       <c r="H34" t="inlineStr">
         <is>
-          <t>['Nigeria', 'Spain']</t>
+          <t>['Spain', 'Nigeria']</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
@@ -2249,7 +2249,7 @@
       <c r="G35" t="inlineStr"/>
       <c r="H35" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Mexico']</t>
+          <t>['Mexico', 'Netherlands']</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
@@ -2308,7 +2308,7 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Belgium']</t>
+          <t>['Belgium', 'Netherlands']</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
@@ -2367,7 +2367,7 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Mexico']</t>
+          <t>['Mexico', 'Netherlands']</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
@@ -2416,7 +2416,7 @@
       <c r="G38" t="inlineStr"/>
       <c r="H38" t="inlineStr">
         <is>
-          <t>['Yugoslavia', 'Germany']</t>
+          <t>['Germany', 'Yugoslavia']</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
@@ -2465,7 +2465,7 @@
       <c r="G39" t="inlineStr"/>
       <c r="H39" t="inlineStr">
         <is>
-          <t>['England', 'Romania']</t>
+          <t>['Romania', 'England']</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
@@ -2514,7 +2514,7 @@
       <c r="G40" t="inlineStr"/>
       <c r="H40" t="inlineStr">
         <is>
-          <t>['Argentina', 'Croatia']</t>
+          <t>['Croatia', 'Argentina']</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
@@ -2612,7 +2612,7 @@
       <c r="G42" t="inlineStr"/>
       <c r="H42" t="inlineStr">
         <is>
-          <t>['South Africa', 'Spain']</t>
+          <t>['Spain', 'South Africa']</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
@@ -2887,7 +2887,7 @@
       <c r="G47" t="inlineStr"/>
       <c r="H47" t="inlineStr">
         <is>
-          <t>['South Korea', 'United States']</t>
+          <t>['United States', 'South Korea']</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
@@ -2946,7 +2946,7 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>['South Korea', 'Portugal']</t>
+          <t>['Portugal', 'South Korea']</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
@@ -3005,7 +3005,7 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>['South Korea', 'United States']</t>
+          <t>['United States', 'South Korea']</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
@@ -3211,7 +3211,7 @@
       <c r="G53" t="inlineStr"/>
       <c r="H53" t="inlineStr">
         <is>
-          <t>['Italy', 'Mexico']</t>
+          <t>['Mexico', 'Italy']</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
@@ -3270,7 +3270,7 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>['Mexico', 'Croatia']</t>
+          <t>['Croatia', 'Mexico']</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
@@ -3329,7 +3329,7 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>['Italy', 'Mexico']</t>
+          <t>['Mexico', 'Italy']</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
@@ -3378,7 +3378,7 @@
       <c r="G56" t="inlineStr"/>
       <c r="H56" t="inlineStr">
         <is>
-          <t>['Russia', 'Japan']</t>
+          <t>['Japan', 'Russia']</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
@@ -3437,7 +3437,7 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>['Belgium', 'Japan']</t>
+          <t>['Japan', 'Belgium']</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
@@ -3496,7 +3496,7 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>['Russia', 'Japan']</t>
+          <t>['Japan', 'Russia']</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
@@ -3555,7 +3555,7 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>['Belgium', 'Japan']</t>
+          <t>['Japan', 'Belgium']</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
@@ -3712,7 +3712,7 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>['England', 'Paraguay']</t>
+          <t>['Paraguay', 'England']</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
@@ -3918,7 +3918,7 @@
       <c r="G66" t="inlineStr"/>
       <c r="H66" t="inlineStr">
         <is>
-          <t>['Italy', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Italy']</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
@@ -3977,7 +3977,7 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>['Italy', 'Ghana']</t>
+          <t>['Ghana', 'Italy']</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
@@ -4085,7 +4085,7 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>['Brazil', 'Croatia']</t>
+          <t>['Croatia', 'Brazil']</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
@@ -4203,7 +4203,7 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>['Brazil', 'Croatia']</t>
+          <t>['Croatia', 'Brazil']</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
@@ -4468,7 +4468,7 @@
       <c r="G76" t="inlineStr"/>
       <c r="H76" t="inlineStr">
         <is>
-          <t>['Mexico', 'Uruguay']</t>
+          <t>['Uruguay', 'Mexico']</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
@@ -4576,7 +4576,7 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>['Argentina', 'Greece']</t>
+          <t>['Greece', 'Argentina']</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
@@ -4743,7 +4743,7 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>['England', 'Slovenia']</t>
+          <t>['Slovenia', 'England']</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
@@ -4802,7 +4802,7 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>['England', 'United States']</t>
+          <t>['United States', 'England']</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
@@ -4900,7 +4900,7 @@
       <c r="G84" t="inlineStr"/>
       <c r="H84" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Denmark']</t>
+          <t>['Denmark', 'Netherlands']</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
@@ -4959,7 +4959,7 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Japan']</t>
+          <t>['Japan', 'Netherlands']</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
@@ -5008,7 +5008,7 @@
       <c r="G86" t="inlineStr"/>
       <c r="H86" t="inlineStr">
         <is>
-          <t>['Italy', 'Paraguay']</t>
+          <t>['Paraguay', 'Italy']</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
@@ -5116,7 +5116,7 @@
       <c r="G88" t="inlineStr"/>
       <c r="H88" t="inlineStr">
         <is>
-          <t>['Brazil', 'Portugal']</t>
+          <t>['Portugal', 'Brazil']</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
@@ -5371,7 +5371,7 @@
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>['Greece', 'Colombia']</t>
+          <t>['Colombia', 'Greece']</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
@@ -5489,7 +5489,7 @@
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>['Greece', 'Colombia']</t>
+          <t>['Colombia', 'Greece']</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
@@ -5538,7 +5538,7 @@
       <c r="G96" t="inlineStr"/>
       <c r="H96" t="inlineStr">
         <is>
-          <t>['Italy', 'Costa Rica']</t>
+          <t>['Costa Rica', 'Italy']</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
@@ -5597,7 +5597,7 @@
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>['Costa Rica', 'Uruguay']</t>
+          <t>['Uruguay', 'Costa Rica']</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
@@ -5813,7 +5813,7 @@
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>['Argentina', 'Bosnia and Herzegovina']</t>
+          <t>['Bosnia and Herzegovina', 'Argentina']</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
@@ -6078,7 +6078,7 @@
       <c r="G106" t="inlineStr"/>
       <c r="H106" t="inlineStr">
         <is>
-          <t>['Russia', 'Uruguay']</t>
+          <t>['Uruguay', 'Russia']</t>
         </is>
       </c>
       <c r="I106" t="inlineStr">
@@ -6176,7 +6176,7 @@
       <c r="G108" t="inlineStr"/>
       <c r="H108" t="inlineStr">
         <is>
-          <t>['Denmark', 'France']</t>
+          <t>['France', 'Denmark']</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
@@ -6225,7 +6225,7 @@
       <c r="G109" t="inlineStr"/>
       <c r="H109" t="inlineStr">
         <is>
-          <t>['Nigeria', 'Croatia']</t>
+          <t>['Croatia', 'Nigeria']</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
@@ -6284,7 +6284,7 @@
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>['Argentina', 'Croatia']</t>
+          <t>['Croatia', 'Argentina']</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
@@ -6343,7 +6343,7 @@
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>['Nigeria', 'Croatia']</t>
+          <t>['Croatia', 'Nigeria']</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
@@ -6402,7 +6402,7 @@
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>['Argentina', 'Croatia']</t>
+          <t>['Croatia', 'Argentina']</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
@@ -6608,7 +6608,7 @@
       <c r="G116" t="inlineStr"/>
       <c r="H116" t="inlineStr">
         <is>
-          <t>['England', 'Belgium']</t>
+          <t>['Belgium', 'England']</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
@@ -6706,7 +6706,7 @@
       <c r="G118" t="inlineStr"/>
       <c r="H118" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Ecuador']</t>
+          <t>['Ecuador', 'Netherlands']</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
@@ -6719,12 +6719,12 @@
       </c>
       <c r="K118" t="inlineStr">
         <is>
+          <t>Netherlands</t>
+        </is>
+      </c>
+      <c r="L118" t="inlineStr">
+        <is>
           <t>Ecuador</t>
-        </is>
-      </c>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>Netherlands</t>
         </is>
       </c>
       <c r="M118" t="inlineStr">
@@ -6765,7 +6765,7 @@
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Senegal']</t>
+          <t>['Senegal', 'Netherlands']</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
@@ -6824,7 +6824,7 @@
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Ecuador']</t>
+          <t>['Ecuador', 'Netherlands']</t>
         </is>
       </c>
       <c r="I120" t="inlineStr">
@@ -6883,7 +6883,7 @@
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Senegal']</t>
+          <t>['Senegal', 'Netherlands']</t>
         </is>
       </c>
       <c r="I121" t="inlineStr">
@@ -6932,7 +6932,7 @@
       <c r="G122" t="inlineStr"/>
       <c r="H122" t="inlineStr">
         <is>
-          <t>['England', 'Iran']</t>
+          <t>['Iran', 'England']</t>
         </is>
       </c>
       <c r="I122" t="inlineStr">
@@ -6991,7 +6991,7 @@
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>['England', 'United States']</t>
+          <t>['United States', 'England']</t>
         </is>
       </c>
       <c r="I123" t="inlineStr">
@@ -7089,7 +7089,7 @@
       <c r="G125" t="inlineStr"/>
       <c r="H125" t="inlineStr">
         <is>
-          <t>['Australia', 'France']</t>
+          <t>['France', 'Australia']</t>
         </is>
       </c>
       <c r="I125" t="inlineStr">
@@ -7148,7 +7148,7 @@
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>['Tunisia', 'France']</t>
+          <t>['France', 'Tunisia']</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
@@ -7207,7 +7207,7 @@
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>['Australia', 'France']</t>
+          <t>['France', 'Australia']</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
@@ -7541,7 +7541,7 @@
       <c r="G133" t="inlineStr"/>
       <c r="H133" t="inlineStr">
         <is>
-          <t>['Morocco', 'Croatia']</t>
+          <t>['Croatia', 'Morocco']</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
@@ -7875,7 +7875,7 @@
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>['South Korea', 'Portugal']</t>
+          <t>['Portugal', 'South Korea']</t>
         </is>
       </c>
       <c r="I139" t="inlineStr">

--- a/data/out/kaggle/fifa/standings_wc_fifa_men.xlsx
+++ b/data/out/kaggle/fifa/standings_wc_fifa_men.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M139"/>
+  <dimension ref="A1:M132"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -522,7 +522,7 @@
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['Bulgaria', 'Argentina', 'Italy']</t>
+          <t>['Argentina', 'Italy', 'Bulgaria']</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -620,7 +620,7 @@
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['France', 'Hungary', 'Soviet Union']</t>
+          <t>['Hungary', 'Soviet Union', 'France']</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -669,7 +669,7 @@
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['Northern Ireland', 'Spain', 'Brazil']</t>
+          <t>['Brazil', 'Spain', 'Northern Ireland']</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -728,7 +728,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['Spain', 'Algeria', 'Brazil']</t>
+          <t>['Brazil', 'Algeria', 'Spain']</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -787,7 +787,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['Northern Ireland', 'Spain', 'Brazil']</t>
+          <t>['Brazil', 'Spain', 'Northern Ireland']</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -836,7 +836,7 @@
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['Uruguay', 'West Germany', 'Denmark']</t>
+          <t>['West Germany', 'Uruguay', 'Denmark']</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -885,7 +885,7 @@
       <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['England', 'Portugal', 'Poland']</t>
+          <t>['Portugal', 'Poland', 'England']</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -898,12 +898,12 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
+          <t>Portugal</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
           <t>Poland</t>
-        </is>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>Portugal</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
@@ -934,7 +934,7 @@
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['Austria', 'Czechoslovakia', 'Italy']</t>
+          <t>['Czechoslovakia', 'Italy', 'Austria']</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -983,7 +983,7 @@
       <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['Romania', 'Cameroon', 'Argentina']</t>
+          <t>['Cameroon', 'Argentina', 'Romania']</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -1101,7 +1101,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['Romania', 'Cameroon', 'Argentina']</t>
+          <t>['Cameroon', 'Argentina', 'Romania']</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -1150,7 +1150,7 @@
       <c r="G14" t="inlineStr"/>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['Scotland', 'Costa Rica', 'Brazil']</t>
+          <t>['Brazil', 'Scotland', 'Costa Rica']</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -1209,7 +1209,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['Scotland', 'Sweden', 'Brazil']</t>
+          <t>['Brazil', 'Sweden', 'Scotland']</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -1268,7 +1268,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['Scotland', 'Costa Rica', 'Brazil']</t>
+          <t>['Brazil', 'Scotland', 'Costa Rica']</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -1317,7 +1317,7 @@
       <c r="G17" t="inlineStr"/>
       <c r="H17" t="inlineStr">
         <is>
-          <t>['Colombia', 'Yugoslavia', 'West Germany']</t>
+          <t>['Yugoslavia', 'Colombia', 'West Germany']</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -1366,12 +1366,12 @@
       <c r="G18" t="inlineStr"/>
       <c r="H18" t="inlineStr">
         <is>
-          <t>['Uruguay', 'Spain', 'Belgium']</t>
+          <t>['Belgium', 'Spain', 'South Korea']</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>['Uruguay']</t>
+          <t>['South Korea']</t>
         </is>
       </c>
       <c r="J18" t="n">
@@ -1389,7 +1389,7 @@
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>Uruguay</t>
+          <t>South Korea</t>
         </is>
       </c>
     </row>
@@ -1399,28 +1399,38 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Group F</t>
+          <t>Group E</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>initial</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr"/>
-      <c r="G19" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="D19" t="n">
+        <v>91</v>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>South Korea</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Uruguay</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Uruguay</t>
+        </is>
+      </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>['Egypt', 'England', 'Netherlands']</t>
+          <t>['Belgium', 'Spain', 'Uruguay']</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>['Egypt']</t>
+          <t>['Uruguay']</t>
         </is>
       </c>
       <c r="J19" t="n">
@@ -1428,17 +1438,17 @@
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>England</t>
+          <t>Belgium</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>Egypt</t>
+          <t>Uruguay</t>
         </is>
       </c>
     </row>
@@ -1452,26 +1462,16 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>1</v>
-      </c>
-      <c r="D20" t="n">
-        <v>71</v>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>Republic of Ireland</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>Netherlands</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>Republic of Ireland</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>initial</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr"/>
       <c r="H20" t="inlineStr">
         <is>
           <t>['Republic of Ireland', 'England', 'Netherlands']</t>
@@ -1503,32 +1503,42 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>1994</v>
+        <v>1990</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Group A</t>
+          <t>Group F</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>initial</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr"/>
-      <c r="G21" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="D21" t="n">
+        <v>11</v>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Republic of Ireland</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Netherlands</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Netherlands</t>
+        </is>
+      </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>['Romania', 'Switzerland', 'United States']</t>
+          <t>['Egypt', 'England', 'Netherlands']</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>['Romania']</t>
+          <t>['Egypt']</t>
         </is>
       </c>
       <c r="J21" t="n">
@@ -1536,58 +1546,58 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>Switzerland</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>England</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>Romania</t>
+          <t>Egypt</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>1994</v>
+        <v>1990</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Group A</t>
+          <t>Group F</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D22" t="n">
-        <v>44</v>
+        <v>71</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Switzerland</t>
+          <t>Republic of Ireland</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Colombia</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Colombia</t>
+          <t>Republic of Ireland</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>['Romania', 'Switzerland', 'Colombia']</t>
+          <t>['Republic of Ireland', 'England', 'Netherlands']</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>['Colombia']</t>
+          <t>['Republic of Ireland']</t>
         </is>
       </c>
       <c r="J22" t="n">
@@ -1595,17 +1605,17 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>Romania</t>
+          <t>England</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>Switzerland</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>Colombia</t>
+          <t>Republic of Ireland</t>
         </is>
       </c>
     </row>
@@ -1615,7 +1625,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Group B</t>
+          <t>Group A</t>
         </is>
       </c>
       <c r="C23" t="n">
@@ -1631,12 +1641,12 @@
       <c r="G23" t="inlineStr"/>
       <c r="H23" t="inlineStr">
         <is>
-          <t>['Cameroon', 'Sweden', 'Brazil']</t>
+          <t>['United States', 'Switzerland', 'Romania']</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>['Cameroon']</t>
+          <t>['Romania']</t>
         </is>
       </c>
       <c r="J23" t="n">
@@ -1644,17 +1654,17 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>Brazil</t>
+          <t>Switzerland</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>Cameroon</t>
+          <t>Romania</t>
         </is>
       </c>
     </row>
@@ -1664,38 +1674,38 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Group B</t>
+          <t>Group A</t>
         </is>
       </c>
       <c r="C24" t="n">
         <v>1</v>
       </c>
       <c r="D24" t="n">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Russia</t>
+          <t>Switzerland</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Cameroon</t>
+          <t>Colombia</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Russia</t>
+          <t>Colombia</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>['Russia', 'Sweden', 'Brazil']</t>
+          <t>['Colombia', 'Switzerland', 'Romania']</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>['Russia']</t>
+          <t>['Colombia']</t>
         </is>
       </c>
       <c r="J24" t="n">
@@ -1703,17 +1713,17 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>Brazil</t>
+          <t>Romania</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>Switzerland</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>Russia</t>
+          <t>Colombia</t>
         </is>
       </c>
     </row>
@@ -1723,7 +1733,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Group C</t>
+          <t>Group B</t>
         </is>
       </c>
       <c r="C25" t="n">
@@ -1739,12 +1749,12 @@
       <c r="G25" t="inlineStr"/>
       <c r="H25" t="inlineStr">
         <is>
-          <t>['Germany', 'Spain', 'South Korea']</t>
+          <t>['Brazil', 'Cameroon', 'Sweden']</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>['South Korea']</t>
+          <t>['Cameroon']</t>
         </is>
       </c>
       <c r="J25" t="n">
@@ -1752,17 +1762,17 @@
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Brazil</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>South Korea</t>
+          <t>Cameroon</t>
         </is>
       </c>
     </row>
@@ -1772,28 +1782,38 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Group D</t>
+          <t>Group B</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>initial</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr"/>
-      <c r="F26" t="inlineStr"/>
-      <c r="G26" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="D26" t="n">
+        <v>15</v>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Russia</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Cameroon</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>Russia</t>
+        </is>
+      </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>['Bulgaria', 'Argentina', 'Nigeria']</t>
+          <t>['Brazil', 'Sweden', 'Russia']</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>['Bulgaria']</t>
+          <t>['Russia']</t>
         </is>
       </c>
       <c r="J26" t="n">
@@ -1801,17 +1821,17 @@
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>Argentina</t>
+          <t>Brazil</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>Nigeria</t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>Bulgaria</t>
+          <t>Russia</t>
         </is>
       </c>
     </row>
@@ -1821,7 +1841,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Group E</t>
+          <t>Group C</t>
         </is>
       </c>
       <c r="C27" t="n">
@@ -1837,12 +1857,12 @@
       <c r="G27" t="inlineStr"/>
       <c r="H27" t="inlineStr">
         <is>
-          <t>['Republic of Ireland', 'Mexico', 'Italy']</t>
+          <t>['Spain', 'South Korea', 'Germany']</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>['Italy']</t>
+          <t>['South Korea']</t>
         </is>
       </c>
       <c r="J27" t="n">
@@ -1850,17 +1870,17 @@
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>Mexico</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>Republic of Ireland</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>South Korea</t>
         </is>
       </c>
     </row>
@@ -1870,38 +1890,28 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Group E</t>
+          <t>Group D</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>1</v>
-      </c>
-      <c r="D28" t="n">
-        <v>48</v>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>Italy</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>Mexico</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>Italy</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>initial</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr"/>
+      <c r="F28" t="inlineStr"/>
+      <c r="G28" t="inlineStr"/>
       <c r="H28" t="inlineStr">
         <is>
-          <t>['Norway', 'Republic of Ireland', 'Italy']</t>
+          <t>['Argentina', 'Nigeria', 'Bulgaria']</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>['Norway']</t>
+          <t>['Bulgaria']</t>
         </is>
       </c>
       <c r="J28" t="n">
@@ -1909,17 +1919,17 @@
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Argentina</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>Republic of Ireland</t>
+          <t>Nigeria</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>Norway</t>
+          <t>Bulgaria</t>
         </is>
       </c>
     </row>
@@ -1933,52 +1943,42 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>2</v>
-      </c>
-      <c r="D29" t="n">
-        <v>57</v>
-      </c>
-      <c r="E29" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>initial</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr"/>
+      <c r="F29" t="inlineStr"/>
+      <c r="G29" t="inlineStr"/>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>['Republic of Ireland', 'Italy', 'Mexico']</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>['Italy']</t>
+        </is>
+      </c>
+      <c r="J29" t="n">
+        <v>1</v>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>Republic of Ireland</t>
+        </is>
+      </c>
+      <c r="M29" t="inlineStr">
         <is>
           <t>Italy</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>Mexico</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>Mexico</t>
-        </is>
-      </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>['Republic of Ireland', 'Mexico', 'Italy']</t>
-        </is>
-      </c>
-      <c r="I29" t="inlineStr">
-        <is>
-          <t>['Republic of Ireland']</t>
-        </is>
-      </c>
-      <c r="J29" t="n">
-        <v>1</v>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>Mexico</t>
-        </is>
-      </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>Italy</t>
-        </is>
-      </c>
-      <c r="M29" t="inlineStr">
-        <is>
-          <t>Republic of Ireland</t>
         </is>
       </c>
     </row>
@@ -1988,28 +1988,38 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Group F</t>
+          <t>Group E</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>initial</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr"/>
-      <c r="F30" t="inlineStr"/>
-      <c r="G30" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="D30" t="n">
+        <v>48</v>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Italy</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>Italy</t>
+        </is>
+      </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>['Saudi Arabia', 'Belgium', 'Netherlands']</t>
+          <t>['Norway', 'Republic of Ireland', 'Italy']</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>['Netherlands']</t>
+          <t>['Norway']</t>
         </is>
       </c>
       <c r="J30" t="n">
@@ -2017,48 +2027,58 @@
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>Belgium</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>Saudi Arabia</t>
+          <t>Republic of Ireland</t>
         </is>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>Norway</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>1998</v>
+        <v>1994</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Group A</t>
+          <t>Group E</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>initial</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr"/>
-      <c r="F31" t="inlineStr"/>
-      <c r="G31" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="D31" t="n">
+        <v>57</v>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Italy</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>['Morocco', 'Brazil']</t>
+          <t>['Republic of Ireland', 'Italy', 'Mexico']</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>['Scotland']</t>
+          <t>['Republic of Ireland']</t>
         </is>
       </c>
       <c r="J31" t="n">
@@ -2066,27 +2086,27 @@
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>Brazil</t>
+          <t>Mexico</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>Morocco</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>Scotland</t>
+          <t>Republic of Ireland</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>1998</v>
+        <v>1994</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Group B</t>
+          <t>Group F</t>
         </is>
       </c>
       <c r="C32" t="n">
@@ -2102,12 +2122,12 @@
       <c r="G32" t="inlineStr"/>
       <c r="H32" t="inlineStr">
         <is>
-          <t>['Chile', 'Italy']</t>
+          <t>['Belgium', 'Saudi Arabia', 'Netherlands']</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>['Austria']</t>
+          <t>['Netherlands']</t>
         </is>
       </c>
       <c r="J32" t="n">
@@ -2115,17 +2135,17 @@
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Belgium</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>Chile</t>
+          <t>Saudi Arabia</t>
         </is>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>Austria</t>
+          <t>Netherlands</t>
         </is>
       </c>
     </row>
@@ -2135,7 +2155,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Group C</t>
+          <t>Group A</t>
         </is>
       </c>
       <c r="C33" t="n">
@@ -2151,12 +2171,12 @@
       <c r="G33" t="inlineStr"/>
       <c r="H33" t="inlineStr">
         <is>
-          <t>['France', 'Denmark']</t>
+          <t>['Brazil', 'Morocco']</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>['South Africa']</t>
+          <t>['Scotland']</t>
         </is>
       </c>
       <c r="J33" t="n">
@@ -2164,17 +2184,17 @@
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Brazil</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Morocco</t>
         </is>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>South Africa</t>
+          <t>Scotland</t>
         </is>
       </c>
     </row>
@@ -2184,7 +2204,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Group D</t>
+          <t>Group B</t>
         </is>
       </c>
       <c r="C34" t="n">
@@ -2200,12 +2220,12 @@
       <c r="G34" t="inlineStr"/>
       <c r="H34" t="inlineStr">
         <is>
-          <t>['Spain', 'Nigeria']</t>
+          <t>['Chile', 'Italy']</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>['Bulgaria']</t>
+          <t>['Austria']</t>
         </is>
       </c>
       <c r="J34" t="n">
@@ -2213,17 +2233,17 @@
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>Nigeria</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>Chile</t>
         </is>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>Bulgaria</t>
+          <t>Austria</t>
         </is>
       </c>
     </row>
@@ -2233,7 +2253,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Group E</t>
+          <t>Group C</t>
         </is>
       </c>
       <c r="C35" t="n">
@@ -2249,12 +2269,12 @@
       <c r="G35" t="inlineStr"/>
       <c r="H35" t="inlineStr">
         <is>
-          <t>['Mexico', 'Netherlands']</t>
+          <t>['Denmark', 'France']</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>['Belgium']</t>
+          <t>['South Africa']</t>
         </is>
       </c>
       <c r="J35" t="n">
@@ -2262,17 +2282,17 @@
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>France</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>Mexico</t>
+          <t>Denmark</t>
         </is>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>Belgium</t>
+          <t>South Africa</t>
         </is>
       </c>
     </row>
@@ -2282,38 +2302,28 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Group E</t>
+          <t>Group D</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>1</v>
-      </c>
-      <c r="D36" t="n">
-        <v>7</v>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>Belgium</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>South Korea</t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>Belgium</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>initial</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr"/>
+      <c r="F36" t="inlineStr"/>
+      <c r="G36" t="inlineStr"/>
       <c r="H36" t="inlineStr">
         <is>
-          <t>['Belgium', 'Netherlands']</t>
+          <t>['Spain', 'Nigeria']</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>['Mexico']</t>
+          <t>['Bulgaria']</t>
         </is>
       </c>
       <c r="J36" t="n">
@@ -2321,17 +2331,17 @@
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>Nigeria</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>Belgium</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>Mexico</t>
+          <t>Bulgaria</t>
         </is>
       </c>
     </row>
@@ -2341,38 +2351,38 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Group E</t>
+          <t>Group D</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D37" t="n">
-        <v>72</v>
+        <v>1</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Belgium</t>
+          <t>Nigeria</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>South Korea</t>
+          <t>Paraguay</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>South Korea</t>
+          <t>Paraguay</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>['Mexico', 'Netherlands']</t>
+          <t>['Paraguay', 'Nigeria']</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>['Belgium']</t>
+          <t>['Spain']</t>
         </is>
       </c>
       <c r="J37" t="n">
@@ -2380,17 +2390,17 @@
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>Nigeria</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>Mexico</t>
+          <t>Paraguay</t>
         </is>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>Belgium</t>
+          <t>Spain</t>
         </is>
       </c>
     </row>
@@ -2400,28 +2410,38 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Group F</t>
+          <t>Group D</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>initial</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr"/>
-      <c r="F38" t="inlineStr"/>
-      <c r="G38" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="D38" t="n">
+        <v>6</v>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>Spain</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Bulgaria</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>Spain</t>
+        </is>
+      </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>['Germany', 'Yugoslavia']</t>
+          <t>['Spain', 'Nigeria']</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>['Iran']</t>
+          <t>['Paraguay']</t>
         </is>
       </c>
       <c r="J38" t="n">
@@ -2429,17 +2449,17 @@
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>Yugoslavia</t>
+          <t>Nigeria</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>Iran</t>
+          <t>Paraguay</t>
         </is>
       </c>
     </row>
@@ -2449,7 +2469,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Group G</t>
+          <t>Group E</t>
         </is>
       </c>
       <c r="C39" t="n">
@@ -2465,12 +2485,12 @@
       <c r="G39" t="inlineStr"/>
       <c r="H39" t="inlineStr">
         <is>
-          <t>['Romania', 'England']</t>
+          <t>['Netherlands', 'Mexico']</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>['Colombia']</t>
+          <t>['Belgium']</t>
         </is>
       </c>
       <c r="J39" t="n">
@@ -2478,17 +2498,17 @@
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>Romania</t>
+          <t>Mexico</t>
         </is>
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>England</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>Colombia</t>
+          <t>Belgium</t>
         </is>
       </c>
     </row>
@@ -2498,7 +2518,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Group H</t>
+          <t>Group F</t>
         </is>
       </c>
       <c r="C40" t="n">
@@ -2514,12 +2534,12 @@
       <c r="G40" t="inlineStr"/>
       <c r="H40" t="inlineStr">
         <is>
-          <t>['Croatia', 'Argentina']</t>
+          <t>['Yugoslavia', 'Germany']</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>['Japan']</t>
+          <t>['Iran']</t>
         </is>
       </c>
       <c r="J40" t="n">
@@ -2527,27 +2547,27 @@
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>Argentina</t>
+          <t>Yugoslavia</t>
         </is>
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>Croatia</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>Japan</t>
+          <t>Iran</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>2002</v>
+        <v>1998</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Group A</t>
+          <t>Group G</t>
         </is>
       </c>
       <c r="C41" t="n">
@@ -2563,12 +2583,12 @@
       <c r="G41" t="inlineStr"/>
       <c r="H41" t="inlineStr">
         <is>
-          <t>['Senegal', 'Denmark']</t>
+          <t>['England', 'Romania']</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>['Uruguay']</t>
+          <t>['Colombia']</t>
         </is>
       </c>
       <c r="J41" t="n">
@@ -2576,27 +2596,27 @@
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Romania</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>Senegal</t>
+          <t>England</t>
         </is>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>Uruguay</t>
+          <t>Colombia</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>2002</v>
+        <v>1998</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Group B</t>
+          <t>Group H</t>
         </is>
       </c>
       <c r="C42" t="n">
@@ -2612,12 +2632,12 @@
       <c r="G42" t="inlineStr"/>
       <c r="H42" t="inlineStr">
         <is>
-          <t>['Spain', 'South Africa']</t>
+          <t>['Croatia', 'Argentina']</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>['Paraguay']</t>
+          <t>['Japan']</t>
         </is>
       </c>
       <c r="J42" t="n">
@@ -2625,17 +2645,17 @@
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>Argentina</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>South Africa</t>
+          <t>Croatia</t>
         </is>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>Paraguay</t>
+          <t>Japan</t>
         </is>
       </c>
     </row>
@@ -2645,7 +2665,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Group C</t>
+          <t>Group A</t>
         </is>
       </c>
       <c r="C43" t="n">
@@ -2661,12 +2681,12 @@
       <c r="G43" t="inlineStr"/>
       <c r="H43" t="inlineStr">
         <is>
-          <t>['Costa Rica', 'Brazil']</t>
+          <t>['Senegal', 'Denmark']</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>['Turkey']</t>
+          <t>['Uruguay']</t>
         </is>
       </c>
       <c r="J43" t="n">
@@ -2674,17 +2694,17 @@
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>Brazil</t>
+          <t>Denmark</t>
         </is>
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>Costa Rica</t>
+          <t>Senegal</t>
         </is>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>Turkey</t>
+          <t>Uruguay</t>
         </is>
       </c>
     </row>
@@ -2694,38 +2714,28 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Group C</t>
+          <t>Group B</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>1</v>
-      </c>
-      <c r="D44" t="n">
-        <v>10</v>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>Costa Rica</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>Brazil</t>
-        </is>
-      </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>Brazil</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>initial</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr"/>
+      <c r="F44" t="inlineStr"/>
+      <c r="G44" t="inlineStr"/>
       <c r="H44" t="inlineStr">
         <is>
-          <t>['Turkey', 'Brazil']</t>
+          <t>['South Africa', 'Spain']</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>['Costa Rica']</t>
+          <t>['Paraguay']</t>
         </is>
       </c>
       <c r="J44" t="n">
@@ -2733,17 +2743,17 @@
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>Brazil</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>Turkey</t>
+          <t>South Africa</t>
         </is>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>Costa Rica</t>
+          <t>Paraguay</t>
         </is>
       </c>
     </row>
@@ -2757,29 +2767,19 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>2</v>
-      </c>
-      <c r="D45" t="n">
-        <v>56</v>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>Costa Rica</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>Brazil</t>
-        </is>
-      </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>Costa Rica</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>initial</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr"/>
+      <c r="F45" t="inlineStr"/>
+      <c r="G45" t="inlineStr"/>
       <c r="H45" t="inlineStr">
         <is>
-          <t>['Costa Rica', 'Brazil']</t>
+          <t>['Brazil', 'Costa Rica']</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
@@ -2816,10 +2816,10 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D46" t="n">
-        <v>62</v>
+        <v>10</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
@@ -2838,7 +2838,7 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>['Turkey', 'Brazil']</t>
+          <t>['Brazil', 'Turkey']</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
@@ -2871,28 +2871,38 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Group D</t>
+          <t>Group C</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>0</v>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>initial</t>
-        </is>
-      </c>
-      <c r="E47" t="inlineStr"/>
-      <c r="F47" t="inlineStr"/>
-      <c r="G47" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="D47" t="n">
+        <v>56</v>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>Costa Rica</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>Brazil</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>Costa Rica</t>
+        </is>
+      </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>['United States', 'South Korea']</t>
+          <t>['Brazil', 'Costa Rica']</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>['Portugal']</t>
+          <t>['Turkey']</t>
         </is>
       </c>
       <c r="J47" t="n">
@@ -2900,17 +2910,17 @@
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>South Korea</t>
+          <t>Brazil</t>
         </is>
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>Costa Rica</t>
         </is>
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Turkey</t>
         </is>
       </c>
     </row>
@@ -2920,38 +2930,38 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Group D</t>
+          <t>Group C</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D48" t="n">
-        <v>3</v>
+        <v>62</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Poland</t>
+          <t>Costa Rica</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>Brazil</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Poland</t>
+          <t>Brazil</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>['Portugal', 'South Korea']</t>
+          <t>['Brazil', 'Turkey']</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>['United States']</t>
+          <t>['Costa Rica']</t>
         </is>
       </c>
       <c r="J48" t="n">
@@ -2959,17 +2969,17 @@
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>South Korea</t>
+          <t>Brazil</t>
         </is>
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Turkey</t>
         </is>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>Costa Rica</t>
         </is>
       </c>
     </row>
@@ -2983,26 +2993,16 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>2</v>
-      </c>
-      <c r="D49" t="n">
-        <v>70</v>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>Portugal</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>South Korea</t>
-        </is>
-      </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>South Korea</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>initial</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr"/>
+      <c r="F49" t="inlineStr"/>
+      <c r="G49" t="inlineStr"/>
       <c r="H49" t="inlineStr">
         <is>
           <t>['United States', 'South Korea']</t>
@@ -3038,28 +3038,38 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Group E</t>
+          <t>Group D</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>0</v>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>initial</t>
-        </is>
-      </c>
-      <c r="E50" t="inlineStr"/>
-      <c r="F50" t="inlineStr"/>
-      <c r="G50" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="D50" t="n">
+        <v>3</v>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>Poland</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>United States</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>Poland</t>
+        </is>
+      </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>['Germany', 'Cameroon']</t>
+          <t>['Portugal', 'South Korea']</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>['Republic of Ireland']</t>
+          <t>['United States']</t>
         </is>
       </c>
       <c r="J50" t="n">
@@ -3067,17 +3077,17 @@
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>South Korea</t>
         </is>
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>Cameroon</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>Republic of Ireland</t>
+          <t>United States</t>
         </is>
       </c>
     </row>
@@ -3087,38 +3097,38 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Group E</t>
+          <t>Group D</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D51" t="n">
-        <v>7</v>
+        <v>70</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Saudi Arabia</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Republic of Ireland</t>
+          <t>South Korea</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Republic of Ireland</t>
+          <t>South Korea</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>['Germany', 'Republic of Ireland']</t>
+          <t>['United States', 'South Korea']</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>['Cameroon']</t>
+          <t>['Portugal']</t>
         </is>
       </c>
       <c r="J51" t="n">
@@ -3126,17 +3136,17 @@
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>South Korea</t>
         </is>
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>Republic of Ireland</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>Cameroon</t>
+          <t>Portugal</t>
         </is>
       </c>
     </row>
@@ -3146,7 +3156,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Group F</t>
+          <t>Group E</t>
         </is>
       </c>
       <c r="C52" t="n">
@@ -3162,12 +3172,12 @@
       <c r="G52" t="inlineStr"/>
       <c r="H52" t="inlineStr">
         <is>
-          <t>['England', 'Sweden']</t>
+          <t>['Cameroon', 'Germany']</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>['Argentina']</t>
+          <t>['Republic of Ireland']</t>
         </is>
       </c>
       <c r="J52" t="n">
@@ -3175,17 +3185,17 @@
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>England</t>
+          <t>Cameroon</t>
         </is>
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>Argentina</t>
+          <t>Republic of Ireland</t>
         </is>
       </c>
     </row>
@@ -3195,28 +3205,38 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Group G</t>
+          <t>Group E</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>0</v>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>initial</t>
-        </is>
-      </c>
-      <c r="E53" t="inlineStr"/>
-      <c r="F53" t="inlineStr"/>
-      <c r="G53" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="D53" t="n">
+        <v>7</v>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>Saudi Arabia</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>Republic of Ireland</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>Republic of Ireland</t>
+        </is>
+      </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>['Mexico', 'Italy']</t>
+          <t>['Republic of Ireland', 'Germany']</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>['Croatia']</t>
+          <t>['Cameroon']</t>
         </is>
       </c>
       <c r="J53" t="n">
@@ -3224,17 +3244,17 @@
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>Mexico</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Republic of Ireland</t>
         </is>
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>Croatia</t>
+          <t>Cameroon</t>
         </is>
       </c>
     </row>
@@ -3244,38 +3264,28 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Group G</t>
+          <t>Group F</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>1</v>
-      </c>
-      <c r="D54" t="n">
-        <v>34</v>
-      </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>Mexico</t>
-        </is>
-      </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>Italy</t>
-        </is>
-      </c>
-      <c r="G54" t="inlineStr">
-        <is>
-          <t>Mexico</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>initial</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr"/>
+      <c r="F54" t="inlineStr"/>
+      <c r="G54" t="inlineStr"/>
       <c r="H54" t="inlineStr">
         <is>
-          <t>['Croatia', 'Mexico']</t>
+          <t>['Sweden', 'England']</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>['Italy']</t>
+          <t>['Argentina']</t>
         </is>
       </c>
       <c r="J54" t="n">
@@ -3283,17 +3293,17 @@
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>Mexico</t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>Croatia</t>
+          <t>England</t>
         </is>
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Argentina</t>
         </is>
       </c>
     </row>
@@ -3307,29 +3317,19 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>2</v>
-      </c>
-      <c r="D55" t="n">
-        <v>48</v>
-      </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>Ecuador</t>
-        </is>
-      </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>Croatia</t>
-        </is>
-      </c>
-      <c r="G55" t="inlineStr">
-        <is>
-          <t>Ecuador</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>initial</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr"/>
+      <c r="F55" t="inlineStr"/>
+      <c r="G55" t="inlineStr"/>
       <c r="H55" t="inlineStr">
         <is>
-          <t>['Mexico', 'Italy']</t>
+          <t>['Italy', 'Mexico']</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
@@ -3362,28 +3362,38 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Group H</t>
+          <t>Group G</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>0</v>
-      </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>initial</t>
-        </is>
-      </c>
-      <c r="E56" t="inlineStr"/>
-      <c r="F56" t="inlineStr"/>
-      <c r="G56" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="D56" t="n">
+        <v>34</v>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>Italy</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>['Japan', 'Russia']</t>
+          <t>['Croatia', 'Mexico']</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>['Belgium']</t>
+          <t>['Italy']</t>
         </is>
       </c>
       <c r="J56" t="n">
@@ -3391,17 +3401,17 @@
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>Japan</t>
+          <t>Mexico</t>
         </is>
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>Russia</t>
+          <t>Croatia</t>
         </is>
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>Belgium</t>
+          <t>Italy</t>
         </is>
       </c>
     </row>
@@ -3411,38 +3421,38 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Group H</t>
+          <t>Group G</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D57" t="n">
-        <v>7</v>
+        <v>48</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Belgium</t>
+          <t>Ecuador</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Russia</t>
+          <t>Croatia</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Belgium</t>
+          <t>Ecuador</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>['Japan', 'Belgium']</t>
+          <t>['Italy', 'Mexico']</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>['Russia']</t>
+          <t>['Croatia']</t>
         </is>
       </c>
       <c r="J57" t="n">
@@ -3450,17 +3460,17 @@
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>Belgium</t>
+          <t>Mexico</t>
         </is>
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>Japan</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>Russia</t>
+          <t>Croatia</t>
         </is>
       </c>
     </row>
@@ -3474,26 +3484,16 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>2</v>
-      </c>
-      <c r="D58" t="n">
-        <v>52</v>
-      </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>Belgium</t>
-        </is>
-      </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>Russia</t>
-        </is>
-      </c>
-      <c r="G58" t="inlineStr">
-        <is>
-          <t>Russia</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>initial</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr"/>
+      <c r="F58" t="inlineStr"/>
+      <c r="G58" t="inlineStr"/>
       <c r="H58" t="inlineStr">
         <is>
           <t>['Japan', 'Russia']</t>
@@ -3533,10 +3533,10 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D59" t="n">
-        <v>78</v>
+        <v>7</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
@@ -3555,7 +3555,7 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>['Japan', 'Belgium']</t>
+          <t>['Belgium', 'Japan']</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
@@ -3568,12 +3568,12 @@
       </c>
       <c r="K59" t="inlineStr">
         <is>
+          <t>Belgium</t>
+        </is>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
           <t>Japan</t>
-        </is>
-      </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>Belgium</t>
         </is>
       </c>
       <c r="M59" t="inlineStr">
@@ -3584,32 +3584,42 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>2006</v>
+        <v>2002</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Group A</t>
+          <t>Group H</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>0</v>
-      </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>initial</t>
-        </is>
-      </c>
-      <c r="E60" t="inlineStr"/>
-      <c r="F60" t="inlineStr"/>
-      <c r="G60" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="D60" t="n">
+        <v>52</v>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>Belgium</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>Russia</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>Russia</t>
+        </is>
+      </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>['Germany', 'Ecuador']</t>
+          <t>['Japan', 'Russia']</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>['Poland']</t>
+          <t>['Belgium']</t>
         </is>
       </c>
       <c r="J60" t="n">
@@ -3617,48 +3627,58 @@
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>Ecuador</t>
+          <t>Japan</t>
         </is>
       </c>
       <c r="L60" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Russia</t>
         </is>
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>Poland</t>
+          <t>Belgium</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>2006</v>
+        <v>2002</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Group B</t>
+          <t>Group H</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>0</v>
-      </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>initial</t>
-        </is>
-      </c>
-      <c r="E61" t="inlineStr"/>
-      <c r="F61" t="inlineStr"/>
-      <c r="G61" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="D61" t="n">
+        <v>78</v>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>Belgium</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>Russia</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>Belgium</t>
+        </is>
+      </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>['England', 'Sweden']</t>
+          <t>['Belgium', 'Japan']</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>['Paraguay']</t>
+          <t>['Russia']</t>
         </is>
       </c>
       <c r="J61" t="n">
@@ -3666,17 +3686,17 @@
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>England</t>
+          <t>Japan</t>
         </is>
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>Belgium</t>
         </is>
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>Paraguay</t>
+          <t>Russia</t>
         </is>
       </c>
     </row>
@@ -3686,38 +3706,28 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Group B</t>
+          <t>Group A</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>1</v>
-      </c>
-      <c r="D62" t="n">
-        <v>86</v>
-      </c>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>Paraguay</t>
-        </is>
-      </c>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>Trinidad and Tobago</t>
-        </is>
-      </c>
-      <c r="G62" t="inlineStr">
-        <is>
-          <t>Paraguay</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>initial</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr"/>
+      <c r="F62" t="inlineStr"/>
+      <c r="G62" t="inlineStr"/>
       <c r="H62" t="inlineStr">
         <is>
-          <t>['Paraguay', 'England']</t>
+          <t>['Ecuador', 'Germany']</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>['Sweden']</t>
+          <t>['Poland']</t>
         </is>
       </c>
       <c r="J62" t="n">
@@ -3725,17 +3735,17 @@
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>England</t>
+          <t>Ecuador</t>
         </is>
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>Paraguay</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>Poland</t>
         </is>
       </c>
     </row>
@@ -3749,29 +3759,19 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>2</v>
-      </c>
-      <c r="D63" t="n">
-        <v>90</v>
-      </c>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>Sweden</t>
-        </is>
-      </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>England</t>
-        </is>
-      </c>
-      <c r="G63" t="inlineStr">
-        <is>
-          <t>Sweden</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>initial</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr"/>
+      <c r="F63" t="inlineStr"/>
+      <c r="G63" t="inlineStr"/>
       <c r="H63" t="inlineStr">
         <is>
-          <t>['England', 'Sweden']</t>
+          <t>['Sweden', 'England']</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
@@ -3804,28 +3804,38 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Group C</t>
+          <t>Group B</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>0</v>
-      </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>initial</t>
-        </is>
-      </c>
-      <c r="E64" t="inlineStr"/>
-      <c r="F64" t="inlineStr"/>
-      <c r="G64" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="D64" t="n">
+        <v>25</v>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>Paraguay</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>Trinidad and Tobago</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>Trinidad and Tobago</t>
+        </is>
+      </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>['Argentina', 'Netherlands']</t>
+          <t>['Paraguay', 'England']</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>['Ivory Coast']</t>
+          <t>['Sweden']</t>
         </is>
       </c>
       <c r="J64" t="n">
@@ -3833,17 +3843,17 @@
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>Argentina</t>
+          <t>England</t>
         </is>
       </c>
       <c r="L64" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>Paraguay</t>
         </is>
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>Ivory Coast</t>
+          <t>Sweden</t>
         </is>
       </c>
     </row>
@@ -3853,7 +3863,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Group D</t>
+          <t>Group C</t>
         </is>
       </c>
       <c r="C65" t="n">
@@ -3869,12 +3879,12 @@
       <c r="G65" t="inlineStr"/>
       <c r="H65" t="inlineStr">
         <is>
-          <t>['Mexico', 'Portugal']</t>
+          <t>['Argentina', 'Netherlands']</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>['Angola']</t>
+          <t>['Ivory Coast']</t>
         </is>
       </c>
       <c r="J65" t="n">
@@ -3882,17 +3892,17 @@
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Argentina</t>
         </is>
       </c>
       <c r="L65" t="inlineStr">
         <is>
-          <t>Mexico</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>Angola</t>
+          <t>Ivory Coast</t>
         </is>
       </c>
     </row>
@@ -3902,7 +3912,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Group E</t>
+          <t>Group D</t>
         </is>
       </c>
       <c r="C66" t="n">
@@ -3918,12 +3928,12 @@
       <c r="G66" t="inlineStr"/>
       <c r="H66" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Italy']</t>
+          <t>['Portugal', 'Mexico']</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>['Ghana']</t>
+          <t>['Iran']</t>
         </is>
       </c>
       <c r="J66" t="n">
@@ -3931,17 +3941,17 @@
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="L66" t="inlineStr">
         <is>
-          <t>Czech Republic</t>
+          <t>Mexico</t>
         </is>
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>Ghana</t>
+          <t>Iran</t>
         </is>
       </c>
     </row>
@@ -3955,52 +3965,42 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>1</v>
-      </c>
-      <c r="D67" t="n">
-        <v>22</v>
-      </c>
-      <c r="E67" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>initial</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr"/>
+      <c r="F67" t="inlineStr"/>
+      <c r="G67" t="inlineStr"/>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>['Czech Republic', 'Italy']</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>['Ghana']</t>
+        </is>
+      </c>
+      <c r="J67" t="n">
+        <v>1</v>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>Italy</t>
+        </is>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>Czech Republic</t>
+        </is>
+      </c>
+      <c r="M67" t="inlineStr">
         <is>
           <t>Ghana</t>
-        </is>
-      </c>
-      <c r="F67" t="inlineStr">
-        <is>
-          <t>United States</t>
-        </is>
-      </c>
-      <c r="G67" t="inlineStr">
-        <is>
-          <t>Ghana</t>
-        </is>
-      </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>['Ghana', 'Italy']</t>
-        </is>
-      </c>
-      <c r="I67" t="inlineStr">
-        <is>
-          <t>['Czech Republic']</t>
-        </is>
-      </c>
-      <c r="J67" t="n">
-        <v>1</v>
-      </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>Italy</t>
-        </is>
-      </c>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>Ghana</t>
-        </is>
-      </c>
-      <c r="M67" t="inlineStr">
-        <is>
-          <t>Czech Republic</t>
         </is>
       </c>
     </row>
@@ -4010,28 +4010,38 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Group F</t>
+          <t>Group E</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>0</v>
-      </c>
-      <c r="D68" t="inlineStr">
-        <is>
-          <t>initial</t>
-        </is>
-      </c>
-      <c r="E68" t="inlineStr"/>
-      <c r="F68" t="inlineStr"/>
-      <c r="G68" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="D68" t="n">
+        <v>22</v>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>Ghana</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>United States</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>Ghana</t>
+        </is>
+      </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>['Australia', 'Brazil']</t>
+          <t>['Ghana', 'Italy']</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>['Croatia']</t>
+          <t>['Czech Republic']</t>
         </is>
       </c>
       <c r="J68" t="n">
@@ -4039,17 +4049,17 @@
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>Brazil</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="L68" t="inlineStr">
         <is>
-          <t>Australia</t>
+          <t>Ghana</t>
         </is>
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>Croatia</t>
+          <t>Czech Republic</t>
         </is>
       </c>
     </row>
@@ -4063,52 +4073,42 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>1</v>
-      </c>
-      <c r="D69" t="n">
-        <v>2</v>
-      </c>
-      <c r="E69" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>initial</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr"/>
+      <c r="F69" t="inlineStr"/>
+      <c r="G69" t="inlineStr"/>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>['Brazil', 'Australia']</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>['Croatia']</t>
+        </is>
+      </c>
+      <c r="J69" t="n">
+        <v>1</v>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>Brazil</t>
+        </is>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>Australia</t>
+        </is>
+      </c>
+      <c r="M69" t="inlineStr">
         <is>
           <t>Croatia</t>
-        </is>
-      </c>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>Australia</t>
-        </is>
-      </c>
-      <c r="G69" t="inlineStr">
-        <is>
-          <t>Croatia</t>
-        </is>
-      </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>['Croatia', 'Brazil']</t>
-        </is>
-      </c>
-      <c r="I69" t="inlineStr">
-        <is>
-          <t>['Australia']</t>
-        </is>
-      </c>
-      <c r="J69" t="n">
-        <v>1</v>
-      </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>Brazil</t>
-        </is>
-      </c>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>Croatia</t>
-        </is>
-      </c>
-      <c r="M69" t="inlineStr">
-        <is>
-          <t>Australia</t>
         </is>
       </c>
     </row>
@@ -4118,38 +4118,28 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Group F</t>
+          <t>Group G</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>2</v>
-      </c>
-      <c r="D70" t="n">
-        <v>38</v>
-      </c>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>Croatia</t>
-        </is>
-      </c>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>Australia</t>
-        </is>
-      </c>
-      <c r="G70" t="inlineStr">
-        <is>
-          <t>Australia</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>initial</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr"/>
+      <c r="F70" t="inlineStr"/>
+      <c r="G70" t="inlineStr"/>
       <c r="H70" t="inlineStr">
         <is>
-          <t>['Australia', 'Brazil']</t>
+          <t>['Switzerland', 'South Korea']</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>['Japan']</t>
+          <t>['France']</t>
         </is>
       </c>
       <c r="J70" t="n">
@@ -4157,17 +4147,17 @@
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>Brazil</t>
+          <t>South Korea</t>
         </is>
       </c>
       <c r="L70" t="inlineStr">
         <is>
-          <t>Australia</t>
+          <t>Switzerland</t>
         </is>
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>Japan</t>
+          <t>France</t>
         </is>
       </c>
     </row>
@@ -4177,38 +4167,28 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Group F</t>
+          <t>Group H</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>3</v>
-      </c>
-      <c r="D71" t="n">
-        <v>56</v>
-      </c>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t>Croatia</t>
-        </is>
-      </c>
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>Australia</t>
-        </is>
-      </c>
-      <c r="G71" t="inlineStr">
-        <is>
-          <t>Croatia</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>initial</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr"/>
+      <c r="F71" t="inlineStr"/>
+      <c r="G71" t="inlineStr"/>
       <c r="H71" t="inlineStr">
         <is>
-          <t>['Croatia', 'Brazil']</t>
+          <t>['Spain', 'Ukraine']</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>['Australia']</t>
+          <t>['Tunisia']</t>
         </is>
       </c>
       <c r="J71" t="n">
@@ -4216,58 +4196,48 @@
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>Brazil</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="L71" t="inlineStr">
         <is>
-          <t>Croatia</t>
+          <t>Ukraine</t>
         </is>
       </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>Australia</t>
+          <t>Tunisia</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>2006</v>
+        <v>2010</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Group F</t>
+          <t>Group A</t>
         </is>
       </c>
       <c r="C72" t="n">
-        <v>4</v>
-      </c>
-      <c r="D72" t="n">
-        <v>79</v>
-      </c>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t>Croatia</t>
-        </is>
-      </c>
-      <c r="F72" t="inlineStr">
-        <is>
-          <t>Australia</t>
-        </is>
-      </c>
-      <c r="G72" t="inlineStr">
-        <is>
-          <t>Australia</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>initial</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr"/>
+      <c r="F72" t="inlineStr"/>
+      <c r="G72" t="inlineStr"/>
       <c r="H72" t="inlineStr">
         <is>
-          <t>['Australia', 'Brazil']</t>
+          <t>['Uruguay', 'Mexico']</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>['Croatia']</t>
+          <t>['South Africa']</t>
         </is>
       </c>
       <c r="J72" t="n">
@@ -4275,48 +4245,58 @@
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>Brazil</t>
+          <t>Mexico</t>
         </is>
       </c>
       <c r="L72" t="inlineStr">
         <is>
-          <t>Australia</t>
+          <t>Uruguay</t>
         </is>
       </c>
       <c r="M72" t="inlineStr">
         <is>
-          <t>Croatia</t>
+          <t>South Africa</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>2006</v>
+        <v>2010</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Group G</t>
+          <t>Group A</t>
         </is>
       </c>
       <c r="C73" t="n">
-        <v>0</v>
-      </c>
-      <c r="D73" t="inlineStr">
-        <is>
-          <t>initial</t>
-        </is>
-      </c>
-      <c r="E73" t="inlineStr"/>
-      <c r="F73" t="inlineStr"/>
-      <c r="G73" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="D73" t="n">
+        <v>20</v>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>France</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>South Africa</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>South Africa</t>
+        </is>
+      </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>['Switzerland', 'South Korea']</t>
+          <t>['South Africa', 'Mexico']</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>['France']</t>
+          <t>['Uruguay']</t>
         </is>
       </c>
       <c r="J73" t="n">
@@ -4324,58 +4304,58 @@
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>Switzerland</t>
+          <t>Mexico</t>
         </is>
       </c>
       <c r="L73" t="inlineStr">
         <is>
-          <t>South Korea</t>
+          <t>South Africa</t>
         </is>
       </c>
       <c r="M73" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Uruguay</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>2006</v>
+        <v>2010</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Group G</t>
+          <t>Group A</t>
         </is>
       </c>
       <c r="C74" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D74" t="n">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Togo</t>
+          <t>Mexico</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Uruguay</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Uruguay</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>['Switzerland', 'France']</t>
+          <t>['Uruguay', 'Mexico']</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>['South Korea']</t>
+          <t>['South Africa']</t>
         </is>
       </c>
       <c r="J74" t="n">
@@ -4383,27 +4363,27 @@
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>Switzerland</t>
+          <t>Uruguay</t>
         </is>
       </c>
       <c r="L74" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Mexico</t>
         </is>
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>South Korea</t>
+          <t>South Africa</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>2006</v>
+        <v>2010</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Group H</t>
+          <t>Group B</t>
         </is>
       </c>
       <c r="C75" t="n">
@@ -4419,12 +4399,12 @@
       <c r="G75" t="inlineStr"/>
       <c r="H75" t="inlineStr">
         <is>
-          <t>['Ukraine', 'Spain']</t>
+          <t>['Argentina', 'South Korea']</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>['Tunisia']</t>
+          <t>['Greece']</t>
         </is>
       </c>
       <c r="J75" t="n">
@@ -4432,17 +4412,17 @@
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>Argentina</t>
         </is>
       </c>
       <c r="L75" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>South Korea</t>
         </is>
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>Tunisia</t>
+          <t>Greece</t>
         </is>
       </c>
     </row>
@@ -4452,28 +4432,38 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Group A</t>
+          <t>Group B</t>
         </is>
       </c>
       <c r="C76" t="n">
-        <v>0</v>
-      </c>
-      <c r="D76" t="inlineStr">
-        <is>
-          <t>initial</t>
-        </is>
-      </c>
-      <c r="E76" t="inlineStr"/>
-      <c r="F76" t="inlineStr"/>
-      <c r="G76" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="D76" t="n">
+        <v>12</v>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>Nigeria</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>South Korea</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>Nigeria</t>
+        </is>
+      </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>['Uruguay', 'Mexico']</t>
+          <t>['Argentina', 'Greece']</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>['France']</t>
+          <t>['South Korea']</t>
         </is>
       </c>
       <c r="J76" t="n">
@@ -4481,17 +4471,17 @@
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>Uruguay</t>
+          <t>Argentina</t>
         </is>
       </c>
       <c r="L76" t="inlineStr">
         <is>
-          <t>Mexico</t>
+          <t>Greece</t>
         </is>
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>South Korea</t>
         </is>
       </c>
     </row>
@@ -4505,16 +4495,26 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>0</v>
-      </c>
-      <c r="D77" t="inlineStr">
-        <is>
-          <t>initial</t>
-        </is>
-      </c>
-      <c r="E77" t="inlineStr"/>
-      <c r="F77" t="inlineStr"/>
-      <c r="G77" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="D77" t="n">
+        <v>38</v>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>Nigeria</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>South Korea</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>South Korea</t>
+        </is>
+      </c>
       <c r="H77" t="inlineStr">
         <is>
           <t>['Argentina', 'South Korea']</t>
@@ -4550,38 +4550,28 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Group B</t>
+          <t>Group C</t>
         </is>
       </c>
       <c r="C78" t="n">
-        <v>1</v>
-      </c>
-      <c r="D78" t="n">
-        <v>12</v>
-      </c>
-      <c r="E78" t="inlineStr">
-        <is>
-          <t>Nigeria</t>
-        </is>
-      </c>
-      <c r="F78" t="inlineStr">
-        <is>
-          <t>South Korea</t>
-        </is>
-      </c>
-      <c r="G78" t="inlineStr">
-        <is>
-          <t>Nigeria</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>initial</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr"/>
+      <c r="F78" t="inlineStr"/>
+      <c r="G78" t="inlineStr"/>
       <c r="H78" t="inlineStr">
         <is>
-          <t>['Greece', 'Argentina']</t>
+          <t>['Slovenia', 'United States']</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>['South Korea']</t>
+          <t>['England']</t>
         </is>
       </c>
       <c r="J78" t="n">
@@ -4589,17 +4579,17 @@
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>Argentina</t>
+          <t>Slovenia</t>
         </is>
       </c>
       <c r="L78" t="inlineStr">
         <is>
-          <t>Greece</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>South Korea</t>
+          <t>England</t>
         </is>
       </c>
     </row>
@@ -4609,38 +4599,38 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Group B</t>
+          <t>Group C</t>
         </is>
       </c>
       <c r="C79" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D79" t="n">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Nigeria</t>
+          <t>Slovenia</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>South Korea</t>
+          <t>England</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>South Korea</t>
+          <t>England</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>['Argentina', 'South Korea']</t>
+          <t>['Slovenia', 'England']</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>['Greece']</t>
+          <t>['United States']</t>
         </is>
       </c>
       <c r="J79" t="n">
@@ -4648,17 +4638,17 @@
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>Argentina</t>
+          <t>Slovenia</t>
         </is>
       </c>
       <c r="L79" t="inlineStr">
         <is>
-          <t>South Korea</t>
+          <t>England</t>
         </is>
       </c>
       <c r="M79" t="inlineStr">
         <is>
-          <t>Greece</t>
+          <t>United States</t>
         </is>
       </c>
     </row>
@@ -4672,16 +4662,26 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>0</v>
-      </c>
-      <c r="D80" t="inlineStr">
-        <is>
-          <t>initial</t>
-        </is>
-      </c>
-      <c r="E80" t="inlineStr"/>
-      <c r="F80" t="inlineStr"/>
-      <c r="G80" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="D80" t="n">
+        <v>91</v>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>United States</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>Algeria</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>United States</t>
+        </is>
+      </c>
       <c r="H80" t="inlineStr">
         <is>
           <t>['Slovenia', 'United States']</t>
@@ -4697,12 +4697,12 @@
       </c>
       <c r="K80" t="inlineStr">
         <is>
+          <t>United States</t>
+        </is>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
           <t>Slovenia</t>
-        </is>
-      </c>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>United States</t>
         </is>
       </c>
       <c r="M80" t="inlineStr">
@@ -4717,38 +4717,28 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Group C</t>
+          <t>Group D</t>
         </is>
       </c>
       <c r="C81" t="n">
-        <v>1</v>
-      </c>
-      <c r="D81" t="n">
-        <v>23</v>
-      </c>
-      <c r="E81" t="inlineStr">
-        <is>
-          <t>Slovenia</t>
-        </is>
-      </c>
-      <c r="F81" t="inlineStr">
-        <is>
-          <t>England</t>
-        </is>
-      </c>
-      <c r="G81" t="inlineStr">
-        <is>
-          <t>England</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>initial</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr"/>
+      <c r="F81" t="inlineStr"/>
+      <c r="G81" t="inlineStr"/>
       <c r="H81" t="inlineStr">
         <is>
-          <t>['Slovenia', 'England']</t>
+          <t>['Ghana', 'Germany']</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>['United States']</t>
+          <t>['Serbia']</t>
         </is>
       </c>
       <c r="J81" t="n">
@@ -4756,17 +4746,17 @@
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>England</t>
+          <t>Ghana</t>
         </is>
       </c>
       <c r="L81" t="inlineStr">
         <is>
-          <t>Slovenia</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="M81" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>Serbia</t>
         </is>
       </c>
     </row>
@@ -4776,38 +4766,28 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Group C</t>
+          <t>Group E</t>
         </is>
       </c>
       <c r="C82" t="n">
-        <v>2</v>
-      </c>
-      <c r="D82" t="n">
-        <v>91</v>
-      </c>
-      <c r="E82" t="inlineStr">
-        <is>
-          <t>United States</t>
-        </is>
-      </c>
-      <c r="F82" t="inlineStr">
-        <is>
-          <t>Algeria</t>
-        </is>
-      </c>
-      <c r="G82" t="inlineStr">
-        <is>
-          <t>United States</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>initial</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr"/>
+      <c r="F82" t="inlineStr"/>
+      <c r="G82" t="inlineStr"/>
       <c r="H82" t="inlineStr">
         <is>
-          <t>['United States', 'England']</t>
+          <t>['Denmark', 'Netherlands']</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>['Slovenia']</t>
+          <t>['Japan']</t>
         </is>
       </c>
       <c r="J82" t="n">
@@ -4815,17 +4795,17 @@
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="L82" t="inlineStr">
         <is>
-          <t>England</t>
+          <t>Denmark</t>
         </is>
       </c>
       <c r="M82" t="inlineStr">
         <is>
-          <t>Slovenia</t>
+          <t>Japan</t>
         </is>
       </c>
     </row>
@@ -4835,28 +4815,38 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Group D</t>
+          <t>Group E</t>
         </is>
       </c>
       <c r="C83" t="n">
-        <v>0</v>
-      </c>
-      <c r="D83" t="inlineStr">
-        <is>
-          <t>initial</t>
-        </is>
-      </c>
-      <c r="E83" t="inlineStr"/>
-      <c r="F83" t="inlineStr"/>
-      <c r="G83" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="D83" t="n">
+        <v>17</v>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>Japan</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>Japan</t>
+        </is>
+      </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>['Germany', 'Ghana']</t>
+          <t>['Japan', 'Netherlands']</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>['Serbia']</t>
+          <t>['Denmark']</t>
         </is>
       </c>
       <c r="J83" t="n">
@@ -4864,17 +4854,17 @@
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>Ghana</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="L83" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Japan</t>
         </is>
       </c>
       <c r="M83" t="inlineStr">
         <is>
-          <t>Serbia</t>
+          <t>Denmark</t>
         </is>
       </c>
     </row>
@@ -4884,7 +4874,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Group E</t>
+          <t>Group F</t>
         </is>
       </c>
       <c r="C84" t="n">
@@ -4900,12 +4890,12 @@
       <c r="G84" t="inlineStr"/>
       <c r="H84" t="inlineStr">
         <is>
-          <t>['Denmark', 'Netherlands']</t>
+          <t>['Paraguay', 'Italy']</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>['Japan']</t>
+          <t>['New Zealand']</t>
         </is>
       </c>
       <c r="J84" t="n">
@@ -4913,17 +4903,17 @@
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>Paraguay</t>
         </is>
       </c>
       <c r="L84" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="M84" t="inlineStr">
         <is>
-          <t>Japan</t>
+          <t>New Zealand</t>
         </is>
       </c>
     </row>
@@ -4933,38 +4923,38 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Group E</t>
+          <t>Group F</t>
         </is>
       </c>
       <c r="C85" t="n">
         <v>1</v>
       </c>
       <c r="D85" t="n">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Slovakia</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Japan</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>Japan</t>
+          <t>Slovakia</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>['Japan', 'Netherlands']</t>
+          <t>['Paraguay', 'Slovakia']</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>['Denmark']</t>
+          <t>['New Zealand']</t>
         </is>
       </c>
       <c r="J85" t="n">
@@ -4972,17 +4962,17 @@
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>Paraguay</t>
         </is>
       </c>
       <c r="L85" t="inlineStr">
         <is>
-          <t>Japan</t>
+          <t>Slovakia</t>
         </is>
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>New Zealand</t>
         </is>
       </c>
     </row>
@@ -4992,7 +4982,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Group F</t>
+          <t>Group G</t>
         </is>
       </c>
       <c r="C86" t="n">
@@ -5008,12 +4998,12 @@
       <c r="G86" t="inlineStr"/>
       <c r="H86" t="inlineStr">
         <is>
-          <t>['Paraguay', 'Italy']</t>
+          <t>['Brazil', 'Portugal']</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>['New Zealand']</t>
+          <t>['North Korea']</t>
         </is>
       </c>
       <c r="J86" t="n">
@@ -5021,17 +5011,17 @@
       </c>
       <c r="K86" t="inlineStr">
         <is>
-          <t>Paraguay</t>
+          <t>Brazil</t>
         </is>
       </c>
       <c r="L86" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="M86" t="inlineStr">
         <is>
-          <t>New Zealand</t>
+          <t>North Korea</t>
         </is>
       </c>
     </row>
@@ -5041,38 +5031,28 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Group F</t>
+          <t>Group H</t>
         </is>
       </c>
       <c r="C87" t="n">
-        <v>1</v>
-      </c>
-      <c r="D87" t="n">
-        <v>25</v>
-      </c>
-      <c r="E87" t="inlineStr">
-        <is>
-          <t>Slovakia</t>
-        </is>
-      </c>
-      <c r="F87" t="inlineStr">
-        <is>
-          <t>Italy</t>
-        </is>
-      </c>
-      <c r="G87" t="inlineStr">
-        <is>
-          <t>Slovakia</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>initial</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr"/>
+      <c r="F87" t="inlineStr"/>
+      <c r="G87" t="inlineStr"/>
       <c r="H87" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Paraguay']</t>
+          <t>['Spain', 'Chile']</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>['New Zealand']</t>
+          <t>['Switzerland']</t>
         </is>
       </c>
       <c r="J87" t="n">
@@ -5080,27 +5060,27 @@
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>Paraguay</t>
+          <t>Chile</t>
         </is>
       </c>
       <c r="L87" t="inlineStr">
         <is>
-          <t>Slovakia</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="M87" t="inlineStr">
         <is>
-          <t>New Zealand</t>
+          <t>Switzerland</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>2010</v>
+        <v>2014</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Group G</t>
+          <t>Group A</t>
         </is>
       </c>
       <c r="C88" t="n">
@@ -5116,12 +5096,12 @@
       <c r="G88" t="inlineStr"/>
       <c r="H88" t="inlineStr">
         <is>
-          <t>['Portugal', 'Brazil']</t>
+          <t>['Brazil', 'Croatia']</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>['Ivory Coast']</t>
+          <t>['Mexico']</t>
         </is>
       </c>
       <c r="J88" t="n">
@@ -5129,48 +5109,58 @@
       </c>
       <c r="K88" t="inlineStr">
         <is>
+          <t>Croatia</t>
+        </is>
+      </c>
+      <c r="L88" t="inlineStr">
+        <is>
           <t>Brazil</t>
         </is>
       </c>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>Portugal</t>
-        </is>
-      </c>
       <c r="M88" t="inlineStr">
         <is>
-          <t>Ivory Coast</t>
+          <t>Mexico</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>2010</v>
+        <v>2014</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Group H</t>
+          <t>Group A</t>
         </is>
       </c>
       <c r="C89" t="n">
-        <v>0</v>
-      </c>
-      <c r="D89" t="inlineStr">
-        <is>
-          <t>initial</t>
-        </is>
-      </c>
-      <c r="E89" t="inlineStr"/>
-      <c r="F89" t="inlineStr"/>
-      <c r="G89" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="D89" t="n">
+        <v>72</v>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>Croatia</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>['Spain', 'Chile']</t>
+          <t>['Brazil', 'Mexico']</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>['Switzerland']</t>
+          <t>['Croatia']</t>
         </is>
       </c>
       <c r="J89" t="n">
@@ -5178,17 +5168,17 @@
       </c>
       <c r="K89" t="inlineStr">
         <is>
-          <t>Chile</t>
+          <t>Brazil</t>
         </is>
       </c>
       <c r="L89" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>Mexico</t>
         </is>
       </c>
       <c r="M89" t="inlineStr">
         <is>
-          <t>Switzerland</t>
+          <t>Croatia</t>
         </is>
       </c>
     </row>
@@ -5198,7 +5188,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Group A</t>
+          <t>Group B</t>
         </is>
       </c>
       <c r="C90" t="n">
@@ -5214,12 +5204,12 @@
       <c r="G90" t="inlineStr"/>
       <c r="H90" t="inlineStr">
         <is>
-          <t>['Mexico', 'Brazil']</t>
+          <t>['Chile', 'Netherlands']</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>['Croatia']</t>
+          <t>['Australia']</t>
         </is>
       </c>
       <c r="J90" t="n">
@@ -5227,17 +5217,17 @@
       </c>
       <c r="K90" t="inlineStr">
         <is>
-          <t>Brazil</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="L90" t="inlineStr">
         <is>
-          <t>Mexico</t>
+          <t>Chile</t>
         </is>
       </c>
       <c r="M90" t="inlineStr">
         <is>
-          <t>Croatia</t>
+          <t>Australia</t>
         </is>
       </c>
     </row>
@@ -5247,7 +5237,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Group B</t>
+          <t>Group C</t>
         </is>
       </c>
       <c r="C91" t="n">
@@ -5263,12 +5253,12 @@
       <c r="G91" t="inlineStr"/>
       <c r="H91" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Chile']</t>
+          <t>['Ivory Coast', 'Colombia']</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>['Australia']</t>
+          <t>['Japan']</t>
         </is>
       </c>
       <c r="J91" t="n">
@@ -5276,17 +5266,17 @@
       </c>
       <c r="K91" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>Colombia</t>
         </is>
       </c>
       <c r="L91" t="inlineStr">
         <is>
-          <t>Chile</t>
+          <t>Ivory Coast</t>
         </is>
       </c>
       <c r="M91" t="inlineStr">
         <is>
-          <t>Australia</t>
+          <t>Japan</t>
         </is>
       </c>
     </row>
@@ -5296,7 +5286,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Group C</t>
+          <t>Group D</t>
         </is>
       </c>
       <c r="C92" t="n">
@@ -5312,12 +5302,12 @@
       <c r="G92" t="inlineStr"/>
       <c r="H92" t="inlineStr">
         <is>
-          <t>['Colombia', 'Ivory Coast']</t>
+          <t>['Italy', 'Costa Rica']</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>['Japan']</t>
+          <t>['Uruguay']</t>
         </is>
       </c>
       <c r="J92" t="n">
@@ -5325,17 +5315,17 @@
       </c>
       <c r="K92" t="inlineStr">
         <is>
-          <t>Colombia</t>
+          <t>Costa Rica</t>
         </is>
       </c>
       <c r="L92" t="inlineStr">
         <is>
-          <t>Ivory Coast</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="M92" t="inlineStr">
         <is>
-          <t>Japan</t>
+          <t>Uruguay</t>
         </is>
       </c>
     </row>
@@ -5345,38 +5335,38 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Group C</t>
+          <t>Group D</t>
         </is>
       </c>
       <c r="C93" t="n">
         <v>1</v>
       </c>
       <c r="D93" t="n">
-        <v>42</v>
+        <v>81</v>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>Greece</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Ivory Coast</t>
+          <t>Uruguay</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>Greece</t>
+          <t>Uruguay</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>['Colombia', 'Greece']</t>
+          <t>['Uruguay', 'Costa Rica']</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>['Ivory Coast']</t>
+          <t>['Italy']</t>
         </is>
       </c>
       <c r="J93" t="n">
@@ -5384,17 +5374,17 @@
       </c>
       <c r="K93" t="inlineStr">
         <is>
-          <t>Colombia</t>
+          <t>Costa Rica</t>
         </is>
       </c>
       <c r="L93" t="inlineStr">
         <is>
-          <t>Greece</t>
+          <t>Uruguay</t>
         </is>
       </c>
       <c r="M93" t="inlineStr">
         <is>
-          <t>Ivory Coast</t>
+          <t>Italy</t>
         </is>
       </c>
     </row>
@@ -5404,38 +5394,28 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Group C</t>
+          <t>Group E</t>
         </is>
       </c>
       <c r="C94" t="n">
-        <v>2</v>
-      </c>
-      <c r="D94" t="n">
-        <v>74</v>
-      </c>
-      <c r="E94" t="inlineStr">
-        <is>
-          <t>Greece</t>
-        </is>
-      </c>
-      <c r="F94" t="inlineStr">
-        <is>
-          <t>Ivory Coast</t>
-        </is>
-      </c>
-      <c r="G94" t="inlineStr">
-        <is>
-          <t>Ivory Coast</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>initial</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr"/>
+      <c r="F94" t="inlineStr"/>
+      <c r="G94" t="inlineStr"/>
       <c r="H94" t="inlineStr">
         <is>
-          <t>['Colombia', 'Ivory Coast']</t>
+          <t>['Ecuador', 'France']</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>['Greece']</t>
+          <t>['Switzerland']</t>
         </is>
       </c>
       <c r="J94" t="n">
@@ -5443,17 +5423,17 @@
       </c>
       <c r="K94" t="inlineStr">
         <is>
-          <t>Colombia</t>
+          <t>France</t>
         </is>
       </c>
       <c r="L94" t="inlineStr">
         <is>
-          <t>Ivory Coast</t>
+          <t>Ecuador</t>
         </is>
       </c>
       <c r="M94" t="inlineStr">
         <is>
-          <t>Greece</t>
+          <t>Switzerland</t>
         </is>
       </c>
     </row>
@@ -5463,38 +5443,38 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Group C</t>
+          <t>Group E</t>
         </is>
       </c>
       <c r="C95" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D95" t="n">
-        <v>93</v>
+        <v>6</v>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>Greece</t>
+          <t>Honduras</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>Ivory Coast</t>
+          <t>Switzerland</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>Greece</t>
+          <t>Switzerland</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>['Colombia', 'Greece']</t>
+          <t>['Switzerland', 'France']</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>['Ivory Coast']</t>
+          <t>['Ecuador']</t>
         </is>
       </c>
       <c r="J95" t="n">
@@ -5502,17 +5482,17 @@
       </c>
       <c r="K95" t="inlineStr">
         <is>
-          <t>Colombia</t>
+          <t>France</t>
         </is>
       </c>
       <c r="L95" t="inlineStr">
         <is>
-          <t>Greece</t>
+          <t>Switzerland</t>
         </is>
       </c>
       <c r="M95" t="inlineStr">
         <is>
-          <t>Ivory Coast</t>
+          <t>Ecuador</t>
         </is>
       </c>
     </row>
@@ -5522,7 +5502,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Group D</t>
+          <t>Group F</t>
         </is>
       </c>
       <c r="C96" t="n">
@@ -5538,12 +5518,12 @@
       <c r="G96" t="inlineStr"/>
       <c r="H96" t="inlineStr">
         <is>
-          <t>['Costa Rica', 'Italy']</t>
+          <t>['Argentina', 'Nigeria']</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>['Uruguay']</t>
+          <t>['Bosnia and Herzegovina']</t>
         </is>
       </c>
       <c r="J96" t="n">
@@ -5551,17 +5531,17 @@
       </c>
       <c r="K96" t="inlineStr">
         <is>
-          <t>Costa Rica</t>
+          <t>Argentina</t>
         </is>
       </c>
       <c r="L96" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Nigeria</t>
         </is>
       </c>
       <c r="M96" t="inlineStr">
         <is>
-          <t>Uruguay</t>
+          <t>Bosnia and Herzegovina</t>
         </is>
       </c>
     </row>
@@ -5571,38 +5551,38 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Group D</t>
+          <t>Group F</t>
         </is>
       </c>
       <c r="C97" t="n">
         <v>1</v>
       </c>
       <c r="D97" t="n">
-        <v>81</v>
+        <v>23</v>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Bosnia and Herzegovina</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>Uruguay</t>
+          <t>Iran</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>Uruguay</t>
+          <t>Bosnia and Herzegovina</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>['Uruguay', 'Costa Rica']</t>
+          <t>['Bosnia and Herzegovina', 'Argentina']</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>['Italy']</t>
+          <t>['Nigeria']</t>
         </is>
       </c>
       <c r="J97" t="n">
@@ -5610,17 +5590,17 @@
       </c>
       <c r="K97" t="inlineStr">
         <is>
-          <t>Costa Rica</t>
+          <t>Argentina</t>
         </is>
       </c>
       <c r="L97" t="inlineStr">
         <is>
-          <t>Uruguay</t>
+          <t>Bosnia and Herzegovina</t>
         </is>
       </c>
       <c r="M97" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Nigeria</t>
         </is>
       </c>
     </row>
@@ -5630,7 +5610,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Group E</t>
+          <t>Group G</t>
         </is>
       </c>
       <c r="C98" t="n">
@@ -5646,12 +5626,12 @@
       <c r="G98" t="inlineStr"/>
       <c r="H98" t="inlineStr">
         <is>
-          <t>['Ecuador', 'France']</t>
+          <t>['United States', 'Germany']</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>['Switzerland']</t>
+          <t>['Ghana']</t>
         </is>
       </c>
       <c r="J98" t="n">
@@ -5659,17 +5639,17 @@
       </c>
       <c r="K98" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="L98" t="inlineStr">
         <is>
-          <t>Ecuador</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="M98" t="inlineStr">
         <is>
-          <t>Switzerland</t>
+          <t>Ghana</t>
         </is>
       </c>
     </row>
@@ -5679,38 +5659,28 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Group E</t>
+          <t>Group H</t>
         </is>
       </c>
       <c r="C99" t="n">
-        <v>1</v>
-      </c>
-      <c r="D99" t="n">
-        <v>6</v>
-      </c>
-      <c r="E99" t="inlineStr">
-        <is>
-          <t>Honduras</t>
-        </is>
-      </c>
-      <c r="F99" t="inlineStr">
-        <is>
-          <t>Switzerland</t>
-        </is>
-      </c>
-      <c r="G99" t="inlineStr">
-        <is>
-          <t>Switzerland</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>initial</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr"/>
+      <c r="F99" t="inlineStr"/>
+      <c r="G99" t="inlineStr"/>
       <c r="H99" t="inlineStr">
         <is>
-          <t>['Switzerland', 'France']</t>
+          <t>['Algeria', 'Belgium']</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>['Ecuador']</t>
+          <t>['Russia']</t>
         </is>
       </c>
       <c r="J99" t="n">
@@ -5718,17 +5688,17 @@
       </c>
       <c r="K99" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Belgium</t>
         </is>
       </c>
       <c r="L99" t="inlineStr">
         <is>
-          <t>Switzerland</t>
+          <t>Algeria</t>
         </is>
       </c>
       <c r="M99" t="inlineStr">
         <is>
-          <t>Ecuador</t>
+          <t>Russia</t>
         </is>
       </c>
     </row>
@@ -5738,28 +5708,38 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Group F</t>
+          <t>Group H</t>
         </is>
       </c>
       <c r="C100" t="n">
-        <v>0</v>
-      </c>
-      <c r="D100" t="inlineStr">
-        <is>
-          <t>initial</t>
-        </is>
-      </c>
-      <c r="E100" t="inlineStr"/>
-      <c r="F100" t="inlineStr"/>
-      <c r="G100" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="D100" t="n">
+        <v>6</v>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>Algeria</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>Russia</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>Russia</t>
+        </is>
+      </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>['Argentina', 'Nigeria']</t>
+          <t>['Belgium', 'Russia']</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>['Bosnia and Herzegovina']</t>
+          <t>['Algeria']</t>
         </is>
       </c>
       <c r="J100" t="n">
@@ -5767,17 +5747,17 @@
       </c>
       <c r="K100" t="inlineStr">
         <is>
-          <t>Argentina</t>
+          <t>Belgium</t>
         </is>
       </c>
       <c r="L100" t="inlineStr">
         <is>
-          <t>Nigeria</t>
+          <t>Russia</t>
         </is>
       </c>
       <c r="M100" t="inlineStr">
         <is>
-          <t>Bosnia and Herzegovina</t>
+          <t>Algeria</t>
         </is>
       </c>
     </row>
@@ -5787,38 +5767,38 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Group F</t>
+          <t>Group H</t>
         </is>
       </c>
       <c r="C101" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D101" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>Bosnia and Herzegovina</t>
+          <t>Algeria</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>Iran</t>
+          <t>Russia</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>Bosnia and Herzegovina</t>
+          <t>Algeria</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>['Bosnia and Herzegovina', 'Argentina']</t>
+          <t>['Algeria', 'Belgium']</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>['Nigeria']</t>
+          <t>['Russia']</t>
         </is>
       </c>
       <c r="J101" t="n">
@@ -5826,27 +5806,27 @@
       </c>
       <c r="K101" t="inlineStr">
         <is>
-          <t>Argentina</t>
+          <t>Belgium</t>
         </is>
       </c>
       <c r="L101" t="inlineStr">
         <is>
-          <t>Bosnia and Herzegovina</t>
+          <t>Algeria</t>
         </is>
       </c>
       <c r="M101" t="inlineStr">
         <is>
-          <t>Nigeria</t>
+          <t>Russia</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>2014</v>
+        <v>2018</v>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Group G</t>
+          <t>Group A</t>
         </is>
       </c>
       <c r="C102" t="n">
@@ -5862,12 +5842,12 @@
       <c r="G102" t="inlineStr"/>
       <c r="H102" t="inlineStr">
         <is>
-          <t>['Germany', 'United States']</t>
+          <t>['Uruguay', 'Russia']</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>['Ghana']</t>
+          <t>['Egypt']</t>
         </is>
       </c>
       <c r="J102" t="n">
@@ -5875,27 +5855,27 @@
       </c>
       <c r="K102" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Russia</t>
         </is>
       </c>
       <c r="L102" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>Uruguay</t>
         </is>
       </c>
       <c r="M102" t="inlineStr">
         <is>
-          <t>Ghana</t>
+          <t>Egypt</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>2014</v>
+        <v>2018</v>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Group H</t>
+          <t>Group B</t>
         </is>
       </c>
       <c r="C103" t="n">
@@ -5911,12 +5891,12 @@
       <c r="G103" t="inlineStr"/>
       <c r="H103" t="inlineStr">
         <is>
-          <t>['Algeria', 'Belgium']</t>
+          <t>['Spain', 'Portugal']</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>['Russia']</t>
+          <t>['Morocco']</t>
         </is>
       </c>
       <c r="J103" t="n">
@@ -5924,58 +5904,48 @@
       </c>
       <c r="K103" t="inlineStr">
         <is>
-          <t>Belgium</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="L103" t="inlineStr">
         <is>
-          <t>Algeria</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="M103" t="inlineStr">
         <is>
-          <t>Russia</t>
+          <t>Morocco</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>2014</v>
+        <v>2018</v>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Group H</t>
+          <t>Group C</t>
         </is>
       </c>
       <c r="C104" t="n">
-        <v>1</v>
-      </c>
-      <c r="D104" t="n">
-        <v>6</v>
-      </c>
-      <c r="E104" t="inlineStr">
-        <is>
-          <t>Algeria</t>
-        </is>
-      </c>
-      <c r="F104" t="inlineStr">
-        <is>
-          <t>Russia</t>
-        </is>
-      </c>
-      <c r="G104" t="inlineStr">
-        <is>
-          <t>Russia</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>initial</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr"/>
+      <c r="F104" t="inlineStr"/>
+      <c r="G104" t="inlineStr"/>
       <c r="H104" t="inlineStr">
         <is>
-          <t>['Belgium', 'Russia']</t>
+          <t>['Denmark', 'France']</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>['Algeria']</t>
+          <t>['Australia']</t>
         </is>
       </c>
       <c r="J104" t="n">
@@ -5983,58 +5953,48 @@
       </c>
       <c r="K104" t="inlineStr">
         <is>
-          <t>Belgium</t>
+          <t>France</t>
         </is>
       </c>
       <c r="L104" t="inlineStr">
         <is>
-          <t>Russia</t>
+          <t>Denmark</t>
         </is>
       </c>
       <c r="M104" t="inlineStr">
         <is>
-          <t>Algeria</t>
+          <t>Australia</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>2014</v>
+        <v>2018</v>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Group H</t>
+          <t>Group D</t>
         </is>
       </c>
       <c r="C105" t="n">
-        <v>2</v>
-      </c>
-      <c r="D105" t="n">
-        <v>60</v>
-      </c>
-      <c r="E105" t="inlineStr">
-        <is>
-          <t>Algeria</t>
-        </is>
-      </c>
-      <c r="F105" t="inlineStr">
-        <is>
-          <t>Russia</t>
-        </is>
-      </c>
-      <c r="G105" t="inlineStr">
-        <is>
-          <t>Algeria</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>initial</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr"/>
+      <c r="F105" t="inlineStr"/>
+      <c r="G105" t="inlineStr"/>
       <c r="H105" t="inlineStr">
         <is>
-          <t>['Algeria', 'Belgium']</t>
+          <t>['Croatia', 'Nigeria']</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>['Russia']</t>
+          <t>['Iceland']</t>
         </is>
       </c>
       <c r="J105" t="n">
@@ -6042,17 +6002,17 @@
       </c>
       <c r="K105" t="inlineStr">
         <is>
-          <t>Belgium</t>
+          <t>Croatia</t>
         </is>
       </c>
       <c r="L105" t="inlineStr">
         <is>
-          <t>Algeria</t>
+          <t>Nigeria</t>
         </is>
       </c>
       <c r="M105" t="inlineStr">
         <is>
-          <t>Russia</t>
+          <t>Iceland</t>
         </is>
       </c>
     </row>
@@ -6062,28 +6022,38 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Group A</t>
+          <t>Group D</t>
         </is>
       </c>
       <c r="C106" t="n">
-        <v>0</v>
-      </c>
-      <c r="D106" t="inlineStr">
-        <is>
-          <t>initial</t>
-        </is>
-      </c>
-      <c r="E106" t="inlineStr"/>
-      <c r="F106" t="inlineStr"/>
-      <c r="G106" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="D106" t="n">
+        <v>14</v>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>Nigeria</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>Argentina</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>Argentina</t>
+        </is>
+      </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>['Uruguay', 'Russia']</t>
+          <t>['Croatia', 'Argentina']</t>
         </is>
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>['Egypt']</t>
+          <t>['Nigeria']</t>
         </is>
       </c>
       <c r="J106" t="n">
@@ -6091,17 +6061,17 @@
       </c>
       <c r="K106" t="inlineStr">
         <is>
-          <t>Russia</t>
+          <t>Croatia</t>
         </is>
       </c>
       <c r="L106" t="inlineStr">
         <is>
-          <t>Uruguay</t>
+          <t>Argentina</t>
         </is>
       </c>
       <c r="M106" t="inlineStr">
         <is>
-          <t>Egypt</t>
+          <t>Nigeria</t>
         </is>
       </c>
     </row>
@@ -6111,28 +6081,38 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Group B</t>
+          <t>Group D</t>
         </is>
       </c>
       <c r="C107" t="n">
-        <v>0</v>
-      </c>
-      <c r="D107" t="inlineStr">
-        <is>
-          <t>initial</t>
-        </is>
-      </c>
-      <c r="E107" t="inlineStr"/>
-      <c r="F107" t="inlineStr"/>
-      <c r="G107" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="D107" t="n">
+        <v>51</v>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>Nigeria</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>Argentina</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>Nigeria</t>
+        </is>
+      </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>['Spain', 'Portugal']</t>
+          <t>['Croatia', 'Nigeria']</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>['Iran']</t>
+          <t>['Iceland']</t>
         </is>
       </c>
       <c r="J107" t="n">
@@ -6140,17 +6120,17 @@
       </c>
       <c r="K107" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Croatia</t>
         </is>
       </c>
       <c r="L107" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>Nigeria</t>
         </is>
       </c>
       <c r="M107" t="inlineStr">
         <is>
-          <t>Iran</t>
+          <t>Iceland</t>
         </is>
       </c>
     </row>
@@ -6160,28 +6140,38 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Group C</t>
+          <t>Group D</t>
         </is>
       </c>
       <c r="C108" t="n">
-        <v>0</v>
-      </c>
-      <c r="D108" t="inlineStr">
-        <is>
-          <t>initial</t>
-        </is>
-      </c>
-      <c r="E108" t="inlineStr"/>
-      <c r="F108" t="inlineStr"/>
-      <c r="G108" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="D108" t="n">
+        <v>86</v>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>Nigeria</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>Argentina</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>Argentina</t>
+        </is>
+      </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>['France', 'Denmark']</t>
+          <t>['Croatia', 'Argentina']</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>['Australia']</t>
+          <t>['Nigeria']</t>
         </is>
       </c>
       <c r="J108" t="n">
@@ -6189,17 +6179,17 @@
       </c>
       <c r="K108" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Croatia</t>
         </is>
       </c>
       <c r="L108" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Argentina</t>
         </is>
       </c>
       <c r="M108" t="inlineStr">
         <is>
-          <t>Australia</t>
+          <t>Nigeria</t>
         </is>
       </c>
     </row>
@@ -6209,7 +6199,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Group D</t>
+          <t>Group E</t>
         </is>
       </c>
       <c r="C109" t="n">
@@ -6225,12 +6215,12 @@
       <c r="G109" t="inlineStr"/>
       <c r="H109" t="inlineStr">
         <is>
-          <t>['Croatia', 'Nigeria']</t>
+          <t>['Brazil', 'Switzerland']</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>['Iceland']</t>
+          <t>['Serbia']</t>
         </is>
       </c>
       <c r="J109" t="n">
@@ -6238,17 +6228,17 @@
       </c>
       <c r="K109" t="inlineStr">
         <is>
-          <t>Croatia</t>
+          <t>Brazil</t>
         </is>
       </c>
       <c r="L109" t="inlineStr">
         <is>
-          <t>Nigeria</t>
+          <t>Switzerland</t>
         </is>
       </c>
       <c r="M109" t="inlineStr">
         <is>
-          <t>Iceland</t>
+          <t>Serbia</t>
         </is>
       </c>
     </row>
@@ -6258,38 +6248,28 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Group D</t>
+          <t>Group F</t>
         </is>
       </c>
       <c r="C110" t="n">
-        <v>1</v>
-      </c>
-      <c r="D110" t="n">
-        <v>14</v>
-      </c>
-      <c r="E110" t="inlineStr">
-        <is>
-          <t>Nigeria</t>
-        </is>
-      </c>
-      <c r="F110" t="inlineStr">
-        <is>
-          <t>Argentina</t>
-        </is>
-      </c>
-      <c r="G110" t="inlineStr">
-        <is>
-          <t>Argentina</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>initial</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr"/>
+      <c r="F110" t="inlineStr"/>
+      <c r="G110" t="inlineStr"/>
       <c r="H110" t="inlineStr">
         <is>
-          <t>['Croatia', 'Argentina']</t>
+          <t>['Germany', 'Mexico']</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>['Nigeria']</t>
+          <t>['Sweden']</t>
         </is>
       </c>
       <c r="J110" t="n">
@@ -6297,17 +6277,17 @@
       </c>
       <c r="K110" t="inlineStr">
         <is>
-          <t>Croatia</t>
+          <t>Mexico</t>
         </is>
       </c>
       <c r="L110" t="inlineStr">
         <is>
-          <t>Argentina</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="M110" t="inlineStr">
         <is>
-          <t>Nigeria</t>
+          <t>Sweden</t>
         </is>
       </c>
     </row>
@@ -6317,38 +6297,38 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Group D</t>
+          <t>Group F</t>
         </is>
       </c>
       <c r="C111" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D111" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>Nigeria</t>
+          <t>Mexico</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>Argentina</t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>Nigeria</t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>['Croatia', 'Nigeria']</t>
+          <t>['Sweden', 'Mexico']</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>['Iceland']</t>
+          <t>['Germany']</t>
         </is>
       </c>
       <c r="J111" t="n">
@@ -6356,17 +6336,17 @@
       </c>
       <c r="K111" t="inlineStr">
         <is>
-          <t>Croatia</t>
+          <t>Mexico</t>
         </is>
       </c>
       <c r="L111" t="inlineStr">
         <is>
-          <t>Nigeria</t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="M111" t="inlineStr">
         <is>
-          <t>Iceland</t>
+          <t>Germany</t>
         </is>
       </c>
     </row>
@@ -6376,38 +6356,28 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Group D</t>
+          <t>Group G</t>
         </is>
       </c>
       <c r="C112" t="n">
-        <v>3</v>
-      </c>
-      <c r="D112" t="n">
-        <v>86</v>
-      </c>
-      <c r="E112" t="inlineStr">
-        <is>
-          <t>Nigeria</t>
-        </is>
-      </c>
-      <c r="F112" t="inlineStr">
-        <is>
-          <t>Argentina</t>
-        </is>
-      </c>
-      <c r="G112" t="inlineStr">
-        <is>
-          <t>Argentina</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>initial</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr"/>
+      <c r="F112" t="inlineStr"/>
+      <c r="G112" t="inlineStr"/>
       <c r="H112" t="inlineStr">
         <is>
-          <t>['Croatia', 'Argentina']</t>
+          <t>['Belgium', 'England']</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>['Nigeria']</t>
+          <t>['Tunisia']</t>
         </is>
       </c>
       <c r="J112" t="n">
@@ -6415,17 +6385,17 @@
       </c>
       <c r="K112" t="inlineStr">
         <is>
-          <t>Croatia</t>
+          <t>Belgium</t>
         </is>
       </c>
       <c r="L112" t="inlineStr">
         <is>
-          <t>Argentina</t>
+          <t>England</t>
         </is>
       </c>
       <c r="M112" t="inlineStr">
         <is>
-          <t>Nigeria</t>
+          <t>Tunisia</t>
         </is>
       </c>
     </row>
@@ -6435,7 +6405,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Group E</t>
+          <t>Group H</t>
         </is>
       </c>
       <c r="C113" t="n">
@@ -6451,12 +6421,12 @@
       <c r="G113" t="inlineStr"/>
       <c r="H113" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Brazil']</t>
+          <t>['Japan', 'Colombia']</t>
         </is>
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>['Serbia']</t>
+          <t>['Senegal']</t>
         </is>
       </c>
       <c r="J113" t="n">
@@ -6464,27 +6434,27 @@
       </c>
       <c r="K113" t="inlineStr">
         <is>
-          <t>Brazil</t>
+          <t>Japan</t>
         </is>
       </c>
       <c r="L113" t="inlineStr">
         <is>
-          <t>Switzerland</t>
+          <t>Colombia</t>
         </is>
       </c>
       <c r="M113" t="inlineStr">
         <is>
-          <t>Serbia</t>
+          <t>Senegal</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>2018</v>
+        <v>2022</v>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Group F</t>
+          <t>Group A</t>
         </is>
       </c>
       <c r="C114" t="n">
@@ -6500,12 +6470,12 @@
       <c r="G114" t="inlineStr"/>
       <c r="H114" t="inlineStr">
         <is>
-          <t>['Germany', 'Mexico']</t>
+          <t>['Ecuador', 'Netherlands']</t>
         </is>
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>['Sweden']</t>
+          <t>['Senegal']</t>
         </is>
       </c>
       <c r="J114" t="n">
@@ -6513,58 +6483,58 @@
       </c>
       <c r="K114" t="inlineStr">
         <is>
-          <t>Mexico</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="L114" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Ecuador</t>
         </is>
       </c>
       <c r="M114" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>Senegal</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>2018</v>
+        <v>2022</v>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Group F</t>
+          <t>Group A</t>
         </is>
       </c>
       <c r="C115" t="n">
         <v>1</v>
       </c>
       <c r="D115" t="n">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>Mexico</t>
+          <t>Ecuador</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>Senegal</t>
         </is>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>Senegal</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>['Mexico', 'Sweden']</t>
+          <t>['Senegal', 'Netherlands']</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>['Germany']</t>
+          <t>['Ecuador']</t>
         </is>
       </c>
       <c r="J115" t="n">
@@ -6572,48 +6542,58 @@
       </c>
       <c r="K115" t="inlineStr">
         <is>
-          <t>Mexico</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="L115" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>Senegal</t>
         </is>
       </c>
       <c r="M115" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Ecuador</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>2018</v>
+        <v>2022</v>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Group G</t>
+          <t>Group A</t>
         </is>
       </c>
       <c r="C116" t="n">
-        <v>0</v>
-      </c>
-      <c r="D116" t="inlineStr">
-        <is>
-          <t>initial</t>
-        </is>
-      </c>
-      <c r="E116" t="inlineStr"/>
-      <c r="F116" t="inlineStr"/>
-      <c r="G116" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="D116" t="n">
+        <v>67</v>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>Ecuador</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>Senegal</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>Ecuador</t>
+        </is>
+      </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>['Belgium', 'England']</t>
+          <t>['Ecuador', 'Netherlands']</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>['Tunisia']</t>
+          <t>['Senegal']</t>
         </is>
       </c>
       <c r="J116" t="n">
@@ -6621,48 +6601,58 @@
       </c>
       <c r="K116" t="inlineStr">
         <is>
-          <t>Belgium</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="L116" t="inlineStr">
         <is>
-          <t>England</t>
+          <t>Ecuador</t>
         </is>
       </c>
       <c r="M116" t="inlineStr">
         <is>
-          <t>Tunisia</t>
+          <t>Senegal</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>2018</v>
+        <v>2022</v>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Group H</t>
+          <t>Group A</t>
         </is>
       </c>
       <c r="C117" t="n">
-        <v>0</v>
-      </c>
-      <c r="D117" t="inlineStr">
-        <is>
-          <t>initial</t>
-        </is>
-      </c>
-      <c r="E117" t="inlineStr"/>
-      <c r="F117" t="inlineStr"/>
-      <c r="G117" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="D117" t="n">
+        <v>70</v>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>Ecuador</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>Senegal</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>Senegal</t>
+        </is>
+      </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>['Colombia', 'Japan']</t>
+          <t>['Senegal', 'Netherlands']</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>['Senegal']</t>
+          <t>['Ecuador']</t>
         </is>
       </c>
       <c r="J117" t="n">
@@ -6670,17 +6660,17 @@
       </c>
       <c r="K117" t="inlineStr">
         <is>
-          <t>Japan</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="L117" t="inlineStr">
         <is>
-          <t>Colombia</t>
+          <t>Senegal</t>
         </is>
       </c>
       <c r="M117" t="inlineStr">
         <is>
-          <t>Senegal</t>
+          <t>Ecuador</t>
         </is>
       </c>
     </row>
@@ -6690,7 +6680,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Group A</t>
+          <t>Group B</t>
         </is>
       </c>
       <c r="C118" t="n">
@@ -6706,12 +6696,12 @@
       <c r="G118" t="inlineStr"/>
       <c r="H118" t="inlineStr">
         <is>
-          <t>['Ecuador', 'Netherlands']</t>
+          <t>['Iran', 'England']</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>['Senegal']</t>
+          <t>['Wales']</t>
         </is>
       </c>
       <c r="J118" t="n">
@@ -6719,17 +6709,17 @@
       </c>
       <c r="K118" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>Iran</t>
         </is>
       </c>
       <c r="L118" t="inlineStr">
         <is>
-          <t>Ecuador</t>
+          <t>England</t>
         </is>
       </c>
       <c r="M118" t="inlineStr">
         <is>
-          <t>Senegal</t>
+          <t>Wales</t>
         </is>
       </c>
     </row>
@@ -6739,38 +6729,38 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Group A</t>
+          <t>Group B</t>
         </is>
       </c>
       <c r="C119" t="n">
         <v>1</v>
       </c>
       <c r="D119" t="n">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>Ecuador</t>
+          <t>Iran</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>Senegal</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>Senegal</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>['Senegal', 'Netherlands']</t>
+          <t>['United States', 'England']</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>['Ecuador']</t>
+          <t>['Iran']</t>
         </is>
       </c>
       <c r="J119" t="n">
@@ -6778,17 +6768,17 @@
       </c>
       <c r="K119" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>England</t>
         </is>
       </c>
       <c r="L119" t="inlineStr">
         <is>
-          <t>Senegal</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="M119" t="inlineStr">
         <is>
-          <t>Ecuador</t>
+          <t>Iran</t>
         </is>
       </c>
     </row>
@@ -6798,38 +6788,28 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Group A</t>
+          <t>Group C</t>
         </is>
       </c>
       <c r="C120" t="n">
-        <v>2</v>
-      </c>
-      <c r="D120" t="n">
-        <v>67</v>
-      </c>
-      <c r="E120" t="inlineStr">
-        <is>
-          <t>Ecuador</t>
-        </is>
-      </c>
-      <c r="F120" t="inlineStr">
-        <is>
-          <t>Senegal</t>
-        </is>
-      </c>
-      <c r="G120" t="inlineStr">
-        <is>
-          <t>Ecuador</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>initial</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr"/>
+      <c r="F120" t="inlineStr"/>
+      <c r="G120" t="inlineStr"/>
       <c r="H120" t="inlineStr">
         <is>
-          <t>['Ecuador', 'Netherlands']</t>
+          <t>['Saudi Arabia', 'Argentina']</t>
         </is>
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>['Senegal']</t>
+          <t>['Poland']</t>
         </is>
       </c>
       <c r="J120" t="n">
@@ -6837,17 +6817,17 @@
       </c>
       <c r="K120" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>Argentina</t>
         </is>
       </c>
       <c r="L120" t="inlineStr">
         <is>
-          <t>Ecuador</t>
+          <t>Saudi Arabia</t>
         </is>
       </c>
       <c r="M120" t="inlineStr">
         <is>
-          <t>Senegal</t>
+          <t>Poland</t>
         </is>
       </c>
     </row>
@@ -6857,38 +6837,28 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Group A</t>
+          <t>Group D</t>
         </is>
       </c>
       <c r="C121" t="n">
-        <v>3</v>
-      </c>
-      <c r="D121" t="n">
-        <v>70</v>
-      </c>
-      <c r="E121" t="inlineStr">
-        <is>
-          <t>Ecuador</t>
-        </is>
-      </c>
-      <c r="F121" t="inlineStr">
-        <is>
-          <t>Senegal</t>
-        </is>
-      </c>
-      <c r="G121" t="inlineStr">
-        <is>
-          <t>Senegal</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>initial</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr"/>
+      <c r="F121" t="inlineStr"/>
+      <c r="G121" t="inlineStr"/>
       <c r="H121" t="inlineStr">
         <is>
-          <t>['Senegal', 'Netherlands']</t>
+          <t>['Australia', 'France']</t>
         </is>
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>['Ecuador']</t>
+          <t>['Denmark']</t>
         </is>
       </c>
       <c r="J121" t="n">
@@ -6896,17 +6866,17 @@
       </c>
       <c r="K121" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>France</t>
         </is>
       </c>
       <c r="L121" t="inlineStr">
         <is>
-          <t>Senegal</t>
+          <t>Australia</t>
         </is>
       </c>
       <c r="M121" t="inlineStr">
         <is>
-          <t>Ecuador</t>
+          <t>Denmark</t>
         </is>
       </c>
     </row>
@@ -6916,7 +6886,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Group B</t>
+          <t>Group E</t>
         </is>
       </c>
       <c r="C122" t="n">
@@ -6932,12 +6902,12 @@
       <c r="G122" t="inlineStr"/>
       <c r="H122" t="inlineStr">
         <is>
-          <t>['Iran', 'England']</t>
+          <t>['Spain', 'Japan']</t>
         </is>
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>['United States']</t>
+          <t>['Costa Rica']</t>
         </is>
       </c>
       <c r="J122" t="n">
@@ -6945,17 +6915,17 @@
       </c>
       <c r="K122" t="inlineStr">
         <is>
-          <t>England</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="L122" t="inlineStr">
         <is>
-          <t>Iran</t>
+          <t>Japan</t>
         </is>
       </c>
       <c r="M122" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>Costa Rica</t>
         </is>
       </c>
     </row>
@@ -6965,38 +6935,38 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Group B</t>
+          <t>Group E</t>
         </is>
       </c>
       <c r="C123" t="n">
         <v>1</v>
       </c>
       <c r="D123" t="n">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>Iran</t>
+          <t>Costa Rica</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>['United States', 'England']</t>
+          <t>['Spain', 'Germany']</t>
         </is>
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>['Iran']</t>
+          <t>['Japan']</t>
         </is>
       </c>
       <c r="J123" t="n">
@@ -7004,17 +6974,17 @@
       </c>
       <c r="K123" t="inlineStr">
         <is>
-          <t>England</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="L123" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="M123" t="inlineStr">
         <is>
-          <t>Iran</t>
+          <t>Japan</t>
         </is>
       </c>
     </row>
@@ -7024,28 +6994,38 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Group C</t>
+          <t>Group E</t>
         </is>
       </c>
       <c r="C124" t="n">
-        <v>0</v>
-      </c>
-      <c r="D124" t="inlineStr">
-        <is>
-          <t>initial</t>
-        </is>
-      </c>
-      <c r="E124" t="inlineStr"/>
-      <c r="F124" t="inlineStr"/>
-      <c r="G124" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="D124" t="n">
+        <v>51</v>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>Japan</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>Spain</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>Japan</t>
+        </is>
+      </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>['Argentina', 'Poland']</t>
+          <t>['Spain', 'Japan']</t>
         </is>
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>['Saudi Arabia']</t>
+          <t>['Germany']</t>
         </is>
       </c>
       <c r="J124" t="n">
@@ -7053,17 +7033,17 @@
       </c>
       <c r="K124" t="inlineStr">
         <is>
-          <t>Poland</t>
+          <t>Japan</t>
         </is>
       </c>
       <c r="L124" t="inlineStr">
         <is>
-          <t>Argentina</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="M124" t="inlineStr">
         <is>
-          <t>Saudi Arabia</t>
+          <t>Germany</t>
         </is>
       </c>
     </row>
@@ -7073,28 +7053,38 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Group D</t>
+          <t>Group E</t>
         </is>
       </c>
       <c r="C125" t="n">
-        <v>0</v>
-      </c>
-      <c r="D125" t="inlineStr">
-        <is>
-          <t>initial</t>
-        </is>
-      </c>
-      <c r="E125" t="inlineStr"/>
-      <c r="F125" t="inlineStr"/>
-      <c r="G125" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="D125" t="n">
+        <v>70</v>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>Costa Rica</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>Costa Rica</t>
+        </is>
+      </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>['France', 'Australia']</t>
+          <t>['Japan', 'Costa Rica']</t>
         </is>
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>['Denmark']</t>
+          <t>['Spain']</t>
         </is>
       </c>
       <c r="J125" t="n">
@@ -7102,17 +7092,17 @@
       </c>
       <c r="K125" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Japan</t>
         </is>
       </c>
       <c r="L125" t="inlineStr">
         <is>
-          <t>Australia</t>
+          <t>Costa Rica</t>
         </is>
       </c>
       <c r="M125" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Spain</t>
         </is>
       </c>
     </row>
@@ -7122,38 +7112,38 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Group D</t>
+          <t>Group E</t>
         </is>
       </c>
       <c r="C126" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D126" t="n">
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>Tunisia</t>
+          <t>Costa Rica</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>Tunisia</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>['France', 'Tunisia']</t>
+          <t>['Spain', 'Japan']</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>['Australia']</t>
+          <t>['Costa Rica']</t>
         </is>
       </c>
       <c r="J126" t="n">
@@ -7161,17 +7151,17 @@
       </c>
       <c r="K126" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Japan</t>
         </is>
       </c>
       <c r="L126" t="inlineStr">
         <is>
-          <t>Tunisia</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="M126" t="inlineStr">
         <is>
-          <t>Australia</t>
+          <t>Costa Rica</t>
         </is>
       </c>
     </row>
@@ -7181,38 +7171,28 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Group D</t>
+          <t>Group F</t>
         </is>
       </c>
       <c r="C127" t="n">
-        <v>2</v>
-      </c>
-      <c r="D127" t="n">
-        <v>60</v>
-      </c>
-      <c r="E127" t="inlineStr">
-        <is>
-          <t>Australia</t>
-        </is>
-      </c>
-      <c r="F127" t="inlineStr">
-        <is>
-          <t>Denmark</t>
-        </is>
-      </c>
-      <c r="G127" t="inlineStr">
-        <is>
-          <t>Australia</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>initial</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr"/>
+      <c r="F127" t="inlineStr"/>
+      <c r="G127" t="inlineStr"/>
       <c r="H127" t="inlineStr">
         <is>
-          <t>['France', 'Australia']</t>
+          <t>['Belgium', 'Croatia']</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>['Tunisia']</t>
+          <t>['Morocco']</t>
         </is>
       </c>
       <c r="J127" t="n">
@@ -7220,17 +7200,17 @@
       </c>
       <c r="K127" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Belgium</t>
         </is>
       </c>
       <c r="L127" t="inlineStr">
         <is>
-          <t>Australia</t>
+          <t>Croatia</t>
         </is>
       </c>
       <c r="M127" t="inlineStr">
         <is>
-          <t>Tunisia</t>
+          <t>Morocco</t>
         </is>
       </c>
     </row>
@@ -7240,28 +7220,38 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Group E</t>
+          <t>Group F</t>
         </is>
       </c>
       <c r="C128" t="n">
-        <v>0</v>
-      </c>
-      <c r="D128" t="inlineStr">
-        <is>
-          <t>initial</t>
-        </is>
-      </c>
-      <c r="E128" t="inlineStr"/>
-      <c r="F128" t="inlineStr"/>
-      <c r="G128" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="D128" t="n">
+        <v>4</v>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>Canada</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>Morocco</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>Morocco</t>
+        </is>
+      </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>['Spain', 'Japan']</t>
+          <t>['Belgium', 'Morocco']</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>['Costa Rica']</t>
+          <t>['Croatia']</t>
         </is>
       </c>
       <c r="J128" t="n">
@@ -7269,17 +7259,17 @@
       </c>
       <c r="K128" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>Morocco</t>
         </is>
       </c>
       <c r="L128" t="inlineStr">
         <is>
-          <t>Japan</t>
+          <t>Belgium</t>
         </is>
       </c>
       <c r="M128" t="inlineStr">
         <is>
-          <t>Costa Rica</t>
+          <t>Croatia</t>
         </is>
       </c>
     </row>
@@ -7289,38 +7279,28 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Group E</t>
+          <t>Group G</t>
         </is>
       </c>
       <c r="C129" t="n">
-        <v>1</v>
-      </c>
-      <c r="D129" t="n">
-        <v>10</v>
-      </c>
-      <c r="E129" t="inlineStr">
-        <is>
-          <t>Costa Rica</t>
-        </is>
-      </c>
-      <c r="F129" t="inlineStr">
-        <is>
-          <t>Germany</t>
-        </is>
-      </c>
-      <c r="G129" t="inlineStr">
-        <is>
-          <t>Germany</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>initial</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr"/>
+      <c r="F129" t="inlineStr"/>
+      <c r="G129" t="inlineStr"/>
       <c r="H129" t="inlineStr">
         <is>
-          <t>['Germany', 'Spain']</t>
+          <t>['Brazil', 'Switzerland']</t>
         </is>
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>['Japan']</t>
+          <t>['Cameroon']</t>
         </is>
       </c>
       <c r="J129" t="n">
@@ -7328,17 +7308,17 @@
       </c>
       <c r="K129" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>Brazil</t>
         </is>
       </c>
       <c r="L129" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Switzerland</t>
         </is>
       </c>
       <c r="M129" t="inlineStr">
         <is>
-          <t>Japan</t>
+          <t>Cameroon</t>
         </is>
       </c>
     </row>
@@ -7348,38 +7328,38 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Group E</t>
+          <t>Group G</t>
         </is>
       </c>
       <c r="C130" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D130" t="n">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>Japan</t>
+          <t>Serbia</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>Switzerland</t>
         </is>
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>Japan</t>
+          <t>Serbia</t>
         </is>
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>['Spain', 'Japan']</t>
+          <t>['Brazil', 'Serbia']</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>['Germany']</t>
+          <t>['Switzerland']</t>
         </is>
       </c>
       <c r="J130" t="n">
@@ -7387,17 +7367,17 @@
       </c>
       <c r="K130" t="inlineStr">
         <is>
-          <t>Japan</t>
+          <t>Brazil</t>
         </is>
       </c>
       <c r="L130" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>Serbia</t>
         </is>
       </c>
       <c r="M130" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Switzerland</t>
         </is>
       </c>
     </row>
@@ -7407,38 +7387,38 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Group E</t>
+          <t>Group G</t>
         </is>
       </c>
       <c r="C131" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D131" t="n">
-        <v>70</v>
+        <v>44</v>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>Costa Rica</t>
+          <t>Serbia</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Switzerland</t>
         </is>
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>Costa Rica</t>
+          <t>Switzerland</t>
         </is>
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>['Costa Rica', 'Japan']</t>
+          <t>['Brazil', 'Switzerland']</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>['Spain']</t>
+          <t>['Cameroon']</t>
         </is>
       </c>
       <c r="J131" t="n">
@@ -7446,17 +7426,17 @@
       </c>
       <c r="K131" t="inlineStr">
         <is>
-          <t>Japan</t>
+          <t>Brazil</t>
         </is>
       </c>
       <c r="L131" t="inlineStr">
         <is>
-          <t>Costa Rica</t>
+          <t>Switzerland</t>
         </is>
       </c>
       <c r="M131" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>Cameroon</t>
         </is>
       </c>
     </row>
@@ -7466,38 +7446,28 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Group E</t>
+          <t>Group H</t>
         </is>
       </c>
       <c r="C132" t="n">
-        <v>4</v>
-      </c>
-      <c r="D132" t="n">
-        <v>73</v>
-      </c>
-      <c r="E132" t="inlineStr">
-        <is>
-          <t>Costa Rica</t>
-        </is>
-      </c>
-      <c r="F132" t="inlineStr">
-        <is>
-          <t>Germany</t>
-        </is>
-      </c>
-      <c r="G132" t="inlineStr">
-        <is>
-          <t>Germany</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>initial</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr"/>
+      <c r="F132" t="inlineStr"/>
+      <c r="G132" t="inlineStr"/>
       <c r="H132" t="inlineStr">
         <is>
-          <t>['Spain', 'Japan']</t>
+          <t>['Portugal', 'Ghana']</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>['Costa Rica']</t>
+          <t>['South Korea']</t>
         </is>
       </c>
       <c r="J132" t="n">
@@ -7505,400 +7475,17 @@
       </c>
       <c r="K132" t="inlineStr">
         <is>
-          <t>Japan</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="L132" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>Ghana</t>
         </is>
       </c>
       <c r="M132" t="inlineStr">
         <is>
-          <t>Costa Rica</t>
-        </is>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" t="n">
-        <v>2022</v>
-      </c>
-      <c r="B133" t="inlineStr">
-        <is>
-          <t>Group F</t>
-        </is>
-      </c>
-      <c r="C133" t="n">
-        <v>0</v>
-      </c>
-      <c r="D133" t="inlineStr">
-        <is>
-          <t>initial</t>
-        </is>
-      </c>
-      <c r="E133" t="inlineStr"/>
-      <c r="F133" t="inlineStr"/>
-      <c r="G133" t="inlineStr"/>
-      <c r="H133" t="inlineStr">
-        <is>
-          <t>['Croatia', 'Morocco']</t>
-        </is>
-      </c>
-      <c r="I133" t="inlineStr">
-        <is>
-          <t>['Belgium']</t>
-        </is>
-      </c>
-      <c r="J133" t="n">
-        <v>1</v>
-      </c>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>Croatia</t>
-        </is>
-      </c>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>Morocco</t>
-        </is>
-      </c>
-      <c r="M133" t="inlineStr">
-        <is>
-          <t>Belgium</t>
-        </is>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" t="n">
-        <v>2022</v>
-      </c>
-      <c r="B134" t="inlineStr">
-        <is>
-          <t>Group G</t>
-        </is>
-      </c>
-      <c r="C134" t="n">
-        <v>0</v>
-      </c>
-      <c r="D134" t="inlineStr">
-        <is>
-          <t>initial</t>
-        </is>
-      </c>
-      <c r="E134" t="inlineStr"/>
-      <c r="F134" t="inlineStr"/>
-      <c r="G134" t="inlineStr"/>
-      <c r="H134" t="inlineStr">
-        <is>
-          <t>['Switzerland', 'Brazil']</t>
-        </is>
-      </c>
-      <c r="I134" t="inlineStr">
-        <is>
-          <t>['Cameroon']</t>
-        </is>
-      </c>
-      <c r="J134" t="n">
-        <v>1</v>
-      </c>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>Brazil</t>
-        </is>
-      </c>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>Switzerland</t>
-        </is>
-      </c>
-      <c r="M134" t="inlineStr">
-        <is>
-          <t>Cameroon</t>
-        </is>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" t="n">
-        <v>2022</v>
-      </c>
-      <c r="B135" t="inlineStr">
-        <is>
-          <t>Group G</t>
-        </is>
-      </c>
-      <c r="C135" t="n">
-        <v>1</v>
-      </c>
-      <c r="D135" t="n">
-        <v>35</v>
-      </c>
-      <c r="E135" t="inlineStr">
-        <is>
-          <t>Serbia</t>
-        </is>
-      </c>
-      <c r="F135" t="inlineStr">
-        <is>
-          <t>Switzerland</t>
-        </is>
-      </c>
-      <c r="G135" t="inlineStr">
-        <is>
-          <t>Serbia</t>
-        </is>
-      </c>
-      <c r="H135" t="inlineStr">
-        <is>
-          <t>['Serbia', 'Brazil']</t>
-        </is>
-      </c>
-      <c r="I135" t="inlineStr">
-        <is>
-          <t>['Switzerland']</t>
-        </is>
-      </c>
-      <c r="J135" t="n">
-        <v>1</v>
-      </c>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>Brazil</t>
-        </is>
-      </c>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>Serbia</t>
-        </is>
-      </c>
-      <c r="M135" t="inlineStr">
-        <is>
-          <t>Switzerland</t>
-        </is>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" t="n">
-        <v>2022</v>
-      </c>
-      <c r="B136" t="inlineStr">
-        <is>
-          <t>Group G</t>
-        </is>
-      </c>
-      <c r="C136" t="n">
-        <v>2</v>
-      </c>
-      <c r="D136" t="n">
-        <v>44</v>
-      </c>
-      <c r="E136" t="inlineStr">
-        <is>
-          <t>Serbia</t>
-        </is>
-      </c>
-      <c r="F136" t="inlineStr">
-        <is>
-          <t>Switzerland</t>
-        </is>
-      </c>
-      <c r="G136" t="inlineStr">
-        <is>
-          <t>Switzerland</t>
-        </is>
-      </c>
-      <c r="H136" t="inlineStr">
-        <is>
-          <t>['Switzerland', 'Brazil']</t>
-        </is>
-      </c>
-      <c r="I136" t="inlineStr">
-        <is>
-          <t>['Cameroon']</t>
-        </is>
-      </c>
-      <c r="J136" t="n">
-        <v>1</v>
-      </c>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>Brazil</t>
-        </is>
-      </c>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>Switzerland</t>
-        </is>
-      </c>
-      <c r="M136" t="inlineStr">
-        <is>
-          <t>Cameroon</t>
-        </is>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" t="n">
-        <v>2022</v>
-      </c>
-      <c r="B137" t="inlineStr">
-        <is>
-          <t>Group H</t>
-        </is>
-      </c>
-      <c r="C137" t="n">
-        <v>0</v>
-      </c>
-      <c r="D137" t="inlineStr">
-        <is>
-          <t>initial</t>
-        </is>
-      </c>
-      <c r="E137" t="inlineStr"/>
-      <c r="F137" t="inlineStr"/>
-      <c r="G137" t="inlineStr"/>
-      <c r="H137" t="inlineStr">
-        <is>
-          <t>['Ghana', 'Portugal']</t>
-        </is>
-      </c>
-      <c r="I137" t="inlineStr">
-        <is>
-          <t>['South Korea']</t>
-        </is>
-      </c>
-      <c r="J137" t="n">
-        <v>1</v>
-      </c>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>Portugal</t>
-        </is>
-      </c>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>Ghana</t>
-        </is>
-      </c>
-      <c r="M137" t="inlineStr">
-        <is>
           <t>South Korea</t>
-        </is>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" t="n">
-        <v>2022</v>
-      </c>
-      <c r="B138" t="inlineStr">
-        <is>
-          <t>Group H</t>
-        </is>
-      </c>
-      <c r="C138" t="n">
-        <v>1</v>
-      </c>
-      <c r="D138" t="n">
-        <v>26</v>
-      </c>
-      <c r="E138" t="inlineStr">
-        <is>
-          <t>Ghana</t>
-        </is>
-      </c>
-      <c r="F138" t="inlineStr">
-        <is>
-          <t>Uruguay</t>
-        </is>
-      </c>
-      <c r="G138" t="inlineStr">
-        <is>
-          <t>Uruguay</t>
-        </is>
-      </c>
-      <c r="H138" t="inlineStr">
-        <is>
-          <t>['Uruguay', 'Portugal']</t>
-        </is>
-      </c>
-      <c r="I138" t="inlineStr">
-        <is>
-          <t>['Ghana']</t>
-        </is>
-      </c>
-      <c r="J138" t="n">
-        <v>1</v>
-      </c>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>Portugal</t>
-        </is>
-      </c>
-      <c r="L138" t="inlineStr">
-        <is>
-          <t>Uruguay</t>
-        </is>
-      </c>
-      <c r="M138" t="inlineStr">
-        <is>
-          <t>Ghana</t>
-        </is>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" t="n">
-        <v>2022</v>
-      </c>
-      <c r="B139" t="inlineStr">
-        <is>
-          <t>Group H</t>
-        </is>
-      </c>
-      <c r="C139" t="n">
-        <v>2</v>
-      </c>
-      <c r="D139" t="n">
-        <v>91</v>
-      </c>
-      <c r="E139" t="inlineStr">
-        <is>
-          <t>South Korea</t>
-        </is>
-      </c>
-      <c r="F139" t="inlineStr">
-        <is>
-          <t>Portugal</t>
-        </is>
-      </c>
-      <c r="G139" t="inlineStr">
-        <is>
-          <t>South Korea</t>
-        </is>
-      </c>
-      <c r="H139" t="inlineStr">
-        <is>
-          <t>['Portugal', 'South Korea']</t>
-        </is>
-      </c>
-      <c r="I139" t="inlineStr">
-        <is>
-          <t>['Uruguay']</t>
-        </is>
-      </c>
-      <c r="J139" t="n">
-        <v>1</v>
-      </c>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>Portugal</t>
-        </is>
-      </c>
-      <c r="L139" t="inlineStr">
-        <is>
-          <t>South Korea</t>
-        </is>
-      </c>
-      <c r="M139" t="inlineStr">
-        <is>
-          <t>Uruguay</t>
         </is>
       </c>
     </row>

--- a/data/out/kaggle/fifa/standings_wc_fifa_men.xlsx
+++ b/data/out/kaggle/fifa/standings_wc_fifa_men.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M132"/>
+  <dimension ref="A1:M147"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -522,7 +522,7 @@
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['Argentina', 'Italy', 'Bulgaria']</t>
+          <t>['Argentina', 'Bulgaria', 'Italy']</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -571,7 +571,7 @@
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['Paraguay', 'Belgium', 'Mexico']</t>
+          <t>['Mexico', 'Paraguay', 'Belgium']</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -620,7 +620,7 @@
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['Hungary', 'Soviet Union', 'France']</t>
+          <t>['Soviet Union', 'Hungary', 'France']</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -669,7 +669,7 @@
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['Brazil', 'Spain', 'Northern Ireland']</t>
+          <t>['Brazil', 'Northern Ireland', 'Spain']</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -787,7 +787,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['Brazil', 'Spain', 'Northern Ireland']</t>
+          <t>['Brazil', 'Northern Ireland', 'Spain']</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -836,7 +836,7 @@
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['West Germany', 'Uruguay', 'Denmark']</t>
+          <t>['West Germany', 'Denmark', 'Uruguay']</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -885,12 +885,12 @@
       <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['Portugal', 'Poland', 'England']</t>
+          <t>['Portugal', 'Poland', 'Morocco']</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>['England']</t>
+          <t>['Morocco']</t>
         </is>
       </c>
       <c r="J9" t="n">
@@ -898,48 +898,58 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
+          <t>Poland</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
           <t>Portugal</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>Poland</t>
-        </is>
-      </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>England</t>
+          <t>Morocco</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>1990</v>
+        <v>1986</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Group A</t>
+          <t>Group F</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>initial</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr"/>
-      <c r="G10" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>England</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Poland</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>England</t>
+        </is>
+      </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['Czechoslovakia', 'Italy', 'Austria']</t>
+          <t>['Portugal', 'Poland', 'England']</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>['Austria']</t>
+          <t>['England']</t>
         </is>
       </c>
       <c r="J10" t="n">
@@ -947,48 +957,58 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>Czechoslovakia</t>
+          <t>Poland</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>Austria</t>
+          <t>England</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>1990</v>
+        <v>1986</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Group B</t>
+          <t>Group F</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>initial</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr"/>
-      <c r="G11" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="D11" t="n">
+        <v>14</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>England</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Poland</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>England</t>
+        </is>
+      </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['Cameroon', 'Argentina', 'Romania']</t>
+          <t>['Portugal', 'England', 'Morocco']</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>['Argentina']</t>
+          <t>['Morocco']</t>
         </is>
       </c>
       <c r="J11" t="n">
@@ -996,58 +1016,58 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>Cameroon</t>
+          <t>England</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>Romania</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>Argentina</t>
+          <t>Morocco</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>1990</v>
+        <v>1986</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Group B</t>
+          <t>Group F</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D12" t="n">
-        <v>63</v>
+        <v>19</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Cameroon</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Soviet Union</t>
+          <t>Morocco</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Soviet Union</t>
+          <t>Morocco</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['Cameroon', 'Argentina', 'Soviet Union']</t>
+          <t>['England', 'Morocco', 'Poland']</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>['Soviet Union']</t>
+          <t>['Poland']</t>
         </is>
       </c>
       <c r="J12" t="n">
@@ -1055,17 +1075,17 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>Argentina</t>
+          <t>Morocco</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>Cameroon</t>
+          <t>England</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>Soviet Union</t>
+          <t>Poland</t>
         </is>
       </c>
     </row>
@@ -1075,38 +1095,28 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Group B</t>
+          <t>Group A</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>2</v>
-      </c>
-      <c r="D13" t="n">
-        <v>68</v>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>Argentina</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>Romania</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>Romania</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>initial</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['Cameroon', 'Argentina', 'Romania']</t>
+          <t>['Austria', 'Czechoslovakia', 'Italy']</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>['Argentina']</t>
+          <t>['Austria']</t>
         </is>
       </c>
       <c r="J13" t="n">
@@ -1114,17 +1124,17 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>Cameroon</t>
+          <t>Czechoslovakia</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>Romania</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>Argentina</t>
+          <t>Austria</t>
         </is>
       </c>
     </row>
@@ -1134,7 +1144,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Group C</t>
+          <t>Group B</t>
         </is>
       </c>
       <c r="C14" t="n">
@@ -1150,12 +1160,12 @@
       <c r="G14" t="inlineStr"/>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['Brazil', 'Scotland', 'Costa Rica']</t>
+          <t>['Romania', 'Cameroon', 'Argentina']</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>['Costa Rica']</t>
+          <t>['Argentina']</t>
         </is>
       </c>
       <c r="J14" t="n">
@@ -1163,17 +1173,17 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>Brazil</t>
+          <t>Cameroon</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>Scotland</t>
+          <t>Romania</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>Costa Rica</t>
+          <t>Argentina</t>
         </is>
       </c>
     </row>
@@ -1183,38 +1193,38 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Group C</t>
+          <t>Group B</t>
         </is>
       </c>
       <c r="C15" t="n">
         <v>1</v>
       </c>
       <c r="D15" t="n">
-        <v>32</v>
+        <v>63</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>Cameroon</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Costa Rica</t>
+          <t>Soviet Union</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>Soviet Union</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['Brazil', 'Sweden', 'Scotland']</t>
+          <t>['Argentina', 'Soviet Union', 'Cameroon']</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>['Sweden']</t>
+          <t>['Soviet Union']</t>
         </is>
       </c>
       <c r="J15" t="n">
@@ -1222,17 +1232,17 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>Brazil</t>
+          <t>Argentina</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>Scotland</t>
+          <t>Cameroon</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>Soviet Union</t>
         </is>
       </c>
     </row>
@@ -1242,38 +1252,38 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Group C</t>
+          <t>Group B</t>
         </is>
       </c>
       <c r="C16" t="n">
         <v>2</v>
       </c>
       <c r="D16" t="n">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>Argentina</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Costa Rica</t>
+          <t>Romania</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Costa Rica</t>
+          <t>Romania</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['Brazil', 'Scotland', 'Costa Rica']</t>
+          <t>['Romania', 'Cameroon', 'Argentina']</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>['Costa Rica']</t>
+          <t>['Argentina']</t>
         </is>
       </c>
       <c r="J16" t="n">
@@ -1281,17 +1291,17 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>Brazil</t>
+          <t>Cameroon</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>Scotland</t>
+          <t>Romania</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>Costa Rica</t>
+          <t>Argentina</t>
         </is>
       </c>
     </row>
@@ -1301,7 +1311,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Group D</t>
+          <t>Group C</t>
         </is>
       </c>
       <c r="C17" t="n">
@@ -1317,12 +1327,12 @@
       <c r="G17" t="inlineStr"/>
       <c r="H17" t="inlineStr">
         <is>
-          <t>['Yugoslavia', 'Colombia', 'West Germany']</t>
+          <t>['Brazil', 'Scotland', 'Costa Rica']</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>['Yugoslavia']</t>
+          <t>['Costa Rica']</t>
         </is>
       </c>
       <c r="J17" t="n">
@@ -1330,17 +1340,17 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>West Germany</t>
+          <t>Brazil</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>Colombia</t>
+          <t>Scotland</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>Yugoslavia</t>
+          <t>Costa Rica</t>
         </is>
       </c>
     </row>
@@ -1350,28 +1360,38 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Group E</t>
+          <t>Group C</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>initial</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr"/>
-      <c r="G18" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="D18" t="n">
+        <v>32</v>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Sweden</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Costa Rica</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Sweden</t>
+        </is>
+      </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>['Belgium', 'Spain', 'South Korea']</t>
+          <t>['Sweden', 'Brazil', 'Scotland']</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>['South Korea']</t>
+          <t>['Sweden']</t>
         </is>
       </c>
       <c r="J18" t="n">
@@ -1379,17 +1399,17 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>Belgium</t>
+          <t>Brazil</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>Scotland</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>South Korea</t>
+          <t>Sweden</t>
         </is>
       </c>
     </row>
@@ -1399,38 +1419,38 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Group E</t>
+          <t>Group C</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D19" t="n">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>South Korea</t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Uruguay</t>
+          <t>Costa Rica</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Uruguay</t>
+          <t>Costa Rica</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>['Belgium', 'Spain', 'Uruguay']</t>
+          <t>['Brazil', 'Scotland', 'Costa Rica']</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>['Uruguay']</t>
+          <t>['Costa Rica']</t>
         </is>
       </c>
       <c r="J19" t="n">
@@ -1438,17 +1458,17 @@
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>Belgium</t>
+          <t>Brazil</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>Scotland</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>Uruguay</t>
+          <t>Costa Rica</t>
         </is>
       </c>
     </row>
@@ -1458,7 +1478,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Group F</t>
+          <t>Group D</t>
         </is>
       </c>
       <c r="C20" t="n">
@@ -1474,12 +1494,12 @@
       <c r="G20" t="inlineStr"/>
       <c r="H20" t="inlineStr">
         <is>
-          <t>['Republic of Ireland', 'England', 'Netherlands']</t>
+          <t>['West Germany', 'Yugoslavia', 'Colombia']</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>['Republic of Ireland']</t>
+          <t>['Yugoslavia']</t>
         </is>
       </c>
       <c r="J20" t="n">
@@ -1487,17 +1507,17 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>England</t>
+          <t>West Germany</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>Colombia</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>Republic of Ireland</t>
+          <t>Yugoslavia</t>
         </is>
       </c>
     </row>
@@ -1507,38 +1527,28 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Group F</t>
+          <t>Group E</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>1</v>
-      </c>
-      <c r="D21" t="n">
-        <v>11</v>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>Republic of Ireland</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>Netherlands</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>Netherlands</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>initial</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr"/>
       <c r="H21" t="inlineStr">
         <is>
-          <t>['Egypt', 'England', 'Netherlands']</t>
+          <t>['Uruguay', 'Spain', 'Belgium']</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>['Egypt']</t>
+          <t>['Uruguay']</t>
         </is>
       </c>
       <c r="J21" t="n">
@@ -1546,17 +1556,17 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>Belgium</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>England</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>Egypt</t>
+          <t>Uruguay</t>
         </is>
       </c>
     </row>
@@ -1570,29 +1580,19 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>2</v>
-      </c>
-      <c r="D22" t="n">
-        <v>71</v>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>Republic of Ireland</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>Netherlands</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>Republic of Ireland</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>initial</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr"/>
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr"/>
       <c r="H22" t="inlineStr">
         <is>
-          <t>['Republic of Ireland', 'England', 'Netherlands']</t>
+          <t>['Republic of Ireland', 'Netherlands', 'England']</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -1621,32 +1621,42 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>1994</v>
+        <v>1990</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Group A</t>
+          <t>Group F</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>initial</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr"/>
-      <c r="F23" t="inlineStr"/>
-      <c r="G23" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="D23" t="n">
+        <v>11</v>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Republic of Ireland</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Netherlands</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>Netherlands</t>
+        </is>
+      </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>['United States', 'Switzerland', 'Romania']</t>
+          <t>['England', 'Egypt', 'Netherlands']</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>['Romania']</t>
+          <t>['Egypt']</t>
         </is>
       </c>
       <c r="J23" t="n">
@@ -1654,58 +1664,58 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>Switzerland</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>England</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>Romania</t>
+          <t>Egypt</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>1994</v>
+        <v>1990</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Group A</t>
+          <t>Group F</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D24" t="n">
-        <v>44</v>
+        <v>71</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Switzerland</t>
+          <t>Republic of Ireland</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Colombia</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Colombia</t>
+          <t>Republic of Ireland</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>['Colombia', 'Switzerland', 'Romania']</t>
+          <t>['Republic of Ireland', 'Netherlands', 'England']</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>['Colombia']</t>
+          <t>['Republic of Ireland']</t>
         </is>
       </c>
       <c r="J24" t="n">
@@ -1713,17 +1723,17 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>Romania</t>
+          <t>England</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>Switzerland</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>Colombia</t>
+          <t>Republic of Ireland</t>
         </is>
       </c>
     </row>
@@ -1733,7 +1743,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Group B</t>
+          <t>Group A</t>
         </is>
       </c>
       <c r="C25" t="n">
@@ -1749,12 +1759,12 @@
       <c r="G25" t="inlineStr"/>
       <c r="H25" t="inlineStr">
         <is>
-          <t>['Brazil', 'Cameroon', 'Sweden']</t>
+          <t>['Switzerland', 'Romania', 'United States']</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>['Cameroon']</t>
+          <t>['Romania']</t>
         </is>
       </c>
       <c r="J25" t="n">
@@ -1762,17 +1772,17 @@
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>Brazil</t>
+          <t>Switzerland</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>Cameroon</t>
+          <t>Romania</t>
         </is>
       </c>
     </row>
@@ -1782,38 +1792,38 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Group B</t>
+          <t>Group A</t>
         </is>
       </c>
       <c r="C26" t="n">
         <v>1</v>
       </c>
       <c r="D26" t="n">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Russia</t>
+          <t>Switzerland</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Cameroon</t>
+          <t>Colombia</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Russia</t>
+          <t>Colombia</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>['Brazil', 'Sweden', 'Russia']</t>
+          <t>['Romania', 'Colombia', 'Switzerland']</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>['Russia']</t>
+          <t>['Colombia']</t>
         </is>
       </c>
       <c r="J26" t="n">
@@ -1821,17 +1831,17 @@
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>Brazil</t>
+          <t>Romania</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>Switzerland</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>Russia</t>
+          <t>Colombia</t>
         </is>
       </c>
     </row>
@@ -1841,7 +1851,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Group C</t>
+          <t>Group B</t>
         </is>
       </c>
       <c r="C27" t="n">
@@ -1857,12 +1867,12 @@
       <c r="G27" t="inlineStr"/>
       <c r="H27" t="inlineStr">
         <is>
-          <t>['Spain', 'South Korea', 'Germany']</t>
+          <t>['Sweden', 'Brazil', 'Cameroon']</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>['South Korea']</t>
+          <t>['Cameroon']</t>
         </is>
       </c>
       <c r="J27" t="n">
@@ -1870,17 +1880,17 @@
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Brazil</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>South Korea</t>
+          <t>Cameroon</t>
         </is>
       </c>
     </row>
@@ -1890,28 +1900,38 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Group D</t>
+          <t>Group B</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>initial</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr"/>
-      <c r="F28" t="inlineStr"/>
-      <c r="G28" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="D28" t="n">
+        <v>15</v>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Russia</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Cameroon</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>Russia</t>
+        </is>
+      </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>['Argentina', 'Nigeria', 'Bulgaria']</t>
+          <t>['Sweden', 'Brazil', 'Russia']</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>['Bulgaria']</t>
+          <t>['Russia']</t>
         </is>
       </c>
       <c r="J28" t="n">
@@ -1919,17 +1939,17 @@
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>Argentina</t>
+          <t>Brazil</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>Nigeria</t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>Bulgaria</t>
+          <t>Russia</t>
         </is>
       </c>
     </row>
@@ -1939,7 +1959,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Group E</t>
+          <t>Group C</t>
         </is>
       </c>
       <c r="C29" t="n">
@@ -1955,12 +1975,12 @@
       <c r="G29" t="inlineStr"/>
       <c r="H29" t="inlineStr">
         <is>
-          <t>['Republic of Ireland', 'Italy', 'Mexico']</t>
+          <t>['South Korea', 'Germany', 'Spain']</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>['Italy']</t>
+          <t>['South Korea']</t>
         </is>
       </c>
       <c r="J29" t="n">
@@ -1968,17 +1988,17 @@
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>Mexico</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>Republic of Ireland</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>South Korea</t>
         </is>
       </c>
     </row>
@@ -1988,38 +2008,28 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Group E</t>
+          <t>Group D</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>1</v>
-      </c>
-      <c r="D30" t="n">
-        <v>48</v>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>Italy</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>Mexico</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>Italy</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>initial</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr"/>
+      <c r="F30" t="inlineStr"/>
+      <c r="G30" t="inlineStr"/>
       <c r="H30" t="inlineStr">
         <is>
-          <t>['Norway', 'Republic of Ireland', 'Italy']</t>
+          <t>['Argentina', 'Bulgaria', 'Nigeria']</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>['Norway']</t>
+          <t>['Bulgaria']</t>
         </is>
       </c>
       <c r="J30" t="n">
@@ -2027,17 +2037,17 @@
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Argentina</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>Republic of Ireland</t>
+          <t>Nigeria</t>
         </is>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>Norway</t>
+          <t>Bulgaria</t>
         </is>
       </c>
     </row>
@@ -2051,52 +2061,42 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>2</v>
-      </c>
-      <c r="D31" t="n">
-        <v>57</v>
-      </c>
-      <c r="E31" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>initial</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr"/>
+      <c r="F31" t="inlineStr"/>
+      <c r="G31" t="inlineStr"/>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>['Mexico', 'Italy', 'Republic of Ireland']</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>['Italy']</t>
+        </is>
+      </c>
+      <c r="J31" t="n">
+        <v>1</v>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>Republic of Ireland</t>
+        </is>
+      </c>
+      <c r="M31" t="inlineStr">
         <is>
           <t>Italy</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>Mexico</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>Mexico</t>
-        </is>
-      </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>['Republic of Ireland', 'Italy', 'Mexico']</t>
-        </is>
-      </c>
-      <c r="I31" t="inlineStr">
-        <is>
-          <t>['Republic of Ireland']</t>
-        </is>
-      </c>
-      <c r="J31" t="n">
-        <v>1</v>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>Mexico</t>
-        </is>
-      </c>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>Italy</t>
-        </is>
-      </c>
-      <c r="M31" t="inlineStr">
-        <is>
-          <t>Republic of Ireland</t>
         </is>
       </c>
     </row>
@@ -2106,28 +2106,38 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Group F</t>
+          <t>Group E</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>initial</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr"/>
-      <c r="F32" t="inlineStr"/>
-      <c r="G32" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="D32" t="n">
+        <v>48</v>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Italy</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>Italy</t>
+        </is>
+      </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>['Belgium', 'Saudi Arabia', 'Netherlands']</t>
+          <t>['Republic of Ireland', 'Italy', 'Norway']</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>['Netherlands']</t>
+          <t>['Norway']</t>
         </is>
       </c>
       <c r="J32" t="n">
@@ -2135,48 +2145,58 @@
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>Belgium</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>Saudi Arabia</t>
+          <t>Republic of Ireland</t>
         </is>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>Norway</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>1998</v>
+        <v>1994</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Group A</t>
+          <t>Group E</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>initial</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr"/>
-      <c r="F33" t="inlineStr"/>
-      <c r="G33" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="D33" t="n">
+        <v>57</v>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Italy</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>['Brazil', 'Morocco']</t>
+          <t>['Mexico', 'Republic of Ireland', 'Italy']</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>['Scotland']</t>
+          <t>['Republic of Ireland']</t>
         </is>
       </c>
       <c r="J33" t="n">
@@ -2184,27 +2204,27 @@
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>Brazil</t>
+          <t>Mexico</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>Morocco</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>Scotland</t>
+          <t>Republic of Ireland</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>1998</v>
+        <v>1994</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Group B</t>
+          <t>Group F</t>
         </is>
       </c>
       <c r="C34" t="n">
@@ -2220,12 +2240,12 @@
       <c r="G34" t="inlineStr"/>
       <c r="H34" t="inlineStr">
         <is>
-          <t>['Chile', 'Italy']</t>
+          <t>['Saudi Arabia', 'Netherlands', 'Belgium']</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>['Austria']</t>
+          <t>['Netherlands']</t>
         </is>
       </c>
       <c r="J34" t="n">
@@ -2233,17 +2253,17 @@
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Belgium</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>Chile</t>
+          <t>Saudi Arabia</t>
         </is>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>Austria</t>
+          <t>Netherlands</t>
         </is>
       </c>
     </row>
@@ -2253,7 +2273,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Group C</t>
+          <t>Group A</t>
         </is>
       </c>
       <c r="C35" t="n">
@@ -2269,12 +2289,12 @@
       <c r="G35" t="inlineStr"/>
       <c r="H35" t="inlineStr">
         <is>
-          <t>['Denmark', 'France']</t>
+          <t>['Brazil', 'Morocco']</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>['South Africa']</t>
+          <t>['Scotland']</t>
         </is>
       </c>
       <c r="J35" t="n">
@@ -2282,17 +2302,17 @@
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Brazil</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Morocco</t>
         </is>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>South Africa</t>
+          <t>Scotland</t>
         </is>
       </c>
     </row>
@@ -2302,7 +2322,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Group D</t>
+          <t>Group B</t>
         </is>
       </c>
       <c r="C36" t="n">
@@ -2318,12 +2338,12 @@
       <c r="G36" t="inlineStr"/>
       <c r="H36" t="inlineStr">
         <is>
-          <t>['Spain', 'Nigeria']</t>
+          <t>['Chile', 'Italy']</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>['Bulgaria']</t>
+          <t>['Austria']</t>
         </is>
       </c>
       <c r="J36" t="n">
@@ -2331,17 +2351,17 @@
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>Nigeria</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>Chile</t>
         </is>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>Bulgaria</t>
+          <t>Austria</t>
         </is>
       </c>
     </row>
@@ -2351,38 +2371,28 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Group D</t>
+          <t>Group C</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>1</v>
-      </c>
-      <c r="D37" t="n">
-        <v>1</v>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>Nigeria</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>Paraguay</t>
-        </is>
-      </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>Paraguay</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>initial</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr"/>
+      <c r="F37" t="inlineStr"/>
+      <c r="G37" t="inlineStr"/>
       <c r="H37" t="inlineStr">
         <is>
-          <t>['Paraguay', 'Nigeria']</t>
+          <t>['Denmark', 'France']</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>['Spain']</t>
+          <t>['South Africa']</t>
         </is>
       </c>
       <c r="J37" t="n">
@@ -2390,17 +2400,17 @@
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>Nigeria</t>
+          <t>France</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>Paraguay</t>
+          <t>Denmark</t>
         </is>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>South Africa</t>
         </is>
       </c>
     </row>
@@ -2414,29 +2424,19 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>2</v>
-      </c>
-      <c r="D38" t="n">
-        <v>6</v>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>Spain</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>Bulgaria</t>
-        </is>
-      </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>Spain</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>initial</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr"/>
+      <c r="F38" t="inlineStr"/>
+      <c r="G38" t="inlineStr"/>
       <c r="H38" t="inlineStr">
         <is>
-          <t>['Spain', 'Nigeria']</t>
+          <t>['Nigeria', 'Spain']</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
@@ -2469,28 +2469,38 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Group E</t>
+          <t>Group D</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>initial</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr"/>
-      <c r="F39" t="inlineStr"/>
-      <c r="G39" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="D39" t="n">
+        <v>1</v>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>Nigeria</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Paraguay</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>Paraguay</t>
+        </is>
+      </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Mexico']</t>
+          <t>['Nigeria', 'Paraguay']</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>['Belgium']</t>
+          <t>['Spain']</t>
         </is>
       </c>
       <c r="J39" t="n">
@@ -2498,17 +2508,17 @@
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>Mexico</t>
+          <t>Paraguay</t>
         </is>
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>Nigeria</t>
         </is>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>Belgium</t>
+          <t>Spain</t>
         </is>
       </c>
     </row>
@@ -2518,28 +2528,38 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Group F</t>
+          <t>Group D</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>initial</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr"/>
-      <c r="F40" t="inlineStr"/>
-      <c r="G40" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="D40" t="n">
+        <v>6</v>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>Spain</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Bulgaria</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>Spain</t>
+        </is>
+      </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>['Yugoslavia', 'Germany']</t>
+          <t>['Paraguay', 'Spain']</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>['Iran']</t>
+          <t>['Nigeria']</t>
         </is>
       </c>
       <c r="J40" t="n">
@@ -2547,17 +2567,17 @@
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>Yugoslavia</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Paraguay</t>
         </is>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>Iran</t>
+          <t>Nigeria</t>
         </is>
       </c>
     </row>
@@ -2567,28 +2587,38 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Group G</t>
+          <t>Group D</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>initial</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr"/>
-      <c r="F41" t="inlineStr"/>
-      <c r="G41" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="D41" t="n">
+        <v>11</v>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>Nigeria</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Paraguay</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>Nigeria</t>
+        </is>
+      </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>['England', 'Romania']</t>
+          <t>['Nigeria', 'Spain']</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>['Colombia']</t>
+          <t>['Paraguay']</t>
         </is>
       </c>
       <c r="J41" t="n">
@@ -2596,17 +2626,17 @@
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>Romania</t>
+          <t>Nigeria</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>England</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>Colombia</t>
+          <t>Paraguay</t>
         </is>
       </c>
     </row>
@@ -2616,28 +2646,38 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Group H</t>
+          <t>Group D</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>initial</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr"/>
-      <c r="F42" t="inlineStr"/>
-      <c r="G42" t="inlineStr"/>
+        <v>4</v>
+      </c>
+      <c r="D42" t="n">
+        <v>58</v>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>Nigeria</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Paraguay</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>Paraguay</t>
+        </is>
+      </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>['Croatia', 'Argentina']</t>
+          <t>['Paraguay', 'Spain']</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>['Japan']</t>
+          <t>['Nigeria']</t>
         </is>
       </c>
       <c r="J42" t="n">
@@ -2645,27 +2685,27 @@
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>Argentina</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>Croatia</t>
+          <t>Paraguay</t>
         </is>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>Japan</t>
+          <t>Nigeria</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>2002</v>
+        <v>1998</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Group A</t>
+          <t>Group E</t>
         </is>
       </c>
       <c r="C43" t="n">
@@ -2681,12 +2721,12 @@
       <c r="G43" t="inlineStr"/>
       <c r="H43" t="inlineStr">
         <is>
-          <t>['Senegal', 'Denmark']</t>
+          <t>['Mexico', 'Netherlands']</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>['Uruguay']</t>
+          <t>['Belgium']</t>
         </is>
       </c>
       <c r="J43" t="n">
@@ -2694,48 +2734,58 @@
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>Senegal</t>
+          <t>Mexico</t>
         </is>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>Uruguay</t>
+          <t>Belgium</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>2002</v>
+        <v>1998</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Group B</t>
+          <t>Group E</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>initial</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr"/>
-      <c r="F44" t="inlineStr"/>
-      <c r="G44" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="D44" t="n">
+        <v>7</v>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>Belgium</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>South Korea</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>Belgium</t>
+        </is>
+      </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>['South Africa', 'Spain']</t>
+          <t>['Netherlands', 'Belgium']</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>['Paraguay']</t>
+          <t>['Mexico']</t>
         </is>
       </c>
       <c r="J44" t="n">
@@ -2743,48 +2793,58 @@
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>South Africa</t>
+          <t>Belgium</t>
         </is>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>Paraguay</t>
+          <t>Mexico</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>2002</v>
+        <v>1998</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Group C</t>
+          <t>Group E</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>initial</t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr"/>
-      <c r="F45" t="inlineStr"/>
-      <c r="G45" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="D45" t="n">
+        <v>72</v>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>Belgium</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>South Korea</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>South Korea</t>
+        </is>
+      </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>['Brazil', 'Costa Rica']</t>
+          <t>['Mexico', 'Netherlands']</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>['Turkey']</t>
+          <t>['Belgium']</t>
         </is>
       </c>
       <c r="J45" t="n">
@@ -2792,58 +2852,48 @@
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>Brazil</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>Costa Rica</t>
+          <t>Mexico</t>
         </is>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>Turkey</t>
+          <t>Belgium</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>2002</v>
+        <v>1998</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Group C</t>
+          <t>Group F</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>1</v>
-      </c>
-      <c r="D46" t="n">
-        <v>10</v>
-      </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>Costa Rica</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>Brazil</t>
-        </is>
-      </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>Brazil</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>initial</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr"/>
+      <c r="F46" t="inlineStr"/>
+      <c r="G46" t="inlineStr"/>
       <c r="H46" t="inlineStr">
         <is>
-          <t>['Brazil', 'Turkey']</t>
+          <t>['Yugoslavia', 'Germany']</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>['Costa Rica']</t>
+          <t>['Iran']</t>
         </is>
       </c>
       <c r="J46" t="n">
@@ -2851,58 +2901,48 @@
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>Brazil</t>
+          <t>Yugoslavia</t>
         </is>
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>Turkey</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>Costa Rica</t>
+          <t>Iran</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>2002</v>
+        <v>1998</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Group C</t>
+          <t>Group G</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>2</v>
-      </c>
-      <c r="D47" t="n">
-        <v>56</v>
-      </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>Costa Rica</t>
-        </is>
-      </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>Brazil</t>
-        </is>
-      </c>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>Costa Rica</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>initial</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr"/>
+      <c r="F47" t="inlineStr"/>
+      <c r="G47" t="inlineStr"/>
       <c r="H47" t="inlineStr">
         <is>
-          <t>['Brazil', 'Costa Rica']</t>
+          <t>['Romania', 'England']</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>['Turkey']</t>
+          <t>['Colombia']</t>
         </is>
       </c>
       <c r="J47" t="n">
@@ -2910,58 +2950,48 @@
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>Brazil</t>
+          <t>Romania</t>
         </is>
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>Costa Rica</t>
+          <t>England</t>
         </is>
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>Turkey</t>
+          <t>Colombia</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>2002</v>
+        <v>1998</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Group C</t>
+          <t>Group H</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>3</v>
-      </c>
-      <c r="D48" t="n">
-        <v>62</v>
-      </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>Costa Rica</t>
-        </is>
-      </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>Brazil</t>
-        </is>
-      </c>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>Brazil</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>initial</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr"/>
+      <c r="F48" t="inlineStr"/>
+      <c r="G48" t="inlineStr"/>
       <c r="H48" t="inlineStr">
         <is>
-          <t>['Brazil', 'Turkey']</t>
+          <t>['Argentina', 'Croatia']</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>['Costa Rica']</t>
+          <t>['Japan']</t>
         </is>
       </c>
       <c r="J48" t="n">
@@ -2969,17 +2999,17 @@
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>Brazil</t>
+          <t>Argentina</t>
         </is>
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>Turkey</t>
+          <t>Croatia</t>
         </is>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>Costa Rica</t>
+          <t>Japan</t>
         </is>
       </c>
     </row>
@@ -2989,7 +3019,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Group D</t>
+          <t>Group A</t>
         </is>
       </c>
       <c r="C49" t="n">
@@ -3005,12 +3035,12 @@
       <c r="G49" t="inlineStr"/>
       <c r="H49" t="inlineStr">
         <is>
-          <t>['United States', 'South Korea']</t>
+          <t>['Senegal', 'Denmark']</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>['Portugal']</t>
+          <t>['Uruguay']</t>
         </is>
       </c>
       <c r="J49" t="n">
@@ -3018,17 +3048,17 @@
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>South Korea</t>
+          <t>Denmark</t>
         </is>
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>Senegal</t>
         </is>
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Uruguay</t>
         </is>
       </c>
     </row>
@@ -3038,38 +3068,28 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Group D</t>
+          <t>Group B</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>1</v>
-      </c>
-      <c r="D50" t="n">
-        <v>3</v>
-      </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>Poland</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>United States</t>
-        </is>
-      </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>Poland</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>initial</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr"/>
+      <c r="F50" t="inlineStr"/>
+      <c r="G50" t="inlineStr"/>
       <c r="H50" t="inlineStr">
         <is>
-          <t>['Portugal', 'South Korea']</t>
+          <t>['Spain', 'South Africa']</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>['United States']</t>
+          <t>['Paraguay']</t>
         </is>
       </c>
       <c r="J50" t="n">
@@ -3077,17 +3097,17 @@
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>South Korea</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>South Africa</t>
         </is>
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>Paraguay</t>
         </is>
       </c>
     </row>
@@ -3097,38 +3117,28 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Group D</t>
+          <t>Group C</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>2</v>
-      </c>
-      <c r="D51" t="n">
-        <v>70</v>
-      </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>Portugal</t>
-        </is>
-      </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>South Korea</t>
-        </is>
-      </c>
-      <c r="G51" t="inlineStr">
-        <is>
-          <t>South Korea</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>initial</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr"/>
+      <c r="F51" t="inlineStr"/>
+      <c r="G51" t="inlineStr"/>
       <c r="H51" t="inlineStr">
         <is>
-          <t>['United States', 'South Korea']</t>
+          <t>['Brazil', 'Costa Rica']</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>['Portugal']</t>
+          <t>['Turkey']</t>
         </is>
       </c>
       <c r="J51" t="n">
@@ -3136,17 +3146,17 @@
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>South Korea</t>
+          <t>Brazil</t>
         </is>
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>Costa Rica</t>
         </is>
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Turkey</t>
         </is>
       </c>
     </row>
@@ -3156,28 +3166,38 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Group E</t>
+          <t>Group C</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>0</v>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>initial</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr"/>
-      <c r="F52" t="inlineStr"/>
-      <c r="G52" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="D52" t="n">
+        <v>10</v>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>Costa Rica</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>Brazil</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>Brazil</t>
+        </is>
+      </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>['Cameroon', 'Germany']</t>
+          <t>['Turkey', 'Brazil']</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>['Republic of Ireland']</t>
+          <t>['Costa Rica']</t>
         </is>
       </c>
       <c r="J52" t="n">
@@ -3185,17 +3205,17 @@
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Brazil</t>
         </is>
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>Cameroon</t>
+          <t>Turkey</t>
         </is>
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>Republic of Ireland</t>
+          <t>Costa Rica</t>
         </is>
       </c>
     </row>
@@ -3205,38 +3225,38 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Group E</t>
+          <t>Group C</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D53" t="n">
-        <v>7</v>
+        <v>56</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Saudi Arabia</t>
+          <t>Costa Rica</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Republic of Ireland</t>
+          <t>Brazil</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Republic of Ireland</t>
+          <t>Costa Rica</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>['Republic of Ireland', 'Germany']</t>
+          <t>['Brazil', 'Costa Rica']</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>['Cameroon']</t>
+          <t>['Turkey']</t>
         </is>
       </c>
       <c r="J53" t="n">
@@ -3244,17 +3264,17 @@
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Brazil</t>
         </is>
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>Republic of Ireland</t>
+          <t>Costa Rica</t>
         </is>
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>Cameroon</t>
+          <t>Turkey</t>
         </is>
       </c>
     </row>
@@ -3264,28 +3284,38 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Group F</t>
+          <t>Group C</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>0</v>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>initial</t>
-        </is>
-      </c>
-      <c r="E54" t="inlineStr"/>
-      <c r="F54" t="inlineStr"/>
-      <c r="G54" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="D54" t="n">
+        <v>62</v>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>Costa Rica</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>Brazil</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>Brazil</t>
+        </is>
+      </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>['Sweden', 'England']</t>
+          <t>['Turkey', 'Brazil']</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>['Argentina']</t>
+          <t>['Costa Rica']</t>
         </is>
       </c>
       <c r="J54" t="n">
@@ -3293,17 +3323,17 @@
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>Brazil</t>
         </is>
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>England</t>
+          <t>Turkey</t>
         </is>
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>Argentina</t>
+          <t>Costa Rica</t>
         </is>
       </c>
     </row>
@@ -3313,7 +3343,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Group G</t>
+          <t>Group D</t>
         </is>
       </c>
       <c r="C55" t="n">
@@ -3329,12 +3359,12 @@
       <c r="G55" t="inlineStr"/>
       <c r="H55" t="inlineStr">
         <is>
-          <t>['Italy', 'Mexico']</t>
+          <t>['United States', 'South Korea']</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>['Croatia']</t>
+          <t>['Portugal']</t>
         </is>
       </c>
       <c r="J55" t="n">
@@ -3342,17 +3372,17 @@
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>Mexico</t>
+          <t>South Korea</t>
         </is>
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>Croatia</t>
+          <t>Portugal</t>
         </is>
       </c>
     </row>
@@ -3362,38 +3392,38 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Group G</t>
+          <t>Group D</t>
         </is>
       </c>
       <c r="C56" t="n">
         <v>1</v>
       </c>
       <c r="D56" t="n">
-        <v>34</v>
+        <v>3</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Mexico</t>
+          <t>Poland</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Mexico</t>
+          <t>Poland</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>['Croatia', 'Mexico']</t>
+          <t>['Portugal', 'South Korea']</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>['Italy']</t>
+          <t>['United States']</t>
         </is>
       </c>
       <c r="J56" t="n">
@@ -3401,17 +3431,17 @@
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>Mexico</t>
+          <t>South Korea</t>
         </is>
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>Croatia</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>United States</t>
         </is>
       </c>
     </row>
@@ -3421,38 +3451,38 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Group G</t>
+          <t>Group D</t>
         </is>
       </c>
       <c r="C57" t="n">
         <v>2</v>
       </c>
       <c r="D57" t="n">
-        <v>48</v>
+        <v>70</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Ecuador</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Croatia</t>
+          <t>South Korea</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Ecuador</t>
+          <t>South Korea</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>['Italy', 'Mexico']</t>
+          <t>['United States', 'South Korea']</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>['Croatia']</t>
+          <t>['Portugal']</t>
         </is>
       </c>
       <c r="J57" t="n">
@@ -3460,17 +3490,17 @@
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>Mexico</t>
+          <t>South Korea</t>
         </is>
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>Croatia</t>
+          <t>Portugal</t>
         </is>
       </c>
     </row>
@@ -3480,7 +3510,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Group H</t>
+          <t>Group E</t>
         </is>
       </c>
       <c r="C58" t="n">
@@ -3496,12 +3526,12 @@
       <c r="G58" t="inlineStr"/>
       <c r="H58" t="inlineStr">
         <is>
-          <t>['Japan', 'Russia']</t>
+          <t>['Germany', 'Cameroon']</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>['Belgium']</t>
+          <t>['Republic of Ireland']</t>
         </is>
       </c>
       <c r="J58" t="n">
@@ -3509,17 +3539,17 @@
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>Japan</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>Russia</t>
+          <t>Cameroon</t>
         </is>
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>Belgium</t>
+          <t>Republic of Ireland</t>
         </is>
       </c>
     </row>
@@ -3529,7 +3559,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Group H</t>
+          <t>Group E</t>
         </is>
       </c>
       <c r="C59" t="n">
@@ -3540,27 +3570,27 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Belgium</t>
+          <t>Saudi Arabia</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Russia</t>
+          <t>Republic of Ireland</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>Belgium</t>
+          <t>Republic of Ireland</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>['Belgium', 'Japan']</t>
+          <t>['Germany', 'Republic of Ireland']</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>['Russia']</t>
+          <t>['Cameroon']</t>
         </is>
       </c>
       <c r="J59" t="n">
@@ -3568,17 +3598,17 @@
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>Belgium</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>Japan</t>
+          <t>Republic of Ireland</t>
         </is>
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>Russia</t>
+          <t>Cameroon</t>
         </is>
       </c>
     </row>
@@ -3588,38 +3618,28 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Group H</t>
+          <t>Group F</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>2</v>
-      </c>
-      <c r="D60" t="n">
-        <v>52</v>
-      </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>Belgium</t>
-        </is>
-      </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>Russia</t>
-        </is>
-      </c>
-      <c r="G60" t="inlineStr">
-        <is>
-          <t>Russia</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>initial</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr"/>
+      <c r="F60" t="inlineStr"/>
+      <c r="G60" t="inlineStr"/>
       <c r="H60" t="inlineStr">
         <is>
-          <t>['Japan', 'Russia']</t>
+          <t>['Sweden', 'England']</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>['Belgium']</t>
+          <t>['Argentina']</t>
         </is>
       </c>
       <c r="J60" t="n">
@@ -3627,17 +3647,17 @@
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>Japan</t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="L60" t="inlineStr">
         <is>
-          <t>Russia</t>
+          <t>England</t>
         </is>
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>Belgium</t>
+          <t>Argentina</t>
         </is>
       </c>
     </row>
@@ -3647,38 +3667,28 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Group H</t>
+          <t>Group G</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>3</v>
-      </c>
-      <c r="D61" t="n">
-        <v>78</v>
-      </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>Belgium</t>
-        </is>
-      </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>Russia</t>
-        </is>
-      </c>
-      <c r="G61" t="inlineStr">
-        <is>
-          <t>Belgium</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>initial</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr"/>
+      <c r="F61" t="inlineStr"/>
+      <c r="G61" t="inlineStr"/>
       <c r="H61" t="inlineStr">
         <is>
-          <t>['Belgium', 'Japan']</t>
+          <t>['Mexico', 'Italy']</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>['Russia']</t>
+          <t>['Croatia']</t>
         </is>
       </c>
       <c r="J61" t="n">
@@ -3686,48 +3696,58 @@
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>Japan</t>
+          <t>Mexico</t>
         </is>
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>Belgium</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>Russia</t>
+          <t>Croatia</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>2006</v>
+        <v>2002</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Group A</t>
+          <t>Group G</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>0</v>
-      </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>initial</t>
-        </is>
-      </c>
-      <c r="E62" t="inlineStr"/>
-      <c r="F62" t="inlineStr"/>
-      <c r="G62" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="D62" t="n">
+        <v>34</v>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>Italy</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>['Ecuador', 'Germany']</t>
+          <t>['Mexico', 'Croatia']</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>['Poland']</t>
+          <t>['Italy']</t>
         </is>
       </c>
       <c r="J62" t="n">
@@ -3735,48 +3755,58 @@
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>Ecuador</t>
+          <t>Mexico</t>
         </is>
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Croatia</t>
         </is>
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>Poland</t>
+          <t>Italy</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>2006</v>
+        <v>2002</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Group B</t>
+          <t>Group G</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>0</v>
-      </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>initial</t>
-        </is>
-      </c>
-      <c r="E63" t="inlineStr"/>
-      <c r="F63" t="inlineStr"/>
-      <c r="G63" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="D63" t="n">
+        <v>48</v>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>Ecuador</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>Croatia</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>Ecuador</t>
+        </is>
+      </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>['Sweden', 'England']</t>
+          <t>['Mexico', 'Italy']</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>['Paraguay']</t>
+          <t>['Croatia']</t>
         </is>
       </c>
       <c r="J63" t="n">
@@ -3784,58 +3814,48 @@
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>England</t>
+          <t>Mexico</t>
         </is>
       </c>
       <c r="L63" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>Paraguay</t>
+          <t>Croatia</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>2006</v>
+        <v>2002</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Group B</t>
+          <t>Group H</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>1</v>
-      </c>
-      <c r="D64" t="n">
-        <v>25</v>
-      </c>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>Paraguay</t>
-        </is>
-      </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>Trinidad and Tobago</t>
-        </is>
-      </c>
-      <c r="G64" t="inlineStr">
-        <is>
-          <t>Trinidad and Tobago</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>initial</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr"/>
+      <c r="F64" t="inlineStr"/>
+      <c r="G64" t="inlineStr"/>
       <c r="H64" t="inlineStr">
         <is>
-          <t>['Paraguay', 'England']</t>
+          <t>['Japan', 'Russia']</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>['Sweden']</t>
+          <t>['Belgium']</t>
         </is>
       </c>
       <c r="J64" t="n">
@@ -3843,48 +3863,58 @@
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>England</t>
+          <t>Japan</t>
         </is>
       </c>
       <c r="L64" t="inlineStr">
         <is>
-          <t>Paraguay</t>
+          <t>Russia</t>
         </is>
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>Belgium</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>2006</v>
+        <v>2002</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Group C</t>
+          <t>Group H</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>0</v>
-      </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>initial</t>
-        </is>
-      </c>
-      <c r="E65" t="inlineStr"/>
-      <c r="F65" t="inlineStr"/>
-      <c r="G65" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="D65" t="n">
+        <v>7</v>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>Belgium</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>Russia</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>Belgium</t>
+        </is>
+      </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>['Argentina', 'Netherlands']</t>
+          <t>['Japan', 'Belgium']</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>['Ivory Coast']</t>
+          <t>['Russia']</t>
         </is>
       </c>
       <c r="J65" t="n">
@@ -3892,48 +3922,58 @@
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>Argentina</t>
+          <t>Belgium</t>
         </is>
       </c>
       <c r="L65" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>Japan</t>
         </is>
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>Ivory Coast</t>
+          <t>Russia</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>2006</v>
+        <v>2002</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Group D</t>
+          <t>Group H</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>0</v>
-      </c>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>initial</t>
-        </is>
-      </c>
-      <c r="E66" t="inlineStr"/>
-      <c r="F66" t="inlineStr"/>
-      <c r="G66" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="D66" t="n">
+        <v>52</v>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>Belgium</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>Russia</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>Russia</t>
+        </is>
+      </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>['Portugal', 'Mexico']</t>
+          <t>['Japan', 'Russia']</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>['Iran']</t>
+          <t>['Belgium']</t>
         </is>
       </c>
       <c r="J66" t="n">
@@ -3941,48 +3981,58 @@
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Japan</t>
         </is>
       </c>
       <c r="L66" t="inlineStr">
         <is>
-          <t>Mexico</t>
+          <t>Russia</t>
         </is>
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>Iran</t>
+          <t>Belgium</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>2006</v>
+        <v>2002</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Group E</t>
+          <t>Group H</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>0</v>
-      </c>
-      <c r="D67" t="inlineStr">
-        <is>
-          <t>initial</t>
-        </is>
-      </c>
-      <c r="E67" t="inlineStr"/>
-      <c r="F67" t="inlineStr"/>
-      <c r="G67" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="D67" t="n">
+        <v>78</v>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>Belgium</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>Russia</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>Belgium</t>
+        </is>
+      </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Italy']</t>
+          <t>['Japan', 'Belgium']</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>['Ghana']</t>
+          <t>['Russia']</t>
         </is>
       </c>
       <c r="J67" t="n">
@@ -3990,17 +4040,17 @@
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Japan</t>
         </is>
       </c>
       <c r="L67" t="inlineStr">
         <is>
-          <t>Czech Republic</t>
+          <t>Belgium</t>
         </is>
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>Ghana</t>
+          <t>Russia</t>
         </is>
       </c>
     </row>
@@ -4010,38 +4060,28 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Group E</t>
+          <t>Group A</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>1</v>
-      </c>
-      <c r="D68" t="n">
-        <v>22</v>
-      </c>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>Ghana</t>
-        </is>
-      </c>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>United States</t>
-        </is>
-      </c>
-      <c r="G68" t="inlineStr">
-        <is>
-          <t>Ghana</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>initial</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr"/>
+      <c r="F68" t="inlineStr"/>
+      <c r="G68" t="inlineStr"/>
       <c r="H68" t="inlineStr">
         <is>
-          <t>['Ghana', 'Italy']</t>
+          <t>['Ecuador', 'Germany']</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>['Czech Republic']</t>
+          <t>['Poland']</t>
         </is>
       </c>
       <c r="J68" t="n">
@@ -4049,17 +4089,17 @@
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Ecuador</t>
         </is>
       </c>
       <c r="L68" t="inlineStr">
         <is>
-          <t>Ghana</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>Czech Republic</t>
+          <t>Poland</t>
         </is>
       </c>
     </row>
@@ -4069,7 +4109,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Group F</t>
+          <t>Group B</t>
         </is>
       </c>
       <c r="C69" t="n">
@@ -4085,12 +4125,12 @@
       <c r="G69" t="inlineStr"/>
       <c r="H69" t="inlineStr">
         <is>
-          <t>['Brazil', 'Australia']</t>
+          <t>['Sweden', 'England']</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>['Croatia']</t>
+          <t>['Paraguay']</t>
         </is>
       </c>
       <c r="J69" t="n">
@@ -4098,17 +4138,17 @@
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>Brazil</t>
+          <t>England</t>
         </is>
       </c>
       <c r="L69" t="inlineStr">
         <is>
-          <t>Australia</t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>Croatia</t>
+          <t>Paraguay</t>
         </is>
       </c>
     </row>
@@ -4118,28 +4158,38 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Group G</t>
+          <t>Group B</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>0</v>
-      </c>
-      <c r="D70" t="inlineStr">
-        <is>
-          <t>initial</t>
-        </is>
-      </c>
-      <c r="E70" t="inlineStr"/>
-      <c r="F70" t="inlineStr"/>
-      <c r="G70" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="D70" t="n">
+        <v>86</v>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>Paraguay</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>Trinidad and Tobago</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>Paraguay</t>
+        </is>
+      </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>['Switzerland', 'South Korea']</t>
+          <t>['Paraguay', 'England']</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>['France']</t>
+          <t>['Sweden']</t>
         </is>
       </c>
       <c r="J70" t="n">
@@ -4147,17 +4197,17 @@
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>South Korea</t>
+          <t>England</t>
         </is>
       </c>
       <c r="L70" t="inlineStr">
         <is>
-          <t>Switzerland</t>
+          <t>Paraguay</t>
         </is>
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Sweden</t>
         </is>
       </c>
     </row>
@@ -4167,28 +4217,38 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Group H</t>
+          <t>Group B</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>0</v>
-      </c>
-      <c r="D71" t="inlineStr">
-        <is>
-          <t>initial</t>
-        </is>
-      </c>
-      <c r="E71" t="inlineStr"/>
-      <c r="F71" t="inlineStr"/>
-      <c r="G71" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="D71" t="n">
+        <v>90</v>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>Sweden</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>England</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>Sweden</t>
+        </is>
+      </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>['Spain', 'Ukraine']</t>
+          <t>['Sweden', 'England']</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>['Tunisia']</t>
+          <t>['Paraguay']</t>
         </is>
       </c>
       <c r="J71" t="n">
@@ -4196,27 +4256,27 @@
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>England</t>
         </is>
       </c>
       <c r="L71" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>Tunisia</t>
+          <t>Paraguay</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>2010</v>
+        <v>2006</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Group A</t>
+          <t>Group C</t>
         </is>
       </c>
       <c r="C72" t="n">
@@ -4232,12 +4292,12 @@
       <c r="G72" t="inlineStr"/>
       <c r="H72" t="inlineStr">
         <is>
-          <t>['Uruguay', 'Mexico']</t>
+          <t>['Argentina', 'Netherlands']</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>['South Africa']</t>
+          <t>['Ivory Coast']</t>
         </is>
       </c>
       <c r="J72" t="n">
@@ -4245,58 +4305,48 @@
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>Mexico</t>
+          <t>Argentina</t>
         </is>
       </c>
       <c r="L72" t="inlineStr">
         <is>
-          <t>Uruguay</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="M72" t="inlineStr">
         <is>
-          <t>South Africa</t>
+          <t>Ivory Coast</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>2010</v>
+        <v>2006</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Group A</t>
+          <t>Group D</t>
         </is>
       </c>
       <c r="C73" t="n">
-        <v>1</v>
-      </c>
-      <c r="D73" t="n">
-        <v>20</v>
-      </c>
-      <c r="E73" t="inlineStr">
-        <is>
-          <t>France</t>
-        </is>
-      </c>
-      <c r="F73" t="inlineStr">
-        <is>
-          <t>South Africa</t>
-        </is>
-      </c>
-      <c r="G73" t="inlineStr">
-        <is>
-          <t>South Africa</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>initial</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr"/>
+      <c r="F73" t="inlineStr"/>
+      <c r="G73" t="inlineStr"/>
       <c r="H73" t="inlineStr">
         <is>
-          <t>['South Africa', 'Mexico']</t>
+          <t>['Portugal', 'Mexico']</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>['Uruguay']</t>
+          <t>['Angola']</t>
         </is>
       </c>
       <c r="J73" t="n">
@@ -4304,58 +4354,48 @@
       </c>
       <c r="K73" t="inlineStr">
         <is>
+          <t>Portugal</t>
+        </is>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
           <t>Mexico</t>
         </is>
       </c>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>South Africa</t>
-        </is>
-      </c>
       <c r="M73" t="inlineStr">
         <is>
-          <t>Uruguay</t>
+          <t>Angola</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>2010</v>
+        <v>2006</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Group A</t>
+          <t>Group E</t>
         </is>
       </c>
       <c r="C74" t="n">
-        <v>2</v>
-      </c>
-      <c r="D74" t="n">
-        <v>43</v>
-      </c>
-      <c r="E74" t="inlineStr">
-        <is>
-          <t>Mexico</t>
-        </is>
-      </c>
-      <c r="F74" t="inlineStr">
-        <is>
-          <t>Uruguay</t>
-        </is>
-      </c>
-      <c r="G74" t="inlineStr">
-        <is>
-          <t>Uruguay</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>initial</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr"/>
+      <c r="F74" t="inlineStr"/>
+      <c r="G74" t="inlineStr"/>
       <c r="H74" t="inlineStr">
         <is>
-          <t>['Uruguay', 'Mexico']</t>
+          <t>['Czech Republic', 'Italy']</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>['South Africa']</t>
+          <t>['Ghana']</t>
         </is>
       </c>
       <c r="J74" t="n">
@@ -4363,48 +4403,58 @@
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>Uruguay</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="L74" t="inlineStr">
         <is>
-          <t>Mexico</t>
+          <t>Czech Republic</t>
         </is>
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>South Africa</t>
+          <t>Ghana</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>2010</v>
+        <v>2006</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Group B</t>
+          <t>Group E</t>
         </is>
       </c>
       <c r="C75" t="n">
-        <v>0</v>
-      </c>
-      <c r="D75" t="inlineStr">
-        <is>
-          <t>initial</t>
-        </is>
-      </c>
-      <c r="E75" t="inlineStr"/>
-      <c r="F75" t="inlineStr"/>
-      <c r="G75" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="D75" t="n">
+        <v>22</v>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>Ghana</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>United States</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>Ghana</t>
+        </is>
+      </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>['Argentina', 'South Korea']</t>
+          <t>['Ghana', 'Italy']</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>['Greece']</t>
+          <t>['Czech Republic']</t>
         </is>
       </c>
       <c r="J75" t="n">
@@ -4412,58 +4462,48 @@
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>Argentina</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="L75" t="inlineStr">
         <is>
-          <t>South Korea</t>
+          <t>Ghana</t>
         </is>
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>Greece</t>
+          <t>Czech Republic</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>2010</v>
+        <v>2006</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Group B</t>
+          <t>Group F</t>
         </is>
       </c>
       <c r="C76" t="n">
-        <v>1</v>
-      </c>
-      <c r="D76" t="n">
-        <v>12</v>
-      </c>
-      <c r="E76" t="inlineStr">
-        <is>
-          <t>Nigeria</t>
-        </is>
-      </c>
-      <c r="F76" t="inlineStr">
-        <is>
-          <t>South Korea</t>
-        </is>
-      </c>
-      <c r="G76" t="inlineStr">
-        <is>
-          <t>Nigeria</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>initial</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr"/>
+      <c r="F76" t="inlineStr"/>
+      <c r="G76" t="inlineStr"/>
       <c r="H76" t="inlineStr">
         <is>
-          <t>['Argentina', 'Greece']</t>
+          <t>['Brazil', 'Australia']</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>['South Korea']</t>
+          <t>['Croatia']</t>
         </is>
       </c>
       <c r="J76" t="n">
@@ -4471,58 +4511,58 @@
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>Argentina</t>
+          <t>Brazil</t>
         </is>
       </c>
       <c r="L76" t="inlineStr">
         <is>
-          <t>Greece</t>
+          <t>Australia</t>
         </is>
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>South Korea</t>
+          <t>Croatia</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>2010</v>
+        <v>2006</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Group B</t>
+          <t>Group F</t>
         </is>
       </c>
       <c r="C77" t="n">
+        <v>1</v>
+      </c>
+      <c r="D77" t="n">
         <v>2</v>
       </c>
-      <c r="D77" t="n">
-        <v>38</v>
-      </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Nigeria</t>
+          <t>Croatia</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>South Korea</t>
+          <t>Australia</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>South Korea</t>
+          <t>Croatia</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>['Argentina', 'South Korea']</t>
+          <t>['Brazil', 'Croatia']</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>['Greece']</t>
+          <t>['Australia']</t>
         </is>
       </c>
       <c r="J77" t="n">
@@ -4530,48 +4570,58 @@
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>Argentina</t>
+          <t>Brazil</t>
         </is>
       </c>
       <c r="L77" t="inlineStr">
         <is>
-          <t>South Korea</t>
+          <t>Croatia</t>
         </is>
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>Greece</t>
+          <t>Australia</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>2010</v>
+        <v>2006</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Group C</t>
+          <t>Group F</t>
         </is>
       </c>
       <c r="C78" t="n">
-        <v>0</v>
-      </c>
-      <c r="D78" t="inlineStr">
-        <is>
-          <t>initial</t>
-        </is>
-      </c>
-      <c r="E78" t="inlineStr"/>
-      <c r="F78" t="inlineStr"/>
-      <c r="G78" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="D78" t="n">
+        <v>38</v>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>Croatia</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>Australia</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>Australia</t>
+        </is>
+      </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>['Slovenia', 'United States']</t>
+          <t>['Brazil', 'Australia']</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>['England']</t>
+          <t>['Japan']</t>
         </is>
       </c>
       <c r="J78" t="n">
@@ -4579,58 +4629,58 @@
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>Slovenia</t>
+          <t>Brazil</t>
         </is>
       </c>
       <c r="L78" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>Australia</t>
         </is>
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>England</t>
+          <t>Japan</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>2010</v>
+        <v>2006</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Group C</t>
+          <t>Group F</t>
         </is>
       </c>
       <c r="C79" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D79" t="n">
-        <v>23</v>
+        <v>56</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Slovenia</t>
+          <t>Croatia</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>England</t>
+          <t>Australia</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>England</t>
+          <t>Croatia</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>['Slovenia', 'England']</t>
+          <t>['Brazil', 'Croatia']</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>['United States']</t>
+          <t>['Australia']</t>
         </is>
       </c>
       <c r="J79" t="n">
@@ -4638,58 +4688,58 @@
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>Slovenia</t>
+          <t>Brazil</t>
         </is>
       </c>
       <c r="L79" t="inlineStr">
         <is>
-          <t>England</t>
+          <t>Croatia</t>
         </is>
       </c>
       <c r="M79" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>Australia</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>2010</v>
+        <v>2006</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Group C</t>
+          <t>Group F</t>
         </is>
       </c>
       <c r="C80" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D80" t="n">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>Croatia</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Algeria</t>
+          <t>Australia</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>Australia</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>['Slovenia', 'United States']</t>
+          <t>['Brazil', 'Australia']</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>['England']</t>
+          <t>['Croatia']</t>
         </is>
       </c>
       <c r="J80" t="n">
@@ -4697,27 +4747,27 @@
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>Brazil</t>
         </is>
       </c>
       <c r="L80" t="inlineStr">
         <is>
-          <t>Slovenia</t>
+          <t>Australia</t>
         </is>
       </c>
       <c r="M80" t="inlineStr">
         <is>
-          <t>England</t>
+          <t>Croatia</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>2010</v>
+        <v>2006</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Group D</t>
+          <t>Group G</t>
         </is>
       </c>
       <c r="C81" t="n">
@@ -4733,12 +4783,12 @@
       <c r="G81" t="inlineStr"/>
       <c r="H81" t="inlineStr">
         <is>
-          <t>['Ghana', 'Germany']</t>
+          <t>['Switzerland', 'South Korea']</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>['Serbia']</t>
+          <t>['France']</t>
         </is>
       </c>
       <c r="J81" t="n">
@@ -4746,48 +4796,58 @@
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>Ghana</t>
+          <t>Switzerland</t>
         </is>
       </c>
       <c r="L81" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>South Korea</t>
         </is>
       </c>
       <c r="M81" t="inlineStr">
         <is>
-          <t>Serbia</t>
+          <t>France</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>2010</v>
+        <v>2006</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Group E</t>
+          <t>Group G</t>
         </is>
       </c>
       <c r="C82" t="n">
-        <v>0</v>
-      </c>
-      <c r="D82" t="inlineStr">
-        <is>
-          <t>initial</t>
-        </is>
-      </c>
-      <c r="E82" t="inlineStr"/>
-      <c r="F82" t="inlineStr"/>
-      <c r="G82" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="D82" t="n">
+        <v>55</v>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>Togo</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>France</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>France</t>
+        </is>
+      </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>['Denmark', 'Netherlands']</t>
+          <t>['Switzerland', 'France']</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>['Japan']</t>
+          <t>['South Korea']</t>
         </is>
       </c>
       <c r="J82" t="n">
@@ -4795,58 +4855,48 @@
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>Switzerland</t>
         </is>
       </c>
       <c r="L82" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>France</t>
         </is>
       </c>
       <c r="M82" t="inlineStr">
         <is>
-          <t>Japan</t>
+          <t>South Korea</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>2010</v>
+        <v>2006</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Group E</t>
+          <t>Group H</t>
         </is>
       </c>
       <c r="C83" t="n">
-        <v>1</v>
-      </c>
-      <c r="D83" t="n">
-        <v>17</v>
-      </c>
-      <c r="E83" t="inlineStr">
-        <is>
-          <t>Denmark</t>
-        </is>
-      </c>
-      <c r="F83" t="inlineStr">
-        <is>
-          <t>Japan</t>
-        </is>
-      </c>
-      <c r="G83" t="inlineStr">
-        <is>
-          <t>Japan</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>initial</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr"/>
+      <c r="F83" t="inlineStr"/>
+      <c r="G83" t="inlineStr"/>
       <c r="H83" t="inlineStr">
         <is>
-          <t>['Japan', 'Netherlands']</t>
+          <t>['Ukraine', 'Spain']</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>['Denmark']</t>
+          <t>['Tunisia']</t>
         </is>
       </c>
       <c r="J83" t="n">
@@ -4854,17 +4904,17 @@
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="L83" t="inlineStr">
         <is>
-          <t>Japan</t>
+          <t>Ukraine</t>
         </is>
       </c>
       <c r="M83" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Tunisia</t>
         </is>
       </c>
     </row>
@@ -4874,7 +4924,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Group F</t>
+          <t>Group A</t>
         </is>
       </c>
       <c r="C84" t="n">
@@ -4890,12 +4940,12 @@
       <c r="G84" t="inlineStr"/>
       <c r="H84" t="inlineStr">
         <is>
-          <t>['Paraguay', 'Italy']</t>
+          <t>['Mexico', 'Uruguay']</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>['New Zealand']</t>
+          <t>['France']</t>
         </is>
       </c>
       <c r="J84" t="n">
@@ -4903,17 +4953,17 @@
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>Paraguay</t>
+          <t>Uruguay</t>
         </is>
       </c>
       <c r="L84" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Mexico</t>
         </is>
       </c>
       <c r="M84" t="inlineStr">
         <is>
-          <t>New Zealand</t>
+          <t>France</t>
         </is>
       </c>
     </row>
@@ -4923,38 +4973,28 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Group F</t>
+          <t>Group B</t>
         </is>
       </c>
       <c r="C85" t="n">
-        <v>1</v>
-      </c>
-      <c r="D85" t="n">
-        <v>25</v>
-      </c>
-      <c r="E85" t="inlineStr">
-        <is>
-          <t>Slovakia</t>
-        </is>
-      </c>
-      <c r="F85" t="inlineStr">
-        <is>
-          <t>Italy</t>
-        </is>
-      </c>
-      <c r="G85" t="inlineStr">
-        <is>
-          <t>Slovakia</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>initial</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr"/>
+      <c r="F85" t="inlineStr"/>
+      <c r="G85" t="inlineStr"/>
       <c r="H85" t="inlineStr">
         <is>
-          <t>['Paraguay', 'Slovakia']</t>
+          <t>['Argentina', 'South Korea']</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>['New Zealand']</t>
+          <t>['Greece']</t>
         </is>
       </c>
       <c r="J85" t="n">
@@ -4962,17 +5002,17 @@
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>Paraguay</t>
+          <t>Argentina</t>
         </is>
       </c>
       <c r="L85" t="inlineStr">
         <is>
-          <t>Slovakia</t>
+          <t>South Korea</t>
         </is>
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>New Zealand</t>
+          <t>Greece</t>
         </is>
       </c>
     </row>
@@ -4982,28 +5022,38 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Group G</t>
+          <t>Group B</t>
         </is>
       </c>
       <c r="C86" t="n">
-        <v>0</v>
-      </c>
-      <c r="D86" t="inlineStr">
-        <is>
-          <t>initial</t>
-        </is>
-      </c>
-      <c r="E86" t="inlineStr"/>
-      <c r="F86" t="inlineStr"/>
-      <c r="G86" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="D86" t="n">
+        <v>12</v>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>Nigeria</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>South Korea</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>Nigeria</t>
+        </is>
+      </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>['Brazil', 'Portugal']</t>
+          <t>['Argentina', 'Greece']</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>['North Korea']</t>
+          <t>['South Korea']</t>
         </is>
       </c>
       <c r="J86" t="n">
@@ -5011,17 +5061,17 @@
       </c>
       <c r="K86" t="inlineStr">
         <is>
-          <t>Brazil</t>
+          <t>Argentina</t>
         </is>
       </c>
       <c r="L86" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Greece</t>
         </is>
       </c>
       <c r="M86" t="inlineStr">
         <is>
-          <t>North Korea</t>
+          <t>South Korea</t>
         </is>
       </c>
     </row>
@@ -5031,28 +5081,38 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Group H</t>
+          <t>Group B</t>
         </is>
       </c>
       <c r="C87" t="n">
-        <v>0</v>
-      </c>
-      <c r="D87" t="inlineStr">
-        <is>
-          <t>initial</t>
-        </is>
-      </c>
-      <c r="E87" t="inlineStr"/>
-      <c r="F87" t="inlineStr"/>
-      <c r="G87" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="D87" t="n">
+        <v>38</v>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>Nigeria</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>South Korea</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>South Korea</t>
+        </is>
+      </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>['Spain', 'Chile']</t>
+          <t>['Argentina', 'South Korea']</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>['Switzerland']</t>
+          <t>['Greece']</t>
         </is>
       </c>
       <c r="J87" t="n">
@@ -5060,27 +5120,27 @@
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>Chile</t>
+          <t>Argentina</t>
         </is>
       </c>
       <c r="L87" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>South Korea</t>
         </is>
       </c>
       <c r="M87" t="inlineStr">
         <is>
-          <t>Switzerland</t>
+          <t>Greece</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>2014</v>
+        <v>2010</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Group A</t>
+          <t>Group C</t>
         </is>
       </c>
       <c r="C88" t="n">
@@ -5096,12 +5156,12 @@
       <c r="G88" t="inlineStr"/>
       <c r="H88" t="inlineStr">
         <is>
-          <t>['Brazil', 'Croatia']</t>
+          <t>['United States', 'Slovenia']</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>['Mexico']</t>
+          <t>['England']</t>
         </is>
       </c>
       <c r="J88" t="n">
@@ -5109,58 +5169,58 @@
       </c>
       <c r="K88" t="inlineStr">
         <is>
-          <t>Croatia</t>
+          <t>Slovenia</t>
         </is>
       </c>
       <c r="L88" t="inlineStr">
         <is>
-          <t>Brazil</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="M88" t="inlineStr">
         <is>
-          <t>Mexico</t>
+          <t>England</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>2014</v>
+        <v>2010</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Group A</t>
+          <t>Group C</t>
         </is>
       </c>
       <c r="C89" t="n">
         <v>1</v>
       </c>
       <c r="D89" t="n">
-        <v>72</v>
+        <v>23</v>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>Croatia</t>
+          <t>Slovenia</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Mexico</t>
+          <t>England</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>Mexico</t>
+          <t>England</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>['Brazil', 'Mexico']</t>
+          <t>['England', 'Slovenia']</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>['Croatia']</t>
+          <t>['United States']</t>
         </is>
       </c>
       <c r="J89" t="n">
@@ -5168,48 +5228,58 @@
       </c>
       <c r="K89" t="inlineStr">
         <is>
-          <t>Brazil</t>
+          <t>England</t>
         </is>
       </c>
       <c r="L89" t="inlineStr">
         <is>
-          <t>Mexico</t>
+          <t>Slovenia</t>
         </is>
       </c>
       <c r="M89" t="inlineStr">
         <is>
-          <t>Croatia</t>
+          <t>United States</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>2014</v>
+        <v>2010</v>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Group B</t>
+          <t>Group C</t>
         </is>
       </c>
       <c r="C90" t="n">
-        <v>0</v>
-      </c>
-      <c r="D90" t="inlineStr">
-        <is>
-          <t>initial</t>
-        </is>
-      </c>
-      <c r="E90" t="inlineStr"/>
-      <c r="F90" t="inlineStr"/>
-      <c r="G90" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="D90" t="n">
+        <v>91</v>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>United States</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>Algeria</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>United States</t>
+        </is>
+      </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>['Chile', 'Netherlands']</t>
+          <t>['United States', 'England']</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>['Australia']</t>
+          <t>['Slovenia']</t>
         </is>
       </c>
       <c r="J90" t="n">
@@ -5217,27 +5287,27 @@
       </c>
       <c r="K90" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="L90" t="inlineStr">
         <is>
-          <t>Chile</t>
+          <t>England</t>
         </is>
       </c>
       <c r="M90" t="inlineStr">
         <is>
-          <t>Australia</t>
+          <t>Slovenia</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>2014</v>
+        <v>2010</v>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Group C</t>
+          <t>Group D</t>
         </is>
       </c>
       <c r="C91" t="n">
@@ -5253,12 +5323,12 @@
       <c r="G91" t="inlineStr"/>
       <c r="H91" t="inlineStr">
         <is>
-          <t>['Ivory Coast', 'Colombia']</t>
+          <t>['Ghana', 'Germany']</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>['Japan']</t>
+          <t>['Serbia']</t>
         </is>
       </c>
       <c r="J91" t="n">
@@ -5266,27 +5336,27 @@
       </c>
       <c r="K91" t="inlineStr">
         <is>
-          <t>Colombia</t>
+          <t>Ghana</t>
         </is>
       </c>
       <c r="L91" t="inlineStr">
         <is>
-          <t>Ivory Coast</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="M91" t="inlineStr">
         <is>
-          <t>Japan</t>
+          <t>Serbia</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>2014</v>
+        <v>2010</v>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Group D</t>
+          <t>Group E</t>
         </is>
       </c>
       <c r="C92" t="n">
@@ -5302,12 +5372,12 @@
       <c r="G92" t="inlineStr"/>
       <c r="H92" t="inlineStr">
         <is>
-          <t>['Italy', 'Costa Rica']</t>
+          <t>['Denmark', 'Netherlands']</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>['Uruguay']</t>
+          <t>['Japan']</t>
         </is>
       </c>
       <c r="J92" t="n">
@@ -5315,58 +5385,58 @@
       </c>
       <c r="K92" t="inlineStr">
         <is>
-          <t>Costa Rica</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="L92" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Denmark</t>
         </is>
       </c>
       <c r="M92" t="inlineStr">
         <is>
-          <t>Uruguay</t>
+          <t>Japan</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>2014</v>
+        <v>2010</v>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Group D</t>
+          <t>Group E</t>
         </is>
       </c>
       <c r="C93" t="n">
         <v>1</v>
       </c>
       <c r="D93" t="n">
-        <v>81</v>
+        <v>17</v>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Denmark</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Uruguay</t>
+          <t>Japan</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>Uruguay</t>
+          <t>Japan</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>['Uruguay', 'Costa Rica']</t>
+          <t>['Japan', 'Netherlands']</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>['Italy']</t>
+          <t>['Denmark']</t>
         </is>
       </c>
       <c r="J93" t="n">
@@ -5374,27 +5444,27 @@
       </c>
       <c r="K93" t="inlineStr">
         <is>
-          <t>Costa Rica</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="L93" t="inlineStr">
         <is>
-          <t>Uruguay</t>
+          <t>Japan</t>
         </is>
       </c>
       <c r="M93" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Denmark</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>2014</v>
+        <v>2010</v>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Group E</t>
+          <t>Group F</t>
         </is>
       </c>
       <c r="C94" t="n">
@@ -5410,12 +5480,12 @@
       <c r="G94" t="inlineStr"/>
       <c r="H94" t="inlineStr">
         <is>
-          <t>['Ecuador', 'France']</t>
+          <t>['Italy', 'Paraguay']</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>['Switzerland']</t>
+          <t>['New Zealand']</t>
         </is>
       </c>
       <c r="J94" t="n">
@@ -5423,58 +5493,58 @@
       </c>
       <c r="K94" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Paraguay</t>
         </is>
       </c>
       <c r="L94" t="inlineStr">
         <is>
-          <t>Ecuador</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="M94" t="inlineStr">
         <is>
-          <t>Switzerland</t>
+          <t>New Zealand</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>2014</v>
+        <v>2010</v>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Group E</t>
+          <t>Group F</t>
         </is>
       </c>
       <c r="C95" t="n">
         <v>1</v>
       </c>
       <c r="D95" t="n">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>Honduras</t>
+          <t>Slovakia</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>Switzerland</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>Switzerland</t>
+          <t>Slovakia</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>['Switzerland', 'France']</t>
+          <t>['Slovakia', 'Paraguay']</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>['Ecuador']</t>
+          <t>['New Zealand']</t>
         </is>
       </c>
       <c r="J95" t="n">
@@ -5482,27 +5552,27 @@
       </c>
       <c r="K95" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Paraguay</t>
         </is>
       </c>
       <c r="L95" t="inlineStr">
         <is>
-          <t>Switzerland</t>
+          <t>Slovakia</t>
         </is>
       </c>
       <c r="M95" t="inlineStr">
         <is>
-          <t>Ecuador</t>
+          <t>New Zealand</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>2014</v>
+        <v>2010</v>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Group F</t>
+          <t>Group G</t>
         </is>
       </c>
       <c r="C96" t="n">
@@ -5518,12 +5588,12 @@
       <c r="G96" t="inlineStr"/>
       <c r="H96" t="inlineStr">
         <is>
-          <t>['Argentina', 'Nigeria']</t>
+          <t>['Portugal', 'Brazil']</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>['Bosnia and Herzegovina']</t>
+          <t>['Ivory Coast']</t>
         </is>
       </c>
       <c r="J96" t="n">
@@ -5531,58 +5601,48 @@
       </c>
       <c r="K96" t="inlineStr">
         <is>
-          <t>Argentina</t>
+          <t>Brazil</t>
         </is>
       </c>
       <c r="L96" t="inlineStr">
         <is>
-          <t>Nigeria</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="M96" t="inlineStr">
         <is>
-          <t>Bosnia and Herzegovina</t>
+          <t>Ivory Coast</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>2014</v>
+        <v>2010</v>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Group F</t>
+          <t>Group H</t>
         </is>
       </c>
       <c r="C97" t="n">
-        <v>1</v>
-      </c>
-      <c r="D97" t="n">
-        <v>23</v>
-      </c>
-      <c r="E97" t="inlineStr">
-        <is>
-          <t>Bosnia and Herzegovina</t>
-        </is>
-      </c>
-      <c r="F97" t="inlineStr">
-        <is>
-          <t>Iran</t>
-        </is>
-      </c>
-      <c r="G97" t="inlineStr">
-        <is>
-          <t>Bosnia and Herzegovina</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>initial</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr"/>
+      <c r="F97" t="inlineStr"/>
+      <c r="G97" t="inlineStr"/>
       <c r="H97" t="inlineStr">
         <is>
-          <t>['Bosnia and Herzegovina', 'Argentina']</t>
+          <t>['Chile', 'Spain']</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>['Nigeria']</t>
+          <t>['Switzerland']</t>
         </is>
       </c>
       <c r="J97" t="n">
@@ -5590,17 +5650,17 @@
       </c>
       <c r="K97" t="inlineStr">
         <is>
-          <t>Argentina</t>
+          <t>Chile</t>
         </is>
       </c>
       <c r="L97" t="inlineStr">
         <is>
-          <t>Bosnia and Herzegovina</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="M97" t="inlineStr">
         <is>
-          <t>Nigeria</t>
+          <t>Switzerland</t>
         </is>
       </c>
     </row>
@@ -5610,7 +5670,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Group G</t>
+          <t>Group A</t>
         </is>
       </c>
       <c r="C98" t="n">
@@ -5626,12 +5686,12 @@
       <c r="G98" t="inlineStr"/>
       <c r="H98" t="inlineStr">
         <is>
-          <t>['United States', 'Germany']</t>
+          <t>['Mexico', 'Brazil']</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>['Ghana']</t>
+          <t>['Croatia']</t>
         </is>
       </c>
       <c r="J98" t="n">
@@ -5639,17 +5699,17 @@
       </c>
       <c r="K98" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Brazil</t>
         </is>
       </c>
       <c r="L98" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>Mexico</t>
         </is>
       </c>
       <c r="M98" t="inlineStr">
         <is>
-          <t>Ghana</t>
+          <t>Croatia</t>
         </is>
       </c>
     </row>
@@ -5659,7 +5719,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Group H</t>
+          <t>Group B</t>
         </is>
       </c>
       <c r="C99" t="n">
@@ -5675,12 +5735,12 @@
       <c r="G99" t="inlineStr"/>
       <c r="H99" t="inlineStr">
         <is>
-          <t>['Algeria', 'Belgium']</t>
+          <t>['Chile', 'Netherlands']</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>['Russia']</t>
+          <t>['Australia']</t>
         </is>
       </c>
       <c r="J99" t="n">
@@ -5688,17 +5748,17 @@
       </c>
       <c r="K99" t="inlineStr">
         <is>
-          <t>Belgium</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="L99" t="inlineStr">
         <is>
-          <t>Algeria</t>
+          <t>Chile</t>
         </is>
       </c>
       <c r="M99" t="inlineStr">
         <is>
-          <t>Russia</t>
+          <t>Australia</t>
         </is>
       </c>
     </row>
@@ -5708,38 +5768,28 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Group H</t>
+          <t>Group C</t>
         </is>
       </c>
       <c r="C100" t="n">
-        <v>1</v>
-      </c>
-      <c r="D100" t="n">
-        <v>6</v>
-      </c>
-      <c r="E100" t="inlineStr">
-        <is>
-          <t>Algeria</t>
-        </is>
-      </c>
-      <c r="F100" t="inlineStr">
-        <is>
-          <t>Russia</t>
-        </is>
-      </c>
-      <c r="G100" t="inlineStr">
-        <is>
-          <t>Russia</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>initial</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr"/>
+      <c r="F100" t="inlineStr"/>
+      <c r="G100" t="inlineStr"/>
       <c r="H100" t="inlineStr">
         <is>
-          <t>['Belgium', 'Russia']</t>
+          <t>['Ivory Coast', 'Colombia']</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>['Algeria']</t>
+          <t>['Japan']</t>
         </is>
       </c>
       <c r="J100" t="n">
@@ -5747,17 +5797,17 @@
       </c>
       <c r="K100" t="inlineStr">
         <is>
-          <t>Belgium</t>
+          <t>Colombia</t>
         </is>
       </c>
       <c r="L100" t="inlineStr">
         <is>
-          <t>Russia</t>
+          <t>Ivory Coast</t>
         </is>
       </c>
       <c r="M100" t="inlineStr">
         <is>
-          <t>Algeria</t>
+          <t>Japan</t>
         </is>
       </c>
     </row>
@@ -5767,38 +5817,38 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Group H</t>
+          <t>Group C</t>
         </is>
       </c>
       <c r="C101" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D101" t="n">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>Algeria</t>
+          <t>Greece</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>Russia</t>
+          <t>Ivory Coast</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>Algeria</t>
+          <t>Greece</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>['Algeria', 'Belgium']</t>
+          <t>['Greece', 'Colombia']</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>['Russia']</t>
+          <t>['Ivory Coast']</t>
         </is>
       </c>
       <c r="J101" t="n">
@@ -5806,48 +5856,58 @@
       </c>
       <c r="K101" t="inlineStr">
         <is>
-          <t>Belgium</t>
+          <t>Colombia</t>
         </is>
       </c>
       <c r="L101" t="inlineStr">
         <is>
-          <t>Algeria</t>
+          <t>Greece</t>
         </is>
       </c>
       <c r="M101" t="inlineStr">
         <is>
-          <t>Russia</t>
+          <t>Ivory Coast</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>2018</v>
+        <v>2014</v>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Group A</t>
+          <t>Group C</t>
         </is>
       </c>
       <c r="C102" t="n">
-        <v>0</v>
-      </c>
-      <c r="D102" t="inlineStr">
-        <is>
-          <t>initial</t>
-        </is>
-      </c>
-      <c r="E102" t="inlineStr"/>
-      <c r="F102" t="inlineStr"/>
-      <c r="G102" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="D102" t="n">
+        <v>74</v>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>Greece</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>Ivory Coast</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>Ivory Coast</t>
+        </is>
+      </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>['Uruguay', 'Russia']</t>
+          <t>['Ivory Coast', 'Colombia']</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>['Egypt']</t>
+          <t>['Greece']</t>
         </is>
       </c>
       <c r="J102" t="n">
@@ -5855,48 +5915,58 @@
       </c>
       <c r="K102" t="inlineStr">
         <is>
-          <t>Russia</t>
+          <t>Colombia</t>
         </is>
       </c>
       <c r="L102" t="inlineStr">
         <is>
-          <t>Uruguay</t>
+          <t>Ivory Coast</t>
         </is>
       </c>
       <c r="M102" t="inlineStr">
         <is>
-          <t>Egypt</t>
+          <t>Greece</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>2018</v>
+        <v>2014</v>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Group B</t>
+          <t>Group C</t>
         </is>
       </c>
       <c r="C103" t="n">
-        <v>0</v>
-      </c>
-      <c r="D103" t="inlineStr">
-        <is>
-          <t>initial</t>
-        </is>
-      </c>
-      <c r="E103" t="inlineStr"/>
-      <c r="F103" t="inlineStr"/>
-      <c r="G103" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="D103" t="n">
+        <v>93</v>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>Greece</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>Ivory Coast</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>Greece</t>
+        </is>
+      </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>['Spain', 'Portugal']</t>
+          <t>['Greece', 'Colombia']</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>['Morocco']</t>
+          <t>['Ivory Coast']</t>
         </is>
       </c>
       <c r="J103" t="n">
@@ -5904,27 +5974,27 @@
       </c>
       <c r="K103" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Colombia</t>
         </is>
       </c>
       <c r="L103" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>Greece</t>
         </is>
       </c>
       <c r="M103" t="inlineStr">
         <is>
-          <t>Morocco</t>
+          <t>Ivory Coast</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>2018</v>
+        <v>2014</v>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Group C</t>
+          <t>Group D</t>
         </is>
       </c>
       <c r="C104" t="n">
@@ -5940,12 +6010,12 @@
       <c r="G104" t="inlineStr"/>
       <c r="H104" t="inlineStr">
         <is>
-          <t>['Denmark', 'France']</t>
+          <t>['Costa Rica', 'Italy']</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>['Australia']</t>
+          <t>['Uruguay']</t>
         </is>
       </c>
       <c r="J104" t="n">
@@ -5953,23 +6023,23 @@
       </c>
       <c r="K104" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Costa Rica</t>
         </is>
       </c>
       <c r="L104" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="M104" t="inlineStr">
         <is>
-          <t>Australia</t>
+          <t>Uruguay</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>2018</v>
+        <v>2014</v>
       </c>
       <c r="B105" t="inlineStr">
         <is>
@@ -5977,24 +6047,34 @@
         </is>
       </c>
       <c r="C105" t="n">
-        <v>0</v>
-      </c>
-      <c r="D105" t="inlineStr">
-        <is>
-          <t>initial</t>
-        </is>
-      </c>
-      <c r="E105" t="inlineStr"/>
-      <c r="F105" t="inlineStr"/>
-      <c r="G105" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="D105" t="n">
+        <v>81</v>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>Italy</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>Uruguay</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>Uruguay</t>
+        </is>
+      </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>['Croatia', 'Nigeria']</t>
+          <t>['Costa Rica', 'Uruguay']</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>['Iceland']</t>
+          <t>['Italy']</t>
         </is>
       </c>
       <c r="J105" t="n">
@@ -6002,58 +6082,48 @@
       </c>
       <c r="K105" t="inlineStr">
         <is>
-          <t>Croatia</t>
+          <t>Costa Rica</t>
         </is>
       </c>
       <c r="L105" t="inlineStr">
         <is>
-          <t>Nigeria</t>
+          <t>Uruguay</t>
         </is>
       </c>
       <c r="M105" t="inlineStr">
         <is>
-          <t>Iceland</t>
+          <t>Italy</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>2018</v>
+        <v>2014</v>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Group D</t>
+          <t>Group E</t>
         </is>
       </c>
       <c r="C106" t="n">
-        <v>1</v>
-      </c>
-      <c r="D106" t="n">
-        <v>14</v>
-      </c>
-      <c r="E106" t="inlineStr">
-        <is>
-          <t>Nigeria</t>
-        </is>
-      </c>
-      <c r="F106" t="inlineStr">
-        <is>
-          <t>Argentina</t>
-        </is>
-      </c>
-      <c r="G106" t="inlineStr">
-        <is>
-          <t>Argentina</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>initial</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr"/>
+      <c r="F106" t="inlineStr"/>
+      <c r="G106" t="inlineStr"/>
       <c r="H106" t="inlineStr">
         <is>
-          <t>['Croatia', 'Argentina']</t>
+          <t>['Ecuador', 'France']</t>
         </is>
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>['Nigeria']</t>
+          <t>['Switzerland']</t>
         </is>
       </c>
       <c r="J106" t="n">
@@ -6061,58 +6131,58 @@
       </c>
       <c r="K106" t="inlineStr">
         <is>
-          <t>Croatia</t>
+          <t>France</t>
         </is>
       </c>
       <c r="L106" t="inlineStr">
         <is>
-          <t>Argentina</t>
+          <t>Ecuador</t>
         </is>
       </c>
       <c r="M106" t="inlineStr">
         <is>
-          <t>Nigeria</t>
+          <t>Switzerland</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>2018</v>
+        <v>2014</v>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Group D</t>
+          <t>Group E</t>
         </is>
       </c>
       <c r="C107" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D107" t="n">
-        <v>51</v>
+        <v>6</v>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>Nigeria</t>
+          <t>Honduras</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>Argentina</t>
+          <t>Switzerland</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>Nigeria</t>
+          <t>Switzerland</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>['Croatia', 'Nigeria']</t>
+          <t>['Switzerland', 'France']</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>['Iceland']</t>
+          <t>['Ecuador']</t>
         </is>
       </c>
       <c r="J107" t="n">
@@ -6120,107 +6190,107 @@
       </c>
       <c r="K107" t="inlineStr">
         <is>
-          <t>Croatia</t>
+          <t>France</t>
         </is>
       </c>
       <c r="L107" t="inlineStr">
         <is>
-          <t>Nigeria</t>
+          <t>Switzerland</t>
         </is>
       </c>
       <c r="M107" t="inlineStr">
         <is>
-          <t>Iceland</t>
+          <t>Ecuador</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>2018</v>
+        <v>2014</v>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Group D</t>
+          <t>Group F</t>
         </is>
       </c>
       <c r="C108" t="n">
-        <v>3</v>
-      </c>
-      <c r="D108" t="n">
-        <v>86</v>
-      </c>
-      <c r="E108" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>initial</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr"/>
+      <c r="F108" t="inlineStr"/>
+      <c r="G108" t="inlineStr"/>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>['Argentina', 'Nigeria']</t>
+        </is>
+      </c>
+      <c r="I108" t="inlineStr">
+        <is>
+          <t>['Bosnia and Herzegovina']</t>
+        </is>
+      </c>
+      <c r="J108" t="n">
+        <v>1</v>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>Argentina</t>
+        </is>
+      </c>
+      <c r="L108" t="inlineStr">
         <is>
           <t>Nigeria</t>
         </is>
       </c>
-      <c r="F108" t="inlineStr">
-        <is>
-          <t>Argentina</t>
-        </is>
-      </c>
-      <c r="G108" t="inlineStr">
-        <is>
-          <t>Argentina</t>
-        </is>
-      </c>
-      <c r="H108" t="inlineStr">
-        <is>
-          <t>['Croatia', 'Argentina']</t>
-        </is>
-      </c>
-      <c r="I108" t="inlineStr">
-        <is>
-          <t>['Nigeria']</t>
-        </is>
-      </c>
-      <c r="J108" t="n">
-        <v>1</v>
-      </c>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>Croatia</t>
-        </is>
-      </c>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>Argentina</t>
-        </is>
-      </c>
       <c r="M108" t="inlineStr">
         <is>
-          <t>Nigeria</t>
+          <t>Bosnia and Herzegovina</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>2018</v>
+        <v>2014</v>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Group E</t>
+          <t>Group F</t>
         </is>
       </c>
       <c r="C109" t="n">
-        <v>0</v>
-      </c>
-      <c r="D109" t="inlineStr">
-        <is>
-          <t>initial</t>
-        </is>
-      </c>
-      <c r="E109" t="inlineStr"/>
-      <c r="F109" t="inlineStr"/>
-      <c r="G109" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="D109" t="n">
+        <v>59</v>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>Bosnia and Herzegovina</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>Iran</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>Bosnia and Herzegovina</t>
+        </is>
+      </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>['Brazil', 'Switzerland']</t>
+          <t>['Argentina', 'Bosnia and Herzegovina']</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>['Serbia']</t>
+          <t>['Nigeria']</t>
         </is>
       </c>
       <c r="J109" t="n">
@@ -6228,27 +6298,27 @@
       </c>
       <c r="K109" t="inlineStr">
         <is>
-          <t>Brazil</t>
+          <t>Argentina</t>
         </is>
       </c>
       <c r="L109" t="inlineStr">
         <is>
-          <t>Switzerland</t>
+          <t>Bosnia and Herzegovina</t>
         </is>
       </c>
       <c r="M109" t="inlineStr">
         <is>
-          <t>Serbia</t>
+          <t>Nigeria</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>2018</v>
+        <v>2014</v>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Group F</t>
+          <t>Group G</t>
         </is>
       </c>
       <c r="C110" t="n">
@@ -6264,12 +6334,12 @@
       <c r="G110" t="inlineStr"/>
       <c r="H110" t="inlineStr">
         <is>
-          <t>['Germany', 'Mexico']</t>
+          <t>['United States', 'Germany']</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>['Sweden']</t>
+          <t>['Ghana']</t>
         </is>
       </c>
       <c r="J110" t="n">
@@ -6277,58 +6347,48 @@
       </c>
       <c r="K110" t="inlineStr">
         <is>
-          <t>Mexico</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="L110" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="M110" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>Ghana</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>2018</v>
+        <v>2014</v>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Group F</t>
+          <t>Group H</t>
         </is>
       </c>
       <c r="C111" t="n">
-        <v>1</v>
-      </c>
-      <c r="D111" t="n">
-        <v>50</v>
-      </c>
-      <c r="E111" t="inlineStr">
-        <is>
-          <t>Mexico</t>
-        </is>
-      </c>
-      <c r="F111" t="inlineStr">
-        <is>
-          <t>Sweden</t>
-        </is>
-      </c>
-      <c r="G111" t="inlineStr">
-        <is>
-          <t>Sweden</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>initial</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr"/>
+      <c r="F111" t="inlineStr"/>
+      <c r="G111" t="inlineStr"/>
       <c r="H111" t="inlineStr">
         <is>
-          <t>['Sweden', 'Mexico']</t>
+          <t>['Algeria', 'Belgium']</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>['Germany']</t>
+          <t>['Russia']</t>
         </is>
       </c>
       <c r="J111" t="n">
@@ -6336,48 +6396,58 @@
       </c>
       <c r="K111" t="inlineStr">
         <is>
-          <t>Mexico</t>
+          <t>Belgium</t>
         </is>
       </c>
       <c r="L111" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>Algeria</t>
         </is>
       </c>
       <c r="M111" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Russia</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>2018</v>
+        <v>2014</v>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Group G</t>
+          <t>Group H</t>
         </is>
       </c>
       <c r="C112" t="n">
-        <v>0</v>
-      </c>
-      <c r="D112" t="inlineStr">
-        <is>
-          <t>initial</t>
-        </is>
-      </c>
-      <c r="E112" t="inlineStr"/>
-      <c r="F112" t="inlineStr"/>
-      <c r="G112" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="D112" t="n">
+        <v>6</v>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>Algeria</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>Russia</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>Russia</t>
+        </is>
+      </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>['Belgium', 'England']</t>
+          <t>['Russia', 'Belgium']</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>['Tunisia']</t>
+          <t>['Algeria']</t>
         </is>
       </c>
       <c r="J112" t="n">
@@ -6390,18 +6460,18 @@
       </c>
       <c r="L112" t="inlineStr">
         <is>
-          <t>England</t>
+          <t>Russia</t>
         </is>
       </c>
       <c r="M112" t="inlineStr">
         <is>
-          <t>Tunisia</t>
+          <t>Algeria</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>2018</v>
+        <v>2014</v>
       </c>
       <c r="B113" t="inlineStr">
         <is>
@@ -6409,24 +6479,34 @@
         </is>
       </c>
       <c r="C113" t="n">
-        <v>0</v>
-      </c>
-      <c r="D113" t="inlineStr">
-        <is>
-          <t>initial</t>
-        </is>
-      </c>
-      <c r="E113" t="inlineStr"/>
-      <c r="F113" t="inlineStr"/>
-      <c r="G113" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="D113" t="n">
+        <v>60</v>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>Algeria</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>Russia</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>Algeria</t>
+        </is>
+      </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>['Japan', 'Colombia']</t>
+          <t>['Algeria', 'Belgium']</t>
         </is>
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>['Senegal']</t>
+          <t>['Russia']</t>
         </is>
       </c>
       <c r="J113" t="n">
@@ -6434,23 +6514,23 @@
       </c>
       <c r="K113" t="inlineStr">
         <is>
-          <t>Japan</t>
+          <t>Belgium</t>
         </is>
       </c>
       <c r="L113" t="inlineStr">
         <is>
-          <t>Colombia</t>
+          <t>Algeria</t>
         </is>
       </c>
       <c r="M113" t="inlineStr">
         <is>
-          <t>Senegal</t>
+          <t>Russia</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>2022</v>
+        <v>2018</v>
       </c>
       <c r="B114" t="inlineStr">
         <is>
@@ -6470,12 +6550,12 @@
       <c r="G114" t="inlineStr"/>
       <c r="H114" t="inlineStr">
         <is>
-          <t>['Ecuador', 'Netherlands']</t>
+          <t>['Uruguay', 'Russia']</t>
         </is>
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>['Senegal']</t>
+          <t>['Egypt']</t>
         </is>
       </c>
       <c r="J114" t="n">
@@ -6483,58 +6563,48 @@
       </c>
       <c r="K114" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>Russia</t>
         </is>
       </c>
       <c r="L114" t="inlineStr">
         <is>
-          <t>Ecuador</t>
+          <t>Uruguay</t>
         </is>
       </c>
       <c r="M114" t="inlineStr">
         <is>
-          <t>Senegal</t>
+          <t>Egypt</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>2022</v>
+        <v>2018</v>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Group A</t>
+          <t>Group B</t>
         </is>
       </c>
       <c r="C115" t="n">
-        <v>1</v>
-      </c>
-      <c r="D115" t="n">
-        <v>44</v>
-      </c>
-      <c r="E115" t="inlineStr">
-        <is>
-          <t>Ecuador</t>
-        </is>
-      </c>
-      <c r="F115" t="inlineStr">
-        <is>
-          <t>Senegal</t>
-        </is>
-      </c>
-      <c r="G115" t="inlineStr">
-        <is>
-          <t>Senegal</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>initial</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr"/>
+      <c r="F115" t="inlineStr"/>
+      <c r="G115" t="inlineStr"/>
       <c r="H115" t="inlineStr">
         <is>
-          <t>['Senegal', 'Netherlands']</t>
+          <t>['Portugal', 'Spain']</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>['Ecuador']</t>
+          <t>['Morocco']</t>
         </is>
       </c>
       <c r="J115" t="n">
@@ -6542,58 +6612,48 @@
       </c>
       <c r="K115" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="L115" t="inlineStr">
         <is>
-          <t>Senegal</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="M115" t="inlineStr">
         <is>
-          <t>Ecuador</t>
+          <t>Morocco</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>2022</v>
+        <v>2018</v>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Group A</t>
+          <t>Group C</t>
         </is>
       </c>
       <c r="C116" t="n">
-        <v>2</v>
-      </c>
-      <c r="D116" t="n">
-        <v>67</v>
-      </c>
-      <c r="E116" t="inlineStr">
-        <is>
-          <t>Ecuador</t>
-        </is>
-      </c>
-      <c r="F116" t="inlineStr">
-        <is>
-          <t>Senegal</t>
-        </is>
-      </c>
-      <c r="G116" t="inlineStr">
-        <is>
-          <t>Ecuador</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>initial</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr"/>
+      <c r="F116" t="inlineStr"/>
+      <c r="G116" t="inlineStr"/>
       <c r="H116" t="inlineStr">
         <is>
-          <t>['Ecuador', 'Netherlands']</t>
+          <t>['Denmark', 'France']</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>['Senegal']</t>
+          <t>['Australia']</t>
         </is>
       </c>
       <c r="J116" t="n">
@@ -6601,58 +6661,48 @@
       </c>
       <c r="K116" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>France</t>
         </is>
       </c>
       <c r="L116" t="inlineStr">
         <is>
-          <t>Ecuador</t>
+          <t>Denmark</t>
         </is>
       </c>
       <c r="M116" t="inlineStr">
         <is>
-          <t>Senegal</t>
+          <t>Australia</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>2022</v>
+        <v>2018</v>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Group A</t>
+          <t>Group D</t>
         </is>
       </c>
       <c r="C117" t="n">
-        <v>3</v>
-      </c>
-      <c r="D117" t="n">
-        <v>70</v>
-      </c>
-      <c r="E117" t="inlineStr">
-        <is>
-          <t>Ecuador</t>
-        </is>
-      </c>
-      <c r="F117" t="inlineStr">
-        <is>
-          <t>Senegal</t>
-        </is>
-      </c>
-      <c r="G117" t="inlineStr">
-        <is>
-          <t>Senegal</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>initial</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr"/>
+      <c r="F117" t="inlineStr"/>
+      <c r="G117" t="inlineStr"/>
       <c r="H117" t="inlineStr">
         <is>
-          <t>['Senegal', 'Netherlands']</t>
+          <t>['Nigeria', 'Croatia']</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>['Ecuador']</t>
+          <t>['Iceland']</t>
         </is>
       </c>
       <c r="J117" t="n">
@@ -6660,48 +6710,58 @@
       </c>
       <c r="K117" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>Croatia</t>
         </is>
       </c>
       <c r="L117" t="inlineStr">
         <is>
-          <t>Senegal</t>
+          <t>Nigeria</t>
         </is>
       </c>
       <c r="M117" t="inlineStr">
         <is>
-          <t>Ecuador</t>
+          <t>Iceland</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>2022</v>
+        <v>2018</v>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Group B</t>
+          <t>Group D</t>
         </is>
       </c>
       <c r="C118" t="n">
-        <v>0</v>
-      </c>
-      <c r="D118" t="inlineStr">
-        <is>
-          <t>initial</t>
-        </is>
-      </c>
-      <c r="E118" t="inlineStr"/>
-      <c r="F118" t="inlineStr"/>
-      <c r="G118" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="D118" t="n">
+        <v>14</v>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>Nigeria</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>Argentina</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>Argentina</t>
+        </is>
+      </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>['Iran', 'England']</t>
+          <t>['Argentina', 'Croatia']</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>['Wales']</t>
+          <t>['Nigeria']</t>
         </is>
       </c>
       <c r="J118" t="n">
@@ -6709,58 +6769,58 @@
       </c>
       <c r="K118" t="inlineStr">
         <is>
-          <t>Iran</t>
+          <t>Croatia</t>
         </is>
       </c>
       <c r="L118" t="inlineStr">
         <is>
-          <t>England</t>
+          <t>Argentina</t>
         </is>
       </c>
       <c r="M118" t="inlineStr">
         <is>
-          <t>Wales</t>
+          <t>Nigeria</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>2022</v>
+        <v>2018</v>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Group B</t>
+          <t>Group D</t>
         </is>
       </c>
       <c r="C119" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D119" t="n">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>Iran</t>
+          <t>Nigeria</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>Argentina</t>
         </is>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>Nigeria</t>
         </is>
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>['United States', 'England']</t>
+          <t>['Nigeria', 'Croatia']</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>['Iran']</t>
+          <t>['Iceland']</t>
         </is>
       </c>
       <c r="J119" t="n">
@@ -6768,48 +6828,58 @@
       </c>
       <c r="K119" t="inlineStr">
         <is>
-          <t>England</t>
+          <t>Croatia</t>
         </is>
       </c>
       <c r="L119" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>Nigeria</t>
         </is>
       </c>
       <c r="M119" t="inlineStr">
         <is>
-          <t>Iran</t>
+          <t>Iceland</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>2022</v>
+        <v>2018</v>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Group C</t>
+          <t>Group D</t>
         </is>
       </c>
       <c r="C120" t="n">
-        <v>0</v>
-      </c>
-      <c r="D120" t="inlineStr">
-        <is>
-          <t>initial</t>
-        </is>
-      </c>
-      <c r="E120" t="inlineStr"/>
-      <c r="F120" t="inlineStr"/>
-      <c r="G120" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="D120" t="n">
+        <v>86</v>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>Nigeria</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>Argentina</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>Argentina</t>
+        </is>
+      </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>['Saudi Arabia', 'Argentina']</t>
+          <t>['Argentina', 'Croatia']</t>
         </is>
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>['Poland']</t>
+          <t>['Nigeria']</t>
         </is>
       </c>
       <c r="J120" t="n">
@@ -6817,27 +6887,27 @@
       </c>
       <c r="K120" t="inlineStr">
         <is>
+          <t>Croatia</t>
+        </is>
+      </c>
+      <c r="L120" t="inlineStr">
+        <is>
           <t>Argentina</t>
         </is>
       </c>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>Saudi Arabia</t>
-        </is>
-      </c>
       <c r="M120" t="inlineStr">
         <is>
-          <t>Poland</t>
+          <t>Nigeria</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>2022</v>
+        <v>2018</v>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Group D</t>
+          <t>Group E</t>
         </is>
       </c>
       <c r="C121" t="n">
@@ -6853,12 +6923,12 @@
       <c r="G121" t="inlineStr"/>
       <c r="H121" t="inlineStr">
         <is>
-          <t>['Australia', 'France']</t>
+          <t>['Brazil', 'Switzerland']</t>
         </is>
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>['Denmark']</t>
+          <t>['Serbia']</t>
         </is>
       </c>
       <c r="J121" t="n">
@@ -6866,27 +6936,27 @@
       </c>
       <c r="K121" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Brazil</t>
         </is>
       </c>
       <c r="L121" t="inlineStr">
         <is>
-          <t>Australia</t>
+          <t>Switzerland</t>
         </is>
       </c>
       <c r="M121" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Serbia</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>2022</v>
+        <v>2018</v>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Group E</t>
+          <t>Group F</t>
         </is>
       </c>
       <c r="C122" t="n">
@@ -6902,12 +6972,12 @@
       <c r="G122" t="inlineStr"/>
       <c r="H122" t="inlineStr">
         <is>
-          <t>['Spain', 'Japan']</t>
+          <t>['Mexico', 'Germany']</t>
         </is>
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>['Costa Rica']</t>
+          <t>['Sweden']</t>
         </is>
       </c>
       <c r="J122" t="n">
@@ -6915,117 +6985,107 @@
       </c>
       <c r="K122" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>Mexico</t>
         </is>
       </c>
       <c r="L122" t="inlineStr">
         <is>
-          <t>Japan</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="M122" t="inlineStr">
         <is>
-          <t>Costa Rica</t>
+          <t>Sweden</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>2022</v>
+        <v>2018</v>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Group E</t>
+          <t>Group F</t>
         </is>
       </c>
       <c r="C123" t="n">
         <v>1</v>
       </c>
       <c r="D123" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>Costa Rica</t>
+          <t>Mexico</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
         <is>
+          <t>Sweden</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>Sweden</t>
+        </is>
+      </c>
+      <c r="H123" t="inlineStr">
+        <is>
+          <t>['Mexico', 'Sweden']</t>
+        </is>
+      </c>
+      <c r="I123" t="inlineStr">
+        <is>
+          <t>['Germany']</t>
+        </is>
+      </c>
+      <c r="J123" t="n">
+        <v>1</v>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>Sweden</t>
+        </is>
+      </c>
+      <c r="M123" t="inlineStr">
+        <is>
           <t>Germany</t>
-        </is>
-      </c>
-      <c r="G123" t="inlineStr">
-        <is>
-          <t>Germany</t>
-        </is>
-      </c>
-      <c r="H123" t="inlineStr">
-        <is>
-          <t>['Spain', 'Germany']</t>
-        </is>
-      </c>
-      <c r="I123" t="inlineStr">
-        <is>
-          <t>['Japan']</t>
-        </is>
-      </c>
-      <c r="J123" t="n">
-        <v>1</v>
-      </c>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>Spain</t>
-        </is>
-      </c>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>Germany</t>
-        </is>
-      </c>
-      <c r="M123" t="inlineStr">
-        <is>
-          <t>Japan</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>2022</v>
+        <v>2018</v>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Group E</t>
+          <t>Group G</t>
         </is>
       </c>
       <c r="C124" t="n">
-        <v>2</v>
-      </c>
-      <c r="D124" t="n">
-        <v>51</v>
-      </c>
-      <c r="E124" t="inlineStr">
-        <is>
-          <t>Japan</t>
-        </is>
-      </c>
-      <c r="F124" t="inlineStr">
-        <is>
-          <t>Spain</t>
-        </is>
-      </c>
-      <c r="G124" t="inlineStr">
-        <is>
-          <t>Japan</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>initial</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr"/>
+      <c r="F124" t="inlineStr"/>
+      <c r="G124" t="inlineStr"/>
       <c r="H124" t="inlineStr">
         <is>
-          <t>['Spain', 'Japan']</t>
+          <t>['England', 'Belgium']</t>
         </is>
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>['Germany']</t>
+          <t>['Tunisia']</t>
         </is>
       </c>
       <c r="J124" t="n">
@@ -7033,58 +7093,48 @@
       </c>
       <c r="K124" t="inlineStr">
         <is>
-          <t>Japan</t>
+          <t>Belgium</t>
         </is>
       </c>
       <c r="L124" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>England</t>
         </is>
       </c>
       <c r="M124" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Tunisia</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>2022</v>
+        <v>2018</v>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Group E</t>
+          <t>Group H</t>
         </is>
       </c>
       <c r="C125" t="n">
-        <v>3</v>
-      </c>
-      <c r="D125" t="n">
-        <v>70</v>
-      </c>
-      <c r="E125" t="inlineStr">
-        <is>
-          <t>Costa Rica</t>
-        </is>
-      </c>
-      <c r="F125" t="inlineStr">
-        <is>
-          <t>Germany</t>
-        </is>
-      </c>
-      <c r="G125" t="inlineStr">
-        <is>
-          <t>Costa Rica</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>initial</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr"/>
+      <c r="F125" t="inlineStr"/>
+      <c r="G125" t="inlineStr"/>
       <c r="H125" t="inlineStr">
         <is>
-          <t>['Japan', 'Costa Rica']</t>
+          <t>['Japan', 'Colombia']</t>
         </is>
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>['Spain']</t>
+          <t>['Senegal']</t>
         </is>
       </c>
       <c r="J125" t="n">
@@ -7097,12 +7147,12 @@
       </c>
       <c r="L125" t="inlineStr">
         <is>
-          <t>Costa Rica</t>
+          <t>Colombia</t>
         </is>
       </c>
       <c r="M125" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>Senegal</t>
         </is>
       </c>
     </row>
@@ -7112,38 +7162,28 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Group E</t>
+          <t>Group A</t>
         </is>
       </c>
       <c r="C126" t="n">
-        <v>4</v>
-      </c>
-      <c r="D126" t="n">
-        <v>73</v>
-      </c>
-      <c r="E126" t="inlineStr">
-        <is>
-          <t>Costa Rica</t>
-        </is>
-      </c>
-      <c r="F126" t="inlineStr">
-        <is>
-          <t>Germany</t>
-        </is>
-      </c>
-      <c r="G126" t="inlineStr">
-        <is>
-          <t>Germany</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>initial</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr"/>
+      <c r="F126" t="inlineStr"/>
+      <c r="G126" t="inlineStr"/>
       <c r="H126" t="inlineStr">
         <is>
-          <t>['Spain', 'Japan']</t>
+          <t>['Ecuador', 'Netherlands']</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>['Costa Rica']</t>
+          <t>['Senegal']</t>
         </is>
       </c>
       <c r="J126" t="n">
@@ -7151,17 +7191,17 @@
       </c>
       <c r="K126" t="inlineStr">
         <is>
-          <t>Japan</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="L126" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>Ecuador</t>
         </is>
       </c>
       <c r="M126" t="inlineStr">
         <is>
-          <t>Costa Rica</t>
+          <t>Senegal</t>
         </is>
       </c>
     </row>
@@ -7171,28 +7211,38 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Group F</t>
+          <t>Group A</t>
         </is>
       </c>
       <c r="C127" t="n">
-        <v>0</v>
-      </c>
-      <c r="D127" t="inlineStr">
-        <is>
-          <t>initial</t>
-        </is>
-      </c>
-      <c r="E127" t="inlineStr"/>
-      <c r="F127" t="inlineStr"/>
-      <c r="G127" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="D127" t="n">
+        <v>44</v>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>Ecuador</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>Senegal</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>Senegal</t>
+        </is>
+      </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>['Belgium', 'Croatia']</t>
+          <t>['Senegal', 'Netherlands']</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>['Morocco']</t>
+          <t>['Ecuador']</t>
         </is>
       </c>
       <c r="J127" t="n">
@@ -7200,17 +7250,17 @@
       </c>
       <c r="K127" t="inlineStr">
         <is>
-          <t>Belgium</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="L127" t="inlineStr">
         <is>
-          <t>Croatia</t>
+          <t>Senegal</t>
         </is>
       </c>
       <c r="M127" t="inlineStr">
         <is>
-          <t>Morocco</t>
+          <t>Ecuador</t>
         </is>
       </c>
     </row>
@@ -7220,38 +7270,38 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Group F</t>
+          <t>Group A</t>
         </is>
       </c>
       <c r="C128" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D128" t="n">
-        <v>4</v>
+        <v>67</v>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>Ecuador</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>Morocco</t>
+          <t>Senegal</t>
         </is>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>Morocco</t>
+          <t>Ecuador</t>
         </is>
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>['Belgium', 'Morocco']</t>
+          <t>['Ecuador', 'Netherlands']</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>['Croatia']</t>
+          <t>['Senegal']</t>
         </is>
       </c>
       <c r="J128" t="n">
@@ -7259,17 +7309,17 @@
       </c>
       <c r="K128" t="inlineStr">
         <is>
-          <t>Morocco</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="L128" t="inlineStr">
         <is>
-          <t>Belgium</t>
+          <t>Ecuador</t>
         </is>
       </c>
       <c r="M128" t="inlineStr">
         <is>
-          <t>Croatia</t>
+          <t>Senegal</t>
         </is>
       </c>
     </row>
@@ -7279,28 +7329,38 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Group G</t>
+          <t>Group A</t>
         </is>
       </c>
       <c r="C129" t="n">
-        <v>0</v>
-      </c>
-      <c r="D129" t="inlineStr">
-        <is>
-          <t>initial</t>
-        </is>
-      </c>
-      <c r="E129" t="inlineStr"/>
-      <c r="F129" t="inlineStr"/>
-      <c r="G129" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="D129" t="n">
+        <v>70</v>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>Ecuador</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>Senegal</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>Senegal</t>
+        </is>
+      </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>['Brazil', 'Switzerland']</t>
+          <t>['Senegal', 'Netherlands']</t>
         </is>
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>['Cameroon']</t>
+          <t>['Ecuador']</t>
         </is>
       </c>
       <c r="J129" t="n">
@@ -7308,17 +7368,17 @@
       </c>
       <c r="K129" t="inlineStr">
         <is>
-          <t>Brazil</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="L129" t="inlineStr">
         <is>
-          <t>Switzerland</t>
+          <t>Senegal</t>
         </is>
       </c>
       <c r="M129" t="inlineStr">
         <is>
-          <t>Cameroon</t>
+          <t>Ecuador</t>
         </is>
       </c>
     </row>
@@ -7328,38 +7388,28 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Group G</t>
+          <t>Group B</t>
         </is>
       </c>
       <c r="C130" t="n">
-        <v>1</v>
-      </c>
-      <c r="D130" t="n">
-        <v>35</v>
-      </c>
-      <c r="E130" t="inlineStr">
-        <is>
-          <t>Serbia</t>
-        </is>
-      </c>
-      <c r="F130" t="inlineStr">
-        <is>
-          <t>Switzerland</t>
-        </is>
-      </c>
-      <c r="G130" t="inlineStr">
-        <is>
-          <t>Serbia</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>initial</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr"/>
+      <c r="F130" t="inlineStr"/>
+      <c r="G130" t="inlineStr"/>
       <c r="H130" t="inlineStr">
         <is>
-          <t>['Brazil', 'Serbia']</t>
+          <t>['Iran', 'England']</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>['Switzerland']</t>
+          <t>['United States']</t>
         </is>
       </c>
       <c r="J130" t="n">
@@ -7367,17 +7417,17 @@
       </c>
       <c r="K130" t="inlineStr">
         <is>
-          <t>Brazil</t>
+          <t>England</t>
         </is>
       </c>
       <c r="L130" t="inlineStr">
         <is>
-          <t>Serbia</t>
+          <t>Iran</t>
         </is>
       </c>
       <c r="M130" t="inlineStr">
         <is>
-          <t>Switzerland</t>
+          <t>United States</t>
         </is>
       </c>
     </row>
@@ -7387,38 +7437,38 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Group G</t>
+          <t>Group B</t>
         </is>
       </c>
       <c r="C131" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D131" t="n">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>Serbia</t>
+          <t>Iran</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>Switzerland</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>Switzerland</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>['Brazil', 'Switzerland']</t>
+          <t>['United States', 'England']</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>['Cameroon']</t>
+          <t>['Iran']</t>
         </is>
       </c>
       <c r="J131" t="n">
@@ -7426,17 +7476,17 @@
       </c>
       <c r="K131" t="inlineStr">
         <is>
-          <t>Brazil</t>
+          <t>England</t>
         </is>
       </c>
       <c r="L131" t="inlineStr">
         <is>
-          <t>Switzerland</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="M131" t="inlineStr">
         <is>
-          <t>Cameroon</t>
+          <t>Iran</t>
         </is>
       </c>
     </row>
@@ -7446,7 +7496,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Group H</t>
+          <t>Group C</t>
         </is>
       </c>
       <c r="C132" t="n">
@@ -7462,30 +7512,865 @@
       <c r="G132" t="inlineStr"/>
       <c r="H132" t="inlineStr">
         <is>
+          <t>['Poland', 'Argentina']</t>
+        </is>
+      </c>
+      <c r="I132" t="inlineStr">
+        <is>
+          <t>['Saudi Arabia']</t>
+        </is>
+      </c>
+      <c r="J132" t="n">
+        <v>1</v>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>Poland</t>
+        </is>
+      </c>
+      <c r="L132" t="inlineStr">
+        <is>
+          <t>Argentina</t>
+        </is>
+      </c>
+      <c r="M132" t="inlineStr">
+        <is>
+          <t>Saudi Arabia</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="n">
+        <v>2022</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>Group D</t>
+        </is>
+      </c>
+      <c r="C133" t="n">
+        <v>0</v>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>initial</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr"/>
+      <c r="F133" t="inlineStr"/>
+      <c r="G133" t="inlineStr"/>
+      <c r="H133" t="inlineStr">
+        <is>
+          <t>['France', 'Australia']</t>
+        </is>
+      </c>
+      <c r="I133" t="inlineStr">
+        <is>
+          <t>['Denmark']</t>
+        </is>
+      </c>
+      <c r="J133" t="n">
+        <v>1</v>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>France</t>
+        </is>
+      </c>
+      <c r="L133" t="inlineStr">
+        <is>
+          <t>Australia</t>
+        </is>
+      </c>
+      <c r="M133" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="n">
+        <v>2022</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>Group D</t>
+        </is>
+      </c>
+      <c r="C134" t="n">
+        <v>1</v>
+      </c>
+      <c r="D134" t="n">
+        <v>58</v>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>Tunisia</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>France</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>Tunisia</t>
+        </is>
+      </c>
+      <c r="H134" t="inlineStr">
+        <is>
+          <t>['Tunisia', 'France']</t>
+        </is>
+      </c>
+      <c r="I134" t="inlineStr">
+        <is>
+          <t>['Australia']</t>
+        </is>
+      </c>
+      <c r="J134" t="n">
+        <v>1</v>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>France</t>
+        </is>
+      </c>
+      <c r="L134" t="inlineStr">
+        <is>
+          <t>Tunisia</t>
+        </is>
+      </c>
+      <c r="M134" t="inlineStr">
+        <is>
+          <t>Australia</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="n">
+        <v>2022</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>Group D</t>
+        </is>
+      </c>
+      <c r="C135" t="n">
+        <v>2</v>
+      </c>
+      <c r="D135" t="n">
+        <v>60</v>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>Australia</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>Australia</t>
+        </is>
+      </c>
+      <c r="H135" t="inlineStr">
+        <is>
+          <t>['France', 'Australia']</t>
+        </is>
+      </c>
+      <c r="I135" t="inlineStr">
+        <is>
+          <t>['Tunisia']</t>
+        </is>
+      </c>
+      <c r="J135" t="n">
+        <v>1</v>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>France</t>
+        </is>
+      </c>
+      <c r="L135" t="inlineStr">
+        <is>
+          <t>Australia</t>
+        </is>
+      </c>
+      <c r="M135" t="inlineStr">
+        <is>
+          <t>Tunisia</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="n">
+        <v>2022</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>Group E</t>
+        </is>
+      </c>
+      <c r="C136" t="n">
+        <v>0</v>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>initial</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr"/>
+      <c r="F136" t="inlineStr"/>
+      <c r="G136" t="inlineStr"/>
+      <c r="H136" t="inlineStr">
+        <is>
+          <t>['Japan', 'Spain']</t>
+        </is>
+      </c>
+      <c r="I136" t="inlineStr">
+        <is>
+          <t>['Costa Rica']</t>
+        </is>
+      </c>
+      <c r="J136" t="n">
+        <v>1</v>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>Spain</t>
+        </is>
+      </c>
+      <c r="L136" t="inlineStr">
+        <is>
+          <t>Japan</t>
+        </is>
+      </c>
+      <c r="M136" t="inlineStr">
+        <is>
+          <t>Costa Rica</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="n">
+        <v>2022</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>Group E</t>
+        </is>
+      </c>
+      <c r="C137" t="n">
+        <v>1</v>
+      </c>
+      <c r="D137" t="n">
+        <v>10</v>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>Costa Rica</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+      <c r="H137" t="inlineStr">
+        <is>
+          <t>['Germany', 'Spain']</t>
+        </is>
+      </c>
+      <c r="I137" t="inlineStr">
+        <is>
+          <t>['Japan']</t>
+        </is>
+      </c>
+      <c r="J137" t="n">
+        <v>1</v>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>Spain</t>
+        </is>
+      </c>
+      <c r="L137" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+      <c r="M137" t="inlineStr">
+        <is>
+          <t>Japan</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="n">
+        <v>2022</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>Group E</t>
+        </is>
+      </c>
+      <c r="C138" t="n">
+        <v>2</v>
+      </c>
+      <c r="D138" t="n">
+        <v>51</v>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>Japan</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>Spain</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>Japan</t>
+        </is>
+      </c>
+      <c r="H138" t="inlineStr">
+        <is>
+          <t>['Japan', 'Spain']</t>
+        </is>
+      </c>
+      <c r="I138" t="inlineStr">
+        <is>
+          <t>['Germany']</t>
+        </is>
+      </c>
+      <c r="J138" t="n">
+        <v>1</v>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>Japan</t>
+        </is>
+      </c>
+      <c r="L138" t="inlineStr">
+        <is>
+          <t>Spain</t>
+        </is>
+      </c>
+      <c r="M138" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="n">
+        <v>2022</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>Group E</t>
+        </is>
+      </c>
+      <c r="C139" t="n">
+        <v>3</v>
+      </c>
+      <c r="D139" t="n">
+        <v>70</v>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>Costa Rica</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>Costa Rica</t>
+        </is>
+      </c>
+      <c r="H139" t="inlineStr">
+        <is>
+          <t>['Costa Rica', 'Japan']</t>
+        </is>
+      </c>
+      <c r="I139" t="inlineStr">
+        <is>
+          <t>['Spain']</t>
+        </is>
+      </c>
+      <c r="J139" t="n">
+        <v>1</v>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>Japan</t>
+        </is>
+      </c>
+      <c r="L139" t="inlineStr">
+        <is>
+          <t>Costa Rica</t>
+        </is>
+      </c>
+      <c r="M139" t="inlineStr">
+        <is>
+          <t>Spain</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="n">
+        <v>2022</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>Group E</t>
+        </is>
+      </c>
+      <c r="C140" t="n">
+        <v>4</v>
+      </c>
+      <c r="D140" t="n">
+        <v>73</v>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>Costa Rica</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+      <c r="H140" t="inlineStr">
+        <is>
+          <t>['Japan', 'Spain']</t>
+        </is>
+      </c>
+      <c r="I140" t="inlineStr">
+        <is>
+          <t>['Costa Rica']</t>
+        </is>
+      </c>
+      <c r="J140" t="n">
+        <v>1</v>
+      </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>Japan</t>
+        </is>
+      </c>
+      <c r="L140" t="inlineStr">
+        <is>
+          <t>Spain</t>
+        </is>
+      </c>
+      <c r="M140" t="inlineStr">
+        <is>
+          <t>Costa Rica</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="n">
+        <v>2022</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>Group F</t>
+        </is>
+      </c>
+      <c r="C141" t="n">
+        <v>0</v>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>initial</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr"/>
+      <c r="F141" t="inlineStr"/>
+      <c r="G141" t="inlineStr"/>
+      <c r="H141" t="inlineStr">
+        <is>
+          <t>['Morocco', 'Croatia']</t>
+        </is>
+      </c>
+      <c r="I141" t="inlineStr">
+        <is>
+          <t>['Belgium']</t>
+        </is>
+      </c>
+      <c r="J141" t="n">
+        <v>1</v>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>Croatia</t>
+        </is>
+      </c>
+      <c r="L141" t="inlineStr">
+        <is>
+          <t>Morocco</t>
+        </is>
+      </c>
+      <c r="M141" t="inlineStr">
+        <is>
+          <t>Belgium</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="n">
+        <v>2022</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>Group G</t>
+        </is>
+      </c>
+      <c r="C142" t="n">
+        <v>0</v>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>initial</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr"/>
+      <c r="F142" t="inlineStr"/>
+      <c r="G142" t="inlineStr"/>
+      <c r="H142" t="inlineStr">
+        <is>
+          <t>['Brazil', 'Switzerland']</t>
+        </is>
+      </c>
+      <c r="I142" t="inlineStr">
+        <is>
+          <t>['Cameroon']</t>
+        </is>
+      </c>
+      <c r="J142" t="n">
+        <v>1</v>
+      </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>Brazil</t>
+        </is>
+      </c>
+      <c r="L142" t="inlineStr">
+        <is>
+          <t>Switzerland</t>
+        </is>
+      </c>
+      <c r="M142" t="inlineStr">
+        <is>
+          <t>Cameroon</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="n">
+        <v>2022</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>Group G</t>
+        </is>
+      </c>
+      <c r="C143" t="n">
+        <v>1</v>
+      </c>
+      <c r="D143" t="n">
+        <v>35</v>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>Serbia</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>Switzerland</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>Serbia</t>
+        </is>
+      </c>
+      <c r="H143" t="inlineStr">
+        <is>
+          <t>['Brazil', 'Serbia']</t>
+        </is>
+      </c>
+      <c r="I143" t="inlineStr">
+        <is>
+          <t>['Switzerland']</t>
+        </is>
+      </c>
+      <c r="J143" t="n">
+        <v>1</v>
+      </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>Brazil</t>
+        </is>
+      </c>
+      <c r="L143" t="inlineStr">
+        <is>
+          <t>Serbia</t>
+        </is>
+      </c>
+      <c r="M143" t="inlineStr">
+        <is>
+          <t>Switzerland</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="n">
+        <v>2022</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>Group G</t>
+        </is>
+      </c>
+      <c r="C144" t="n">
+        <v>2</v>
+      </c>
+      <c r="D144" t="n">
+        <v>44</v>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>Serbia</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>Switzerland</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>Switzerland</t>
+        </is>
+      </c>
+      <c r="H144" t="inlineStr">
+        <is>
+          <t>['Brazil', 'Switzerland']</t>
+        </is>
+      </c>
+      <c r="I144" t="inlineStr">
+        <is>
+          <t>['Cameroon']</t>
+        </is>
+      </c>
+      <c r="J144" t="n">
+        <v>1</v>
+      </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>Brazil</t>
+        </is>
+      </c>
+      <c r="L144" t="inlineStr">
+        <is>
+          <t>Switzerland</t>
+        </is>
+      </c>
+      <c r="M144" t="inlineStr">
+        <is>
+          <t>Cameroon</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="n">
+        <v>2022</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>Group H</t>
+        </is>
+      </c>
+      <c r="C145" t="n">
+        <v>0</v>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>initial</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr"/>
+      <c r="F145" t="inlineStr"/>
+      <c r="G145" t="inlineStr"/>
+      <c r="H145" t="inlineStr">
+        <is>
           <t>['Portugal', 'Ghana']</t>
         </is>
       </c>
-      <c r="I132" t="inlineStr">
+      <c r="I145" t="inlineStr">
         <is>
           <t>['South Korea']</t>
         </is>
       </c>
-      <c r="J132" t="n">
-        <v>1</v>
-      </c>
-      <c r="K132" t="inlineStr">
+      <c r="J145" t="n">
+        <v>1</v>
+      </c>
+      <c r="K145" t="inlineStr">
         <is>
           <t>Portugal</t>
         </is>
       </c>
-      <c r="L132" t="inlineStr">
+      <c r="L145" t="inlineStr">
         <is>
           <t>Ghana</t>
         </is>
       </c>
-      <c r="M132" t="inlineStr">
+      <c r="M145" t="inlineStr">
         <is>
           <t>South Korea</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="n">
+        <v>2022</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>Group H</t>
+        </is>
+      </c>
+      <c r="C146" t="n">
+        <v>1</v>
+      </c>
+      <c r="D146" t="n">
+        <v>26</v>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>Ghana</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>Uruguay</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>Uruguay</t>
+        </is>
+      </c>
+      <c r="H146" t="inlineStr">
+        <is>
+          <t>['Portugal', 'Uruguay']</t>
+        </is>
+      </c>
+      <c r="I146" t="inlineStr">
+        <is>
+          <t>['Ghana']</t>
+        </is>
+      </c>
+      <c r="J146" t="n">
+        <v>1</v>
+      </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>Portugal</t>
+        </is>
+      </c>
+      <c r="L146" t="inlineStr">
+        <is>
+          <t>Uruguay</t>
+        </is>
+      </c>
+      <c r="M146" t="inlineStr">
+        <is>
+          <t>Ghana</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="n">
+        <v>2022</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>Group H</t>
+        </is>
+      </c>
+      <c r="C147" t="n">
+        <v>2</v>
+      </c>
+      <c r="D147" t="n">
+        <v>91</v>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>South Korea</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>Portugal</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>South Korea</t>
+        </is>
+      </c>
+      <c r="H147" t="inlineStr">
+        <is>
+          <t>['Portugal', 'South Korea']</t>
+        </is>
+      </c>
+      <c r="I147" t="inlineStr">
+        <is>
+          <t>['Uruguay']</t>
+        </is>
+      </c>
+      <c r="J147" t="n">
+        <v>1</v>
+      </c>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>Portugal</t>
+        </is>
+      </c>
+      <c r="L147" t="inlineStr">
+        <is>
+          <t>South Korea</t>
+        </is>
+      </c>
+      <c r="M147" t="inlineStr">
+        <is>
+          <t>Uruguay</t>
         </is>
       </c>
     </row>

--- a/data/out/kaggle/fifa/standings_wc_fifa_men.xlsx
+++ b/data/out/kaggle/fifa/standings_wc_fifa_men.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M147"/>
+  <dimension ref="A1:M144"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -522,7 +522,7 @@
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['Argentina', 'Bulgaria', 'Italy']</t>
+          <t>['Bulgaria', 'Argentina', 'Italy']</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -571,7 +571,7 @@
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['Mexico', 'Paraguay', 'Belgium']</t>
+          <t>['Paraguay', 'Mexico', 'Belgium']</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -620,7 +620,7 @@
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['Soviet Union', 'Hungary', 'France']</t>
+          <t>['France', 'Hungary', 'Soviet Union']</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -669,7 +669,7 @@
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['Brazil', 'Northern Ireland', 'Spain']</t>
+          <t>['Brazil', 'Spain', 'Northern Ireland']</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -728,7 +728,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['Brazil', 'Algeria', 'Spain']</t>
+          <t>['Brazil', 'Spain', 'Algeria']</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -787,7 +787,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['Brazil', 'Northern Ireland', 'Spain']</t>
+          <t>['Brazil', 'Spain', 'Northern Ireland']</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -1003,7 +1003,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['Portugal', 'England', 'Morocco']</t>
+          <t>['Portugal', 'Morocco', 'England']</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -1062,7 +1062,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['England', 'Morocco', 'Poland']</t>
+          <t>['Poland', 'Morocco', 'England']</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -1111,7 +1111,7 @@
       <c r="G13" t="inlineStr"/>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['Austria', 'Czechoslovakia', 'Italy']</t>
+          <t>['Italy', 'Czechoslovakia', 'Austria']</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -1219,7 +1219,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['Argentina', 'Soviet Union', 'Cameroon']</t>
+          <t>['Argentina', 'Cameroon', 'Soviet Union']</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -1327,7 +1327,7 @@
       <c r="G17" t="inlineStr"/>
       <c r="H17" t="inlineStr">
         <is>
-          <t>['Brazil', 'Scotland', 'Costa Rica']</t>
+          <t>['Brazil', 'Costa Rica', 'Scotland']</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -1386,7 +1386,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>['Sweden', 'Brazil', 'Scotland']</t>
+          <t>['Brazil', 'Scotland', 'Sweden']</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -1445,7 +1445,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>['Brazil', 'Scotland', 'Costa Rica']</t>
+          <t>['Brazil', 'Costa Rica', 'Scotland']</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -1494,7 +1494,7 @@
       <c r="G20" t="inlineStr"/>
       <c r="H20" t="inlineStr">
         <is>
-          <t>['West Germany', 'Yugoslavia', 'Colombia']</t>
+          <t>['West Germany', 'Colombia', 'Yugoslavia']</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -1592,7 +1592,7 @@
       <c r="G22" t="inlineStr"/>
       <c r="H22" t="inlineStr">
         <is>
-          <t>['Republic of Ireland', 'Netherlands', 'England']</t>
+          <t>['Netherlands', 'Republic of Ireland', 'England']</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -1651,7 +1651,7 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>['England', 'Egypt', 'Netherlands']</t>
+          <t>['Netherlands', 'Egypt', 'England']</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -1710,7 +1710,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>['Republic of Ireland', 'Netherlands', 'England']</t>
+          <t>['Netherlands', 'Republic of Ireland', 'England']</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -1759,7 +1759,7 @@
       <c r="G25" t="inlineStr"/>
       <c r="H25" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Romania', 'United States']</t>
+          <t>['Romania', 'United States', 'Switzerland']</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
@@ -1792,38 +1792,28 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Group A</t>
+          <t>Group B</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>1</v>
-      </c>
-      <c r="D26" t="n">
-        <v>44</v>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>Switzerland</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>Colombia</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>Colombia</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>initial</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr"/>
+      <c r="F26" t="inlineStr"/>
+      <c r="G26" t="inlineStr"/>
       <c r="H26" t="inlineStr">
         <is>
-          <t>['Romania', 'Colombia', 'Switzerland']</t>
+          <t>['Brazil', 'Cameroon', 'Sweden']</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>['Colombia']</t>
+          <t>['Cameroon']</t>
         </is>
       </c>
       <c r="J26" t="n">
@@ -1831,17 +1821,17 @@
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>Romania</t>
+          <t>Brazil</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>Switzerland</t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>Colombia</t>
+          <t>Cameroon</t>
         </is>
       </c>
     </row>
@@ -1855,24 +1845,34 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>initial</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr"/>
-      <c r="F27" t="inlineStr"/>
-      <c r="G27" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="D27" t="n">
+        <v>15</v>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Russia</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Cameroon</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>Russia</t>
+        </is>
+      </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>['Sweden', 'Brazil', 'Cameroon']</t>
+          <t>['Brazil', 'Russia', 'Sweden']</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>['Cameroon']</t>
+          <t>['Russia']</t>
         </is>
       </c>
       <c r="J27" t="n">
@@ -1890,7 +1890,7 @@
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>Cameroon</t>
+          <t>Russia</t>
         </is>
       </c>
     </row>
@@ -1900,38 +1900,28 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Group B</t>
+          <t>Group C</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>1</v>
-      </c>
-      <c r="D28" t="n">
-        <v>15</v>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>Russia</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>Cameroon</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>Russia</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>initial</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr"/>
+      <c r="F28" t="inlineStr"/>
+      <c r="G28" t="inlineStr"/>
       <c r="H28" t="inlineStr">
         <is>
-          <t>['Sweden', 'Brazil', 'Russia']</t>
+          <t>['Spain', 'South Korea', 'Germany']</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>['Russia']</t>
+          <t>['South Korea']</t>
         </is>
       </c>
       <c r="J28" t="n">
@@ -1939,17 +1929,17 @@
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>Brazil</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>Russia</t>
+          <t>South Korea</t>
         </is>
       </c>
     </row>
@@ -1959,7 +1949,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Group C</t>
+          <t>Group D</t>
         </is>
       </c>
       <c r="C29" t="n">
@@ -1975,12 +1965,12 @@
       <c r="G29" t="inlineStr"/>
       <c r="H29" t="inlineStr">
         <is>
-          <t>['South Korea', 'Germany', 'Spain']</t>
+          <t>['Bulgaria', 'Argentina', 'Nigeria']</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>['South Korea']</t>
+          <t>['Bulgaria']</t>
         </is>
       </c>
       <c r="J29" t="n">
@@ -1988,17 +1978,17 @@
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Argentina</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>Nigeria</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>South Korea</t>
+          <t>Bulgaria</t>
         </is>
       </c>
     </row>
@@ -2008,7 +1998,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Group D</t>
+          <t>Group E</t>
         </is>
       </c>
       <c r="C30" t="n">
@@ -2024,12 +2014,12 @@
       <c r="G30" t="inlineStr"/>
       <c r="H30" t="inlineStr">
         <is>
-          <t>['Argentina', 'Bulgaria', 'Nigeria']</t>
+          <t>['Republic of Ireland', 'Mexico', 'Italy']</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>['Bulgaria']</t>
+          <t>['Italy']</t>
         </is>
       </c>
       <c r="J30" t="n">
@@ -2037,17 +2027,17 @@
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>Argentina</t>
+          <t>Mexico</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>Nigeria</t>
+          <t>Republic of Ireland</t>
         </is>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>Bulgaria</t>
+          <t>Italy</t>
         </is>
       </c>
     </row>
@@ -2061,24 +2051,34 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>initial</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr"/>
-      <c r="F31" t="inlineStr"/>
-      <c r="G31" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="D31" t="n">
+        <v>48</v>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Italy</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>Italy</t>
+        </is>
+      </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>['Mexico', 'Italy', 'Republic of Ireland']</t>
+          <t>['Republic of Ireland', 'Italy', 'Norway']</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>['Italy']</t>
+          <t>['Norway']</t>
         </is>
       </c>
       <c r="J31" t="n">
@@ -2086,7 +2086,7 @@
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>Mexico</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
@@ -2096,7 +2096,7 @@
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Norway</t>
         </is>
       </c>
     </row>
@@ -2110,10 +2110,10 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D32" t="n">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -2127,35 +2127,35 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
+          <t>Mexico</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>['Republic of Ireland', 'Mexico', 'Italy']</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>['Republic of Ireland']</t>
+        </is>
+      </c>
+      <c r="J32" t="n">
+        <v>1</v>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
           <t>Italy</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>['Republic of Ireland', 'Italy', 'Norway']</t>
-        </is>
-      </c>
-      <c r="I32" t="inlineStr">
-        <is>
-          <t>['Norway']</t>
-        </is>
-      </c>
-      <c r="J32" t="n">
-        <v>1</v>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>Italy</t>
-        </is>
-      </c>
-      <c r="L32" t="inlineStr">
+      <c r="M32" t="inlineStr">
         <is>
           <t>Republic of Ireland</t>
-        </is>
-      </c>
-      <c r="M32" t="inlineStr">
-        <is>
-          <t>Norway</t>
         </is>
       </c>
     </row>
@@ -2165,38 +2165,28 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Group E</t>
+          <t>Group F</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>2</v>
-      </c>
-      <c r="D33" t="n">
-        <v>57</v>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>Italy</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>Mexico</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>Mexico</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>initial</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr"/>
+      <c r="F33" t="inlineStr"/>
+      <c r="G33" t="inlineStr"/>
       <c r="H33" t="inlineStr">
         <is>
-          <t>['Mexico', 'Republic of Ireland', 'Italy']</t>
+          <t>['Netherlands', 'Belgium', 'Saudi Arabia']</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>['Republic of Ireland']</t>
+          <t>['Netherlands']</t>
         </is>
       </c>
       <c r="J33" t="n">
@@ -2204,27 +2194,27 @@
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>Mexico</t>
+          <t>Belgium</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Saudi Arabia</t>
         </is>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>Republic of Ireland</t>
+          <t>Netherlands</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>1994</v>
+        <v>1998</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Group F</t>
+          <t>Group A</t>
         </is>
       </c>
       <c r="C34" t="n">
@@ -2240,12 +2230,12 @@
       <c r="G34" t="inlineStr"/>
       <c r="H34" t="inlineStr">
         <is>
-          <t>['Saudi Arabia', 'Netherlands', 'Belgium']</t>
+          <t>['Brazil', 'Norway']</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>['Netherlands']</t>
+          <t>['Scotland']</t>
         </is>
       </c>
       <c r="J34" t="n">
@@ -2253,17 +2243,17 @@
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>Belgium</t>
+          <t>Brazil</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>Saudi Arabia</t>
+          <t>Norway</t>
         </is>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>Scotland</t>
         </is>
       </c>
     </row>
@@ -2277,16 +2267,26 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>initial</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr"/>
-      <c r="F35" t="inlineStr"/>
-      <c r="G35" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="D35" t="n">
+        <v>23</v>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>Scotland</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Morocco</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>Morocco</t>
+        </is>
+      </c>
       <c r="H35" t="inlineStr">
         <is>
           <t>['Brazil', 'Morocco']</t>
@@ -2294,7 +2294,7 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>['Scotland']</t>
+          <t>['Norway']</t>
         </is>
       </c>
       <c r="J35" t="n">
@@ -2312,7 +2312,7 @@
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>Scotland</t>
+          <t>Norway</t>
         </is>
       </c>
     </row>
@@ -2322,28 +2322,38 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Group B</t>
+          <t>Group A</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>initial</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr"/>
-      <c r="F36" t="inlineStr"/>
-      <c r="G36" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="D36" t="n">
+        <v>89</v>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>Brazil</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>['Chile', 'Italy']</t>
+          <t>['Brazil', 'Norway']</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>['Austria']</t>
+          <t>['Morocco']</t>
         </is>
       </c>
       <c r="J36" t="n">
@@ -2351,17 +2361,17 @@
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Brazil</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>Chile</t>
+          <t>Norway</t>
         </is>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>Austria</t>
+          <t>Morocco</t>
         </is>
       </c>
     </row>
@@ -2371,7 +2381,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Group C</t>
+          <t>Group B</t>
         </is>
       </c>
       <c r="C37" t="n">
@@ -2387,12 +2397,12 @@
       <c r="G37" t="inlineStr"/>
       <c r="H37" t="inlineStr">
         <is>
-          <t>['Denmark', 'France']</t>
+          <t>['Chile', 'Italy']</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>['South Africa']</t>
+          <t>['Austria']</t>
         </is>
       </c>
       <c r="J37" t="n">
@@ -2400,17 +2410,17 @@
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Chile</t>
         </is>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>South Africa</t>
+          <t>Austria</t>
         </is>
       </c>
     </row>
@@ -2420,7 +2430,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Group D</t>
+          <t>Group C</t>
         </is>
       </c>
       <c r="C38" t="n">
@@ -2436,12 +2446,12 @@
       <c r="G38" t="inlineStr"/>
       <c r="H38" t="inlineStr">
         <is>
-          <t>['Nigeria', 'Spain']</t>
+          <t>['France', 'Denmark']</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>['Paraguay']</t>
+          <t>['South Africa']</t>
         </is>
       </c>
       <c r="J38" t="n">
@@ -2449,17 +2459,17 @@
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>Nigeria</t>
+          <t>France</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>Denmark</t>
         </is>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>Paraguay</t>
+          <t>South Africa</t>
         </is>
       </c>
     </row>
@@ -2473,47 +2483,37 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>1</v>
-      </c>
-      <c r="D39" t="n">
-        <v>1</v>
-      </c>
-      <c r="E39" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>initial</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr"/>
+      <c r="F39" t="inlineStr"/>
+      <c r="G39" t="inlineStr"/>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>['Paraguay', 'Nigeria']</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>['Spain']</t>
+        </is>
+      </c>
+      <c r="J39" t="n">
+        <v>1</v>
+      </c>
+      <c r="K39" t="inlineStr">
         <is>
           <t>Nigeria</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
+      <c r="L39" t="inlineStr">
         <is>
           <t>Paraguay</t>
-        </is>
-      </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>Paraguay</t>
-        </is>
-      </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>['Nigeria', 'Paraguay']</t>
-        </is>
-      </c>
-      <c r="I39" t="inlineStr">
-        <is>
-          <t>['Spain']</t>
-        </is>
-      </c>
-      <c r="J39" t="n">
-        <v>1</v>
-      </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>Paraguay</t>
-        </is>
-      </c>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>Nigeria</t>
         </is>
       </c>
       <c r="M39" t="inlineStr">
@@ -2532,52 +2532,52 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D40" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
+          <t>Nigeria</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Paraguay</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>Nigeria</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>['Spain', 'Nigeria']</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>['Paraguay']</t>
+        </is>
+      </c>
+      <c r="J40" t="n">
+        <v>1</v>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>Nigeria</t>
+        </is>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
           <t>Spain</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>Bulgaria</t>
-        </is>
-      </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>Spain</t>
-        </is>
-      </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>['Paraguay', 'Spain']</t>
-        </is>
-      </c>
-      <c r="I40" t="inlineStr">
-        <is>
-          <t>['Nigeria']</t>
-        </is>
-      </c>
-      <c r="J40" t="n">
-        <v>1</v>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>Spain</t>
-        </is>
-      </c>
-      <c r="L40" t="inlineStr">
+      <c r="M40" t="inlineStr">
         <is>
           <t>Paraguay</t>
-        </is>
-      </c>
-      <c r="M40" t="inlineStr">
-        <is>
-          <t>Nigeria</t>
         </is>
       </c>
     </row>
@@ -2591,10 +2591,10 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D41" t="n">
-        <v>11</v>
+        <v>58</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
@@ -2608,35 +2608,35 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
+          <t>Paraguay</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>['Paraguay', 'Nigeria']</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>['Spain']</t>
+        </is>
+      </c>
+      <c r="J41" t="n">
+        <v>1</v>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
           <t>Nigeria</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>['Nigeria', 'Spain']</t>
-        </is>
-      </c>
-      <c r="I41" t="inlineStr">
-        <is>
-          <t>['Paraguay']</t>
-        </is>
-      </c>
-      <c r="J41" t="n">
-        <v>1</v>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>Nigeria</t>
-        </is>
-      </c>
       <c r="L41" t="inlineStr">
         <is>
+          <t>Paraguay</t>
+        </is>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
           <t>Spain</t>
-        </is>
-      </c>
-      <c r="M41" t="inlineStr">
-        <is>
-          <t>Paraguay</t>
         </is>
       </c>
     </row>
@@ -2646,38 +2646,28 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Group D</t>
+          <t>Group E</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>4</v>
-      </c>
-      <c r="D42" t="n">
-        <v>58</v>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>Nigeria</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>Paraguay</t>
-        </is>
-      </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>Paraguay</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>initial</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr"/>
+      <c r="F42" t="inlineStr"/>
+      <c r="G42" t="inlineStr"/>
       <c r="H42" t="inlineStr">
         <is>
-          <t>['Paraguay', 'Spain']</t>
+          <t>['Netherlands', 'Mexico']</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>['Nigeria']</t>
+          <t>['Belgium']</t>
         </is>
       </c>
       <c r="J42" t="n">
@@ -2685,17 +2675,17 @@
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>Paraguay</t>
+          <t>Mexico</t>
         </is>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>Nigeria</t>
+          <t>Belgium</t>
         </is>
       </c>
     </row>
@@ -2709,24 +2699,34 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>initial</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr"/>
-      <c r="F43" t="inlineStr"/>
-      <c r="G43" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="D43" t="n">
+        <v>7</v>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>Belgium</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>South Korea</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>Belgium</t>
+        </is>
+      </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>['Mexico', 'Netherlands']</t>
+          <t>['Netherlands', 'Belgium']</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>['Belgium']</t>
+          <t>['Mexico']</t>
         </is>
       </c>
       <c r="J43" t="n">
@@ -2739,12 +2739,12 @@
       </c>
       <c r="L43" t="inlineStr">
         <is>
+          <t>Belgium</t>
+        </is>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
           <t>Mexico</t>
-        </is>
-      </c>
-      <c r="M43" t="inlineStr">
-        <is>
-          <t>Belgium</t>
         </is>
       </c>
     </row>
@@ -2758,10 +2758,10 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D44" t="n">
-        <v>7</v>
+        <v>72</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
@@ -2775,35 +2775,35 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
+          <t>South Korea</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>['Netherlands', 'Mexico']</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>['Belgium']</t>
+        </is>
+      </c>
+      <c r="J44" t="n">
+        <v>1</v>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>Netherlands</t>
+        </is>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
           <t>Belgium</t>
-        </is>
-      </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>['Netherlands', 'Belgium']</t>
-        </is>
-      </c>
-      <c r="I44" t="inlineStr">
-        <is>
-          <t>['Mexico']</t>
-        </is>
-      </c>
-      <c r="J44" t="n">
-        <v>1</v>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>Netherlands</t>
-        </is>
-      </c>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>Belgium</t>
-        </is>
-      </c>
-      <c r="M44" t="inlineStr">
-        <is>
-          <t>Mexico</t>
         </is>
       </c>
     </row>
@@ -2813,38 +2813,28 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Group E</t>
+          <t>Group F</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>2</v>
-      </c>
-      <c r="D45" t="n">
-        <v>72</v>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>Belgium</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>South Korea</t>
-        </is>
-      </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>South Korea</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>initial</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr"/>
+      <c r="F45" t="inlineStr"/>
+      <c r="G45" t="inlineStr"/>
       <c r="H45" t="inlineStr">
         <is>
-          <t>['Mexico', 'Netherlands']</t>
+          <t>['Yugoslavia', 'Germany']</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>['Belgium']</t>
+          <t>['Iran']</t>
         </is>
       </c>
       <c r="J45" t="n">
@@ -2852,17 +2842,17 @@
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>Mexico</t>
+          <t>Yugoslavia</t>
         </is>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>Belgium</t>
+          <t>Iran</t>
         </is>
       </c>
     </row>
@@ -2872,7 +2862,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Group F</t>
+          <t>Group G</t>
         </is>
       </c>
       <c r="C46" t="n">
@@ -2888,12 +2878,12 @@
       <c r="G46" t="inlineStr"/>
       <c r="H46" t="inlineStr">
         <is>
-          <t>['Yugoslavia', 'Germany']</t>
+          <t>['Romania', 'England']</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>['Iran']</t>
+          <t>['Colombia']</t>
         </is>
       </c>
       <c r="J46" t="n">
@@ -2901,17 +2891,17 @@
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>Yugoslavia</t>
+          <t>Romania</t>
         </is>
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>England</t>
         </is>
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>Iran</t>
+          <t>Colombia</t>
         </is>
       </c>
     </row>
@@ -2921,7 +2911,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Group G</t>
+          <t>Group H</t>
         </is>
       </c>
       <c r="C47" t="n">
@@ -2937,12 +2927,12 @@
       <c r="G47" t="inlineStr"/>
       <c r="H47" t="inlineStr">
         <is>
-          <t>['Romania', 'England']</t>
+          <t>['Croatia', 'Argentina']</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>['Colombia']</t>
+          <t>['Japan']</t>
         </is>
       </c>
       <c r="J47" t="n">
@@ -2950,27 +2940,27 @@
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>Romania</t>
+          <t>Argentina</t>
         </is>
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>England</t>
+          <t>Croatia</t>
         </is>
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>Colombia</t>
+          <t>Japan</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>1998</v>
+        <v>2002</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Group H</t>
+          <t>Group A</t>
         </is>
       </c>
       <c r="C48" t="n">
@@ -2986,12 +2976,12 @@
       <c r="G48" t="inlineStr"/>
       <c r="H48" t="inlineStr">
         <is>
-          <t>['Argentina', 'Croatia']</t>
+          <t>['Senegal', 'Denmark']</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>['Japan']</t>
+          <t>['Uruguay']</t>
         </is>
       </c>
       <c r="J48" t="n">
@@ -2999,17 +2989,17 @@
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>Argentina</t>
+          <t>Denmark</t>
         </is>
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>Croatia</t>
+          <t>Senegal</t>
         </is>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>Japan</t>
+          <t>Uruguay</t>
         </is>
       </c>
     </row>
@@ -3019,7 +3009,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Group A</t>
+          <t>Group B</t>
         </is>
       </c>
       <c r="C49" t="n">
@@ -3035,12 +3025,12 @@
       <c r="G49" t="inlineStr"/>
       <c r="H49" t="inlineStr">
         <is>
-          <t>['Senegal', 'Denmark']</t>
+          <t>['South Africa', 'Spain']</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>['Uruguay']</t>
+          <t>['Paraguay']</t>
         </is>
       </c>
       <c r="J49" t="n">
@@ -3048,17 +3038,17 @@
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>Senegal</t>
+          <t>South Africa</t>
         </is>
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>Uruguay</t>
+          <t>Paraguay</t>
         </is>
       </c>
     </row>
@@ -3072,24 +3062,34 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>0</v>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>initial</t>
-        </is>
-      </c>
-      <c r="E50" t="inlineStr"/>
-      <c r="F50" t="inlineStr"/>
-      <c r="G50" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="D50" t="n">
+        <v>84</v>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>Slovenia</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>Paraguay</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>Paraguay</t>
+        </is>
+      </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>['Spain', 'South Africa']</t>
+          <t>['Paraguay', 'Spain']</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>['Paraguay']</t>
+          <t>['South Africa']</t>
         </is>
       </c>
       <c r="J50" t="n">
@@ -3102,12 +3102,12 @@
       </c>
       <c r="L50" t="inlineStr">
         <is>
+          <t>Paraguay</t>
+        </is>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
           <t>South Africa</t>
-        </is>
-      </c>
-      <c r="M50" t="inlineStr">
-        <is>
-          <t>Paraguay</t>
         </is>
       </c>
     </row>
@@ -3192,7 +3192,7 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>['Turkey', 'Brazil']</t>
+          <t>['Brazil', 'Turkey']</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
@@ -3310,7 +3310,7 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>['Turkey', 'Brazil']</t>
+          <t>['Brazil', 'Turkey']</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
@@ -3526,7 +3526,7 @@
       <c r="G58" t="inlineStr"/>
       <c r="H58" t="inlineStr">
         <is>
-          <t>['Germany', 'Cameroon']</t>
+          <t>['Cameroon', 'Germany']</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
@@ -3585,7 +3585,7 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>['Germany', 'Republic of Ireland']</t>
+          <t>['Republic of Ireland', 'Germany']</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
@@ -3742,7 +3742,7 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>['Mexico', 'Croatia']</t>
+          <t>['Croatia', 'Mexico']</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
@@ -4130,7 +4130,7 @@
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>['Paraguay']</t>
+          <t>['Trinidad and Tobago']</t>
         </is>
       </c>
       <c r="J69" t="n">
@@ -4148,7 +4148,7 @@
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>Paraguay</t>
+          <t>Trinidad and Tobago</t>
         </is>
       </c>
     </row>
@@ -4158,38 +4158,28 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Group B</t>
+          <t>Group C</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>1</v>
-      </c>
-      <c r="D70" t="n">
-        <v>86</v>
-      </c>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>Paraguay</t>
-        </is>
-      </c>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>Trinidad and Tobago</t>
-        </is>
-      </c>
-      <c r="G70" t="inlineStr">
-        <is>
-          <t>Paraguay</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>initial</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr"/>
+      <c r="F70" t="inlineStr"/>
+      <c r="G70" t="inlineStr"/>
       <c r="H70" t="inlineStr">
         <is>
-          <t>['Paraguay', 'England']</t>
+          <t>['Netherlands', 'Argentina']</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>['Sweden']</t>
+          <t>['Ivory Coast']</t>
         </is>
       </c>
       <c r="J70" t="n">
@@ -4197,17 +4187,17 @@
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>England</t>
+          <t>Argentina</t>
         </is>
       </c>
       <c r="L70" t="inlineStr">
         <is>
-          <t>Paraguay</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>Ivory Coast</t>
         </is>
       </c>
     </row>
@@ -4217,38 +4207,28 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Group B</t>
+          <t>Group D</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>2</v>
-      </c>
-      <c r="D71" t="n">
-        <v>90</v>
-      </c>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t>Sweden</t>
-        </is>
-      </c>
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>England</t>
-        </is>
-      </c>
-      <c r="G71" t="inlineStr">
-        <is>
-          <t>Sweden</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>initial</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr"/>
+      <c r="F71" t="inlineStr"/>
+      <c r="G71" t="inlineStr"/>
       <c r="H71" t="inlineStr">
         <is>
-          <t>['Sweden', 'England']</t>
+          <t>['Portugal', 'Mexico']</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>['Paraguay']</t>
+          <t>['Angola']</t>
         </is>
       </c>
       <c r="J71" t="n">
@@ -4256,17 +4236,17 @@
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>England</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="L71" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>Mexico</t>
         </is>
       </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>Paraguay</t>
+          <t>Angola</t>
         </is>
       </c>
     </row>
@@ -4276,7 +4256,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Group C</t>
+          <t>Group E</t>
         </is>
       </c>
       <c r="C72" t="n">
@@ -4292,12 +4272,12 @@
       <c r="G72" t="inlineStr"/>
       <c r="H72" t="inlineStr">
         <is>
-          <t>['Argentina', 'Netherlands']</t>
+          <t>['Czech Republic', 'Italy']</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>['Ivory Coast']</t>
+          <t>['Ghana']</t>
         </is>
       </c>
       <c r="J72" t="n">
@@ -4305,17 +4285,17 @@
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>Argentina</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="L72" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>Czech Republic</t>
         </is>
       </c>
       <c r="M72" t="inlineStr">
         <is>
-          <t>Ivory Coast</t>
+          <t>Ghana</t>
         </is>
       </c>
     </row>
@@ -4325,28 +4305,38 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Group D</t>
+          <t>Group E</t>
         </is>
       </c>
       <c r="C73" t="n">
-        <v>0</v>
-      </c>
-      <c r="D73" t="inlineStr">
-        <is>
-          <t>initial</t>
-        </is>
-      </c>
-      <c r="E73" t="inlineStr"/>
-      <c r="F73" t="inlineStr"/>
-      <c r="G73" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="D73" t="n">
+        <v>22</v>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>Ghana</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>United States</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>Ghana</t>
+        </is>
+      </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>['Portugal', 'Mexico']</t>
+          <t>['Ghana', 'Italy']</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>['Angola']</t>
+          <t>['Czech Republic']</t>
         </is>
       </c>
       <c r="J73" t="n">
@@ -4354,17 +4344,17 @@
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Ghana</t>
         </is>
       </c>
       <c r="L73" t="inlineStr">
         <is>
-          <t>Mexico</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="M73" t="inlineStr">
         <is>
-          <t>Angola</t>
+          <t>Czech Republic</t>
         </is>
       </c>
     </row>
@@ -4374,7 +4364,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Group E</t>
+          <t>Group F</t>
         </is>
       </c>
       <c r="C74" t="n">
@@ -4390,12 +4380,12 @@
       <c r="G74" t="inlineStr"/>
       <c r="H74" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Italy']</t>
+          <t>['Australia', 'Brazil']</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>['Ghana']</t>
+          <t>['Croatia']</t>
         </is>
       </c>
       <c r="J74" t="n">
@@ -4403,17 +4393,17 @@
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Brazil</t>
         </is>
       </c>
       <c r="L74" t="inlineStr">
         <is>
-          <t>Czech Republic</t>
+          <t>Australia</t>
         </is>
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>Ghana</t>
+          <t>Croatia</t>
         </is>
       </c>
     </row>
@@ -4423,38 +4413,38 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Group E</t>
+          <t>Group F</t>
         </is>
       </c>
       <c r="C75" t="n">
         <v>1</v>
       </c>
       <c r="D75" t="n">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Ghana</t>
+          <t>Croatia</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>Australia</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>Ghana</t>
+          <t>Croatia</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>['Ghana', 'Italy']</t>
+          <t>['Croatia', 'Brazil']</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>['Czech Republic']</t>
+          <t>['Australia']</t>
         </is>
       </c>
       <c r="J75" t="n">
@@ -4462,17 +4452,17 @@
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Brazil</t>
         </is>
       </c>
       <c r="L75" t="inlineStr">
         <is>
-          <t>Ghana</t>
+          <t>Croatia</t>
         </is>
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>Czech Republic</t>
+          <t>Australia</t>
         </is>
       </c>
     </row>
@@ -4486,24 +4476,34 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>0</v>
-      </c>
-      <c r="D76" t="inlineStr">
-        <is>
-          <t>initial</t>
-        </is>
-      </c>
-      <c r="E76" t="inlineStr"/>
-      <c r="F76" t="inlineStr"/>
-      <c r="G76" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="D76" t="n">
+        <v>38</v>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>Croatia</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>Australia</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>Australia</t>
+        </is>
+      </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>['Brazil', 'Australia']</t>
+          <t>['Australia', 'Brazil']</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>['Croatia']</t>
+          <t>['Japan']</t>
         </is>
       </c>
       <c r="J76" t="n">
@@ -4521,7 +4521,7 @@
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>Croatia</t>
+          <t>Japan</t>
         </is>
       </c>
     </row>
@@ -4535,10 +4535,10 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D77" t="n">
-        <v>2</v>
+        <v>56</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
@@ -4557,7 +4557,7 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>['Brazil', 'Croatia']</t>
+          <t>['Croatia', 'Brazil']</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
@@ -4594,10 +4594,10 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D78" t="n">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
@@ -4616,12 +4616,12 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>['Brazil', 'Australia']</t>
+          <t>['Australia', 'Brazil']</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>['Japan']</t>
+          <t>['Croatia']</t>
         </is>
       </c>
       <c r="J78" t="n">
@@ -4639,7 +4639,7 @@
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>Japan</t>
+          <t>Croatia</t>
         </is>
       </c>
     </row>
@@ -4649,38 +4649,28 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Group F</t>
+          <t>Group G</t>
         </is>
       </c>
       <c r="C79" t="n">
-        <v>3</v>
-      </c>
-      <c r="D79" t="n">
-        <v>56</v>
-      </c>
-      <c r="E79" t="inlineStr">
-        <is>
-          <t>Croatia</t>
-        </is>
-      </c>
-      <c r="F79" t="inlineStr">
-        <is>
-          <t>Australia</t>
-        </is>
-      </c>
-      <c r="G79" t="inlineStr">
-        <is>
-          <t>Croatia</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>initial</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr"/>
+      <c r="F79" t="inlineStr"/>
+      <c r="G79" t="inlineStr"/>
       <c r="H79" t="inlineStr">
         <is>
-          <t>['Brazil', 'Croatia']</t>
+          <t>['South Korea', 'Switzerland']</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>['Australia']</t>
+          <t>['France']</t>
         </is>
       </c>
       <c r="J79" t="n">
@@ -4688,17 +4678,17 @@
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>Brazil</t>
+          <t>Switzerland</t>
         </is>
       </c>
       <c r="L79" t="inlineStr">
         <is>
-          <t>Croatia</t>
+          <t>South Korea</t>
         </is>
       </c>
       <c r="M79" t="inlineStr">
         <is>
-          <t>Australia</t>
+          <t>France</t>
         </is>
       </c>
     </row>
@@ -4708,38 +4698,38 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Group F</t>
+          <t>Group G</t>
         </is>
       </c>
       <c r="C80" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D80" t="n">
-        <v>79</v>
+        <v>55</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Croatia</t>
+          <t>Togo</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Australia</t>
+          <t>France</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>Australia</t>
+          <t>France</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>['Brazil', 'Australia']</t>
+          <t>['France', 'Switzerland']</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>['Croatia']</t>
+          <t>['South Korea']</t>
         </is>
       </c>
       <c r="J80" t="n">
@@ -4747,17 +4737,17 @@
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>Brazil</t>
+          <t>Switzerland</t>
         </is>
       </c>
       <c r="L80" t="inlineStr">
         <is>
-          <t>Australia</t>
+          <t>France</t>
         </is>
       </c>
       <c r="M80" t="inlineStr">
         <is>
-          <t>Croatia</t>
+          <t>South Korea</t>
         </is>
       </c>
     </row>
@@ -4767,7 +4757,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Group G</t>
+          <t>Group H</t>
         </is>
       </c>
       <c r="C81" t="n">
@@ -4783,12 +4773,12 @@
       <c r="G81" t="inlineStr"/>
       <c r="H81" t="inlineStr">
         <is>
-          <t>['Switzerland', 'South Korea']</t>
+          <t>['Spain', 'Ukraine']</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>['France']</t>
+          <t>['Tunisia']</t>
         </is>
       </c>
       <c r="J81" t="n">
@@ -4796,86 +4786,76 @@
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>Switzerland</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="L81" t="inlineStr">
         <is>
-          <t>South Korea</t>
+          <t>Ukraine</t>
         </is>
       </c>
       <c r="M81" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Tunisia</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>2006</v>
+        <v>2010</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Group G</t>
+          <t>Group A</t>
         </is>
       </c>
       <c r="C82" t="n">
-        <v>1</v>
-      </c>
-      <c r="D82" t="n">
-        <v>55</v>
-      </c>
-      <c r="E82" t="inlineStr">
-        <is>
-          <t>Togo</t>
-        </is>
-      </c>
-      <c r="F82" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>initial</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr"/>
+      <c r="F82" t="inlineStr"/>
+      <c r="G82" t="inlineStr"/>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>['Uruguay', 'Mexico']</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>['France']</t>
+        </is>
+      </c>
+      <c r="J82" t="n">
+        <v>1</v>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>Uruguay</t>
+        </is>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
+      <c r="M82" t="inlineStr">
         <is>
           <t>France</t>
-        </is>
-      </c>
-      <c r="G82" t="inlineStr">
-        <is>
-          <t>France</t>
-        </is>
-      </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>['Switzerland', 'France']</t>
-        </is>
-      </c>
-      <c r="I82" t="inlineStr">
-        <is>
-          <t>['South Korea']</t>
-        </is>
-      </c>
-      <c r="J82" t="n">
-        <v>1</v>
-      </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>Switzerland</t>
-        </is>
-      </c>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>France</t>
-        </is>
-      </c>
-      <c r="M82" t="inlineStr">
-        <is>
-          <t>South Korea</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>2006</v>
+        <v>2010</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Group H</t>
+          <t>Group B</t>
         </is>
       </c>
       <c r="C83" t="n">
@@ -4891,12 +4871,12 @@
       <c r="G83" t="inlineStr"/>
       <c r="H83" t="inlineStr">
         <is>
-          <t>['Ukraine', 'Spain']</t>
+          <t>['Argentina', 'South Korea']</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>['Tunisia']</t>
+          <t>['Greece']</t>
         </is>
       </c>
       <c r="J83" t="n">
@@ -4904,17 +4884,17 @@
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>Argentina</t>
         </is>
       </c>
       <c r="L83" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>South Korea</t>
         </is>
       </c>
       <c r="M83" t="inlineStr">
         <is>
-          <t>Tunisia</t>
+          <t>Greece</t>
         </is>
       </c>
     </row>
@@ -4924,28 +4904,38 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Group A</t>
+          <t>Group B</t>
         </is>
       </c>
       <c r="C84" t="n">
-        <v>0</v>
-      </c>
-      <c r="D84" t="inlineStr">
-        <is>
-          <t>initial</t>
-        </is>
-      </c>
-      <c r="E84" t="inlineStr"/>
-      <c r="F84" t="inlineStr"/>
-      <c r="G84" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="D84" t="n">
+        <v>12</v>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>Nigeria</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>South Korea</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>Nigeria</t>
+        </is>
+      </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>['Mexico', 'Uruguay']</t>
+          <t>['Argentina', 'Greece']</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>['France']</t>
+          <t>['Nigeria']</t>
         </is>
       </c>
       <c r="J84" t="n">
@@ -4953,17 +4943,17 @@
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>Uruguay</t>
+          <t>Argentina</t>
         </is>
       </c>
       <c r="L84" t="inlineStr">
         <is>
-          <t>Mexico</t>
+          <t>Greece</t>
         </is>
       </c>
       <c r="M84" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Nigeria</t>
         </is>
       </c>
     </row>
@@ -4977,16 +4967,26 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>0</v>
-      </c>
-      <c r="D85" t="inlineStr">
-        <is>
-          <t>initial</t>
-        </is>
-      </c>
-      <c r="E85" t="inlineStr"/>
-      <c r="F85" t="inlineStr"/>
-      <c r="G85" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="D85" t="n">
+        <v>38</v>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>Nigeria</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>South Korea</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>South Korea</t>
+        </is>
+      </c>
       <c r="H85" t="inlineStr">
         <is>
           <t>['Argentina', 'South Korea']</t>
@@ -5022,38 +5022,28 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Group B</t>
+          <t>Group C</t>
         </is>
       </c>
       <c r="C86" t="n">
-        <v>1</v>
-      </c>
-      <c r="D86" t="n">
-        <v>12</v>
-      </c>
-      <c r="E86" t="inlineStr">
-        <is>
-          <t>Nigeria</t>
-        </is>
-      </c>
-      <c r="F86" t="inlineStr">
-        <is>
-          <t>South Korea</t>
-        </is>
-      </c>
-      <c r="G86" t="inlineStr">
-        <is>
-          <t>Nigeria</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>initial</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr"/>
+      <c r="F86" t="inlineStr"/>
+      <c r="G86" t="inlineStr"/>
       <c r="H86" t="inlineStr">
         <is>
-          <t>['Argentina', 'Greece']</t>
+          <t>['United States', 'Slovenia']</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>['South Korea']</t>
+          <t>['England']</t>
         </is>
       </c>
       <c r="J86" t="n">
@@ -5061,17 +5051,17 @@
       </c>
       <c r="K86" t="inlineStr">
         <is>
-          <t>Argentina</t>
+          <t>Slovenia</t>
         </is>
       </c>
       <c r="L86" t="inlineStr">
         <is>
-          <t>Greece</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="M86" t="inlineStr">
         <is>
-          <t>South Korea</t>
+          <t>England</t>
         </is>
       </c>
     </row>
@@ -5081,38 +5071,38 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Group B</t>
+          <t>Group C</t>
         </is>
       </c>
       <c r="C87" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D87" t="n">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Nigeria</t>
+          <t>Slovenia</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>South Korea</t>
+          <t>England</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>South Korea</t>
+          <t>England</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>['Argentina', 'South Korea']</t>
+          <t>['Slovenia', 'England']</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>['Greece']</t>
+          <t>['United States']</t>
         </is>
       </c>
       <c r="J87" t="n">
@@ -5120,17 +5110,17 @@
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>Argentina</t>
+          <t>England</t>
         </is>
       </c>
       <c r="L87" t="inlineStr">
         <is>
-          <t>South Korea</t>
+          <t>Slovenia</t>
         </is>
       </c>
       <c r="M87" t="inlineStr">
         <is>
-          <t>Greece</t>
+          <t>United States</t>
         </is>
       </c>
     </row>
@@ -5144,24 +5134,34 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>0</v>
-      </c>
-      <c r="D88" t="inlineStr">
-        <is>
-          <t>initial</t>
-        </is>
-      </c>
-      <c r="E88" t="inlineStr"/>
-      <c r="F88" t="inlineStr"/>
-      <c r="G88" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="D88" t="n">
+        <v>91</v>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>United States</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>Algeria</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>United States</t>
+        </is>
+      </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>['United States', 'Slovenia']</t>
+          <t>['United States', 'England']</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>['England']</t>
+          <t>['Slovenia']</t>
         </is>
       </c>
       <c r="J88" t="n">
@@ -5169,17 +5169,17 @@
       </c>
       <c r="K88" t="inlineStr">
         <is>
+          <t>United States</t>
+        </is>
+      </c>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>England</t>
+        </is>
+      </c>
+      <c r="M88" t="inlineStr">
+        <is>
           <t>Slovenia</t>
-        </is>
-      </c>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>United States</t>
-        </is>
-      </c>
-      <c r="M88" t="inlineStr">
-        <is>
-          <t>England</t>
         </is>
       </c>
     </row>
@@ -5189,38 +5189,28 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Group C</t>
+          <t>Group D</t>
         </is>
       </c>
       <c r="C89" t="n">
-        <v>1</v>
-      </c>
-      <c r="D89" t="n">
-        <v>23</v>
-      </c>
-      <c r="E89" t="inlineStr">
-        <is>
-          <t>Slovenia</t>
-        </is>
-      </c>
-      <c r="F89" t="inlineStr">
-        <is>
-          <t>England</t>
-        </is>
-      </c>
-      <c r="G89" t="inlineStr">
-        <is>
-          <t>England</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>initial</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr"/>
+      <c r="F89" t="inlineStr"/>
+      <c r="G89" t="inlineStr"/>
       <c r="H89" t="inlineStr">
         <is>
-          <t>['England', 'Slovenia']</t>
+          <t>['Ghana', 'Germany']</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>['United States']</t>
+          <t>['Serbia']</t>
         </is>
       </c>
       <c r="J89" t="n">
@@ -5228,17 +5218,17 @@
       </c>
       <c r="K89" t="inlineStr">
         <is>
-          <t>England</t>
+          <t>Ghana</t>
         </is>
       </c>
       <c r="L89" t="inlineStr">
         <is>
-          <t>Slovenia</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="M89" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>Serbia</t>
         </is>
       </c>
     </row>
@@ -5248,38 +5238,28 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Group C</t>
+          <t>Group E</t>
         </is>
       </c>
       <c r="C90" t="n">
-        <v>2</v>
-      </c>
-      <c r="D90" t="n">
-        <v>91</v>
-      </c>
-      <c r="E90" t="inlineStr">
-        <is>
-          <t>United States</t>
-        </is>
-      </c>
-      <c r="F90" t="inlineStr">
-        <is>
-          <t>Algeria</t>
-        </is>
-      </c>
-      <c r="G90" t="inlineStr">
-        <is>
-          <t>United States</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>initial</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr"/>
+      <c r="F90" t="inlineStr"/>
+      <c r="G90" t="inlineStr"/>
       <c r="H90" t="inlineStr">
         <is>
-          <t>['United States', 'England']</t>
+          <t>['Netherlands', 'Japan']</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>['Slovenia']</t>
+          <t>['Denmark']</t>
         </is>
       </c>
       <c r="J90" t="n">
@@ -5287,17 +5267,17 @@
       </c>
       <c r="K90" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="L90" t="inlineStr">
         <is>
-          <t>England</t>
+          <t>Japan</t>
         </is>
       </c>
       <c r="M90" t="inlineStr">
         <is>
-          <t>Slovenia</t>
+          <t>Denmark</t>
         </is>
       </c>
     </row>
@@ -5307,7 +5287,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Group D</t>
+          <t>Group F</t>
         </is>
       </c>
       <c r="C91" t="n">
@@ -5323,12 +5303,12 @@
       <c r="G91" t="inlineStr"/>
       <c r="H91" t="inlineStr">
         <is>
-          <t>['Ghana', 'Germany']</t>
+          <t>['Paraguay', 'Italy']</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>['Serbia']</t>
+          <t>['New Zealand']</t>
         </is>
       </c>
       <c r="J91" t="n">
@@ -5336,17 +5316,17 @@
       </c>
       <c r="K91" t="inlineStr">
         <is>
-          <t>Ghana</t>
+          <t>Paraguay</t>
         </is>
       </c>
       <c r="L91" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="M91" t="inlineStr">
         <is>
-          <t>Serbia</t>
+          <t>New Zealand</t>
         </is>
       </c>
     </row>
@@ -5356,28 +5336,38 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Group E</t>
+          <t>Group F</t>
         </is>
       </c>
       <c r="C92" t="n">
-        <v>0</v>
-      </c>
-      <c r="D92" t="inlineStr">
-        <is>
-          <t>initial</t>
-        </is>
-      </c>
-      <c r="E92" t="inlineStr"/>
-      <c r="F92" t="inlineStr"/>
-      <c r="G92" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="D92" t="n">
+        <v>25</v>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>Slovakia</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>Italy</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>Slovakia</t>
+        </is>
+      </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>['Denmark', 'Netherlands']</t>
+          <t>['Paraguay', 'Slovakia']</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>['Japan']</t>
+          <t>['New Zealand']</t>
         </is>
       </c>
       <c r="J92" t="n">
@@ -5385,17 +5375,17 @@
       </c>
       <c r="K92" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>Paraguay</t>
         </is>
       </c>
       <c r="L92" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Slovakia</t>
         </is>
       </c>
       <c r="M92" t="inlineStr">
         <is>
-          <t>Japan</t>
+          <t>New Zealand</t>
         </is>
       </c>
     </row>
@@ -5405,38 +5395,28 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Group E</t>
+          <t>Group G</t>
         </is>
       </c>
       <c r="C93" t="n">
-        <v>1</v>
-      </c>
-      <c r="D93" t="n">
-        <v>17</v>
-      </c>
-      <c r="E93" t="inlineStr">
-        <is>
-          <t>Denmark</t>
-        </is>
-      </c>
-      <c r="F93" t="inlineStr">
-        <is>
-          <t>Japan</t>
-        </is>
-      </c>
-      <c r="G93" t="inlineStr">
-        <is>
-          <t>Japan</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>initial</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr"/>
+      <c r="F93" t="inlineStr"/>
+      <c r="G93" t="inlineStr"/>
       <c r="H93" t="inlineStr">
         <is>
-          <t>['Japan', 'Netherlands']</t>
+          <t>['Brazil', 'Portugal']</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>['Denmark']</t>
+          <t>['Ivory Coast']</t>
         </is>
       </c>
       <c r="J93" t="n">
@@ -5444,17 +5424,17 @@
       </c>
       <c r="K93" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>Brazil</t>
         </is>
       </c>
       <c r="L93" t="inlineStr">
         <is>
-          <t>Japan</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="M93" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Ivory Coast</t>
         </is>
       </c>
     </row>
@@ -5464,7 +5444,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Group F</t>
+          <t>Group H</t>
         </is>
       </c>
       <c r="C94" t="n">
@@ -5480,12 +5460,12 @@
       <c r="G94" t="inlineStr"/>
       <c r="H94" t="inlineStr">
         <is>
-          <t>['Italy', 'Paraguay']</t>
+          <t>['Spain', 'Chile']</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>['New Zealand']</t>
+          <t>['Switzerland']</t>
         </is>
       </c>
       <c r="J94" t="n">
@@ -5493,58 +5473,48 @@
       </c>
       <c r="K94" t="inlineStr">
         <is>
-          <t>Paraguay</t>
+          <t>Chile</t>
         </is>
       </c>
       <c r="L94" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="M94" t="inlineStr">
         <is>
-          <t>New Zealand</t>
+          <t>Switzerland</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>2010</v>
+        <v>2014</v>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Group F</t>
+          <t>Group A</t>
         </is>
       </c>
       <c r="C95" t="n">
-        <v>1</v>
-      </c>
-      <c r="D95" t="n">
-        <v>25</v>
-      </c>
-      <c r="E95" t="inlineStr">
-        <is>
-          <t>Slovakia</t>
-        </is>
-      </c>
-      <c r="F95" t="inlineStr">
-        <is>
-          <t>Italy</t>
-        </is>
-      </c>
-      <c r="G95" t="inlineStr">
-        <is>
-          <t>Slovakia</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>initial</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr"/>
+      <c r="F95" t="inlineStr"/>
+      <c r="G95" t="inlineStr"/>
       <c r="H95" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Paraguay']</t>
+          <t>['Brazil', 'Mexico']</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>['New Zealand']</t>
+          <t>['Croatia']</t>
         </is>
       </c>
       <c r="J95" t="n">
@@ -5552,27 +5522,27 @@
       </c>
       <c r="K95" t="inlineStr">
         <is>
-          <t>Paraguay</t>
+          <t>Brazil</t>
         </is>
       </c>
       <c r="L95" t="inlineStr">
         <is>
-          <t>Slovakia</t>
+          <t>Mexico</t>
         </is>
       </c>
       <c r="M95" t="inlineStr">
         <is>
-          <t>New Zealand</t>
+          <t>Croatia</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>2010</v>
+        <v>2014</v>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Group G</t>
+          <t>Group B</t>
         </is>
       </c>
       <c r="C96" t="n">
@@ -5588,12 +5558,12 @@
       <c r="G96" t="inlineStr"/>
       <c r="H96" t="inlineStr">
         <is>
-          <t>['Portugal', 'Brazil']</t>
+          <t>['Netherlands', 'Chile']</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>['Ivory Coast']</t>
+          <t>['Australia']</t>
         </is>
       </c>
       <c r="J96" t="n">
@@ -5601,27 +5571,27 @@
       </c>
       <c r="K96" t="inlineStr">
         <is>
-          <t>Brazil</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="L96" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Chile</t>
         </is>
       </c>
       <c r="M96" t="inlineStr">
         <is>
-          <t>Ivory Coast</t>
+          <t>Australia</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>2010</v>
+        <v>2014</v>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Group H</t>
+          <t>Group C</t>
         </is>
       </c>
       <c r="C97" t="n">
@@ -5637,12 +5607,12 @@
       <c r="G97" t="inlineStr"/>
       <c r="H97" t="inlineStr">
         <is>
-          <t>['Chile', 'Spain']</t>
+          <t>['Colombia', 'Ivory Coast']</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>['Switzerland']</t>
+          <t>['Japan']</t>
         </is>
       </c>
       <c r="J97" t="n">
@@ -5650,17 +5620,17 @@
       </c>
       <c r="K97" t="inlineStr">
         <is>
-          <t>Chile</t>
+          <t>Colombia</t>
         </is>
       </c>
       <c r="L97" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>Ivory Coast</t>
         </is>
       </c>
       <c r="M97" t="inlineStr">
         <is>
-          <t>Switzerland</t>
+          <t>Japan</t>
         </is>
       </c>
     </row>
@@ -5670,28 +5640,38 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Group A</t>
+          <t>Group C</t>
         </is>
       </c>
       <c r="C98" t="n">
-        <v>0</v>
-      </c>
-      <c r="D98" t="inlineStr">
-        <is>
-          <t>initial</t>
-        </is>
-      </c>
-      <c r="E98" t="inlineStr"/>
-      <c r="F98" t="inlineStr"/>
-      <c r="G98" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="D98" t="n">
+        <v>42</v>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>Greece</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>Ivory Coast</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>Greece</t>
+        </is>
+      </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>['Mexico', 'Brazil']</t>
+          <t>['Colombia', 'Greece']</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>['Croatia']</t>
+          <t>['Ivory Coast']</t>
         </is>
       </c>
       <c r="J98" t="n">
@@ -5699,17 +5679,17 @@
       </c>
       <c r="K98" t="inlineStr">
         <is>
-          <t>Brazil</t>
+          <t>Colombia</t>
         </is>
       </c>
       <c r="L98" t="inlineStr">
         <is>
-          <t>Mexico</t>
+          <t>Greece</t>
         </is>
       </c>
       <c r="M98" t="inlineStr">
         <is>
-          <t>Croatia</t>
+          <t>Ivory Coast</t>
         </is>
       </c>
     </row>
@@ -5719,28 +5699,38 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Group B</t>
+          <t>Group C</t>
         </is>
       </c>
       <c r="C99" t="n">
-        <v>0</v>
-      </c>
-      <c r="D99" t="inlineStr">
-        <is>
-          <t>initial</t>
-        </is>
-      </c>
-      <c r="E99" t="inlineStr"/>
-      <c r="F99" t="inlineStr"/>
-      <c r="G99" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="D99" t="n">
+        <v>74</v>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>Greece</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>Ivory Coast</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>Ivory Coast</t>
+        </is>
+      </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>['Chile', 'Netherlands']</t>
+          <t>['Colombia', 'Ivory Coast']</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>['Australia']</t>
+          <t>['Greece']</t>
         </is>
       </c>
       <c r="J99" t="n">
@@ -5748,17 +5738,17 @@
       </c>
       <c r="K99" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>Colombia</t>
         </is>
       </c>
       <c r="L99" t="inlineStr">
         <is>
-          <t>Chile</t>
+          <t>Ivory Coast</t>
         </is>
       </c>
       <c r="M99" t="inlineStr">
         <is>
-          <t>Australia</t>
+          <t>Greece</t>
         </is>
       </c>
     </row>
@@ -5772,24 +5762,34 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>0</v>
-      </c>
-      <c r="D100" t="inlineStr">
-        <is>
-          <t>initial</t>
-        </is>
-      </c>
-      <c r="E100" t="inlineStr"/>
-      <c r="F100" t="inlineStr"/>
-      <c r="G100" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="D100" t="n">
+        <v>93</v>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>Greece</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>Ivory Coast</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>Greece</t>
+        </is>
+      </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>['Ivory Coast', 'Colombia']</t>
+          <t>['Colombia', 'Greece']</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>['Japan']</t>
+          <t>['Ivory Coast']</t>
         </is>
       </c>
       <c r="J100" t="n">
@@ -5802,12 +5802,12 @@
       </c>
       <c r="L100" t="inlineStr">
         <is>
+          <t>Greece</t>
+        </is>
+      </c>
+      <c r="M100" t="inlineStr">
+        <is>
           <t>Ivory Coast</t>
-        </is>
-      </c>
-      <c r="M100" t="inlineStr">
-        <is>
-          <t>Japan</t>
         </is>
       </c>
     </row>
@@ -5817,38 +5817,28 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Group C</t>
+          <t>Group D</t>
         </is>
       </c>
       <c r="C101" t="n">
-        <v>1</v>
-      </c>
-      <c r="D101" t="n">
-        <v>42</v>
-      </c>
-      <c r="E101" t="inlineStr">
-        <is>
-          <t>Greece</t>
-        </is>
-      </c>
-      <c r="F101" t="inlineStr">
-        <is>
-          <t>Ivory Coast</t>
-        </is>
-      </c>
-      <c r="G101" t="inlineStr">
-        <is>
-          <t>Greece</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>initial</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr"/>
+      <c r="F101" t="inlineStr"/>
+      <c r="G101" t="inlineStr"/>
       <c r="H101" t="inlineStr">
         <is>
-          <t>['Greece', 'Colombia']</t>
+          <t>['Costa Rica', 'Italy']</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>['Ivory Coast']</t>
+          <t>['Uruguay']</t>
         </is>
       </c>
       <c r="J101" t="n">
@@ -5856,17 +5846,17 @@
       </c>
       <c r="K101" t="inlineStr">
         <is>
-          <t>Colombia</t>
+          <t>Costa Rica</t>
         </is>
       </c>
       <c r="L101" t="inlineStr">
         <is>
-          <t>Greece</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="M101" t="inlineStr">
         <is>
-          <t>Ivory Coast</t>
+          <t>Uruguay</t>
         </is>
       </c>
     </row>
@@ -5876,38 +5866,38 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Group C</t>
+          <t>Group D</t>
         </is>
       </c>
       <c r="C102" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D102" t="n">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>Greece</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>Ivory Coast</t>
+          <t>Uruguay</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>Ivory Coast</t>
+          <t>Uruguay</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>['Ivory Coast', 'Colombia']</t>
+          <t>['Uruguay', 'Costa Rica']</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>['Greece']</t>
+          <t>['Italy']</t>
         </is>
       </c>
       <c r="J102" t="n">
@@ -5915,17 +5905,17 @@
       </c>
       <c r="K102" t="inlineStr">
         <is>
-          <t>Colombia</t>
+          <t>Costa Rica</t>
         </is>
       </c>
       <c r="L102" t="inlineStr">
         <is>
-          <t>Ivory Coast</t>
+          <t>Uruguay</t>
         </is>
       </c>
       <c r="M102" t="inlineStr">
         <is>
-          <t>Greece</t>
+          <t>Italy</t>
         </is>
       </c>
     </row>
@@ -5935,38 +5925,28 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Group C</t>
+          <t>Group E</t>
         </is>
       </c>
       <c r="C103" t="n">
-        <v>3</v>
-      </c>
-      <c r="D103" t="n">
-        <v>93</v>
-      </c>
-      <c r="E103" t="inlineStr">
-        <is>
-          <t>Greece</t>
-        </is>
-      </c>
-      <c r="F103" t="inlineStr">
-        <is>
-          <t>Ivory Coast</t>
-        </is>
-      </c>
-      <c r="G103" t="inlineStr">
-        <is>
-          <t>Greece</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>initial</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr"/>
+      <c r="F103" t="inlineStr"/>
+      <c r="G103" t="inlineStr"/>
       <c r="H103" t="inlineStr">
         <is>
-          <t>['Greece', 'Colombia']</t>
+          <t>['France', 'Ecuador']</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>['Ivory Coast']</t>
+          <t>['Switzerland']</t>
         </is>
       </c>
       <c r="J103" t="n">
@@ -5974,17 +5954,17 @@
       </c>
       <c r="K103" t="inlineStr">
         <is>
-          <t>Colombia</t>
+          <t>France</t>
         </is>
       </c>
       <c r="L103" t="inlineStr">
         <is>
-          <t>Greece</t>
+          <t>Ecuador</t>
         </is>
       </c>
       <c r="M103" t="inlineStr">
         <is>
-          <t>Ivory Coast</t>
+          <t>Switzerland</t>
         </is>
       </c>
     </row>
@@ -5994,28 +5974,38 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Group D</t>
+          <t>Group E</t>
         </is>
       </c>
       <c r="C104" t="n">
-        <v>0</v>
-      </c>
-      <c r="D104" t="inlineStr">
-        <is>
-          <t>initial</t>
-        </is>
-      </c>
-      <c r="E104" t="inlineStr"/>
-      <c r="F104" t="inlineStr"/>
-      <c r="G104" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="D104" t="n">
+        <v>6</v>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>Honduras</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>Switzerland</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>Switzerland</t>
+        </is>
+      </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>['Costa Rica', 'Italy']</t>
+          <t>['France', 'Switzerland']</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>['Uruguay']</t>
+          <t>['Ecuador']</t>
         </is>
       </c>
       <c r="J104" t="n">
@@ -6023,17 +6013,17 @@
       </c>
       <c r="K104" t="inlineStr">
         <is>
-          <t>Costa Rica</t>
+          <t>France</t>
         </is>
       </c>
       <c r="L104" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Switzerland</t>
         </is>
       </c>
       <c r="M104" t="inlineStr">
         <is>
-          <t>Uruguay</t>
+          <t>Ecuador</t>
         </is>
       </c>
     </row>
@@ -6043,38 +6033,28 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Group D</t>
+          <t>Group F</t>
         </is>
       </c>
       <c r="C105" t="n">
-        <v>1</v>
-      </c>
-      <c r="D105" t="n">
-        <v>81</v>
-      </c>
-      <c r="E105" t="inlineStr">
-        <is>
-          <t>Italy</t>
-        </is>
-      </c>
-      <c r="F105" t="inlineStr">
-        <is>
-          <t>Uruguay</t>
-        </is>
-      </c>
-      <c r="G105" t="inlineStr">
-        <is>
-          <t>Uruguay</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>initial</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr"/>
+      <c r="F105" t="inlineStr"/>
+      <c r="G105" t="inlineStr"/>
       <c r="H105" t="inlineStr">
         <is>
-          <t>['Costa Rica', 'Uruguay']</t>
+          <t>['Argentina', 'Nigeria']</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>['Italy']</t>
+          <t>['Iran']</t>
         </is>
       </c>
       <c r="J105" t="n">
@@ -6082,17 +6062,17 @@
       </c>
       <c r="K105" t="inlineStr">
         <is>
-          <t>Costa Rica</t>
+          <t>Argentina</t>
         </is>
       </c>
       <c r="L105" t="inlineStr">
         <is>
-          <t>Uruguay</t>
+          <t>Nigeria</t>
         </is>
       </c>
       <c r="M105" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Iran</t>
         </is>
       </c>
     </row>
@@ -6102,7 +6082,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Group E</t>
+          <t>Group G</t>
         </is>
       </c>
       <c r="C106" t="n">
@@ -6118,12 +6098,12 @@
       <c r="G106" t="inlineStr"/>
       <c r="H106" t="inlineStr">
         <is>
-          <t>['Ecuador', 'France']</t>
+          <t>['United States', 'Germany']</t>
         </is>
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>['Switzerland']</t>
+          <t>['Ghana']</t>
         </is>
       </c>
       <c r="J106" t="n">
@@ -6131,17 +6111,17 @@
       </c>
       <c r="K106" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="L106" t="inlineStr">
         <is>
-          <t>Ecuador</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="M106" t="inlineStr">
         <is>
-          <t>Switzerland</t>
+          <t>Ghana</t>
         </is>
       </c>
     </row>
@@ -6151,38 +6131,28 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Group E</t>
+          <t>Group H</t>
         </is>
       </c>
       <c r="C107" t="n">
-        <v>1</v>
-      </c>
-      <c r="D107" t="n">
-        <v>6</v>
-      </c>
-      <c r="E107" t="inlineStr">
-        <is>
-          <t>Honduras</t>
-        </is>
-      </c>
-      <c r="F107" t="inlineStr">
-        <is>
-          <t>Switzerland</t>
-        </is>
-      </c>
-      <c r="G107" t="inlineStr">
-        <is>
-          <t>Switzerland</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>initial</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr"/>
+      <c r="F107" t="inlineStr"/>
+      <c r="G107" t="inlineStr"/>
       <c r="H107" t="inlineStr">
         <is>
-          <t>['Switzerland', 'France']</t>
+          <t>['Belgium', 'Algeria']</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>['Ecuador']</t>
+          <t>['Russia']</t>
         </is>
       </c>
       <c r="J107" t="n">
@@ -6190,17 +6160,17 @@
       </c>
       <c r="K107" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Belgium</t>
         </is>
       </c>
       <c r="L107" t="inlineStr">
         <is>
-          <t>Switzerland</t>
+          <t>Algeria</t>
         </is>
       </c>
       <c r="M107" t="inlineStr">
         <is>
-          <t>Ecuador</t>
+          <t>Russia</t>
         </is>
       </c>
     </row>
@@ -6210,28 +6180,38 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Group F</t>
+          <t>Group H</t>
         </is>
       </c>
       <c r="C108" t="n">
-        <v>0</v>
-      </c>
-      <c r="D108" t="inlineStr">
-        <is>
-          <t>initial</t>
-        </is>
-      </c>
-      <c r="E108" t="inlineStr"/>
-      <c r="F108" t="inlineStr"/>
-      <c r="G108" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="D108" t="n">
+        <v>6</v>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>Algeria</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>Russia</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>Russia</t>
+        </is>
+      </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>['Argentina', 'Nigeria']</t>
+          <t>['Russia', 'Belgium']</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>['Bosnia and Herzegovina']</t>
+          <t>['Algeria']</t>
         </is>
       </c>
       <c r="J108" t="n">
@@ -6239,17 +6219,17 @@
       </c>
       <c r="K108" t="inlineStr">
         <is>
-          <t>Argentina</t>
+          <t>Belgium</t>
         </is>
       </c>
       <c r="L108" t="inlineStr">
         <is>
-          <t>Nigeria</t>
+          <t>Russia</t>
         </is>
       </c>
       <c r="M108" t="inlineStr">
         <is>
-          <t>Bosnia and Herzegovina</t>
+          <t>Algeria</t>
         </is>
       </c>
     </row>
@@ -6259,38 +6239,38 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Group F</t>
+          <t>Group H</t>
         </is>
       </c>
       <c r="C109" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D109" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>Bosnia and Herzegovina</t>
+          <t>Algeria</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>Iran</t>
+          <t>Russia</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>Bosnia and Herzegovina</t>
+          <t>Algeria</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>['Argentina', 'Bosnia and Herzegovina']</t>
+          <t>['Belgium', 'Algeria']</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>['Nigeria']</t>
+          <t>['Russia']</t>
         </is>
       </c>
       <c r="J109" t="n">
@@ -6298,27 +6278,27 @@
       </c>
       <c r="K109" t="inlineStr">
         <is>
-          <t>Argentina</t>
+          <t>Belgium</t>
         </is>
       </c>
       <c r="L109" t="inlineStr">
         <is>
-          <t>Bosnia and Herzegovina</t>
+          <t>Algeria</t>
         </is>
       </c>
       <c r="M109" t="inlineStr">
         <is>
-          <t>Nigeria</t>
+          <t>Russia</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>2014</v>
+        <v>2018</v>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Group G</t>
+          <t>Group A</t>
         </is>
       </c>
       <c r="C110" t="n">
@@ -6334,12 +6314,12 @@
       <c r="G110" t="inlineStr"/>
       <c r="H110" t="inlineStr">
         <is>
-          <t>['United States', 'Germany']</t>
+          <t>['Russia', 'Uruguay']</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>['Ghana']</t>
+          <t>['Egypt']</t>
         </is>
       </c>
       <c r="J110" t="n">
@@ -6347,27 +6327,27 @@
       </c>
       <c r="K110" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Russia</t>
         </is>
       </c>
       <c r="L110" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>Uruguay</t>
         </is>
       </c>
       <c r="M110" t="inlineStr">
         <is>
-          <t>Ghana</t>
+          <t>Egypt</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>2014</v>
+        <v>2018</v>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Group H</t>
+          <t>Group B</t>
         </is>
       </c>
       <c r="C111" t="n">
@@ -6383,12 +6363,12 @@
       <c r="G111" t="inlineStr"/>
       <c r="H111" t="inlineStr">
         <is>
-          <t>['Algeria', 'Belgium']</t>
+          <t>['Spain', 'Portugal']</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>['Russia']</t>
+          <t>['Iran']</t>
         </is>
       </c>
       <c r="J111" t="n">
@@ -6396,58 +6376,48 @@
       </c>
       <c r="K111" t="inlineStr">
         <is>
-          <t>Belgium</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="L111" t="inlineStr">
         <is>
-          <t>Algeria</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="M111" t="inlineStr">
         <is>
-          <t>Russia</t>
+          <t>Iran</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>2014</v>
+        <v>2018</v>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Group H</t>
+          <t>Group C</t>
         </is>
       </c>
       <c r="C112" t="n">
-        <v>1</v>
-      </c>
-      <c r="D112" t="n">
-        <v>6</v>
-      </c>
-      <c r="E112" t="inlineStr">
-        <is>
-          <t>Algeria</t>
-        </is>
-      </c>
-      <c r="F112" t="inlineStr">
-        <is>
-          <t>Russia</t>
-        </is>
-      </c>
-      <c r="G112" t="inlineStr">
-        <is>
-          <t>Russia</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>initial</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr"/>
+      <c r="F112" t="inlineStr"/>
+      <c r="G112" t="inlineStr"/>
       <c r="H112" t="inlineStr">
         <is>
-          <t>['Russia', 'Belgium']</t>
+          <t>['France', 'Denmark']</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>['Algeria']</t>
+          <t>['Australia']</t>
         </is>
       </c>
       <c r="J112" t="n">
@@ -6455,58 +6425,48 @@
       </c>
       <c r="K112" t="inlineStr">
         <is>
-          <t>Belgium</t>
+          <t>France</t>
         </is>
       </c>
       <c r="L112" t="inlineStr">
         <is>
-          <t>Russia</t>
+          <t>Denmark</t>
         </is>
       </c>
       <c r="M112" t="inlineStr">
         <is>
-          <t>Algeria</t>
+          <t>Australia</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>2014</v>
+        <v>2018</v>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Group H</t>
+          <t>Group D</t>
         </is>
       </c>
       <c r="C113" t="n">
-        <v>2</v>
-      </c>
-      <c r="D113" t="n">
-        <v>60</v>
-      </c>
-      <c r="E113" t="inlineStr">
-        <is>
-          <t>Algeria</t>
-        </is>
-      </c>
-      <c r="F113" t="inlineStr">
-        <is>
-          <t>Russia</t>
-        </is>
-      </c>
-      <c r="G113" t="inlineStr">
-        <is>
-          <t>Algeria</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>initial</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr"/>
+      <c r="F113" t="inlineStr"/>
+      <c r="G113" t="inlineStr"/>
       <c r="H113" t="inlineStr">
         <is>
-          <t>['Algeria', 'Belgium']</t>
+          <t>['Croatia', 'Nigeria']</t>
         </is>
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>['Russia']</t>
+          <t>['Iceland']</t>
         </is>
       </c>
       <c r="J113" t="n">
@@ -6514,17 +6474,17 @@
       </c>
       <c r="K113" t="inlineStr">
         <is>
-          <t>Belgium</t>
+          <t>Croatia</t>
         </is>
       </c>
       <c r="L113" t="inlineStr">
         <is>
-          <t>Algeria</t>
+          <t>Nigeria</t>
         </is>
       </c>
       <c r="M113" t="inlineStr">
         <is>
-          <t>Russia</t>
+          <t>Iceland</t>
         </is>
       </c>
     </row>
@@ -6534,28 +6494,38 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Group A</t>
+          <t>Group D</t>
         </is>
       </c>
       <c r="C114" t="n">
-        <v>0</v>
-      </c>
-      <c r="D114" t="inlineStr">
-        <is>
-          <t>initial</t>
-        </is>
-      </c>
-      <c r="E114" t="inlineStr"/>
-      <c r="F114" t="inlineStr"/>
-      <c r="G114" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="D114" t="n">
+        <v>14</v>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>Nigeria</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>Argentina</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>Argentina</t>
+        </is>
+      </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>['Uruguay', 'Russia']</t>
+          <t>['Croatia', 'Argentina']</t>
         </is>
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>['Egypt']</t>
+          <t>['Nigeria']</t>
         </is>
       </c>
       <c r="J114" t="n">
@@ -6563,17 +6533,17 @@
       </c>
       <c r="K114" t="inlineStr">
         <is>
-          <t>Russia</t>
+          <t>Croatia</t>
         </is>
       </c>
       <c r="L114" t="inlineStr">
         <is>
-          <t>Uruguay</t>
+          <t>Argentina</t>
         </is>
       </c>
       <c r="M114" t="inlineStr">
         <is>
-          <t>Egypt</t>
+          <t>Nigeria</t>
         </is>
       </c>
     </row>
@@ -6583,28 +6553,38 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Group B</t>
+          <t>Group D</t>
         </is>
       </c>
       <c r="C115" t="n">
-        <v>0</v>
-      </c>
-      <c r="D115" t="inlineStr">
-        <is>
-          <t>initial</t>
-        </is>
-      </c>
-      <c r="E115" t="inlineStr"/>
-      <c r="F115" t="inlineStr"/>
-      <c r="G115" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="D115" t="n">
+        <v>51</v>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>Nigeria</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>Argentina</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>Nigeria</t>
+        </is>
+      </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>['Portugal', 'Spain']</t>
+          <t>['Croatia', 'Nigeria']</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>['Morocco']</t>
+          <t>['Iceland']</t>
         </is>
       </c>
       <c r="J115" t="n">
@@ -6612,17 +6592,17 @@
       </c>
       <c r="K115" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Croatia</t>
         </is>
       </c>
       <c r="L115" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>Nigeria</t>
         </is>
       </c>
       <c r="M115" t="inlineStr">
         <is>
-          <t>Morocco</t>
+          <t>Iceland</t>
         </is>
       </c>
     </row>
@@ -6632,28 +6612,38 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Group C</t>
+          <t>Group D</t>
         </is>
       </c>
       <c r="C116" t="n">
-        <v>0</v>
-      </c>
-      <c r="D116" t="inlineStr">
-        <is>
-          <t>initial</t>
-        </is>
-      </c>
-      <c r="E116" t="inlineStr"/>
-      <c r="F116" t="inlineStr"/>
-      <c r="G116" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="D116" t="n">
+        <v>86</v>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>Nigeria</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>Argentina</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>Argentina</t>
+        </is>
+      </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>['Denmark', 'France']</t>
+          <t>['Croatia', 'Argentina']</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>['Australia']</t>
+          <t>['Nigeria']</t>
         </is>
       </c>
       <c r="J116" t="n">
@@ -6661,17 +6651,17 @@
       </c>
       <c r="K116" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Croatia</t>
         </is>
       </c>
       <c r="L116" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Argentina</t>
         </is>
       </c>
       <c r="M116" t="inlineStr">
         <is>
-          <t>Australia</t>
+          <t>Nigeria</t>
         </is>
       </c>
     </row>
@@ -6681,7 +6671,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Group D</t>
+          <t>Group E</t>
         </is>
       </c>
       <c r="C117" t="n">
@@ -6697,12 +6687,12 @@
       <c r="G117" t="inlineStr"/>
       <c r="H117" t="inlineStr">
         <is>
-          <t>['Nigeria', 'Croatia']</t>
+          <t>['Brazil', 'Switzerland']</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>['Iceland']</t>
+          <t>['Serbia']</t>
         </is>
       </c>
       <c r="J117" t="n">
@@ -6710,17 +6700,17 @@
       </c>
       <c r="K117" t="inlineStr">
         <is>
-          <t>Croatia</t>
+          <t>Brazil</t>
         </is>
       </c>
       <c r="L117" t="inlineStr">
         <is>
-          <t>Nigeria</t>
+          <t>Switzerland</t>
         </is>
       </c>
       <c r="M117" t="inlineStr">
         <is>
-          <t>Iceland</t>
+          <t>Serbia</t>
         </is>
       </c>
     </row>
@@ -6730,38 +6720,28 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Group D</t>
+          <t>Group F</t>
         </is>
       </c>
       <c r="C118" t="n">
-        <v>1</v>
-      </c>
-      <c r="D118" t="n">
-        <v>14</v>
-      </c>
-      <c r="E118" t="inlineStr">
-        <is>
-          <t>Nigeria</t>
-        </is>
-      </c>
-      <c r="F118" t="inlineStr">
-        <is>
-          <t>Argentina</t>
-        </is>
-      </c>
-      <c r="G118" t="inlineStr">
-        <is>
-          <t>Argentina</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>initial</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr"/>
+      <c r="F118" t="inlineStr"/>
+      <c r="G118" t="inlineStr"/>
       <c r="H118" t="inlineStr">
         <is>
-          <t>['Argentina', 'Croatia']</t>
+          <t>['Mexico', 'Germany']</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>['Nigeria']</t>
+          <t>['Sweden']</t>
         </is>
       </c>
       <c r="J118" t="n">
@@ -6769,17 +6749,17 @@
       </c>
       <c r="K118" t="inlineStr">
         <is>
-          <t>Croatia</t>
+          <t>Mexico</t>
         </is>
       </c>
       <c r="L118" t="inlineStr">
         <is>
-          <t>Argentina</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="M118" t="inlineStr">
         <is>
-          <t>Nigeria</t>
+          <t>Sweden</t>
         </is>
       </c>
     </row>
@@ -6789,38 +6769,38 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Group D</t>
+          <t>Group F</t>
         </is>
       </c>
       <c r="C119" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D119" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>Nigeria</t>
+          <t>Mexico</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>Argentina</t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>Nigeria</t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>['Nigeria', 'Croatia']</t>
+          <t>['Sweden', 'Mexico']</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>['Iceland']</t>
+          <t>['Germany']</t>
         </is>
       </c>
       <c r="J119" t="n">
@@ -6828,17 +6808,17 @@
       </c>
       <c r="K119" t="inlineStr">
         <is>
-          <t>Croatia</t>
+          <t>Mexico</t>
         </is>
       </c>
       <c r="L119" t="inlineStr">
         <is>
-          <t>Nigeria</t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="M119" t="inlineStr">
         <is>
-          <t>Iceland</t>
+          <t>Germany</t>
         </is>
       </c>
     </row>
@@ -6848,38 +6828,28 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Group D</t>
+          <t>Group G</t>
         </is>
       </c>
       <c r="C120" t="n">
-        <v>3</v>
-      </c>
-      <c r="D120" t="n">
-        <v>86</v>
-      </c>
-      <c r="E120" t="inlineStr">
-        <is>
-          <t>Nigeria</t>
-        </is>
-      </c>
-      <c r="F120" t="inlineStr">
-        <is>
-          <t>Argentina</t>
-        </is>
-      </c>
-      <c r="G120" t="inlineStr">
-        <is>
-          <t>Argentina</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>initial</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr"/>
+      <c r="F120" t="inlineStr"/>
+      <c r="G120" t="inlineStr"/>
       <c r="H120" t="inlineStr">
         <is>
-          <t>['Argentina', 'Croatia']</t>
+          <t>['Belgium', 'England']</t>
         </is>
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>['Nigeria']</t>
+          <t>['Tunisia']</t>
         </is>
       </c>
       <c r="J120" t="n">
@@ -6887,17 +6857,17 @@
       </c>
       <c r="K120" t="inlineStr">
         <is>
-          <t>Croatia</t>
+          <t>Belgium</t>
         </is>
       </c>
       <c r="L120" t="inlineStr">
         <is>
-          <t>Argentina</t>
+          <t>England</t>
         </is>
       </c>
       <c r="M120" t="inlineStr">
         <is>
-          <t>Nigeria</t>
+          <t>Tunisia</t>
         </is>
       </c>
     </row>
@@ -6907,7 +6877,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Group E</t>
+          <t>Group H</t>
         </is>
       </c>
       <c r="C121" t="n">
@@ -6923,12 +6893,12 @@
       <c r="G121" t="inlineStr"/>
       <c r="H121" t="inlineStr">
         <is>
-          <t>['Brazil', 'Switzerland']</t>
+          <t>['Japan', 'Senegal']</t>
         </is>
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>['Serbia']</t>
+          <t>['Colombia']</t>
         </is>
       </c>
       <c r="J121" t="n">
@@ -6936,17 +6906,17 @@
       </c>
       <c r="K121" t="inlineStr">
         <is>
-          <t>Brazil</t>
+          <t>Japan</t>
         </is>
       </c>
       <c r="L121" t="inlineStr">
         <is>
-          <t>Switzerland</t>
+          <t>Senegal</t>
         </is>
       </c>
       <c r="M121" t="inlineStr">
         <is>
-          <t>Serbia</t>
+          <t>Colombia</t>
         </is>
       </c>
     </row>
@@ -6956,28 +6926,38 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Group F</t>
+          <t>Group H</t>
         </is>
       </c>
       <c r="C122" t="n">
-        <v>0</v>
-      </c>
-      <c r="D122" t="inlineStr">
-        <is>
-          <t>initial</t>
-        </is>
-      </c>
-      <c r="E122" t="inlineStr"/>
-      <c r="F122" t="inlineStr"/>
-      <c r="G122" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="D122" t="n">
+        <v>59</v>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>Japan</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>Poland</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>Poland</t>
+        </is>
+      </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>['Mexico', 'Germany']</t>
+          <t>['Colombia', 'Senegal']</t>
         </is>
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>['Sweden']</t>
+          <t>['Japan']</t>
         </is>
       </c>
       <c r="J122" t="n">
@@ -6985,58 +6965,48 @@
       </c>
       <c r="K122" t="inlineStr">
         <is>
-          <t>Mexico</t>
+          <t>Senegal</t>
         </is>
       </c>
       <c r="L122" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Colombia</t>
         </is>
       </c>
       <c r="M122" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>Japan</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>2018</v>
+        <v>2022</v>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Group F</t>
+          <t>Group A</t>
         </is>
       </c>
       <c r="C123" t="n">
-        <v>1</v>
-      </c>
-      <c r="D123" t="n">
-        <v>50</v>
-      </c>
-      <c r="E123" t="inlineStr">
-        <is>
-          <t>Mexico</t>
-        </is>
-      </c>
-      <c r="F123" t="inlineStr">
-        <is>
-          <t>Sweden</t>
-        </is>
-      </c>
-      <c r="G123" t="inlineStr">
-        <is>
-          <t>Sweden</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>initial</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr"/>
+      <c r="F123" t="inlineStr"/>
+      <c r="G123" t="inlineStr"/>
       <c r="H123" t="inlineStr">
         <is>
-          <t>['Mexico', 'Sweden']</t>
+          <t>['Netherlands', 'Ecuador']</t>
         </is>
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>['Germany']</t>
+          <t>['Senegal']</t>
         </is>
       </c>
       <c r="J123" t="n">
@@ -7044,48 +7014,58 @@
       </c>
       <c r="K123" t="inlineStr">
         <is>
-          <t>Mexico</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="L123" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>Ecuador</t>
         </is>
       </c>
       <c r="M123" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Senegal</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>2018</v>
+        <v>2022</v>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Group G</t>
+          <t>Group A</t>
         </is>
       </c>
       <c r="C124" t="n">
-        <v>0</v>
-      </c>
-      <c r="D124" t="inlineStr">
-        <is>
-          <t>initial</t>
-        </is>
-      </c>
-      <c r="E124" t="inlineStr"/>
-      <c r="F124" t="inlineStr"/>
-      <c r="G124" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="D124" t="n">
+        <v>44</v>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>Ecuador</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>Senegal</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>Senegal</t>
+        </is>
+      </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>['England', 'Belgium']</t>
+          <t>['Netherlands', 'Senegal']</t>
         </is>
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>['Tunisia']</t>
+          <t>['Ecuador']</t>
         </is>
       </c>
       <c r="J124" t="n">
@@ -7093,43 +7073,53 @@
       </c>
       <c r="K124" t="inlineStr">
         <is>
-          <t>Belgium</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="L124" t="inlineStr">
         <is>
-          <t>England</t>
+          <t>Senegal</t>
         </is>
       </c>
       <c r="M124" t="inlineStr">
         <is>
-          <t>Tunisia</t>
+          <t>Ecuador</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>2018</v>
+        <v>2022</v>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Group H</t>
+          <t>Group A</t>
         </is>
       </c>
       <c r="C125" t="n">
-        <v>0</v>
-      </c>
-      <c r="D125" t="inlineStr">
-        <is>
-          <t>initial</t>
-        </is>
-      </c>
-      <c r="E125" t="inlineStr"/>
-      <c r="F125" t="inlineStr"/>
-      <c r="G125" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="D125" t="n">
+        <v>67</v>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>Ecuador</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>Senegal</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>Ecuador</t>
+        </is>
+      </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>['Japan', 'Colombia']</t>
+          <t>['Netherlands', 'Ecuador']</t>
         </is>
       </c>
       <c r="I125" t="inlineStr">
@@ -7142,12 +7132,12 @@
       </c>
       <c r="K125" t="inlineStr">
         <is>
-          <t>Japan</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="L125" t="inlineStr">
         <is>
-          <t>Colombia</t>
+          <t>Ecuador</t>
         </is>
       </c>
       <c r="M125" t="inlineStr">
@@ -7166,24 +7156,34 @@
         </is>
       </c>
       <c r="C126" t="n">
-        <v>0</v>
-      </c>
-      <c r="D126" t="inlineStr">
-        <is>
-          <t>initial</t>
-        </is>
-      </c>
-      <c r="E126" t="inlineStr"/>
-      <c r="F126" t="inlineStr"/>
-      <c r="G126" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="D126" t="n">
+        <v>70</v>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>Ecuador</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>Senegal</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>Senegal</t>
+        </is>
+      </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>['Ecuador', 'Netherlands']</t>
+          <t>['Netherlands', 'Senegal']</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>['Senegal']</t>
+          <t>['Ecuador']</t>
         </is>
       </c>
       <c r="J126" t="n">
@@ -7196,12 +7196,12 @@
       </c>
       <c r="L126" t="inlineStr">
         <is>
+          <t>Senegal</t>
+        </is>
+      </c>
+      <c r="M126" t="inlineStr">
+        <is>
           <t>Ecuador</t>
-        </is>
-      </c>
-      <c r="M126" t="inlineStr">
-        <is>
-          <t>Senegal</t>
         </is>
       </c>
     </row>
@@ -7211,38 +7211,28 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Group A</t>
+          <t>Group B</t>
         </is>
       </c>
       <c r="C127" t="n">
-        <v>1</v>
-      </c>
-      <c r="D127" t="n">
-        <v>44</v>
-      </c>
-      <c r="E127" t="inlineStr">
-        <is>
-          <t>Ecuador</t>
-        </is>
-      </c>
-      <c r="F127" t="inlineStr">
-        <is>
-          <t>Senegal</t>
-        </is>
-      </c>
-      <c r="G127" t="inlineStr">
-        <is>
-          <t>Senegal</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>initial</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr"/>
+      <c r="F127" t="inlineStr"/>
+      <c r="G127" t="inlineStr"/>
       <c r="H127" t="inlineStr">
         <is>
-          <t>['Senegal', 'Netherlands']</t>
+          <t>['Iran', 'England']</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>['Ecuador']</t>
+          <t>['United States']</t>
         </is>
       </c>
       <c r="J127" t="n">
@@ -7250,17 +7240,17 @@
       </c>
       <c r="K127" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>England</t>
         </is>
       </c>
       <c r="L127" t="inlineStr">
         <is>
-          <t>Senegal</t>
+          <t>Iran</t>
         </is>
       </c>
       <c r="M127" t="inlineStr">
         <is>
-          <t>Ecuador</t>
+          <t>United States</t>
         </is>
       </c>
     </row>
@@ -7270,38 +7260,38 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Group A</t>
+          <t>Group B</t>
         </is>
       </c>
       <c r="C128" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D128" t="n">
-        <v>67</v>
+        <v>38</v>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>Ecuador</t>
+          <t>Iran</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>Senegal</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>Ecuador</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>['Ecuador', 'Netherlands']</t>
+          <t>['United States', 'England']</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>['Senegal']</t>
+          <t>['Iran']</t>
         </is>
       </c>
       <c r="J128" t="n">
@@ -7309,17 +7299,17 @@
       </c>
       <c r="K128" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>England</t>
         </is>
       </c>
       <c r="L128" t="inlineStr">
         <is>
-          <t>Ecuador</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="M128" t="inlineStr">
         <is>
-          <t>Senegal</t>
+          <t>Iran</t>
         </is>
       </c>
     </row>
@@ -7329,38 +7319,28 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Group A</t>
+          <t>Group C</t>
         </is>
       </c>
       <c r="C129" t="n">
-        <v>3</v>
-      </c>
-      <c r="D129" t="n">
-        <v>70</v>
-      </c>
-      <c r="E129" t="inlineStr">
-        <is>
-          <t>Ecuador</t>
-        </is>
-      </c>
-      <c r="F129" t="inlineStr">
-        <is>
-          <t>Senegal</t>
-        </is>
-      </c>
-      <c r="G129" t="inlineStr">
-        <is>
-          <t>Senegal</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>initial</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr"/>
+      <c r="F129" t="inlineStr"/>
+      <c r="G129" t="inlineStr"/>
       <c r="H129" t="inlineStr">
         <is>
-          <t>['Senegal', 'Netherlands']</t>
+          <t>['Argentina', 'Poland']</t>
         </is>
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>['Ecuador']</t>
+          <t>['Saudi Arabia']</t>
         </is>
       </c>
       <c r="J129" t="n">
@@ -7368,17 +7348,17 @@
       </c>
       <c r="K129" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>Poland</t>
         </is>
       </c>
       <c r="L129" t="inlineStr">
         <is>
-          <t>Senegal</t>
+          <t>Argentina</t>
         </is>
       </c>
       <c r="M129" t="inlineStr">
         <is>
-          <t>Ecuador</t>
+          <t>Saudi Arabia</t>
         </is>
       </c>
     </row>
@@ -7388,7 +7368,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Group B</t>
+          <t>Group D</t>
         </is>
       </c>
       <c r="C130" t="n">
@@ -7404,12 +7384,12 @@
       <c r="G130" t="inlineStr"/>
       <c r="H130" t="inlineStr">
         <is>
-          <t>['Iran', 'England']</t>
+          <t>['Australia', 'France']</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>['United States']</t>
+          <t>['Denmark']</t>
         </is>
       </c>
       <c r="J130" t="n">
@@ -7417,17 +7397,17 @@
       </c>
       <c r="K130" t="inlineStr">
         <is>
-          <t>England</t>
+          <t>France</t>
         </is>
       </c>
       <c r="L130" t="inlineStr">
         <is>
-          <t>Iran</t>
+          <t>Australia</t>
         </is>
       </c>
       <c r="M130" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>Denmark</t>
         </is>
       </c>
     </row>
@@ -7437,38 +7417,38 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Group B</t>
+          <t>Group D</t>
         </is>
       </c>
       <c r="C131" t="n">
         <v>1</v>
       </c>
       <c r="D131" t="n">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>Iran</t>
+          <t>Tunisia</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>France</t>
         </is>
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>Tunisia</t>
         </is>
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>['United States', 'England']</t>
+          <t>['Tunisia', 'France']</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>['Iran']</t>
+          <t>['Australia']</t>
         </is>
       </c>
       <c r="J131" t="n">
@@ -7476,17 +7456,17 @@
       </c>
       <c r="K131" t="inlineStr">
         <is>
-          <t>England</t>
+          <t>France</t>
         </is>
       </c>
       <c r="L131" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>Tunisia</t>
         </is>
       </c>
       <c r="M131" t="inlineStr">
         <is>
-          <t>Iran</t>
+          <t>Australia</t>
         </is>
       </c>
     </row>
@@ -7496,28 +7476,38 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Group C</t>
+          <t>Group D</t>
         </is>
       </c>
       <c r="C132" t="n">
-        <v>0</v>
-      </c>
-      <c r="D132" t="inlineStr">
-        <is>
-          <t>initial</t>
-        </is>
-      </c>
-      <c r="E132" t="inlineStr"/>
-      <c r="F132" t="inlineStr"/>
-      <c r="G132" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="D132" t="n">
+        <v>60</v>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>Australia</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>Australia</t>
+        </is>
+      </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>['Poland', 'Argentina']</t>
+          <t>['Australia', 'France']</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>['Saudi Arabia']</t>
+          <t>['Tunisia']</t>
         </is>
       </c>
       <c r="J132" t="n">
@@ -7525,17 +7515,17 @@
       </c>
       <c r="K132" t="inlineStr">
         <is>
-          <t>Poland</t>
+          <t>France</t>
         </is>
       </c>
       <c r="L132" t="inlineStr">
         <is>
-          <t>Argentina</t>
+          <t>Australia</t>
         </is>
       </c>
       <c r="M132" t="inlineStr">
         <is>
-          <t>Saudi Arabia</t>
+          <t>Tunisia</t>
         </is>
       </c>
     </row>
@@ -7545,7 +7535,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Group D</t>
+          <t>Group E</t>
         </is>
       </c>
       <c r="C133" t="n">
@@ -7561,12 +7551,12 @@
       <c r="G133" t="inlineStr"/>
       <c r="H133" t="inlineStr">
         <is>
-          <t>['France', 'Australia']</t>
+          <t>['Japan', 'Spain']</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>['Denmark']</t>
+          <t>['Costa Rica']</t>
         </is>
       </c>
       <c r="J133" t="n">
@@ -7574,17 +7564,17 @@
       </c>
       <c r="K133" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="L133" t="inlineStr">
         <is>
-          <t>Australia</t>
+          <t>Japan</t>
         </is>
       </c>
       <c r="M133" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Costa Rica</t>
         </is>
       </c>
     </row>
@@ -7594,38 +7584,38 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Group D</t>
+          <t>Group E</t>
         </is>
       </c>
       <c r="C134" t="n">
         <v>1</v>
       </c>
       <c r="D134" t="n">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>Tunisia</t>
+          <t>Costa Rica</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>Tunisia</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>['Tunisia', 'France']</t>
+          <t>['Spain', 'Germany']</t>
         </is>
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>['Australia']</t>
+          <t>['Japan']</t>
         </is>
       </c>
       <c r="J134" t="n">
@@ -7633,17 +7623,17 @@
       </c>
       <c r="K134" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="L134" t="inlineStr">
         <is>
-          <t>Tunisia</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="M134" t="inlineStr">
         <is>
-          <t>Australia</t>
+          <t>Japan</t>
         </is>
       </c>
     </row>
@@ -7653,38 +7643,38 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Group D</t>
+          <t>Group E</t>
         </is>
       </c>
       <c r="C135" t="n">
         <v>2</v>
       </c>
       <c r="D135" t="n">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>Australia</t>
+          <t>Japan</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>Australia</t>
+          <t>Japan</t>
         </is>
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>['France', 'Australia']</t>
+          <t>['Japan', 'Spain']</t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>['Tunisia']</t>
+          <t>['Germany']</t>
         </is>
       </c>
       <c r="J135" t="n">
@@ -7692,17 +7682,17 @@
       </c>
       <c r="K135" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Japan</t>
         </is>
       </c>
       <c r="L135" t="inlineStr">
         <is>
-          <t>Australia</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="M135" t="inlineStr">
         <is>
-          <t>Tunisia</t>
+          <t>Germany</t>
         </is>
       </c>
     </row>
@@ -7716,24 +7706,34 @@
         </is>
       </c>
       <c r="C136" t="n">
-        <v>0</v>
-      </c>
-      <c r="D136" t="inlineStr">
-        <is>
-          <t>initial</t>
-        </is>
-      </c>
-      <c r="E136" t="inlineStr"/>
-      <c r="F136" t="inlineStr"/>
-      <c r="G136" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="D136" t="n">
+        <v>70</v>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>Costa Rica</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>Costa Rica</t>
+        </is>
+      </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>['Japan', 'Spain']</t>
+          <t>['Japan', 'Costa Rica']</t>
         </is>
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>['Costa Rica']</t>
+          <t>['Spain']</t>
         </is>
       </c>
       <c r="J136" t="n">
@@ -7741,17 +7741,17 @@
       </c>
       <c r="K136" t="inlineStr">
         <is>
+          <t>Japan</t>
+        </is>
+      </c>
+      <c r="L136" t="inlineStr">
+        <is>
+          <t>Costa Rica</t>
+        </is>
+      </c>
+      <c r="M136" t="inlineStr">
+        <is>
           <t>Spain</t>
-        </is>
-      </c>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>Japan</t>
-        </is>
-      </c>
-      <c r="M136" t="inlineStr">
-        <is>
-          <t>Costa Rica</t>
         </is>
       </c>
     </row>
@@ -7765,10 +7765,10 @@
         </is>
       </c>
       <c r="C137" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D137" t="n">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="E137" t="inlineStr">
         <is>
@@ -7787,12 +7787,12 @@
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>['Germany', 'Spain']</t>
+          <t>['Japan', 'Spain']</t>
         </is>
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>['Japan']</t>
+          <t>['Costa Rica']</t>
         </is>
       </c>
       <c r="J137" t="n">
@@ -7800,17 +7800,17 @@
       </c>
       <c r="K137" t="inlineStr">
         <is>
+          <t>Japan</t>
+        </is>
+      </c>
+      <c r="L137" t="inlineStr">
+        <is>
           <t>Spain</t>
         </is>
       </c>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>Germany</t>
-        </is>
-      </c>
       <c r="M137" t="inlineStr">
         <is>
-          <t>Japan</t>
+          <t>Costa Rica</t>
         </is>
       </c>
     </row>
@@ -7820,38 +7820,28 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Group E</t>
+          <t>Group F</t>
         </is>
       </c>
       <c r="C138" t="n">
-        <v>2</v>
-      </c>
-      <c r="D138" t="n">
-        <v>51</v>
-      </c>
-      <c r="E138" t="inlineStr">
-        <is>
-          <t>Japan</t>
-        </is>
-      </c>
-      <c r="F138" t="inlineStr">
-        <is>
-          <t>Spain</t>
-        </is>
-      </c>
-      <c r="G138" t="inlineStr">
-        <is>
-          <t>Japan</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>initial</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr"/>
+      <c r="F138" t="inlineStr"/>
+      <c r="G138" t="inlineStr"/>
       <c r="H138" t="inlineStr">
         <is>
-          <t>['Japan', 'Spain']</t>
+          <t>['Croatia', 'Morocco']</t>
         </is>
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>['Germany']</t>
+          <t>['Belgium']</t>
         </is>
       </c>
       <c r="J138" t="n">
@@ -7859,17 +7849,17 @@
       </c>
       <c r="K138" t="inlineStr">
         <is>
-          <t>Japan</t>
+          <t>Croatia</t>
         </is>
       </c>
       <c r="L138" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>Morocco</t>
         </is>
       </c>
       <c r="M138" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Belgium</t>
         </is>
       </c>
     </row>
@@ -7879,38 +7869,28 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Group E</t>
+          <t>Group G</t>
         </is>
       </c>
       <c r="C139" t="n">
-        <v>3</v>
-      </c>
-      <c r="D139" t="n">
-        <v>70</v>
-      </c>
-      <c r="E139" t="inlineStr">
-        <is>
-          <t>Costa Rica</t>
-        </is>
-      </c>
-      <c r="F139" t="inlineStr">
-        <is>
-          <t>Germany</t>
-        </is>
-      </c>
-      <c r="G139" t="inlineStr">
-        <is>
-          <t>Costa Rica</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>initial</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr"/>
+      <c r="F139" t="inlineStr"/>
+      <c r="G139" t="inlineStr"/>
       <c r="H139" t="inlineStr">
         <is>
-          <t>['Costa Rica', 'Japan']</t>
+          <t>['Brazil', 'Switzerland']</t>
         </is>
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>['Spain']</t>
+          <t>['Cameroon']</t>
         </is>
       </c>
       <c r="J139" t="n">
@@ -7918,17 +7898,17 @@
       </c>
       <c r="K139" t="inlineStr">
         <is>
-          <t>Japan</t>
+          <t>Brazil</t>
         </is>
       </c>
       <c r="L139" t="inlineStr">
         <is>
-          <t>Costa Rica</t>
+          <t>Switzerland</t>
         </is>
       </c>
       <c r="M139" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>Cameroon</t>
         </is>
       </c>
     </row>
@@ -7938,38 +7918,38 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Group E</t>
+          <t>Group G</t>
         </is>
       </c>
       <c r="C140" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D140" t="n">
-        <v>73</v>
+        <v>35</v>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>Costa Rica</t>
+          <t>Serbia</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Switzerland</t>
         </is>
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Serbia</t>
         </is>
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>['Japan', 'Spain']</t>
+          <t>['Brazil', 'Serbia']</t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>['Costa Rica']</t>
+          <t>['Switzerland']</t>
         </is>
       </c>
       <c r="J140" t="n">
@@ -7977,17 +7957,17 @@
       </c>
       <c r="K140" t="inlineStr">
         <is>
-          <t>Japan</t>
+          <t>Brazil</t>
         </is>
       </c>
       <c r="L140" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>Serbia</t>
         </is>
       </c>
       <c r="M140" t="inlineStr">
         <is>
-          <t>Costa Rica</t>
+          <t>Switzerland</t>
         </is>
       </c>
     </row>
@@ -7997,28 +7977,38 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Group F</t>
+          <t>Group G</t>
         </is>
       </c>
       <c r="C141" t="n">
-        <v>0</v>
-      </c>
-      <c r="D141" t="inlineStr">
-        <is>
-          <t>initial</t>
-        </is>
-      </c>
-      <c r="E141" t="inlineStr"/>
-      <c r="F141" t="inlineStr"/>
-      <c r="G141" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="D141" t="n">
+        <v>44</v>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>Serbia</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>Switzerland</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>Switzerland</t>
+        </is>
+      </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>['Morocco', 'Croatia']</t>
+          <t>['Brazil', 'Switzerland']</t>
         </is>
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>['Belgium']</t>
+          <t>['Cameroon']</t>
         </is>
       </c>
       <c r="J141" t="n">
@@ -8026,17 +8016,17 @@
       </c>
       <c r="K141" t="inlineStr">
         <is>
-          <t>Croatia</t>
+          <t>Brazil</t>
         </is>
       </c>
       <c r="L141" t="inlineStr">
         <is>
-          <t>Morocco</t>
+          <t>Switzerland</t>
         </is>
       </c>
       <c r="M141" t="inlineStr">
         <is>
-          <t>Belgium</t>
+          <t>Cameroon</t>
         </is>
       </c>
     </row>
@@ -8046,7 +8036,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Group G</t>
+          <t>Group H</t>
         </is>
       </c>
       <c r="C142" t="n">
@@ -8062,12 +8052,12 @@
       <c r="G142" t="inlineStr"/>
       <c r="H142" t="inlineStr">
         <is>
-          <t>['Brazil', 'Switzerland']</t>
+          <t>['Ghana', 'Portugal']</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>['Cameroon']</t>
+          <t>['South Korea']</t>
         </is>
       </c>
       <c r="J142" t="n">
@@ -8075,17 +8065,17 @@
       </c>
       <c r="K142" t="inlineStr">
         <is>
-          <t>Brazil</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="L142" t="inlineStr">
         <is>
-          <t>Switzerland</t>
+          <t>Ghana</t>
         </is>
       </c>
       <c r="M142" t="inlineStr">
         <is>
-          <t>Cameroon</t>
+          <t>South Korea</t>
         </is>
       </c>
     </row>
@@ -8095,38 +8085,38 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Group G</t>
+          <t>Group H</t>
         </is>
       </c>
       <c r="C143" t="n">
         <v>1</v>
       </c>
       <c r="D143" t="n">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>Serbia</t>
+          <t>Ghana</t>
         </is>
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>Switzerland</t>
+          <t>Uruguay</t>
         </is>
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>Serbia</t>
+          <t>Uruguay</t>
         </is>
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>['Brazil', 'Serbia']</t>
+          <t>['Portugal', 'Uruguay']</t>
         </is>
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>['Switzerland']</t>
+          <t>['Ghana']</t>
         </is>
       </c>
       <c r="J143" t="n">
@@ -8134,17 +8124,17 @@
       </c>
       <c r="K143" t="inlineStr">
         <is>
-          <t>Brazil</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="L143" t="inlineStr">
         <is>
-          <t>Serbia</t>
+          <t>Uruguay</t>
         </is>
       </c>
       <c r="M143" t="inlineStr">
         <is>
-          <t>Switzerland</t>
+          <t>Ghana</t>
         </is>
       </c>
     </row>
@@ -8154,38 +8144,38 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Group G</t>
+          <t>Group H</t>
         </is>
       </c>
       <c r="C144" t="n">
         <v>2</v>
       </c>
       <c r="D144" t="n">
-        <v>44</v>
+        <v>91</v>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>Serbia</t>
+          <t>South Korea</t>
         </is>
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>Switzerland</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>Switzerland</t>
+          <t>South Korea</t>
         </is>
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>['Brazil', 'Switzerland']</t>
+          <t>['Portugal', 'South Korea']</t>
         </is>
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>['Cameroon']</t>
+          <t>['Uruguay']</t>
         </is>
       </c>
       <c r="J144" t="n">
@@ -8193,182 +8183,15 @@
       </c>
       <c r="K144" t="inlineStr">
         <is>
-          <t>Brazil</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="L144" t="inlineStr">
         <is>
-          <t>Switzerland</t>
+          <t>South Korea</t>
         </is>
       </c>
       <c r="M144" t="inlineStr">
-        <is>
-          <t>Cameroon</t>
-        </is>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" t="n">
-        <v>2022</v>
-      </c>
-      <c r="B145" t="inlineStr">
-        <is>
-          <t>Group H</t>
-        </is>
-      </c>
-      <c r="C145" t="n">
-        <v>0</v>
-      </c>
-      <c r="D145" t="inlineStr">
-        <is>
-          <t>initial</t>
-        </is>
-      </c>
-      <c r="E145" t="inlineStr"/>
-      <c r="F145" t="inlineStr"/>
-      <c r="G145" t="inlineStr"/>
-      <c r="H145" t="inlineStr">
-        <is>
-          <t>['Portugal', 'Ghana']</t>
-        </is>
-      </c>
-      <c r="I145" t="inlineStr">
-        <is>
-          <t>['South Korea']</t>
-        </is>
-      </c>
-      <c r="J145" t="n">
-        <v>1</v>
-      </c>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>Portugal</t>
-        </is>
-      </c>
-      <c r="L145" t="inlineStr">
-        <is>
-          <t>Ghana</t>
-        </is>
-      </c>
-      <c r="M145" t="inlineStr">
-        <is>
-          <t>South Korea</t>
-        </is>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" t="n">
-        <v>2022</v>
-      </c>
-      <c r="B146" t="inlineStr">
-        <is>
-          <t>Group H</t>
-        </is>
-      </c>
-      <c r="C146" t="n">
-        <v>1</v>
-      </c>
-      <c r="D146" t="n">
-        <v>26</v>
-      </c>
-      <c r="E146" t="inlineStr">
-        <is>
-          <t>Ghana</t>
-        </is>
-      </c>
-      <c r="F146" t="inlineStr">
-        <is>
-          <t>Uruguay</t>
-        </is>
-      </c>
-      <c r="G146" t="inlineStr">
-        <is>
-          <t>Uruguay</t>
-        </is>
-      </c>
-      <c r="H146" t="inlineStr">
-        <is>
-          <t>['Portugal', 'Uruguay']</t>
-        </is>
-      </c>
-      <c r="I146" t="inlineStr">
-        <is>
-          <t>['Ghana']</t>
-        </is>
-      </c>
-      <c r="J146" t="n">
-        <v>1</v>
-      </c>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>Portugal</t>
-        </is>
-      </c>
-      <c r="L146" t="inlineStr">
-        <is>
-          <t>Uruguay</t>
-        </is>
-      </c>
-      <c r="M146" t="inlineStr">
-        <is>
-          <t>Ghana</t>
-        </is>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" t="n">
-        <v>2022</v>
-      </c>
-      <c r="B147" t="inlineStr">
-        <is>
-          <t>Group H</t>
-        </is>
-      </c>
-      <c r="C147" t="n">
-        <v>2</v>
-      </c>
-      <c r="D147" t="n">
-        <v>91</v>
-      </c>
-      <c r="E147" t="inlineStr">
-        <is>
-          <t>South Korea</t>
-        </is>
-      </c>
-      <c r="F147" t="inlineStr">
-        <is>
-          <t>Portugal</t>
-        </is>
-      </c>
-      <c r="G147" t="inlineStr">
-        <is>
-          <t>South Korea</t>
-        </is>
-      </c>
-      <c r="H147" t="inlineStr">
-        <is>
-          <t>['Portugal', 'South Korea']</t>
-        </is>
-      </c>
-      <c r="I147" t="inlineStr">
-        <is>
-          <t>['Uruguay']</t>
-        </is>
-      </c>
-      <c r="J147" t="n">
-        <v>1</v>
-      </c>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>Portugal</t>
-        </is>
-      </c>
-      <c r="L147" t="inlineStr">
-        <is>
-          <t>South Korea</t>
-        </is>
-      </c>
-      <c r="M147" t="inlineStr">
         <is>
           <t>Uruguay</t>
         </is>

--- a/data/out/kaggle/fifa/standings_wc_fifa_men.xlsx
+++ b/data/out/kaggle/fifa/standings_wc_fifa_men.xlsx
@@ -522,7 +522,7 @@
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['Bulgaria', 'Argentina', 'Italy']</t>
+          <t>['Italy', 'Bulgaria', 'Argentina']</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -571,7 +571,7 @@
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['Paraguay', 'Mexico', 'Belgium']</t>
+          <t>['Paraguay', 'Belgium', 'Mexico']</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -620,7 +620,7 @@
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['France', 'Hungary', 'Soviet Union']</t>
+          <t>['Soviet Union', 'France', 'Hungary']</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -728,7 +728,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['Brazil', 'Spain', 'Algeria']</t>
+          <t>['Algeria', 'Brazil', 'Spain']</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -836,7 +836,7 @@
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['West Germany', 'Denmark', 'Uruguay']</t>
+          <t>['Uruguay', 'West Germany', 'Denmark']</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -885,7 +885,7 @@
       <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['Portugal', 'Poland', 'Morocco']</t>
+          <t>['Poland', 'Morocco', 'Portugal']</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -944,7 +944,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['Portugal', 'Poland', 'England']</t>
+          <t>['Poland', 'England', 'Portugal']</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -1003,7 +1003,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['Portugal', 'Morocco', 'England']</t>
+          <t>['Morocco', 'England', 'Portugal']</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -1111,7 +1111,7 @@
       <c r="G13" t="inlineStr"/>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['Italy', 'Czechoslovakia', 'Austria']</t>
+          <t>['Austria', 'Italy', 'Czechoslovakia']</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -1160,7 +1160,7 @@
       <c r="G14" t="inlineStr"/>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['Romania', 'Cameroon', 'Argentina']</t>
+          <t>['Cameroon', 'Romania', 'Argentina']</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -1219,7 +1219,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['Argentina', 'Cameroon', 'Soviet Union']</t>
+          <t>['Soviet Union', 'Cameroon', 'Argentina']</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -1278,7 +1278,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['Romania', 'Cameroon', 'Argentina']</t>
+          <t>['Cameroon', 'Romania', 'Argentina']</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -1327,7 +1327,7 @@
       <c r="G17" t="inlineStr"/>
       <c r="H17" t="inlineStr">
         <is>
-          <t>['Brazil', 'Costa Rica', 'Scotland']</t>
+          <t>['Brazil', 'Scotland', 'Costa Rica']</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -1445,7 +1445,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>['Brazil', 'Costa Rica', 'Scotland']</t>
+          <t>['Brazil', 'Scotland', 'Costa Rica']</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -1494,7 +1494,7 @@
       <c r="G20" t="inlineStr"/>
       <c r="H20" t="inlineStr">
         <is>
-          <t>['West Germany', 'Colombia', 'Yugoslavia']</t>
+          <t>['Colombia', 'Yugoslavia', 'West Germany']</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -1592,7 +1592,7 @@
       <c r="G22" t="inlineStr"/>
       <c r="H22" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Republic of Ireland', 'England']</t>
+          <t>['Netherlands', 'England', 'Republic of Ireland']</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -1651,7 +1651,7 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Egypt', 'England']</t>
+          <t>['Netherlands', 'England', 'Egypt']</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -1710,7 +1710,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Republic of Ireland', 'England']</t>
+          <t>['Netherlands', 'England', 'Republic of Ireland']</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -1759,7 +1759,7 @@
       <c r="G25" t="inlineStr"/>
       <c r="H25" t="inlineStr">
         <is>
-          <t>['Romania', 'United States', 'Switzerland']</t>
+          <t>['Switzerland', 'United States', 'Romania']</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
@@ -1867,7 +1867,7 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>['Brazil', 'Russia', 'Sweden']</t>
+          <t>['Brazil', 'Sweden', 'Russia']</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
@@ -1965,7 +1965,7 @@
       <c r="G29" t="inlineStr"/>
       <c r="H29" t="inlineStr">
         <is>
-          <t>['Bulgaria', 'Argentina', 'Nigeria']</t>
+          <t>['Bulgaria', 'Nigeria', 'Argentina']</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
@@ -2014,7 +2014,7 @@
       <c r="G30" t="inlineStr"/>
       <c r="H30" t="inlineStr">
         <is>
-          <t>['Republic of Ireland', 'Mexico', 'Italy']</t>
+          <t>['Republic of Ireland', 'Italy', 'Mexico']</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
@@ -2073,7 +2073,7 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>['Republic of Ireland', 'Italy', 'Norway']</t>
+          <t>['Norway', 'Italy', 'Republic of Ireland']</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
@@ -2132,7 +2132,7 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>['Republic of Ireland', 'Mexico', 'Italy']</t>
+          <t>['Republic of Ireland', 'Italy', 'Mexico']</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
@@ -2181,7 +2181,7 @@
       <c r="G33" t="inlineStr"/>
       <c r="H33" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Belgium', 'Saudi Arabia']</t>
+          <t>['Netherlands', 'Saudi Arabia', 'Belgium']</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
@@ -3084,7 +3084,7 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>['Paraguay', 'Spain']</t>
+          <t>['Spain', 'Paraguay']</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
@@ -3418,7 +3418,7 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>['Portugal', 'South Korea']</t>
+          <t>['South Korea', 'Portugal']</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
@@ -3683,7 +3683,7 @@
       <c r="G61" t="inlineStr"/>
       <c r="H61" t="inlineStr">
         <is>
-          <t>['Mexico', 'Italy']</t>
+          <t>['Italy', 'Mexico']</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
@@ -3801,7 +3801,7 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>['Mexico', 'Italy']</t>
+          <t>['Italy', 'Mexico']</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
@@ -4125,7 +4125,7 @@
       <c r="G69" t="inlineStr"/>
       <c r="H69" t="inlineStr">
         <is>
-          <t>['Sweden', 'England']</t>
+          <t>['England', 'Sweden']</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
@@ -4223,7 +4223,7 @@
       <c r="G71" t="inlineStr"/>
       <c r="H71" t="inlineStr">
         <is>
-          <t>['Portugal', 'Mexico']</t>
+          <t>['Mexico', 'Portugal']</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
@@ -4331,7 +4331,7 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>['Ghana', 'Italy']</t>
+          <t>['Italy', 'Ghana']</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
@@ -4380,7 +4380,7 @@
       <c r="G74" t="inlineStr"/>
       <c r="H74" t="inlineStr">
         <is>
-          <t>['Australia', 'Brazil']</t>
+          <t>['Brazil', 'Australia']</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
@@ -4439,7 +4439,7 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>['Croatia', 'Brazil']</t>
+          <t>['Brazil', 'Croatia']</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
@@ -4498,7 +4498,7 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>['Australia', 'Brazil']</t>
+          <t>['Brazil', 'Australia']</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
@@ -4557,7 +4557,7 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>['Croatia', 'Brazil']</t>
+          <t>['Brazil', 'Croatia']</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
@@ -4616,7 +4616,7 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>['Australia', 'Brazil']</t>
+          <t>['Brazil', 'Australia']</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
@@ -4665,7 +4665,7 @@
       <c r="G79" t="inlineStr"/>
       <c r="H79" t="inlineStr">
         <is>
-          <t>['South Korea', 'Switzerland']</t>
+          <t>['Switzerland', 'South Korea']</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
@@ -4724,7 +4724,7 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>['France', 'Switzerland']</t>
+          <t>['Switzerland', 'France']</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
@@ -4871,7 +4871,7 @@
       <c r="G83" t="inlineStr"/>
       <c r="H83" t="inlineStr">
         <is>
-          <t>['Argentina', 'South Korea']</t>
+          <t>['South Korea', 'Argentina']</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
@@ -4930,7 +4930,7 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>['Argentina', 'Greece']</t>
+          <t>['Greece', 'Argentina']</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
@@ -4989,7 +4989,7 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>['Argentina', 'South Korea']</t>
+          <t>['South Korea', 'Argentina']</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
@@ -5097,7 +5097,7 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>['Slovenia', 'England']</t>
+          <t>['England', 'Slovenia']</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
@@ -5205,7 +5205,7 @@
       <c r="G89" t="inlineStr"/>
       <c r="H89" t="inlineStr">
         <is>
-          <t>['Ghana', 'Germany']</t>
+          <t>['Germany', 'Ghana']</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
@@ -5254,7 +5254,7 @@
       <c r="G90" t="inlineStr"/>
       <c r="H90" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Japan']</t>
+          <t>['Japan', 'Netherlands']</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
@@ -5362,7 +5362,7 @@
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>['Paraguay', 'Slovakia']</t>
+          <t>['Slovakia', 'Paraguay']</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
@@ -5460,7 +5460,7 @@
       <c r="G94" t="inlineStr"/>
       <c r="H94" t="inlineStr">
         <is>
-          <t>['Spain', 'Chile']</t>
+          <t>['Chile', 'Spain']</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
@@ -5558,7 +5558,7 @@
       <c r="G96" t="inlineStr"/>
       <c r="H96" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Chile']</t>
+          <t>['Chile', 'Netherlands']</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
@@ -6000,7 +6000,7 @@
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>['France', 'Switzerland']</t>
+          <t>['Switzerland', 'France']</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
@@ -6049,7 +6049,7 @@
       <c r="G105" t="inlineStr"/>
       <c r="H105" t="inlineStr">
         <is>
-          <t>['Argentina', 'Nigeria']</t>
+          <t>['Nigeria', 'Argentina']</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
@@ -6147,7 +6147,7 @@
       <c r="G107" t="inlineStr"/>
       <c r="H107" t="inlineStr">
         <is>
-          <t>['Belgium', 'Algeria']</t>
+          <t>['Algeria', 'Belgium']</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
@@ -6265,7 +6265,7 @@
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>['Belgium', 'Algeria']</t>
+          <t>['Algeria', 'Belgium']</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
@@ -6314,7 +6314,7 @@
       <c r="G110" t="inlineStr"/>
       <c r="H110" t="inlineStr">
         <is>
-          <t>['Russia', 'Uruguay']</t>
+          <t>['Uruguay', 'Russia']</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
@@ -6687,7 +6687,7 @@
       <c r="G117" t="inlineStr"/>
       <c r="H117" t="inlineStr">
         <is>
-          <t>['Brazil', 'Switzerland']</t>
+          <t>['Switzerland', 'Brazil']</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
@@ -6736,7 +6736,7 @@
       <c r="G118" t="inlineStr"/>
       <c r="H118" t="inlineStr">
         <is>
-          <t>['Mexico', 'Germany']</t>
+          <t>['Germany', 'Mexico']</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
@@ -6844,7 +6844,7 @@
       <c r="G120" t="inlineStr"/>
       <c r="H120" t="inlineStr">
         <is>
-          <t>['Belgium', 'England']</t>
+          <t>['England', 'Belgium']</t>
         </is>
       </c>
       <c r="I120" t="inlineStr">
@@ -7227,7 +7227,7 @@
       <c r="G127" t="inlineStr"/>
       <c r="H127" t="inlineStr">
         <is>
-          <t>['Iran', 'England']</t>
+          <t>['England', 'Iran']</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
@@ -7335,7 +7335,7 @@
       <c r="G129" t="inlineStr"/>
       <c r="H129" t="inlineStr">
         <is>
-          <t>['Argentina', 'Poland']</t>
+          <t>['Poland', 'Argentina']</t>
         </is>
       </c>
       <c r="I129" t="inlineStr">
@@ -7384,7 +7384,7 @@
       <c r="G130" t="inlineStr"/>
       <c r="H130" t="inlineStr">
         <is>
-          <t>['Australia', 'France']</t>
+          <t>['France', 'Australia']</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
@@ -7502,7 +7502,7 @@
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>['Australia', 'France']</t>
+          <t>['France', 'Australia']</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
@@ -7885,7 +7885,7 @@
       <c r="G139" t="inlineStr"/>
       <c r="H139" t="inlineStr">
         <is>
-          <t>['Brazil', 'Switzerland']</t>
+          <t>['Switzerland', 'Brazil']</t>
         </is>
       </c>
       <c r="I139" t="inlineStr">
@@ -8003,7 +8003,7 @@
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>['Brazil', 'Switzerland']</t>
+          <t>['Switzerland', 'Brazil']</t>
         </is>
       </c>
       <c r="I141" t="inlineStr">
@@ -8111,7 +8111,7 @@
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>['Portugal', 'Uruguay']</t>
+          <t>['Uruguay', 'Portugal']</t>
         </is>
       </c>
       <c r="I143" t="inlineStr">
@@ -8170,7 +8170,7 @@
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>['Portugal', 'South Korea']</t>
+          <t>['South Korea', 'Portugal']</t>
         </is>
       </c>
       <c r="I144" t="inlineStr">

--- a/data/out/kaggle/fifa/standings_wc_fifa_men.xlsx
+++ b/data/out/kaggle/fifa/standings_wc_fifa_men.xlsx
@@ -522,7 +522,7 @@
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['Italy', 'Bulgaria', 'Argentina']</t>
+          <t>['Argentina', 'Italy', 'Bulgaria']</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -571,7 +571,7 @@
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['Paraguay', 'Belgium', 'Mexico']</t>
+          <t>['Mexico', 'Paraguay', 'Belgium']</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -669,7 +669,7 @@
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['Brazil', 'Spain', 'Northern Ireland']</t>
+          <t>['Spain', 'Northern Ireland', 'Brazil']</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -728,7 +728,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['Algeria', 'Brazil', 'Spain']</t>
+          <t>['Spain', 'Algeria', 'Brazil']</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -787,7 +787,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['Brazil', 'Spain', 'Northern Ireland']</t>
+          <t>['Spain', 'Northern Ireland', 'Brazil']</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -836,7 +836,7 @@
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['Uruguay', 'West Germany', 'Denmark']</t>
+          <t>['Denmark', 'West Germany', 'Uruguay']</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -885,7 +885,7 @@
       <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['Poland', 'Morocco', 'Portugal']</t>
+          <t>['Poland', 'Portugal', 'Morocco']</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -1003,7 +1003,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['Morocco', 'England', 'Portugal']</t>
+          <t>['England', 'Portugal', 'Morocco']</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -1062,7 +1062,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['Poland', 'Morocco', 'England']</t>
+          <t>['Poland', 'England', 'Morocco']</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -1111,7 +1111,7 @@
       <c r="G13" t="inlineStr"/>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['Austria', 'Italy', 'Czechoslovakia']</t>
+          <t>['Czechoslovakia', 'Austria', 'Italy']</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -1160,7 +1160,7 @@
       <c r="G14" t="inlineStr"/>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['Cameroon', 'Romania', 'Argentina']</t>
+          <t>['Argentina', 'Cameroon', 'Romania']</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -1219,7 +1219,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['Soviet Union', 'Cameroon', 'Argentina']</t>
+          <t>['Argentina', 'Soviet Union', 'Cameroon']</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -1278,7 +1278,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['Cameroon', 'Romania', 'Argentina']</t>
+          <t>['Argentina', 'Cameroon', 'Romania']</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -1327,7 +1327,7 @@
       <c r="G17" t="inlineStr"/>
       <c r="H17" t="inlineStr">
         <is>
-          <t>['Brazil', 'Scotland', 'Costa Rica']</t>
+          <t>['Scotland', 'Costa Rica', 'Brazil']</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -1386,7 +1386,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>['Brazil', 'Scotland', 'Sweden']</t>
+          <t>['Scotland', 'Sweden', 'Brazil']</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -1445,7 +1445,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>['Brazil', 'Scotland', 'Costa Rica']</t>
+          <t>['Scotland', 'Costa Rica', 'Brazil']</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -1494,7 +1494,7 @@
       <c r="G20" t="inlineStr"/>
       <c r="H20" t="inlineStr">
         <is>
-          <t>['Colombia', 'Yugoslavia', 'West Germany']</t>
+          <t>['West Germany', 'Colombia', 'Yugoslavia']</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -1543,7 +1543,7 @@
       <c r="G21" t="inlineStr"/>
       <c r="H21" t="inlineStr">
         <is>
-          <t>['Uruguay', 'Spain', 'Belgium']</t>
+          <t>['Belgium', 'Spain', 'Uruguay']</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -1592,7 +1592,7 @@
       <c r="G22" t="inlineStr"/>
       <c r="H22" t="inlineStr">
         <is>
-          <t>['Netherlands', 'England', 'Republic of Ireland']</t>
+          <t>['England', 'Republic of Ireland', 'Netherlands']</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -1651,7 +1651,7 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>['Netherlands', 'England', 'Egypt']</t>
+          <t>['England', 'Egypt', 'Netherlands']</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -1710,7 +1710,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>['Netherlands', 'England', 'Republic of Ireland']</t>
+          <t>['England', 'Republic of Ireland', 'Netherlands']</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -1759,7 +1759,7 @@
       <c r="G25" t="inlineStr"/>
       <c r="H25" t="inlineStr">
         <is>
-          <t>['Switzerland', 'United States', 'Romania']</t>
+          <t>['United States', 'Switzerland', 'Romania']</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
@@ -1808,7 +1808,7 @@
       <c r="G26" t="inlineStr"/>
       <c r="H26" t="inlineStr">
         <is>
-          <t>['Brazil', 'Cameroon', 'Sweden']</t>
+          <t>['Sweden', 'Cameroon', 'Brazil']</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
@@ -1867,7 +1867,7 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>['Brazil', 'Sweden', 'Russia']</t>
+          <t>['Sweden', 'Russia', 'Brazil']</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
@@ -1916,7 +1916,7 @@
       <c r="G28" t="inlineStr"/>
       <c r="H28" t="inlineStr">
         <is>
-          <t>['Spain', 'South Korea', 'Germany']</t>
+          <t>['Spain', 'Germany', 'South Korea']</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
@@ -1965,7 +1965,7 @@
       <c r="G29" t="inlineStr"/>
       <c r="H29" t="inlineStr">
         <is>
-          <t>['Bulgaria', 'Nigeria', 'Argentina']</t>
+          <t>['Nigeria', 'Argentina', 'Bulgaria']</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
@@ -2014,7 +2014,7 @@
       <c r="G30" t="inlineStr"/>
       <c r="H30" t="inlineStr">
         <is>
-          <t>['Republic of Ireland', 'Italy', 'Mexico']</t>
+          <t>['Mexico', 'Republic of Ireland', 'Italy']</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
@@ -2073,7 +2073,7 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>['Norway', 'Italy', 'Republic of Ireland']</t>
+          <t>['Norway', 'Republic of Ireland', 'Italy']</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
@@ -2132,7 +2132,7 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>['Republic of Ireland', 'Italy', 'Mexico']</t>
+          <t>['Mexico', 'Republic of Ireland', 'Italy']</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
@@ -2181,7 +2181,7 @@
       <c r="G33" t="inlineStr"/>
       <c r="H33" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Saudi Arabia', 'Belgium']</t>
+          <t>['Belgium', 'Netherlands', 'Saudi Arabia']</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
@@ -2230,7 +2230,7 @@
       <c r="G34" t="inlineStr"/>
       <c r="H34" t="inlineStr">
         <is>
-          <t>['Brazil', 'Norway']</t>
+          <t>['Norway', 'Brazil']</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
@@ -2289,7 +2289,7 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>['Brazil', 'Morocco']</t>
+          <t>['Morocco', 'Brazil']</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
@@ -2348,7 +2348,7 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>['Brazil', 'Norway']</t>
+          <t>['Norway', 'Brazil']</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
@@ -2397,7 +2397,7 @@
       <c r="G37" t="inlineStr"/>
       <c r="H37" t="inlineStr">
         <is>
-          <t>['Chile', 'Italy']</t>
+          <t>['Italy', 'Chile']</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
@@ -2446,7 +2446,7 @@
       <c r="G38" t="inlineStr"/>
       <c r="H38" t="inlineStr">
         <is>
-          <t>['France', 'Denmark']</t>
+          <t>['Denmark', 'France']</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
@@ -2495,7 +2495,7 @@
       <c r="G39" t="inlineStr"/>
       <c r="H39" t="inlineStr">
         <is>
-          <t>['Paraguay', 'Nigeria']</t>
+          <t>['Nigeria', 'Paraguay']</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
@@ -2613,7 +2613,7 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>['Paraguay', 'Nigeria']</t>
+          <t>['Nigeria', 'Paraguay']</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
@@ -2662,7 +2662,7 @@
       <c r="G42" t="inlineStr"/>
       <c r="H42" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Mexico']</t>
+          <t>['Mexico', 'Netherlands']</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
@@ -2721,7 +2721,7 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Belgium']</t>
+          <t>['Belgium', 'Netherlands']</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
@@ -2780,7 +2780,7 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Mexico']</t>
+          <t>['Mexico', 'Netherlands']</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
@@ -2829,7 +2829,7 @@
       <c r="G45" t="inlineStr"/>
       <c r="H45" t="inlineStr">
         <is>
-          <t>['Yugoslavia', 'Germany']</t>
+          <t>['Germany', 'Yugoslavia']</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
@@ -2878,7 +2878,7 @@
       <c r="G46" t="inlineStr"/>
       <c r="H46" t="inlineStr">
         <is>
-          <t>['Romania', 'England']</t>
+          <t>['England', 'Romania']</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
@@ -2976,7 +2976,7 @@
       <c r="G48" t="inlineStr"/>
       <c r="H48" t="inlineStr">
         <is>
-          <t>['Senegal', 'Denmark']</t>
+          <t>['Denmark', 'Senegal']</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
@@ -3025,7 +3025,7 @@
       <c r="G49" t="inlineStr"/>
       <c r="H49" t="inlineStr">
         <is>
-          <t>['South Africa', 'Spain']</t>
+          <t>['Spain', 'South Africa']</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
@@ -3133,7 +3133,7 @@
       <c r="G51" t="inlineStr"/>
       <c r="H51" t="inlineStr">
         <is>
-          <t>['Brazil', 'Costa Rica']</t>
+          <t>['Costa Rica', 'Brazil']</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
@@ -3192,7 +3192,7 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>['Brazil', 'Turkey']</t>
+          <t>['Turkey', 'Brazil']</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
@@ -3251,7 +3251,7 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>['Brazil', 'Costa Rica']</t>
+          <t>['Costa Rica', 'Brazil']</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
@@ -3310,7 +3310,7 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>['Brazil', 'Turkey']</t>
+          <t>['Turkey', 'Brazil']</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
@@ -3359,7 +3359,7 @@
       <c r="G55" t="inlineStr"/>
       <c r="H55" t="inlineStr">
         <is>
-          <t>['United States', 'South Korea']</t>
+          <t>['South Korea', 'United States']</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
@@ -3418,7 +3418,7 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>['South Korea', 'Portugal']</t>
+          <t>['Portugal', 'South Korea']</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
@@ -3477,7 +3477,7 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>['United States', 'South Korea']</t>
+          <t>['South Korea', 'United States']</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
@@ -3526,7 +3526,7 @@
       <c r="G58" t="inlineStr"/>
       <c r="H58" t="inlineStr">
         <is>
-          <t>['Cameroon', 'Germany']</t>
+          <t>['Germany', 'Cameroon']</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
@@ -3585,7 +3585,7 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>['Republic of Ireland', 'Germany']</t>
+          <t>['Germany', 'Republic of Ireland']</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
@@ -3683,7 +3683,7 @@
       <c r="G61" t="inlineStr"/>
       <c r="H61" t="inlineStr">
         <is>
-          <t>['Italy', 'Mexico']</t>
+          <t>['Mexico', 'Italy']</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
@@ -3742,7 +3742,7 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>['Croatia', 'Mexico']</t>
+          <t>['Mexico', 'Croatia']</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
@@ -3801,7 +3801,7 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>['Italy', 'Mexico']</t>
+          <t>['Mexico', 'Italy']</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
@@ -3909,7 +3909,7 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>['Japan', 'Belgium']</t>
+          <t>['Belgium', 'Japan']</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
@@ -4076,7 +4076,7 @@
       <c r="G68" t="inlineStr"/>
       <c r="H68" t="inlineStr">
         <is>
-          <t>['Ecuador', 'Germany']</t>
+          <t>['Germany', 'Ecuador']</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
@@ -4125,7 +4125,7 @@
       <c r="G69" t="inlineStr"/>
       <c r="H69" t="inlineStr">
         <is>
-          <t>['England', 'Sweden']</t>
+          <t>['Sweden', 'England']</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
@@ -4174,7 +4174,7 @@
       <c r="G70" t="inlineStr"/>
       <c r="H70" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Argentina']</t>
+          <t>['Argentina', 'Netherlands']</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
@@ -4272,7 +4272,7 @@
       <c r="G72" t="inlineStr"/>
       <c r="H72" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Italy']</t>
+          <t>['Italy', 'Czech Republic']</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
@@ -4380,7 +4380,7 @@
       <c r="G74" t="inlineStr"/>
       <c r="H74" t="inlineStr">
         <is>
-          <t>['Brazil', 'Australia']</t>
+          <t>['Australia', 'Brazil']</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
@@ -4439,7 +4439,7 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>['Brazil', 'Croatia']</t>
+          <t>['Croatia', 'Brazil']</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
@@ -4498,7 +4498,7 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>['Brazil', 'Australia']</t>
+          <t>['Australia', 'Brazil']</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
@@ -4557,7 +4557,7 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>['Brazil', 'Croatia']</t>
+          <t>['Croatia', 'Brazil']</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
@@ -4616,7 +4616,7 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>['Brazil', 'Australia']</t>
+          <t>['Australia', 'Brazil']</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
@@ -4665,7 +4665,7 @@
       <c r="G79" t="inlineStr"/>
       <c r="H79" t="inlineStr">
         <is>
-          <t>['Switzerland', 'South Korea']</t>
+          <t>['South Korea', 'Switzerland']</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
@@ -4724,7 +4724,7 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>['Switzerland', 'France']</t>
+          <t>['France', 'Switzerland']</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
@@ -4822,7 +4822,7 @@
       <c r="G82" t="inlineStr"/>
       <c r="H82" t="inlineStr">
         <is>
-          <t>['Uruguay', 'Mexico']</t>
+          <t>['Mexico', 'Uruguay']</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
@@ -4871,7 +4871,7 @@
       <c r="G83" t="inlineStr"/>
       <c r="H83" t="inlineStr">
         <is>
-          <t>['South Korea', 'Argentina']</t>
+          <t>['Argentina', 'South Korea']</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
@@ -4989,7 +4989,7 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>['South Korea', 'Argentina']</t>
+          <t>['Argentina', 'South Korea']</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
@@ -5038,7 +5038,7 @@
       <c r="G86" t="inlineStr"/>
       <c r="H86" t="inlineStr">
         <is>
-          <t>['United States', 'Slovenia']</t>
+          <t>['Slovenia', 'United States']</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
@@ -5156,7 +5156,7 @@
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>['United States', 'England']</t>
+          <t>['England', 'United States']</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
@@ -5362,7 +5362,7 @@
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Paraguay']</t>
+          <t>['Paraguay', 'Slovakia']</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
@@ -5411,7 +5411,7 @@
       <c r="G93" t="inlineStr"/>
       <c r="H93" t="inlineStr">
         <is>
-          <t>['Brazil', 'Portugal']</t>
+          <t>['Portugal', 'Brazil']</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
@@ -5460,7 +5460,7 @@
       <c r="G94" t="inlineStr"/>
       <c r="H94" t="inlineStr">
         <is>
-          <t>['Chile', 'Spain']</t>
+          <t>['Spain', 'Chile']</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
@@ -5509,7 +5509,7 @@
       <c r="G95" t="inlineStr"/>
       <c r="H95" t="inlineStr">
         <is>
-          <t>['Brazil', 'Mexico']</t>
+          <t>['Mexico', 'Brazil']</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
@@ -5558,7 +5558,7 @@
       <c r="G96" t="inlineStr"/>
       <c r="H96" t="inlineStr">
         <is>
-          <t>['Chile', 'Netherlands']</t>
+          <t>['Netherlands', 'Chile']</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
@@ -5607,7 +5607,7 @@
       <c r="G97" t="inlineStr"/>
       <c r="H97" t="inlineStr">
         <is>
-          <t>['Colombia', 'Ivory Coast']</t>
+          <t>['Ivory Coast', 'Colombia']</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
@@ -5666,7 +5666,7 @@
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>['Colombia', 'Greece']</t>
+          <t>['Greece', 'Colombia']</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
@@ -5725,7 +5725,7 @@
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>['Colombia', 'Ivory Coast']</t>
+          <t>['Ivory Coast', 'Colombia']</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
@@ -5784,7 +5784,7 @@
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>['Colombia', 'Greece']</t>
+          <t>['Greece', 'Colombia']</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
@@ -5892,7 +5892,7 @@
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>['Uruguay', 'Costa Rica']</t>
+          <t>['Costa Rica', 'Uruguay']</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
@@ -5941,7 +5941,7 @@
       <c r="G103" t="inlineStr"/>
       <c r="H103" t="inlineStr">
         <is>
-          <t>['France', 'Ecuador']</t>
+          <t>['Ecuador', 'France']</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
@@ -6000,7 +6000,7 @@
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>['Switzerland', 'France']</t>
+          <t>['France', 'Switzerland']</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
@@ -6098,7 +6098,7 @@
       <c r="G106" t="inlineStr"/>
       <c r="H106" t="inlineStr">
         <is>
-          <t>['United States', 'Germany']</t>
+          <t>['Germany', 'United States']</t>
         </is>
       </c>
       <c r="I106" t="inlineStr">
@@ -6147,7 +6147,7 @@
       <c r="G107" t="inlineStr"/>
       <c r="H107" t="inlineStr">
         <is>
-          <t>['Algeria', 'Belgium']</t>
+          <t>['Belgium', 'Algeria']</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
@@ -6206,7 +6206,7 @@
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>['Russia', 'Belgium']</t>
+          <t>['Belgium', 'Russia']</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
@@ -6265,7 +6265,7 @@
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>['Algeria', 'Belgium']</t>
+          <t>['Belgium', 'Algeria']</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
@@ -6314,7 +6314,7 @@
       <c r="G110" t="inlineStr"/>
       <c r="H110" t="inlineStr">
         <is>
-          <t>['Uruguay', 'Russia']</t>
+          <t>['Russia', 'Uruguay']</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
@@ -6412,7 +6412,7 @@
       <c r="G112" t="inlineStr"/>
       <c r="H112" t="inlineStr">
         <is>
-          <t>['France', 'Denmark']</t>
+          <t>['Denmark', 'France']</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
@@ -6736,7 +6736,7 @@
       <c r="G118" t="inlineStr"/>
       <c r="H118" t="inlineStr">
         <is>
-          <t>['Germany', 'Mexico']</t>
+          <t>['Mexico', 'Germany']</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
@@ -6795,7 +6795,7 @@
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>['Sweden', 'Mexico']</t>
+          <t>['Mexico', 'Sweden']</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
@@ -6844,7 +6844,7 @@
       <c r="G120" t="inlineStr"/>
       <c r="H120" t="inlineStr">
         <is>
-          <t>['England', 'Belgium']</t>
+          <t>['Belgium', 'England']</t>
         </is>
       </c>
       <c r="I120" t="inlineStr">
@@ -6952,7 +6952,7 @@
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>['Colombia', 'Senegal']</t>
+          <t>['Senegal', 'Colombia']</t>
         </is>
       </c>
       <c r="I122" t="inlineStr">
@@ -7001,7 +7001,7 @@
       <c r="G123" t="inlineStr"/>
       <c r="H123" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Ecuador']</t>
+          <t>['Ecuador', 'Netherlands']</t>
         </is>
       </c>
       <c r="I123" t="inlineStr">
@@ -7060,7 +7060,7 @@
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Senegal']</t>
+          <t>['Senegal', 'Netherlands']</t>
         </is>
       </c>
       <c r="I124" t="inlineStr">
@@ -7119,7 +7119,7 @@
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Ecuador']</t>
+          <t>['Ecuador', 'Netherlands']</t>
         </is>
       </c>
       <c r="I125" t="inlineStr">
@@ -7178,7 +7178,7 @@
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Senegal']</t>
+          <t>['Senegal', 'Netherlands']</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
@@ -7286,7 +7286,7 @@
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>['United States', 'England']</t>
+          <t>['England', 'United States']</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
@@ -7384,7 +7384,7 @@
       <c r="G130" t="inlineStr"/>
       <c r="H130" t="inlineStr">
         <is>
-          <t>['France', 'Australia']</t>
+          <t>['Australia', 'France']</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
@@ -7502,7 +7502,7 @@
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>['France', 'Australia']</t>
+          <t>['Australia', 'France']</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
@@ -7551,7 +7551,7 @@
       <c r="G133" t="inlineStr"/>
       <c r="H133" t="inlineStr">
         <is>
-          <t>['Japan', 'Spain']</t>
+          <t>['Spain', 'Japan']</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
@@ -7944,7 +7944,7 @@
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>['Brazil', 'Serbia']</t>
+          <t>['Serbia', 'Brazil']</t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
@@ -8052,7 +8052,7 @@
       <c r="G142" t="inlineStr"/>
       <c r="H142" t="inlineStr">
         <is>
-          <t>['Ghana', 'Portugal']</t>
+          <t>['Portugal', 'Ghana']</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
@@ -8111,7 +8111,7 @@
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>['Uruguay', 'Portugal']</t>
+          <t>['Portugal', 'Uruguay']</t>
         </is>
       </c>
       <c r="I143" t="inlineStr">
@@ -8170,7 +8170,7 @@
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>['South Korea', 'Portugal']</t>
+          <t>['Portugal', 'South Korea']</t>
         </is>
       </c>
       <c r="I144" t="inlineStr">

--- a/data/out/kaggle/fifa/standings_wc_fifa_men.xlsx
+++ b/data/out/kaggle/fifa/standings_wc_fifa_men.xlsx
@@ -522,7 +522,7 @@
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['Argentina', 'Italy', 'Bulgaria']</t>
+          <t>['Argentina', 'Bulgaria', 'Italy']</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -571,7 +571,7 @@
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['Mexico', 'Paraguay', 'Belgium']</t>
+          <t>['Belgium', 'Paraguay', 'Mexico']</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -620,7 +620,7 @@
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['Soviet Union', 'France', 'Hungary']</t>
+          <t>['France', 'Soviet Union', 'Hungary']</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -669,7 +669,7 @@
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['Spain', 'Northern Ireland', 'Brazil']</t>
+          <t>['Spain', 'Brazil', 'Northern Ireland']</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -787,7 +787,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['Spain', 'Northern Ireland', 'Brazil']</t>
+          <t>['Spain', 'Brazil', 'Northern Ireland']</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -836,7 +836,7 @@
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['Denmark', 'West Germany', 'Uruguay']</t>
+          <t>['Uruguay', 'West Germany', 'Denmark']</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -1111,7 +1111,7 @@
       <c r="G13" t="inlineStr"/>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['Czechoslovakia', 'Austria', 'Italy']</t>
+          <t>['Italy', 'Austria', 'Czechoslovakia']</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -1219,7 +1219,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['Argentina', 'Soviet Union', 'Cameroon']</t>
+          <t>['Argentina', 'Cameroon', 'Soviet Union']</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -1327,7 +1327,7 @@
       <c r="G17" t="inlineStr"/>
       <c r="H17" t="inlineStr">
         <is>
-          <t>['Scotland', 'Costa Rica', 'Brazil']</t>
+          <t>['Costa Rica', 'Brazil', 'Scotland']</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -1386,7 +1386,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>['Scotland', 'Sweden', 'Brazil']</t>
+          <t>['Sweden', 'Brazil', 'Scotland']</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -1445,7 +1445,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>['Scotland', 'Costa Rica', 'Brazil']</t>
+          <t>['Costa Rica', 'Brazil', 'Scotland']</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -1543,7 +1543,7 @@
       <c r="G21" t="inlineStr"/>
       <c r="H21" t="inlineStr">
         <is>
-          <t>['Belgium', 'Spain', 'Uruguay']</t>
+          <t>['Spain', 'Belgium', 'Uruguay']</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -1592,7 +1592,7 @@
       <c r="G22" t="inlineStr"/>
       <c r="H22" t="inlineStr">
         <is>
-          <t>['England', 'Republic of Ireland', 'Netherlands']</t>
+          <t>['Netherlands', 'England', 'Republic of Ireland']</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -1651,7 +1651,7 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>['England', 'Egypt', 'Netherlands']</t>
+          <t>['Netherlands', 'England', 'Egypt']</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -1710,7 +1710,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>['England', 'Republic of Ireland', 'Netherlands']</t>
+          <t>['Netherlands', 'England', 'Republic of Ireland']</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -1916,7 +1916,7 @@
       <c r="G28" t="inlineStr"/>
       <c r="H28" t="inlineStr">
         <is>
-          <t>['Spain', 'Germany', 'South Korea']</t>
+          <t>['Spain', 'South Korea', 'Germany']</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
@@ -1965,7 +1965,7 @@
       <c r="G29" t="inlineStr"/>
       <c r="H29" t="inlineStr">
         <is>
-          <t>['Nigeria', 'Argentina', 'Bulgaria']</t>
+          <t>['Argentina', 'Nigeria', 'Bulgaria']</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
@@ -2014,7 +2014,7 @@
       <c r="G30" t="inlineStr"/>
       <c r="H30" t="inlineStr">
         <is>
-          <t>['Mexico', 'Republic of Ireland', 'Italy']</t>
+          <t>['Republic of Ireland', 'Italy', 'Mexico']</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
@@ -2132,7 +2132,7 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>['Mexico', 'Republic of Ireland', 'Italy']</t>
+          <t>['Republic of Ireland', 'Italy', 'Mexico']</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
@@ -2181,7 +2181,7 @@
       <c r="G33" t="inlineStr"/>
       <c r="H33" t="inlineStr">
         <is>
-          <t>['Belgium', 'Netherlands', 'Saudi Arabia']</t>
+          <t>['Saudi Arabia', 'Belgium', 'Netherlands']</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
@@ -2289,7 +2289,7 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>['Morocco', 'Brazil']</t>
+          <t>['Brazil', 'Morocco']</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
@@ -2397,7 +2397,7 @@
       <c r="G37" t="inlineStr"/>
       <c r="H37" t="inlineStr">
         <is>
-          <t>['Italy', 'Chile']</t>
+          <t>['Chile', 'Italy']</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
@@ -2446,7 +2446,7 @@
       <c r="G38" t="inlineStr"/>
       <c r="H38" t="inlineStr">
         <is>
-          <t>['Denmark', 'France']</t>
+          <t>['France', 'Denmark']</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
@@ -2662,7 +2662,7 @@
       <c r="G42" t="inlineStr"/>
       <c r="H42" t="inlineStr">
         <is>
-          <t>['Mexico', 'Netherlands']</t>
+          <t>['Netherlands', 'Mexico']</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
@@ -2721,7 +2721,7 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>['Belgium', 'Netherlands']</t>
+          <t>['Netherlands', 'Belgium']</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
@@ -2780,7 +2780,7 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>['Mexico', 'Netherlands']</t>
+          <t>['Netherlands', 'Mexico']</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
@@ -2927,7 +2927,7 @@
       <c r="G47" t="inlineStr"/>
       <c r="H47" t="inlineStr">
         <is>
-          <t>['Croatia', 'Argentina']</t>
+          <t>['Argentina', 'Croatia']</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
@@ -3359,7 +3359,7 @@
       <c r="G55" t="inlineStr"/>
       <c r="H55" t="inlineStr">
         <is>
-          <t>['South Korea', 'United States']</t>
+          <t>['United States', 'South Korea']</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
@@ -3418,7 +3418,7 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>['Portugal', 'South Korea']</t>
+          <t>['South Korea', 'Portugal']</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
@@ -3477,7 +3477,7 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>['South Korea', 'United States']</t>
+          <t>['United States', 'South Korea']</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
@@ -3526,7 +3526,7 @@
       <c r="G58" t="inlineStr"/>
       <c r="H58" t="inlineStr">
         <is>
-          <t>['Germany', 'Cameroon']</t>
+          <t>['Cameroon', 'Germany']</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
@@ -3585,7 +3585,7 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>['Germany', 'Republic of Ireland']</t>
+          <t>['Republic of Ireland', 'Germany']</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
@@ -3683,7 +3683,7 @@
       <c r="G61" t="inlineStr"/>
       <c r="H61" t="inlineStr">
         <is>
-          <t>['Mexico', 'Italy']</t>
+          <t>['Italy', 'Mexico']</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
@@ -3742,7 +3742,7 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>['Mexico', 'Croatia']</t>
+          <t>['Croatia', 'Mexico']</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
@@ -3801,7 +3801,7 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>['Mexico', 'Italy']</t>
+          <t>['Italy', 'Mexico']</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
@@ -3850,7 +3850,7 @@
       <c r="G64" t="inlineStr"/>
       <c r="H64" t="inlineStr">
         <is>
-          <t>['Japan', 'Russia']</t>
+          <t>['Russia', 'Japan']</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
@@ -3968,7 +3968,7 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>['Japan', 'Russia']</t>
+          <t>['Russia', 'Japan']</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
@@ -4027,7 +4027,7 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>['Japan', 'Belgium']</t>
+          <t>['Belgium', 'Japan']</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
@@ -4076,7 +4076,7 @@
       <c r="G68" t="inlineStr"/>
       <c r="H68" t="inlineStr">
         <is>
-          <t>['Germany', 'Ecuador']</t>
+          <t>['Ecuador', 'Germany']</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
@@ -4331,7 +4331,7 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>['Italy', 'Ghana']</t>
+          <t>['Ghana', 'Italy']</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
@@ -4439,7 +4439,7 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>['Croatia', 'Brazil']</t>
+          <t>['Brazil', 'Croatia']</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
@@ -4557,7 +4557,7 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>['Croatia', 'Brazil']</t>
+          <t>['Brazil', 'Croatia']</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
@@ -4665,7 +4665,7 @@
       <c r="G79" t="inlineStr"/>
       <c r="H79" t="inlineStr">
         <is>
-          <t>['South Korea', 'Switzerland']</t>
+          <t>['Switzerland', 'South Korea']</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
@@ -4724,7 +4724,7 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>['France', 'Switzerland']</t>
+          <t>['Switzerland', 'France']</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
@@ -4822,7 +4822,7 @@
       <c r="G82" t="inlineStr"/>
       <c r="H82" t="inlineStr">
         <is>
-          <t>['Mexico', 'Uruguay']</t>
+          <t>['Uruguay', 'Mexico']</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
@@ -4930,7 +4930,7 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>['Greece', 'Argentina']</t>
+          <t>['Argentina', 'Greece']</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
@@ -5038,7 +5038,7 @@
       <c r="G86" t="inlineStr"/>
       <c r="H86" t="inlineStr">
         <is>
-          <t>['Slovenia', 'United States']</t>
+          <t>['United States', 'Slovenia']</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
@@ -5156,7 +5156,7 @@
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>['England', 'United States']</t>
+          <t>['United States', 'England']</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
@@ -5205,7 +5205,7 @@
       <c r="G89" t="inlineStr"/>
       <c r="H89" t="inlineStr">
         <is>
-          <t>['Germany', 'Ghana']</t>
+          <t>['Ghana', 'Germany']</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
@@ -5254,7 +5254,7 @@
       <c r="G90" t="inlineStr"/>
       <c r="H90" t="inlineStr">
         <is>
-          <t>['Japan', 'Netherlands']</t>
+          <t>['Netherlands', 'Japan']</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
@@ -5411,7 +5411,7 @@
       <c r="G93" t="inlineStr"/>
       <c r="H93" t="inlineStr">
         <is>
-          <t>['Portugal', 'Brazil']</t>
+          <t>['Brazil', 'Portugal']</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
@@ -5509,7 +5509,7 @@
       <c r="G95" t="inlineStr"/>
       <c r="H95" t="inlineStr">
         <is>
-          <t>['Mexico', 'Brazil']</t>
+          <t>['Brazil', 'Mexico']</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
@@ -5607,7 +5607,7 @@
       <c r="G97" t="inlineStr"/>
       <c r="H97" t="inlineStr">
         <is>
-          <t>['Ivory Coast', 'Colombia']</t>
+          <t>['Colombia', 'Ivory Coast']</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
@@ -5725,7 +5725,7 @@
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>['Ivory Coast', 'Colombia']</t>
+          <t>['Colombia', 'Ivory Coast']</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
@@ -6000,7 +6000,7 @@
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>['France', 'Switzerland']</t>
+          <t>['Switzerland', 'France']</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
@@ -6049,7 +6049,7 @@
       <c r="G105" t="inlineStr"/>
       <c r="H105" t="inlineStr">
         <is>
-          <t>['Nigeria', 'Argentina']</t>
+          <t>['Argentina', 'Nigeria']</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
@@ -6098,7 +6098,7 @@
       <c r="G106" t="inlineStr"/>
       <c r="H106" t="inlineStr">
         <is>
-          <t>['Germany', 'United States']</t>
+          <t>['United States', 'Germany']</t>
         </is>
       </c>
       <c r="I106" t="inlineStr">
@@ -6314,7 +6314,7 @@
       <c r="G110" t="inlineStr"/>
       <c r="H110" t="inlineStr">
         <is>
-          <t>['Russia', 'Uruguay']</t>
+          <t>['Uruguay', 'Russia']</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
@@ -6412,7 +6412,7 @@
       <c r="G112" t="inlineStr"/>
       <c r="H112" t="inlineStr">
         <is>
-          <t>['Denmark', 'France']</t>
+          <t>['France', 'Denmark']</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
@@ -6461,7 +6461,7 @@
       <c r="G113" t="inlineStr"/>
       <c r="H113" t="inlineStr">
         <is>
-          <t>['Croatia', 'Nigeria']</t>
+          <t>['Nigeria', 'Croatia']</t>
         </is>
       </c>
       <c r="I113" t="inlineStr">
@@ -6520,7 +6520,7 @@
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>['Croatia', 'Argentina']</t>
+          <t>['Argentina', 'Croatia']</t>
         </is>
       </c>
       <c r="I114" t="inlineStr">
@@ -6579,7 +6579,7 @@
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>['Croatia', 'Nigeria']</t>
+          <t>['Nigeria', 'Croatia']</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
@@ -6638,7 +6638,7 @@
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>['Croatia', 'Argentina']</t>
+          <t>['Argentina', 'Croatia']</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
@@ -6736,7 +6736,7 @@
       <c r="G118" t="inlineStr"/>
       <c r="H118" t="inlineStr">
         <is>
-          <t>['Mexico', 'Germany']</t>
+          <t>['Germany', 'Mexico']</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
@@ -6795,7 +6795,7 @@
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>['Mexico', 'Sweden']</t>
+          <t>['Sweden', 'Mexico']</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
@@ -7001,7 +7001,7 @@
       <c r="G123" t="inlineStr"/>
       <c r="H123" t="inlineStr">
         <is>
-          <t>['Ecuador', 'Netherlands']</t>
+          <t>['Netherlands', 'Ecuador']</t>
         </is>
       </c>
       <c r="I123" t="inlineStr">
@@ -7060,7 +7060,7 @@
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>['Senegal', 'Netherlands']</t>
+          <t>['Netherlands', 'Senegal']</t>
         </is>
       </c>
       <c r="I124" t="inlineStr">
@@ -7119,7 +7119,7 @@
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>['Ecuador', 'Netherlands']</t>
+          <t>['Netherlands', 'Ecuador']</t>
         </is>
       </c>
       <c r="I125" t="inlineStr">
@@ -7178,7 +7178,7 @@
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>['Senegal', 'Netherlands']</t>
+          <t>['Netherlands', 'Senegal']</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
@@ -7227,7 +7227,7 @@
       <c r="G127" t="inlineStr"/>
       <c r="H127" t="inlineStr">
         <is>
-          <t>['England', 'Iran']</t>
+          <t>['Iran', 'England']</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
@@ -7286,7 +7286,7 @@
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>['England', 'United States']</t>
+          <t>['United States', 'England']</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
@@ -7335,7 +7335,7 @@
       <c r="G129" t="inlineStr"/>
       <c r="H129" t="inlineStr">
         <is>
-          <t>['Poland', 'Argentina']</t>
+          <t>['Argentina', 'Poland']</t>
         </is>
       </c>
       <c r="I129" t="inlineStr">
@@ -7669,7 +7669,7 @@
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>['Japan', 'Spain']</t>
+          <t>['Spain', 'Japan']</t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
@@ -7728,7 +7728,7 @@
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>['Japan', 'Costa Rica']</t>
+          <t>['Costa Rica', 'Japan']</t>
         </is>
       </c>
       <c r="I136" t="inlineStr">
@@ -7787,7 +7787,7 @@
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>['Japan', 'Spain']</t>
+          <t>['Spain', 'Japan']</t>
         </is>
       </c>
       <c r="I137" t="inlineStr">
@@ -8052,7 +8052,7 @@
       <c r="G142" t="inlineStr"/>
       <c r="H142" t="inlineStr">
         <is>
-          <t>['Portugal', 'Ghana']</t>
+          <t>['Ghana', 'Portugal']</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
@@ -8111,7 +8111,7 @@
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>['Portugal', 'Uruguay']</t>
+          <t>['Uruguay', 'Portugal']</t>
         </is>
       </c>
       <c r="I143" t="inlineStr">
@@ -8170,7 +8170,7 @@
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>['Portugal', 'South Korea']</t>
+          <t>['South Korea', 'Portugal']</t>
         </is>
       </c>
       <c r="I144" t="inlineStr">

--- a/data/out/kaggle/fifa/standings_wc_fifa_men.xlsx
+++ b/data/out/kaggle/fifa/standings_wc_fifa_men.xlsx
@@ -522,7 +522,7 @@
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['Argentina', 'Bulgaria', 'Italy']</t>
+          <t>['Bulgaria', 'Argentina', 'Italy']</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -571,7 +571,7 @@
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['Belgium', 'Paraguay', 'Mexico']</t>
+          <t>['Paraguay', 'Belgium', 'Mexico']</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -620,7 +620,7 @@
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['France', 'Soviet Union', 'Hungary']</t>
+          <t>['France', 'Hungary', 'Soviet Union']</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -669,7 +669,7 @@
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['Spain', 'Brazil', 'Northern Ireland']</t>
+          <t>['Brazil', 'Northern Ireland', 'Spain']</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -728,7 +728,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['Spain', 'Algeria', 'Brazil']</t>
+          <t>['Brazil', 'Algeria', 'Spain']</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -787,7 +787,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['Spain', 'Brazil', 'Northern Ireland']</t>
+          <t>['Brazil', 'Northern Ireland', 'Spain']</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -885,7 +885,7 @@
       <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['Poland', 'Portugal', 'Morocco']</t>
+          <t>['Portugal', 'Poland', 'Morocco']</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -944,7 +944,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['Poland', 'England', 'Portugal']</t>
+          <t>['England', 'Portugal', 'Poland']</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -1062,7 +1062,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['Poland', 'England', 'Morocco']</t>
+          <t>['England', 'Poland', 'Morocco']</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -1111,7 +1111,7 @@
       <c r="G13" t="inlineStr"/>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['Italy', 'Austria', 'Czechoslovakia']</t>
+          <t>['Austria', 'Czechoslovakia', 'Italy']</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -1160,7 +1160,7 @@
       <c r="G14" t="inlineStr"/>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['Argentina', 'Cameroon', 'Romania']</t>
+          <t>['Argentina', 'Romania', 'Cameroon']</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -1219,7 +1219,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['Argentina', 'Cameroon', 'Soviet Union']</t>
+          <t>['Argentina', 'Soviet Union', 'Cameroon']</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -1278,7 +1278,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['Argentina', 'Cameroon', 'Romania']</t>
+          <t>['Argentina', 'Romania', 'Cameroon']</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -1327,7 +1327,7 @@
       <c r="G17" t="inlineStr"/>
       <c r="H17" t="inlineStr">
         <is>
-          <t>['Costa Rica', 'Brazil', 'Scotland']</t>
+          <t>['Brazil', 'Costa Rica', 'Scotland']</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -1445,7 +1445,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>['Costa Rica', 'Brazil', 'Scotland']</t>
+          <t>['Brazil', 'Costa Rica', 'Scotland']</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -1494,7 +1494,7 @@
       <c r="G20" t="inlineStr"/>
       <c r="H20" t="inlineStr">
         <is>
-          <t>['West Germany', 'Colombia', 'Yugoslavia']</t>
+          <t>['Colombia', 'Yugoslavia', 'West Germany']</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -1543,7 +1543,7 @@
       <c r="G21" t="inlineStr"/>
       <c r="H21" t="inlineStr">
         <is>
-          <t>['Spain', 'Belgium', 'Uruguay']</t>
+          <t>['Belgium', 'Spain', 'Uruguay']</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -1592,7 +1592,7 @@
       <c r="G22" t="inlineStr"/>
       <c r="H22" t="inlineStr">
         <is>
-          <t>['Netherlands', 'England', 'Republic of Ireland']</t>
+          <t>['Republic of Ireland', 'England', 'Netherlands']</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -1651,7 +1651,7 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>['Netherlands', 'England', 'Egypt']</t>
+          <t>['England', 'Egypt', 'Netherlands']</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -1710,7 +1710,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>['Netherlands', 'England', 'Republic of Ireland']</t>
+          <t>['Republic of Ireland', 'England', 'Netherlands']</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -1808,7 +1808,7 @@
       <c r="G26" t="inlineStr"/>
       <c r="H26" t="inlineStr">
         <is>
-          <t>['Sweden', 'Cameroon', 'Brazil']</t>
+          <t>['Sweden', 'Brazil', 'Cameroon']</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
@@ -1867,7 +1867,7 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>['Sweden', 'Russia', 'Brazil']</t>
+          <t>['Sweden', 'Brazil', 'Russia']</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
@@ -1916,7 +1916,7 @@
       <c r="G28" t="inlineStr"/>
       <c r="H28" t="inlineStr">
         <is>
-          <t>['Spain', 'South Korea', 'Germany']</t>
+          <t>['Germany', 'South Korea', 'Spain']</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
@@ -1965,7 +1965,7 @@
       <c r="G29" t="inlineStr"/>
       <c r="H29" t="inlineStr">
         <is>
-          <t>['Argentina', 'Nigeria', 'Bulgaria']</t>
+          <t>['Bulgaria', 'Argentina', 'Nigeria']</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
@@ -2495,7 +2495,7 @@
       <c r="G39" t="inlineStr"/>
       <c r="H39" t="inlineStr">
         <is>
-          <t>['Nigeria', 'Paraguay']</t>
+          <t>['Paraguay', 'Nigeria']</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
@@ -2613,7 +2613,7 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>['Nigeria', 'Paraguay']</t>
+          <t>['Paraguay', 'Nigeria']</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
@@ -2662,7 +2662,7 @@
       <c r="G42" t="inlineStr"/>
       <c r="H42" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Mexico']</t>
+          <t>['Mexico', 'Netherlands']</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
@@ -2721,7 +2721,7 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Belgium']</t>
+          <t>['Belgium', 'Netherlands']</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
@@ -2780,7 +2780,7 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Mexico']</t>
+          <t>['Mexico', 'Netherlands']</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
@@ -2878,7 +2878,7 @@
       <c r="G46" t="inlineStr"/>
       <c r="H46" t="inlineStr">
         <is>
-          <t>['England', 'Romania']</t>
+          <t>['Romania', 'England']</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
@@ -2976,7 +2976,7 @@
       <c r="G48" t="inlineStr"/>
       <c r="H48" t="inlineStr">
         <is>
-          <t>['Denmark', 'Senegal']</t>
+          <t>['Senegal', 'Denmark']</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
@@ -3084,7 +3084,7 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>['Spain', 'Paraguay']</t>
+          <t>['Paraguay', 'Spain']</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
@@ -3133,7 +3133,7 @@
       <c r="G51" t="inlineStr"/>
       <c r="H51" t="inlineStr">
         <is>
-          <t>['Costa Rica', 'Brazil']</t>
+          <t>['Brazil', 'Costa Rica']</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
@@ -3251,7 +3251,7 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>['Costa Rica', 'Brazil']</t>
+          <t>['Brazil', 'Costa Rica']</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
@@ -3526,7 +3526,7 @@
       <c r="G58" t="inlineStr"/>
       <c r="H58" t="inlineStr">
         <is>
-          <t>['Cameroon', 'Germany']</t>
+          <t>['Germany', 'Cameroon']</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
@@ -3585,7 +3585,7 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>['Republic of Ireland', 'Germany']</t>
+          <t>['Germany', 'Republic of Ireland']</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
@@ -4076,7 +4076,7 @@
       <c r="G68" t="inlineStr"/>
       <c r="H68" t="inlineStr">
         <is>
-          <t>['Ecuador', 'Germany']</t>
+          <t>['Germany', 'Ecuador']</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
@@ -4223,7 +4223,7 @@
       <c r="G71" t="inlineStr"/>
       <c r="H71" t="inlineStr">
         <is>
-          <t>['Mexico', 'Portugal']</t>
+          <t>['Portugal', 'Mexico']</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
@@ -4272,7 +4272,7 @@
       <c r="G72" t="inlineStr"/>
       <c r="H72" t="inlineStr">
         <is>
-          <t>['Italy', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Italy']</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
@@ -4331,7 +4331,7 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>['Ghana', 'Italy']</t>
+          <t>['Italy', 'Ghana']</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
@@ -4380,7 +4380,7 @@
       <c r="G74" t="inlineStr"/>
       <c r="H74" t="inlineStr">
         <is>
-          <t>['Australia', 'Brazil']</t>
+          <t>['Brazil', 'Australia']</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
@@ -4498,7 +4498,7 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>['Australia', 'Brazil']</t>
+          <t>['Brazil', 'Australia']</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
@@ -4616,7 +4616,7 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>['Australia', 'Brazil']</t>
+          <t>['Brazil', 'Australia']</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
@@ -4724,7 +4724,7 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>['Switzerland', 'France']</t>
+          <t>['France', 'Switzerland']</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
@@ -4773,7 +4773,7 @@
       <c r="G81" t="inlineStr"/>
       <c r="H81" t="inlineStr">
         <is>
-          <t>['Spain', 'Ukraine']</t>
+          <t>['Ukraine', 'Spain']</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
@@ -4822,7 +4822,7 @@
       <c r="G82" t="inlineStr"/>
       <c r="H82" t="inlineStr">
         <is>
-          <t>['Uruguay', 'Mexico']</t>
+          <t>['Mexico', 'Uruguay']</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
@@ -4871,7 +4871,7 @@
       <c r="G83" t="inlineStr"/>
       <c r="H83" t="inlineStr">
         <is>
-          <t>['Argentina', 'South Korea']</t>
+          <t>['South Korea', 'Argentina']</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
@@ -4930,7 +4930,7 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>['Argentina', 'Greece']</t>
+          <t>['Greece', 'Argentina']</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
@@ -4989,7 +4989,7 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>['Argentina', 'South Korea']</t>
+          <t>['South Korea', 'Argentina']</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
@@ -5097,7 +5097,7 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>['England', 'Slovenia']</t>
+          <t>['Slovenia', 'England']</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
@@ -5205,7 +5205,7 @@
       <c r="G89" t="inlineStr"/>
       <c r="H89" t="inlineStr">
         <is>
-          <t>['Ghana', 'Germany']</t>
+          <t>['Germany', 'Ghana']</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
@@ -5254,7 +5254,7 @@
       <c r="G90" t="inlineStr"/>
       <c r="H90" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Japan']</t>
+          <t>['Japan', 'Netherlands']</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
@@ -5460,7 +5460,7 @@
       <c r="G94" t="inlineStr"/>
       <c r="H94" t="inlineStr">
         <is>
-          <t>['Spain', 'Chile']</t>
+          <t>['Chile', 'Spain']</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
@@ -5558,7 +5558,7 @@
       <c r="G96" t="inlineStr"/>
       <c r="H96" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Chile']</t>
+          <t>['Chile', 'Netherlands']</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
@@ -5607,7 +5607,7 @@
       <c r="G97" t="inlineStr"/>
       <c r="H97" t="inlineStr">
         <is>
-          <t>['Colombia', 'Ivory Coast']</t>
+          <t>['Ivory Coast', 'Colombia']</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
@@ -5666,7 +5666,7 @@
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>['Greece', 'Colombia']</t>
+          <t>['Colombia', 'Greece']</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
@@ -5725,7 +5725,7 @@
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>['Colombia', 'Ivory Coast']</t>
+          <t>['Ivory Coast', 'Colombia']</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
@@ -5784,7 +5784,7 @@
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>['Greece', 'Colombia']</t>
+          <t>['Colombia', 'Greece']</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
@@ -5833,7 +5833,7 @@
       <c r="G101" t="inlineStr"/>
       <c r="H101" t="inlineStr">
         <is>
-          <t>['Costa Rica', 'Italy']</t>
+          <t>['Italy', 'Costa Rica']</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
@@ -5941,7 +5941,7 @@
       <c r="G103" t="inlineStr"/>
       <c r="H103" t="inlineStr">
         <is>
-          <t>['Ecuador', 'France']</t>
+          <t>['France', 'Ecuador']</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
@@ -6000,7 +6000,7 @@
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>['Switzerland', 'France']</t>
+          <t>['France', 'Switzerland']</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
@@ -6098,7 +6098,7 @@
       <c r="G106" t="inlineStr"/>
       <c r="H106" t="inlineStr">
         <is>
-          <t>['United States', 'Germany']</t>
+          <t>['Germany', 'United States']</t>
         </is>
       </c>
       <c r="I106" t="inlineStr">
@@ -6206,7 +6206,7 @@
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>['Belgium', 'Russia']</t>
+          <t>['Russia', 'Belgium']</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
@@ -6314,7 +6314,7 @@
       <c r="G110" t="inlineStr"/>
       <c r="H110" t="inlineStr">
         <is>
-          <t>['Uruguay', 'Russia']</t>
+          <t>['Russia', 'Uruguay']</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
@@ -6363,7 +6363,7 @@
       <c r="G111" t="inlineStr"/>
       <c r="H111" t="inlineStr">
         <is>
-          <t>['Spain', 'Portugal']</t>
+          <t>['Portugal', 'Spain']</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
@@ -6461,7 +6461,7 @@
       <c r="G113" t="inlineStr"/>
       <c r="H113" t="inlineStr">
         <is>
-          <t>['Nigeria', 'Croatia']</t>
+          <t>['Croatia', 'Nigeria']</t>
         </is>
       </c>
       <c r="I113" t="inlineStr">
@@ -6579,7 +6579,7 @@
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>['Nigeria', 'Croatia']</t>
+          <t>['Croatia', 'Nigeria']</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
@@ -6844,7 +6844,7 @@
       <c r="G120" t="inlineStr"/>
       <c r="H120" t="inlineStr">
         <is>
-          <t>['Belgium', 'England']</t>
+          <t>['England', 'Belgium']</t>
         </is>
       </c>
       <c r="I120" t="inlineStr">
@@ -6893,7 +6893,7 @@
       <c r="G121" t="inlineStr"/>
       <c r="H121" t="inlineStr">
         <is>
-          <t>['Japan', 'Senegal']</t>
+          <t>['Senegal', 'Japan']</t>
         </is>
       </c>
       <c r="I121" t="inlineStr">
@@ -6952,7 +6952,7 @@
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>['Senegal', 'Colombia']</t>
+          <t>['Colombia', 'Senegal']</t>
         </is>
       </c>
       <c r="I122" t="inlineStr">
@@ -7001,7 +7001,7 @@
       <c r="G123" t="inlineStr"/>
       <c r="H123" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Ecuador']</t>
+          <t>['Ecuador', 'Netherlands']</t>
         </is>
       </c>
       <c r="I123" t="inlineStr">
@@ -7060,7 +7060,7 @@
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Senegal']</t>
+          <t>['Senegal', 'Netherlands']</t>
         </is>
       </c>
       <c r="I124" t="inlineStr">
@@ -7119,7 +7119,7 @@
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Ecuador']</t>
+          <t>['Ecuador', 'Netherlands']</t>
         </is>
       </c>
       <c r="I125" t="inlineStr">
@@ -7178,7 +7178,7 @@
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Senegal']</t>
+          <t>['Senegal', 'Netherlands']</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
@@ -7227,7 +7227,7 @@
       <c r="G127" t="inlineStr"/>
       <c r="H127" t="inlineStr">
         <is>
-          <t>['Iran', 'England']</t>
+          <t>['England', 'Iran']</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
@@ -7384,7 +7384,7 @@
       <c r="G130" t="inlineStr"/>
       <c r="H130" t="inlineStr">
         <is>
-          <t>['Australia', 'France']</t>
+          <t>['France', 'Australia']</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
@@ -7443,7 +7443,7 @@
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>['Tunisia', 'France']</t>
+          <t>['France', 'Tunisia']</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
@@ -7502,7 +7502,7 @@
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>['Australia', 'France']</t>
+          <t>['France', 'Australia']</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
@@ -7610,7 +7610,7 @@
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>['Spain', 'Germany']</t>
+          <t>['Germany', 'Spain']</t>
         </is>
       </c>
       <c r="I134" t="inlineStr">
@@ -8052,7 +8052,7 @@
       <c r="G142" t="inlineStr"/>
       <c r="H142" t="inlineStr">
         <is>
-          <t>['Ghana', 'Portugal']</t>
+          <t>['Portugal', 'Ghana']</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
@@ -8111,7 +8111,7 @@
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>['Uruguay', 'Portugal']</t>
+          <t>['Portugal', 'Uruguay']</t>
         </is>
       </c>
       <c r="I143" t="inlineStr">

--- a/data/out/kaggle/fifa/standings_wc_fifa_men.xlsx
+++ b/data/out/kaggle/fifa/standings_wc_fifa_men.xlsx
@@ -522,7 +522,7 @@
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['Bulgaria', 'Argentina', 'Italy']</t>
+          <t>['Italy', 'Argentina', 'Bulgaria']</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -571,7 +571,7 @@
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['Paraguay', 'Belgium', 'Mexico']</t>
+          <t>['Belgium', 'Mexico', 'Paraguay']</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -620,7 +620,7 @@
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['France', 'Hungary', 'Soviet Union']</t>
+          <t>['Soviet Union', 'Hungary', 'France']</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -669,7 +669,7 @@
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['Brazil', 'Northern Ireland', 'Spain']</t>
+          <t>['Northern Ireland', 'Spain', 'Brazil']</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -728,7 +728,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['Brazil', 'Algeria', 'Spain']</t>
+          <t>['Algeria', 'Spain', 'Brazil']</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -787,7 +787,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['Brazil', 'Northern Ireland', 'Spain']</t>
+          <t>['Northern Ireland', 'Spain', 'Brazil']</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -836,7 +836,7 @@
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['Uruguay', 'West Germany', 'Denmark']</t>
+          <t>['Denmark', 'Uruguay', 'West Germany']</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -885,7 +885,7 @@
       <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['Portugal', 'Poland', 'Morocco']</t>
+          <t>['Poland', 'Portugal', 'Morocco']</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -944,7 +944,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['England', 'Portugal', 'Poland']</t>
+          <t>['Poland', 'Portugal', 'England']</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -1003,7 +1003,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['England', 'Portugal', 'Morocco']</t>
+          <t>['Portugal', 'England', 'Morocco']</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -1062,7 +1062,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['England', 'Poland', 'Morocco']</t>
+          <t>['Poland', 'England', 'Morocco']</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -1111,7 +1111,7 @@
       <c r="G13" t="inlineStr"/>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['Austria', 'Czechoslovakia', 'Italy']</t>
+          <t>['Czechoslovakia', 'Italy', 'Austria']</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -1160,7 +1160,7 @@
       <c r="G14" t="inlineStr"/>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['Argentina', 'Romania', 'Cameroon']</t>
+          <t>['Romania', 'Argentina', 'Cameroon']</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -1219,7 +1219,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['Argentina', 'Soviet Union', 'Cameroon']</t>
+          <t>['Soviet Union', 'Argentina', 'Cameroon']</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -1278,7 +1278,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['Argentina', 'Romania', 'Cameroon']</t>
+          <t>['Romania', 'Argentina', 'Cameroon']</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -1327,7 +1327,7 @@
       <c r="G17" t="inlineStr"/>
       <c r="H17" t="inlineStr">
         <is>
-          <t>['Brazil', 'Costa Rica', 'Scotland']</t>
+          <t>['Scotland', 'Brazil', 'Costa Rica']</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -1386,7 +1386,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>['Sweden', 'Brazil', 'Scotland']</t>
+          <t>['Sweden', 'Scotland', 'Brazil']</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -1445,7 +1445,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>['Brazil', 'Costa Rica', 'Scotland']</t>
+          <t>['Scotland', 'Brazil', 'Costa Rica']</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -1494,7 +1494,7 @@
       <c r="G20" t="inlineStr"/>
       <c r="H20" t="inlineStr">
         <is>
-          <t>['Colombia', 'Yugoslavia', 'West Germany']</t>
+          <t>['Colombia', 'West Germany', 'Yugoslavia']</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -1651,7 +1651,7 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>['England', 'Egypt', 'Netherlands']</t>
+          <t>['Egypt', 'England', 'Netherlands']</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -1759,7 +1759,7 @@
       <c r="G25" t="inlineStr"/>
       <c r="H25" t="inlineStr">
         <is>
-          <t>['United States', 'Switzerland', 'Romania']</t>
+          <t>['Romania', 'United States', 'Switzerland']</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
@@ -1916,7 +1916,7 @@
       <c r="G28" t="inlineStr"/>
       <c r="H28" t="inlineStr">
         <is>
-          <t>['Germany', 'South Korea', 'Spain']</t>
+          <t>['South Korea', 'Spain', 'Germany']</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
@@ -1965,7 +1965,7 @@
       <c r="G29" t="inlineStr"/>
       <c r="H29" t="inlineStr">
         <is>
-          <t>['Bulgaria', 'Argentina', 'Nigeria']</t>
+          <t>['Nigeria', 'Argentina', 'Bulgaria']</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
@@ -2014,7 +2014,7 @@
       <c r="G30" t="inlineStr"/>
       <c r="H30" t="inlineStr">
         <is>
-          <t>['Republic of Ireland', 'Italy', 'Mexico']</t>
+          <t>['Republic of Ireland', 'Mexico', 'Italy']</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
@@ -2132,7 +2132,7 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>['Republic of Ireland', 'Italy', 'Mexico']</t>
+          <t>['Republic of Ireland', 'Mexico', 'Italy']</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
@@ -2181,7 +2181,7 @@
       <c r="G33" t="inlineStr"/>
       <c r="H33" t="inlineStr">
         <is>
-          <t>['Saudi Arabia', 'Belgium', 'Netherlands']</t>
+          <t>['Belgium', 'Netherlands', 'Saudi Arabia']</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
@@ -2397,7 +2397,7 @@
       <c r="G37" t="inlineStr"/>
       <c r="H37" t="inlineStr">
         <is>
-          <t>['Chile', 'Italy']</t>
+          <t>['Italy', 'Chile']</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
@@ -2446,7 +2446,7 @@
       <c r="G38" t="inlineStr"/>
       <c r="H38" t="inlineStr">
         <is>
-          <t>['France', 'Denmark']</t>
+          <t>['Denmark', 'France']</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
@@ -2495,7 +2495,7 @@
       <c r="G39" t="inlineStr"/>
       <c r="H39" t="inlineStr">
         <is>
-          <t>['Paraguay', 'Nigeria']</t>
+          <t>['Nigeria', 'Paraguay']</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
@@ -2613,7 +2613,7 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>['Paraguay', 'Nigeria']</t>
+          <t>['Nigeria', 'Paraguay']</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
@@ -2927,7 +2927,7 @@
       <c r="G47" t="inlineStr"/>
       <c r="H47" t="inlineStr">
         <is>
-          <t>['Argentina', 'Croatia']</t>
+          <t>['Croatia', 'Argentina']</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
@@ -2976,7 +2976,7 @@
       <c r="G48" t="inlineStr"/>
       <c r="H48" t="inlineStr">
         <is>
-          <t>['Senegal', 'Denmark']</t>
+          <t>['Denmark', 'Senegal']</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
@@ -3025,7 +3025,7 @@
       <c r="G49" t="inlineStr"/>
       <c r="H49" t="inlineStr">
         <is>
-          <t>['Spain', 'South Africa']</t>
+          <t>['South Africa', 'Spain']</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
@@ -3084,7 +3084,7 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>['Paraguay', 'Spain']</t>
+          <t>['Spain', 'Paraguay']</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
@@ -3192,7 +3192,7 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>['Turkey', 'Brazil']</t>
+          <t>['Brazil', 'Turkey']</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
@@ -3310,7 +3310,7 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>['Turkey', 'Brazil']</t>
+          <t>['Brazil', 'Turkey']</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
@@ -3359,7 +3359,7 @@
       <c r="G55" t="inlineStr"/>
       <c r="H55" t="inlineStr">
         <is>
-          <t>['United States', 'South Korea']</t>
+          <t>['South Korea', 'United States']</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
@@ -3418,7 +3418,7 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>['South Korea', 'Portugal']</t>
+          <t>['Portugal', 'South Korea']</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
@@ -3477,7 +3477,7 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>['United States', 'South Korea']</t>
+          <t>['South Korea', 'United States']</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
@@ -3585,7 +3585,7 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>['Germany', 'Republic of Ireland']</t>
+          <t>['Republic of Ireland', 'Germany']</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
@@ -3683,7 +3683,7 @@
       <c r="G61" t="inlineStr"/>
       <c r="H61" t="inlineStr">
         <is>
-          <t>['Italy', 'Mexico']</t>
+          <t>['Mexico', 'Italy']</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
@@ -3742,7 +3742,7 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>['Croatia', 'Mexico']</t>
+          <t>['Mexico', 'Croatia']</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
@@ -3801,7 +3801,7 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>['Italy', 'Mexico']</t>
+          <t>['Mexico', 'Italy']</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
@@ -3850,7 +3850,7 @@
       <c r="G64" t="inlineStr"/>
       <c r="H64" t="inlineStr">
         <is>
-          <t>['Russia', 'Japan']</t>
+          <t>['Japan', 'Russia']</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
@@ -3909,7 +3909,7 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>['Belgium', 'Japan']</t>
+          <t>['Japan', 'Belgium']</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
@@ -3968,7 +3968,7 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>['Russia', 'Japan']</t>
+          <t>['Japan', 'Russia']</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
@@ -4027,7 +4027,7 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>['Belgium', 'Japan']</t>
+          <t>['Japan', 'Belgium']</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
@@ -4174,7 +4174,7 @@
       <c r="G70" t="inlineStr"/>
       <c r="H70" t="inlineStr">
         <is>
-          <t>['Argentina', 'Netherlands']</t>
+          <t>['Netherlands', 'Argentina']</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
@@ -4272,7 +4272,7 @@
       <c r="G72" t="inlineStr"/>
       <c r="H72" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Italy']</t>
+          <t>['Italy', 'Czech Republic']</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
@@ -4380,7 +4380,7 @@
       <c r="G74" t="inlineStr"/>
       <c r="H74" t="inlineStr">
         <is>
-          <t>['Brazil', 'Australia']</t>
+          <t>['Australia', 'Brazil']</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
@@ -4439,7 +4439,7 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>['Brazil', 'Croatia']</t>
+          <t>['Croatia', 'Brazil']</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
@@ -4498,7 +4498,7 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>['Brazil', 'Australia']</t>
+          <t>['Australia', 'Brazil']</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
@@ -4557,7 +4557,7 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>['Brazil', 'Croatia']</t>
+          <t>['Croatia', 'Brazil']</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
@@ -4616,7 +4616,7 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>['Brazil', 'Australia']</t>
+          <t>['Australia', 'Brazil']</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
@@ -4665,7 +4665,7 @@
       <c r="G79" t="inlineStr"/>
       <c r="H79" t="inlineStr">
         <is>
-          <t>['Switzerland', 'South Korea']</t>
+          <t>['South Korea', 'Switzerland']</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
@@ -5038,7 +5038,7 @@
       <c r="G86" t="inlineStr"/>
       <c r="H86" t="inlineStr">
         <is>
-          <t>['United States', 'Slovenia']</t>
+          <t>['Slovenia', 'United States']</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
@@ -5156,7 +5156,7 @@
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>['United States', 'England']</t>
+          <t>['England', 'United States']</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
@@ -5205,7 +5205,7 @@
       <c r="G89" t="inlineStr"/>
       <c r="H89" t="inlineStr">
         <is>
-          <t>['Germany', 'Ghana']</t>
+          <t>['Ghana', 'Germany']</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
@@ -5303,7 +5303,7 @@
       <c r="G91" t="inlineStr"/>
       <c r="H91" t="inlineStr">
         <is>
-          <t>['Paraguay', 'Italy']</t>
+          <t>['Italy', 'Paraguay']</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
@@ -5362,7 +5362,7 @@
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>['Paraguay', 'Slovakia']</t>
+          <t>['Slovakia', 'Paraguay']</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
@@ -5411,7 +5411,7 @@
       <c r="G93" t="inlineStr"/>
       <c r="H93" t="inlineStr">
         <is>
-          <t>['Brazil', 'Portugal']</t>
+          <t>['Portugal', 'Brazil']</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
@@ -5460,7 +5460,7 @@
       <c r="G94" t="inlineStr"/>
       <c r="H94" t="inlineStr">
         <is>
-          <t>['Chile', 'Spain']</t>
+          <t>['Spain', 'Chile']</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
@@ -5509,7 +5509,7 @@
       <c r="G95" t="inlineStr"/>
       <c r="H95" t="inlineStr">
         <is>
-          <t>['Brazil', 'Mexico']</t>
+          <t>['Mexico', 'Brazil']</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
@@ -5558,7 +5558,7 @@
       <c r="G96" t="inlineStr"/>
       <c r="H96" t="inlineStr">
         <is>
-          <t>['Chile', 'Netherlands']</t>
+          <t>['Netherlands', 'Chile']</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
@@ -5607,7 +5607,7 @@
       <c r="G97" t="inlineStr"/>
       <c r="H97" t="inlineStr">
         <is>
-          <t>['Ivory Coast', 'Colombia']</t>
+          <t>['Colombia', 'Ivory Coast']</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
@@ -5725,7 +5725,7 @@
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>['Ivory Coast', 'Colombia']</t>
+          <t>['Colombia', 'Ivory Coast']</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
@@ -5892,7 +5892,7 @@
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>['Costa Rica', 'Uruguay']</t>
+          <t>['Uruguay', 'Costa Rica']</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
@@ -6049,7 +6049,7 @@
       <c r="G105" t="inlineStr"/>
       <c r="H105" t="inlineStr">
         <is>
-          <t>['Argentina', 'Nigeria']</t>
+          <t>['Nigeria', 'Argentina']</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
@@ -6098,7 +6098,7 @@
       <c r="G106" t="inlineStr"/>
       <c r="H106" t="inlineStr">
         <is>
-          <t>['Germany', 'United States']</t>
+          <t>['United States', 'Germany']</t>
         </is>
       </c>
       <c r="I106" t="inlineStr">
@@ -6147,7 +6147,7 @@
       <c r="G107" t="inlineStr"/>
       <c r="H107" t="inlineStr">
         <is>
-          <t>['Belgium', 'Algeria']</t>
+          <t>['Algeria', 'Belgium']</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
@@ -6206,7 +6206,7 @@
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>['Russia', 'Belgium']</t>
+          <t>['Belgium', 'Russia']</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
@@ -6265,7 +6265,7 @@
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>['Belgium', 'Algeria']</t>
+          <t>['Algeria', 'Belgium']</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
@@ -6412,7 +6412,7 @@
       <c r="G112" t="inlineStr"/>
       <c r="H112" t="inlineStr">
         <is>
-          <t>['France', 'Denmark']</t>
+          <t>['Denmark', 'France']</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
@@ -6520,7 +6520,7 @@
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>['Argentina', 'Croatia']</t>
+          <t>['Croatia', 'Argentina']</t>
         </is>
       </c>
       <c r="I114" t="inlineStr">
@@ -6638,7 +6638,7 @@
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>['Argentina', 'Croatia']</t>
+          <t>['Croatia', 'Argentina']</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
@@ -6687,7 +6687,7 @@
       <c r="G117" t="inlineStr"/>
       <c r="H117" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Brazil']</t>
+          <t>['Brazil', 'Switzerland']</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
@@ -6736,7 +6736,7 @@
       <c r="G118" t="inlineStr"/>
       <c r="H118" t="inlineStr">
         <is>
-          <t>['Germany', 'Mexico']</t>
+          <t>['Mexico', 'Germany']</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
@@ -6844,7 +6844,7 @@
       <c r="G120" t="inlineStr"/>
       <c r="H120" t="inlineStr">
         <is>
-          <t>['England', 'Belgium']</t>
+          <t>['Belgium', 'England']</t>
         </is>
       </c>
       <c r="I120" t="inlineStr">
@@ -6893,7 +6893,7 @@
       <c r="G121" t="inlineStr"/>
       <c r="H121" t="inlineStr">
         <is>
-          <t>['Senegal', 'Japan']</t>
+          <t>['Japan', 'Senegal']</t>
         </is>
       </c>
       <c r="I121" t="inlineStr">
@@ -7001,7 +7001,7 @@
       <c r="G123" t="inlineStr"/>
       <c r="H123" t="inlineStr">
         <is>
-          <t>['Ecuador', 'Netherlands']</t>
+          <t>['Netherlands', 'Ecuador']</t>
         </is>
       </c>
       <c r="I123" t="inlineStr">
@@ -7119,7 +7119,7 @@
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>['Ecuador', 'Netherlands']</t>
+          <t>['Netherlands', 'Ecuador']</t>
         </is>
       </c>
       <c r="I125" t="inlineStr">
@@ -7227,7 +7227,7 @@
       <c r="G127" t="inlineStr"/>
       <c r="H127" t="inlineStr">
         <is>
-          <t>['England', 'Iran']</t>
+          <t>['Iran', 'England']</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
@@ -7286,7 +7286,7 @@
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>['United States', 'England']</t>
+          <t>['England', 'United States']</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
@@ -7335,7 +7335,7 @@
       <c r="G129" t="inlineStr"/>
       <c r="H129" t="inlineStr">
         <is>
-          <t>['Argentina', 'Poland']</t>
+          <t>['Poland', 'Argentina']</t>
         </is>
       </c>
       <c r="I129" t="inlineStr">
@@ -7384,7 +7384,7 @@
       <c r="G130" t="inlineStr"/>
       <c r="H130" t="inlineStr">
         <is>
-          <t>['France', 'Australia']</t>
+          <t>['Australia', 'France']</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
@@ -7443,7 +7443,7 @@
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>['France', 'Tunisia']</t>
+          <t>['Tunisia', 'France']</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
@@ -7502,7 +7502,7 @@
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>['France', 'Australia']</t>
+          <t>['Australia', 'France']</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
@@ -7551,7 +7551,7 @@
       <c r="G133" t="inlineStr"/>
       <c r="H133" t="inlineStr">
         <is>
-          <t>['Spain', 'Japan']</t>
+          <t>['Japan', 'Spain']</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
@@ -7610,7 +7610,7 @@
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>['Germany', 'Spain']</t>
+          <t>['Spain', 'Germany']</t>
         </is>
       </c>
       <c r="I134" t="inlineStr">
@@ -7669,7 +7669,7 @@
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>['Spain', 'Japan']</t>
+          <t>['Japan', 'Spain']</t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
@@ -7728,7 +7728,7 @@
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>['Costa Rica', 'Japan']</t>
+          <t>['Japan', 'Costa Rica']</t>
         </is>
       </c>
       <c r="I136" t="inlineStr">
@@ -7787,7 +7787,7 @@
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>['Spain', 'Japan']</t>
+          <t>['Japan', 'Spain']</t>
         </is>
       </c>
       <c r="I137" t="inlineStr">
@@ -7885,7 +7885,7 @@
       <c r="G139" t="inlineStr"/>
       <c r="H139" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Brazil']</t>
+          <t>['Brazil', 'Switzerland']</t>
         </is>
       </c>
       <c r="I139" t="inlineStr">
@@ -8003,7 +8003,7 @@
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Brazil']</t>
+          <t>['Brazil', 'Switzerland']</t>
         </is>
       </c>
       <c r="I141" t="inlineStr">
@@ -8170,7 +8170,7 @@
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>['South Korea', 'Portugal']</t>
+          <t>['Portugal', 'South Korea']</t>
         </is>
       </c>
       <c r="I144" t="inlineStr">

--- a/data/out/kaggle/fifa/standings_wc_fifa_men.xlsx
+++ b/data/out/kaggle/fifa/standings_wc_fifa_men.xlsx
@@ -522,7 +522,7 @@
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['Italy', 'Argentina', 'Bulgaria']</t>
+          <t>['Argentina', 'Italy', 'Bulgaria']</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -571,7 +571,7 @@
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['Belgium', 'Mexico', 'Paraguay']</t>
+          <t>['Mexico', 'Paraguay', 'Belgium']</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -669,7 +669,7 @@
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['Northern Ireland', 'Spain', 'Brazil']</t>
+          <t>['Northern Ireland', 'Brazil', 'Spain']</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -728,7 +728,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['Algeria', 'Spain', 'Brazil']</t>
+          <t>['Algeria', 'Brazil', 'Spain']</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -787,7 +787,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['Northern Ireland', 'Spain', 'Brazil']</t>
+          <t>['Northern Ireland', 'Brazil', 'Spain']</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -836,7 +836,7 @@
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['Denmark', 'Uruguay', 'West Germany']</t>
+          <t>['Uruguay', 'Denmark', 'West Germany']</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -885,7 +885,7 @@
       <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['Poland', 'Portugal', 'Morocco']</t>
+          <t>['Portugal', 'Morocco', 'Poland']</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -944,7 +944,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['Poland', 'Portugal', 'England']</t>
+          <t>['Portugal', 'England', 'Poland']</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -1003,7 +1003,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['Portugal', 'England', 'Morocco']</t>
+          <t>['Portugal', 'Morocco', 'England']</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -1062,7 +1062,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['Poland', 'England', 'Morocco']</t>
+          <t>['Morocco', 'England', 'Poland']</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -1111,7 +1111,7 @@
       <c r="G13" t="inlineStr"/>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['Czechoslovakia', 'Italy', 'Austria']</t>
+          <t>['Italy', 'Czechoslovakia', 'Austria']</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -1160,7 +1160,7 @@
       <c r="G14" t="inlineStr"/>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['Romania', 'Argentina', 'Cameroon']</t>
+          <t>['Argentina', 'Romania', 'Cameroon']</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -1219,7 +1219,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['Soviet Union', 'Argentina', 'Cameroon']</t>
+          <t>['Argentina', 'Soviet Union', 'Cameroon']</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -1278,7 +1278,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['Romania', 'Argentina', 'Cameroon']</t>
+          <t>['Argentina', 'Romania', 'Cameroon']</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -1327,7 +1327,7 @@
       <c r="G17" t="inlineStr"/>
       <c r="H17" t="inlineStr">
         <is>
-          <t>['Scotland', 'Brazil', 'Costa Rica']</t>
+          <t>['Costa Rica', 'Scotland', 'Brazil']</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -1445,7 +1445,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>['Scotland', 'Brazil', 'Costa Rica']</t>
+          <t>['Costa Rica', 'Scotland', 'Brazil']</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -1494,7 +1494,7 @@
       <c r="G20" t="inlineStr"/>
       <c r="H20" t="inlineStr">
         <is>
-          <t>['Colombia', 'West Germany', 'Yugoslavia']</t>
+          <t>['Yugoslavia', 'Colombia', 'West Germany']</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -1543,7 +1543,7 @@
       <c r="G21" t="inlineStr"/>
       <c r="H21" t="inlineStr">
         <is>
-          <t>['Belgium', 'Spain', 'Uruguay']</t>
+          <t>['Belgium', 'Uruguay', 'Spain']</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -1592,7 +1592,7 @@
       <c r="G22" t="inlineStr"/>
       <c r="H22" t="inlineStr">
         <is>
-          <t>['Republic of Ireland', 'England', 'Netherlands']</t>
+          <t>['Netherlands', 'England', 'Republic of Ireland']</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -1651,7 +1651,7 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>['Egypt', 'England', 'Netherlands']</t>
+          <t>['Egypt', 'Netherlands', 'England']</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -1710,7 +1710,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>['Republic of Ireland', 'England', 'Netherlands']</t>
+          <t>['Netherlands', 'England', 'Republic of Ireland']</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -1759,7 +1759,7 @@
       <c r="G25" t="inlineStr"/>
       <c r="H25" t="inlineStr">
         <is>
-          <t>['Romania', 'United States', 'Switzerland']</t>
+          <t>['United States', 'Switzerland', 'Romania']</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
@@ -1867,7 +1867,7 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>['Sweden', 'Brazil', 'Russia']</t>
+          <t>['Sweden', 'Russia', 'Brazil']</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
@@ -1916,7 +1916,7 @@
       <c r="G28" t="inlineStr"/>
       <c r="H28" t="inlineStr">
         <is>
-          <t>['South Korea', 'Spain', 'Germany']</t>
+          <t>['Germany', 'South Korea', 'Spain']</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
@@ -1965,7 +1965,7 @@
       <c r="G29" t="inlineStr"/>
       <c r="H29" t="inlineStr">
         <is>
-          <t>['Nigeria', 'Argentina', 'Bulgaria']</t>
+          <t>['Argentina', 'Nigeria', 'Bulgaria']</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
@@ -2014,7 +2014,7 @@
       <c r="G30" t="inlineStr"/>
       <c r="H30" t="inlineStr">
         <is>
-          <t>['Republic of Ireland', 'Mexico', 'Italy']</t>
+          <t>['Mexico', 'Italy', 'Republic of Ireland']</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
@@ -2073,7 +2073,7 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>['Norway', 'Republic of Ireland', 'Italy']</t>
+          <t>['Norway', 'Italy', 'Republic of Ireland']</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
@@ -2132,7 +2132,7 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>['Republic of Ireland', 'Mexico', 'Italy']</t>
+          <t>['Mexico', 'Italy', 'Republic of Ireland']</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
@@ -2289,7 +2289,7 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>['Brazil', 'Morocco']</t>
+          <t>['Morocco', 'Brazil']</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
@@ -2397,7 +2397,7 @@
       <c r="G37" t="inlineStr"/>
       <c r="H37" t="inlineStr">
         <is>
-          <t>['Italy', 'Chile']</t>
+          <t>['Chile', 'Italy']</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
@@ -2554,7 +2554,7 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>['Spain', 'Nigeria']</t>
+          <t>['Nigeria', 'Spain']</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
@@ -2662,7 +2662,7 @@
       <c r="G42" t="inlineStr"/>
       <c r="H42" t="inlineStr">
         <is>
-          <t>['Mexico', 'Netherlands']</t>
+          <t>['Netherlands', 'Mexico']</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
@@ -2721,7 +2721,7 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>['Belgium', 'Netherlands']</t>
+          <t>['Netherlands', 'Belgium']</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
@@ -2780,7 +2780,7 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>['Mexico', 'Netherlands']</t>
+          <t>['Netherlands', 'Mexico']</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
@@ -2927,7 +2927,7 @@
       <c r="G47" t="inlineStr"/>
       <c r="H47" t="inlineStr">
         <is>
-          <t>['Croatia', 'Argentina']</t>
+          <t>['Argentina', 'Croatia']</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
@@ -2976,7 +2976,7 @@
       <c r="G48" t="inlineStr"/>
       <c r="H48" t="inlineStr">
         <is>
-          <t>['Denmark', 'Senegal']</t>
+          <t>['Senegal', 'Denmark']</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
@@ -3084,7 +3084,7 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>['Spain', 'Paraguay']</t>
+          <t>['Paraguay', 'Spain']</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
@@ -3133,7 +3133,7 @@
       <c r="G51" t="inlineStr"/>
       <c r="H51" t="inlineStr">
         <is>
-          <t>['Brazil', 'Costa Rica']</t>
+          <t>['Costa Rica', 'Brazil']</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
@@ -3192,7 +3192,7 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>['Brazil', 'Turkey']</t>
+          <t>['Turkey', 'Brazil']</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
@@ -3251,7 +3251,7 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>['Brazil', 'Costa Rica']</t>
+          <t>['Costa Rica', 'Brazil']</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
@@ -3310,7 +3310,7 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>['Brazil', 'Turkey']</t>
+          <t>['Turkey', 'Brazil']</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
@@ -3359,7 +3359,7 @@
       <c r="G55" t="inlineStr"/>
       <c r="H55" t="inlineStr">
         <is>
-          <t>['South Korea', 'United States']</t>
+          <t>['United States', 'South Korea']</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
@@ -3477,7 +3477,7 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>['South Korea', 'United States']</t>
+          <t>['United States', 'South Korea']</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
@@ -3585,7 +3585,7 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>['Republic of Ireland', 'Germany']</t>
+          <t>['Germany', 'Republic of Ireland']</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
@@ -3850,7 +3850,7 @@
       <c r="G64" t="inlineStr"/>
       <c r="H64" t="inlineStr">
         <is>
-          <t>['Japan', 'Russia']</t>
+          <t>['Russia', 'Japan']</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
@@ -3909,7 +3909,7 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>['Japan', 'Belgium']</t>
+          <t>['Belgium', 'Japan']</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
@@ -3968,7 +3968,7 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>['Japan', 'Russia']</t>
+          <t>['Russia', 'Japan']</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
@@ -4027,7 +4027,7 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>['Japan', 'Belgium']</t>
+          <t>['Belgium', 'Japan']</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
@@ -4174,7 +4174,7 @@
       <c r="G70" t="inlineStr"/>
       <c r="H70" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Argentina']</t>
+          <t>['Argentina', 'Netherlands']</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
@@ -4272,7 +4272,7 @@
       <c r="G72" t="inlineStr"/>
       <c r="H72" t="inlineStr">
         <is>
-          <t>['Italy', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Italy']</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
@@ -4665,7 +4665,7 @@
       <c r="G79" t="inlineStr"/>
       <c r="H79" t="inlineStr">
         <is>
-          <t>['South Korea', 'Switzerland']</t>
+          <t>['Switzerland', 'South Korea']</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
@@ -4724,7 +4724,7 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>['France', 'Switzerland']</t>
+          <t>['Switzerland', 'France']</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
@@ -4871,7 +4871,7 @@
       <c r="G83" t="inlineStr"/>
       <c r="H83" t="inlineStr">
         <is>
-          <t>['South Korea', 'Argentina']</t>
+          <t>['Argentina', 'South Korea']</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
@@ -4930,7 +4930,7 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>['Greece', 'Argentina']</t>
+          <t>['Argentina', 'Greece']</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
@@ -4989,7 +4989,7 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>['South Korea', 'Argentina']</t>
+          <t>['Argentina', 'South Korea']</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
@@ -5038,7 +5038,7 @@
       <c r="G86" t="inlineStr"/>
       <c r="H86" t="inlineStr">
         <is>
-          <t>['Slovenia', 'United States']</t>
+          <t>['United States', 'Slovenia']</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
@@ -5097,7 +5097,7 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>['Slovenia', 'England']</t>
+          <t>['England', 'Slovenia']</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
@@ -5156,7 +5156,7 @@
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>['England', 'United States']</t>
+          <t>['United States', 'England']</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
@@ -5205,7 +5205,7 @@
       <c r="G89" t="inlineStr"/>
       <c r="H89" t="inlineStr">
         <is>
-          <t>['Ghana', 'Germany']</t>
+          <t>['Germany', 'Ghana']</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
@@ -5254,7 +5254,7 @@
       <c r="G90" t="inlineStr"/>
       <c r="H90" t="inlineStr">
         <is>
-          <t>['Japan', 'Netherlands']</t>
+          <t>['Netherlands', 'Japan']</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
@@ -5460,7 +5460,7 @@
       <c r="G94" t="inlineStr"/>
       <c r="H94" t="inlineStr">
         <is>
-          <t>['Spain', 'Chile']</t>
+          <t>['Chile', 'Spain']</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
@@ -5607,7 +5607,7 @@
       <c r="G97" t="inlineStr"/>
       <c r="H97" t="inlineStr">
         <is>
-          <t>['Colombia', 'Ivory Coast']</t>
+          <t>['Ivory Coast', 'Colombia']</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
@@ -5666,7 +5666,7 @@
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>['Colombia', 'Greece']</t>
+          <t>['Greece', 'Colombia']</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
@@ -5725,7 +5725,7 @@
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>['Colombia', 'Ivory Coast']</t>
+          <t>['Ivory Coast', 'Colombia']</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
@@ -5784,7 +5784,7 @@
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>['Colombia', 'Greece']</t>
+          <t>['Greece', 'Colombia']</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
@@ -5833,7 +5833,7 @@
       <c r="G101" t="inlineStr"/>
       <c r="H101" t="inlineStr">
         <is>
-          <t>['Italy', 'Costa Rica']</t>
+          <t>['Costa Rica', 'Italy']</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
@@ -5892,7 +5892,7 @@
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>['Uruguay', 'Costa Rica']</t>
+          <t>['Costa Rica', 'Uruguay']</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
@@ -5941,7 +5941,7 @@
       <c r="G103" t="inlineStr"/>
       <c r="H103" t="inlineStr">
         <is>
-          <t>['France', 'Ecuador']</t>
+          <t>['Ecuador', 'France']</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
@@ -6000,7 +6000,7 @@
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>['France', 'Switzerland']</t>
+          <t>['Switzerland', 'France']</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
@@ -6049,7 +6049,7 @@
       <c r="G105" t="inlineStr"/>
       <c r="H105" t="inlineStr">
         <is>
-          <t>['Nigeria', 'Argentina']</t>
+          <t>['Argentina', 'Nigeria']</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
@@ -6147,7 +6147,7 @@
       <c r="G107" t="inlineStr"/>
       <c r="H107" t="inlineStr">
         <is>
-          <t>['Algeria', 'Belgium']</t>
+          <t>['Belgium', 'Algeria']</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
@@ -6265,7 +6265,7 @@
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>['Algeria', 'Belgium']</t>
+          <t>['Belgium', 'Algeria']</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
@@ -6461,7 +6461,7 @@
       <c r="G113" t="inlineStr"/>
       <c r="H113" t="inlineStr">
         <is>
-          <t>['Croatia', 'Nigeria']</t>
+          <t>['Nigeria', 'Croatia']</t>
         </is>
       </c>
       <c r="I113" t="inlineStr">
@@ -6520,7 +6520,7 @@
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>['Croatia', 'Argentina']</t>
+          <t>['Argentina', 'Croatia']</t>
         </is>
       </c>
       <c r="I114" t="inlineStr">
@@ -6579,7 +6579,7 @@
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>['Croatia', 'Nigeria']</t>
+          <t>['Nigeria', 'Croatia']</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
@@ -6638,7 +6638,7 @@
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>['Croatia', 'Argentina']</t>
+          <t>['Argentina', 'Croatia']</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
@@ -6687,7 +6687,7 @@
       <c r="G117" t="inlineStr"/>
       <c r="H117" t="inlineStr">
         <is>
-          <t>['Brazil', 'Switzerland']</t>
+          <t>['Switzerland', 'Brazil']</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
@@ -6893,7 +6893,7 @@
       <c r="G121" t="inlineStr"/>
       <c r="H121" t="inlineStr">
         <is>
-          <t>['Japan', 'Senegal']</t>
+          <t>['Senegal', 'Japan']</t>
         </is>
       </c>
       <c r="I121" t="inlineStr">
@@ -7060,7 +7060,7 @@
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>['Senegal', 'Netherlands']</t>
+          <t>['Netherlands', 'Senegal']</t>
         </is>
       </c>
       <c r="I124" t="inlineStr">
@@ -7178,7 +7178,7 @@
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>['Senegal', 'Netherlands']</t>
+          <t>['Netherlands', 'Senegal']</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
@@ -7286,7 +7286,7 @@
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>['England', 'United States']</t>
+          <t>['United States', 'England']</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
@@ -7335,7 +7335,7 @@
       <c r="G129" t="inlineStr"/>
       <c r="H129" t="inlineStr">
         <is>
-          <t>['Poland', 'Argentina']</t>
+          <t>['Argentina', 'Poland']</t>
         </is>
       </c>
       <c r="I129" t="inlineStr">
@@ -7610,7 +7610,7 @@
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>['Spain', 'Germany']</t>
+          <t>['Germany', 'Spain']</t>
         </is>
       </c>
       <c r="I134" t="inlineStr">
@@ -7669,7 +7669,7 @@
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>['Japan', 'Spain']</t>
+          <t>['Spain', 'Japan']</t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
@@ -7728,7 +7728,7 @@
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>['Japan', 'Costa Rica']</t>
+          <t>['Costa Rica', 'Japan']</t>
         </is>
       </c>
       <c r="I136" t="inlineStr">
@@ -7787,7 +7787,7 @@
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>['Japan', 'Spain']</t>
+          <t>['Spain', 'Japan']</t>
         </is>
       </c>
       <c r="I137" t="inlineStr">
@@ -7836,7 +7836,7 @@
       <c r="G138" t="inlineStr"/>
       <c r="H138" t="inlineStr">
         <is>
-          <t>['Croatia', 'Morocco']</t>
+          <t>['Morocco', 'Croatia']</t>
         </is>
       </c>
       <c r="I138" t="inlineStr">
@@ -7885,7 +7885,7 @@
       <c r="G139" t="inlineStr"/>
       <c r="H139" t="inlineStr">
         <is>
-          <t>['Brazil', 'Switzerland']</t>
+          <t>['Switzerland', 'Brazil']</t>
         </is>
       </c>
       <c r="I139" t="inlineStr">
@@ -7944,7 +7944,7 @@
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>['Serbia', 'Brazil']</t>
+          <t>['Brazil', 'Serbia']</t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
@@ -8003,7 +8003,7 @@
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>['Brazil', 'Switzerland']</t>
+          <t>['Switzerland', 'Brazil']</t>
         </is>
       </c>
       <c r="I141" t="inlineStr">
